--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="12195" windowHeight="6630"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="12195" windowHeight="6630" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -2602,9 +2602,6 @@
     <t>ProductCode</t>
   </si>
   <si>
-    <t>CodeWerkpakket</t>
-  </si>
-  <si>
     <t>divisie</t>
   </si>
   <si>
@@ -2638,9 +2635,6 @@
     <t>doelstelling</t>
   </si>
   <si>
-    <t>[CodeWerkpakket]</t>
-  </si>
-  <si>
     <t>TO DG AGRO LN</t>
   </si>
   <si>
@@ -2651,6 +2645,12 @@
   </si>
   <si>
     <t>productcode</t>
+  </si>
+  <si>
+    <t>WerkpakketCode</t>
+  </si>
+  <si>
+    <t>[WerkpakketCode]</t>
   </si>
 </sst>
 </file>
@@ -3103,9 +3103,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3119,16 +3119,16 @@
   <sheetData>
     <row r="1" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>479</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>475</v>
@@ -3137,24 +3137,24 @@
         <v>480</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="H1" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="I1" s="5" t="s">
         <v>867</v>
       </c>
-      <c r="I1" s="5" t="s">
-        <v>868</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="2" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>860</v>
@@ -3169,13 +3169,13 @@
         <v>292</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>478</v>
@@ -15889,7 +15889,7 @@
         <v>859</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -15973,9 +15973,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -15985,15 +15983,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>873</v>
+        <v>877</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>861</v>
+        <v>876</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>478</v>
@@ -16204,7 +16202,7 @@
         <v>211</v>
       </c>
       <c r="B28" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
@@ -16988,7 +16986,7 @@
         <v>269</v>
       </c>
       <c r="B126" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -17540,7 +17538,7 @@
         <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="12195" windowHeight="6630" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="90" windowWidth="12195" windowHeight="6630"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -3411,9 +3411,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18279,7 +18279,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="12195" windowHeight="6630"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="12195" windowHeight="6570" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -2453,9 +2453,6 @@
     <t>voorziening</t>
   </si>
   <si>
-    <t>[Applicatie,]</t>
-  </si>
-  <si>
     <t>Incidentmanagement Crisisbeheersing</t>
   </si>
   <si>
@@ -2942,15 +2939,9 @@
     <t>Office</t>
   </si>
   <si>
-    <t>Spin,Riskbox (RACX 2015/Access),Mail,Office-excel,digital dossier,rabbit,SMG,APEX,Cros (voorheen Ebs),Fyscon,Share intern en met externen</t>
-  </si>
-  <si>
     <t>M-Spin</t>
   </si>
   <si>
-    <t>Mail,www,fax,telefoon,post,App social media,MOS,form desk,outlook (App),voice log,ISI,SPIN,Digitaal dossier,I&amp;R,PDF</t>
-  </si>
-  <si>
     <t>MOS,intranet,Excel,Spin,Spin-bedrijvenbak,Spin-L&amp;N,Maptiv,ISI,Formdesk,digitaal dossier</t>
   </si>
   <si>
@@ -2958,6 +2949,15 @@
   </si>
   <si>
     <t>Office,Spin,ISI</t>
+  </si>
+  <si>
+    <t>Spin,Riskbox (RACX 2015/Access),Mail,Office-excel,digitaal dossier,rabbit,SMG,APEX,Cros (voorheen Ebs),Fyscon,Share intern en met externen</t>
+  </si>
+  <si>
+    <t>[Voorziening,]</t>
+  </si>
+  <si>
+    <t>Mail,www,fax,telefoon,post,App social media,MOS,form desk,outlook (App),voice log,ISI,Spin,Digitaal dossier,I&amp;R,PDF</t>
   </si>
 </sst>
 </file>
@@ -3411,7 +3411,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J380"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
     </sheetView>
@@ -16312,7 +16312,7 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -16320,7 +16320,7 @@
         <v>19</v>
       </c>
       <c r="B4" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -16328,7 +16328,7 @@
         <v>17</v>
       </c>
       <c r="B5" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -16336,7 +16336,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
@@ -16344,7 +16344,7 @@
         <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
@@ -16352,7 +16352,7 @@
         <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
@@ -16360,7 +16360,7 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
@@ -16368,7 +16368,7 @@
         <v>26</v>
       </c>
       <c r="B10" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
@@ -16376,7 +16376,7 @@
         <v>27</v>
       </c>
       <c r="B11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
@@ -16384,7 +16384,7 @@
         <v>28</v>
       </c>
       <c r="B12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
@@ -16392,7 +16392,7 @@
         <v>25</v>
       </c>
       <c r="B13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
@@ -16400,7 +16400,7 @@
         <v>116</v>
       </c>
       <c r="B14" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
@@ -16408,7 +16408,7 @@
         <v>114</v>
       </c>
       <c r="B15" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
@@ -16416,7 +16416,7 @@
         <v>113</v>
       </c>
       <c r="B16" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
@@ -16424,7 +16424,7 @@
         <v>112</v>
       </c>
       <c r="B17" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
@@ -16432,7 +16432,7 @@
         <v>111</v>
       </c>
       <c r="B18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
@@ -16440,7 +16440,7 @@
         <v>115</v>
       </c>
       <c r="B19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
@@ -16448,7 +16448,7 @@
         <v>208</v>
       </c>
       <c r="B20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
@@ -16456,7 +16456,7 @@
         <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
@@ -16464,7 +16464,7 @@
         <v>209</v>
       </c>
       <c r="B22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
@@ -16472,7 +16472,7 @@
         <v>217</v>
       </c>
       <c r="B23" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
@@ -16480,7 +16480,7 @@
         <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
@@ -16488,7 +16488,7 @@
         <v>215</v>
       </c>
       <c r="B25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
@@ -16496,7 +16496,7 @@
         <v>210</v>
       </c>
       <c r="B26" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
@@ -16504,7 +16504,7 @@
         <v>214</v>
       </c>
       <c r="B27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
@@ -16520,7 +16520,7 @@
         <v>207</v>
       </c>
       <c r="B29" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
@@ -16528,7 +16528,7 @@
         <v>216</v>
       </c>
       <c r="B30" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
@@ -16536,7 +16536,7 @@
         <v>212</v>
       </c>
       <c r="B31" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
@@ -16544,7 +16544,7 @@
         <v>204</v>
       </c>
       <c r="B32" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
@@ -16552,7 +16552,7 @@
         <v>205</v>
       </c>
       <c r="B33" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
@@ -16560,7 +16560,7 @@
         <v>206</v>
       </c>
       <c r="B34" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
@@ -16568,7 +16568,7 @@
         <v>220</v>
       </c>
       <c r="B35" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
@@ -16576,7 +16576,7 @@
         <v>222</v>
       </c>
       <c r="B36" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
@@ -16584,7 +16584,7 @@
         <v>224</v>
       </c>
       <c r="B37" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
@@ -16592,7 +16592,7 @@
         <v>228</v>
       </c>
       <c r="B38" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
@@ -16600,7 +16600,7 @@
         <v>221</v>
       </c>
       <c r="B39" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
@@ -16624,7 +16624,7 @@
         <v>194</v>
       </c>
       <c r="B42" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
@@ -16632,7 +16632,7 @@
         <v>192</v>
       </c>
       <c r="B43" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
@@ -16640,7 +16640,7 @@
         <v>225</v>
       </c>
       <c r="B44" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
@@ -16648,7 +16648,7 @@
         <v>226</v>
       </c>
       <c r="B45" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
@@ -16656,7 +16656,7 @@
         <v>223</v>
       </c>
       <c r="B46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
@@ -16664,7 +16664,7 @@
         <v>227</v>
       </c>
       <c r="B47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
@@ -16672,7 +16672,7 @@
         <v>271</v>
       </c>
       <c r="B48" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
@@ -16680,7 +16680,7 @@
         <v>50</v>
       </c>
       <c r="B49" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
@@ -16688,7 +16688,7 @@
         <v>54</v>
       </c>
       <c r="B50" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
@@ -16696,7 +16696,7 @@
         <v>57</v>
       </c>
       <c r="B51" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
@@ -16704,7 +16704,7 @@
         <v>53</v>
       </c>
       <c r="B52" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
@@ -16712,7 +16712,7 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
@@ -16720,7 +16720,7 @@
         <v>55</v>
       </c>
       <c r="B54" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
@@ -16728,7 +16728,7 @@
         <v>49</v>
       </c>
       <c r="B55" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
@@ -16736,7 +16736,7 @@
         <v>56</v>
       </c>
       <c r="B56" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
@@ -16744,7 +16744,7 @@
         <v>51</v>
       </c>
       <c r="B57" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
@@ -16752,7 +16752,7 @@
         <v>48</v>
       </c>
       <c r="B58" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
@@ -16760,7 +16760,7 @@
         <v>159</v>
       </c>
       <c r="B59" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
@@ -16768,7 +16768,7 @@
         <v>160</v>
       </c>
       <c r="B60" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
@@ -16776,7 +16776,7 @@
         <v>153</v>
       </c>
       <c r="B61" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
@@ -16784,7 +16784,7 @@
         <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
@@ -16792,7 +16792,7 @@
         <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
@@ -16800,7 +16800,7 @@
         <v>156</v>
       </c>
       <c r="B64" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
@@ -16808,7 +16808,7 @@
         <v>157</v>
       </c>
       <c r="B65" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
@@ -16816,7 +16816,7 @@
         <v>149</v>
       </c>
       <c r="B66" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -16832,7 +16832,7 @@
         <v>155</v>
       </c>
       <c r="B68" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
@@ -16840,7 +16840,7 @@
         <v>151</v>
       </c>
       <c r="B69" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
@@ -16848,7 +16848,7 @@
         <v>158</v>
       </c>
       <c r="B70" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
@@ -16856,7 +16856,7 @@
         <v>59</v>
       </c>
       <c r="B71" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
@@ -16864,7 +16864,7 @@
         <v>63</v>
       </c>
       <c r="B72" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
@@ -16872,7 +16872,7 @@
         <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
@@ -16880,7 +16880,7 @@
         <v>60</v>
       </c>
       <c r="B74" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
@@ -16888,7 +16888,7 @@
         <v>65</v>
       </c>
       <c r="B75" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
@@ -16896,7 +16896,7 @@
         <v>64</v>
       </c>
       <c r="B76" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
@@ -16904,7 +16904,7 @@
         <v>62</v>
       </c>
       <c r="B77" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
@@ -16912,7 +16912,7 @@
         <v>288</v>
       </c>
       <c r="B78" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
@@ -16920,7 +16920,7 @@
         <v>267</v>
       </c>
       <c r="B79" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
@@ -16928,7 +16928,7 @@
         <v>230</v>
       </c>
       <c r="B80" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
@@ -16936,7 +16936,7 @@
         <v>234</v>
       </c>
       <c r="B81" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
@@ -16944,7 +16944,7 @@
         <v>233</v>
       </c>
       <c r="B82" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
@@ -16952,7 +16952,7 @@
         <v>237</v>
       </c>
       <c r="B83" t="s">
-        <v>870</v>
+        <v>869</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -16960,7 +16960,7 @@
         <v>238</v>
       </c>
       <c r="B84" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
@@ -16968,7 +16968,7 @@
         <v>236</v>
       </c>
       <c r="B85" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
@@ -16976,7 +16976,7 @@
         <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
@@ -16984,7 +16984,7 @@
         <v>232</v>
       </c>
       <c r="B87" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
@@ -16992,7 +16992,7 @@
         <v>231</v>
       </c>
       <c r="B88" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
@@ -17000,7 +17000,7 @@
         <v>33</v>
       </c>
       <c r="B89" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
@@ -17008,7 +17008,7 @@
         <v>38</v>
       </c>
       <c r="B90" t="s">
-        <v>873</v>
+        <v>872</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
@@ -17016,7 +17016,7 @@
         <v>36</v>
       </c>
       <c r="B91" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
@@ -17024,7 +17024,7 @@
         <v>39</v>
       </c>
       <c r="B92" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
@@ -17032,7 +17032,7 @@
         <v>35</v>
       </c>
       <c r="B93" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
@@ -17040,7 +17040,7 @@
         <v>34</v>
       </c>
       <c r="B94" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
@@ -17048,7 +17048,7 @@
         <v>31</v>
       </c>
       <c r="B95" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
@@ -17056,7 +17056,7 @@
         <v>37</v>
       </c>
       <c r="B96" t="s">
-        <v>875</v>
+        <v>874</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
@@ -17064,7 +17064,7 @@
         <v>118</v>
       </c>
       <c r="B97" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
@@ -17072,7 +17072,7 @@
         <v>122</v>
       </c>
       <c r="B98" t="s">
-        <v>877</v>
+        <v>876</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
@@ -17080,7 +17080,7 @@
         <v>120</v>
       </c>
       <c r="B99" t="s">
-        <v>878</v>
+        <v>877</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
@@ -17088,7 +17088,7 @@
         <v>119</v>
       </c>
       <c r="B100" t="s">
-        <v>879</v>
+        <v>878</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
@@ -17096,7 +17096,7 @@
         <v>126</v>
       </c>
       <c r="B101" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
@@ -17104,7 +17104,7 @@
         <v>127</v>
       </c>
       <c r="B102" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
@@ -17112,7 +17112,7 @@
         <v>124</v>
       </c>
       <c r="B103" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
@@ -17120,7 +17120,7 @@
         <v>123</v>
       </c>
       <c r="B104" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
@@ -17128,7 +17128,7 @@
         <v>121</v>
       </c>
       <c r="B105" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
@@ -17136,7 +17136,7 @@
         <v>125</v>
       </c>
       <c r="B106" t="s">
-        <v>880</v>
+        <v>879</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
@@ -17144,7 +17144,7 @@
         <v>257</v>
       </c>
       <c r="B107" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
@@ -17152,7 +17152,7 @@
         <v>253</v>
       </c>
       <c r="B108" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
@@ -17160,7 +17160,7 @@
         <v>254</v>
       </c>
       <c r="B109" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
@@ -17168,7 +17168,7 @@
         <v>252</v>
       </c>
       <c r="B110" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
@@ -17176,7 +17176,7 @@
         <v>260</v>
       </c>
       <c r="B111" t="s">
-        <v>881</v>
+        <v>880</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
@@ -17184,7 +17184,7 @@
         <v>247</v>
       </c>
       <c r="B112" t="s">
-        <v>882</v>
+        <v>881</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
@@ -17192,7 +17192,7 @@
         <v>244</v>
       </c>
       <c r="B113" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
@@ -17200,7 +17200,7 @@
         <v>243</v>
       </c>
       <c r="B114" t="s">
-        <v>884</v>
+        <v>883</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
@@ -17208,7 +17208,7 @@
         <v>249</v>
       </c>
       <c r="B115" t="s">
-        <v>885</v>
+        <v>884</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
@@ -17216,7 +17216,7 @@
         <v>246</v>
       </c>
       <c r="B116" t="s">
-        <v>886</v>
+        <v>885</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
@@ -17224,7 +17224,7 @@
         <v>265</v>
       </c>
       <c r="B117" t="s">
-        <v>887</v>
+        <v>886</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
@@ -17232,7 +17232,7 @@
         <v>250</v>
       </c>
       <c r="B118" t="s">
-        <v>888</v>
+        <v>887</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
@@ -17240,7 +17240,7 @@
         <v>240</v>
       </c>
       <c r="B119" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
@@ -17248,7 +17248,7 @@
         <v>248</v>
       </c>
       <c r="B120" t="s">
-        <v>890</v>
+        <v>889</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
@@ -17256,7 +17256,7 @@
         <v>109</v>
       </c>
       <c r="B121" t="s">
-        <v>891</v>
+        <v>890</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
@@ -17264,7 +17264,7 @@
         <v>251</v>
       </c>
       <c r="B122" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
@@ -17272,7 +17272,7 @@
         <v>266</v>
       </c>
       <c r="B123" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
@@ -17280,7 +17280,7 @@
         <v>259</v>
       </c>
       <c r="B124" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
@@ -17288,7 +17288,7 @@
         <v>264</v>
       </c>
       <c r="B125" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
@@ -17296,7 +17296,7 @@
         <v>269</v>
       </c>
       <c r="B126" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
@@ -17304,7 +17304,7 @@
         <v>261</v>
       </c>
       <c r="B127" t="s">
-        <v>897</v>
+        <v>896</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
@@ -17312,7 +17312,7 @@
         <v>263</v>
       </c>
       <c r="B128" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
@@ -17320,7 +17320,7 @@
         <v>83</v>
       </c>
       <c r="B129" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
@@ -17328,7 +17328,7 @@
         <v>79</v>
       </c>
       <c r="B130" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
@@ -17336,7 +17336,7 @@
         <v>81</v>
       </c>
       <c r="B131" t="s">
-        <v>899</v>
+        <v>898</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
@@ -17344,7 +17344,7 @@
         <v>80</v>
       </c>
       <c r="B132" t="s">
-        <v>900</v>
+        <v>899</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
@@ -17352,7 +17352,7 @@
         <v>82</v>
       </c>
       <c r="B133" t="s">
-        <v>901</v>
+        <v>900</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
@@ -17360,7 +17360,7 @@
         <v>255</v>
       </c>
       <c r="B134" t="s">
-        <v>902</v>
+        <v>901</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
@@ -17368,7 +17368,7 @@
         <v>7</v>
       </c>
       <c r="B135" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
@@ -17376,7 +17376,7 @@
         <v>185</v>
       </c>
       <c r="B136" t="s">
-        <v>904</v>
+        <v>903</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
@@ -17384,7 +17384,7 @@
         <v>183</v>
       </c>
       <c r="B137" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
@@ -17392,7 +17392,7 @@
         <v>140</v>
       </c>
       <c r="B138" t="s">
-        <v>906</v>
+        <v>905</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
@@ -17400,7 +17400,7 @@
         <v>186</v>
       </c>
       <c r="B139" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
@@ -17408,7 +17408,7 @@
         <v>9</v>
       </c>
       <c r="B140" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
@@ -17416,7 +17416,7 @@
         <v>23</v>
       </c>
       <c r="B141" t="s">
-        <v>907</v>
+        <v>906</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
@@ -17424,7 +17424,7 @@
         <v>181</v>
       </c>
       <c r="B142" t="s">
-        <v>908</v>
+        <v>907</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
@@ -17432,7 +17432,7 @@
         <v>187</v>
       </c>
       <c r="B143" t="s">
-        <v>909</v>
+        <v>908</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
@@ -17440,7 +17440,7 @@
         <v>11</v>
       </c>
       <c r="B144" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
@@ -17448,7 +17448,7 @@
         <v>258</v>
       </c>
       <c r="B145" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
@@ -17456,7 +17456,7 @@
         <v>184</v>
       </c>
       <c r="B146" t="s">
-        <v>911</v>
+        <v>910</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
@@ -17464,7 +17464,7 @@
         <v>188</v>
       </c>
       <c r="B147" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
@@ -17472,7 +17472,7 @@
         <v>189</v>
       </c>
       <c r="B148" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
@@ -17480,7 +17480,7 @@
         <v>182</v>
       </c>
       <c r="B149" t="s">
-        <v>912</v>
+        <v>911</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
@@ -17488,7 +17488,7 @@
         <v>67</v>
       </c>
       <c r="B150" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
@@ -17496,7 +17496,7 @@
         <v>72</v>
       </c>
       <c r="B151" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
@@ -17504,7 +17504,7 @@
         <v>70</v>
       </c>
       <c r="B152" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
@@ -17512,7 +17512,7 @@
         <v>71</v>
       </c>
       <c r="B153" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
@@ -17520,7 +17520,7 @@
         <v>69</v>
       </c>
       <c r="B154" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
@@ -17528,7 +17528,7 @@
         <v>73</v>
       </c>
       <c r="B155" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
@@ -17536,7 +17536,7 @@
         <v>74</v>
       </c>
       <c r="B156" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
@@ -17544,7 +17544,7 @@
         <v>75</v>
       </c>
       <c r="B157" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
@@ -17552,7 +17552,7 @@
         <v>77</v>
       </c>
       <c r="B158" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
@@ -17560,7 +17560,7 @@
         <v>68</v>
       </c>
       <c r="B159" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
@@ -17568,7 +17568,7 @@
         <v>76</v>
       </c>
       <c r="B160" t="s">
-        <v>916</v>
+        <v>915</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
@@ -17576,7 +17576,7 @@
         <v>86</v>
       </c>
       <c r="B161" t="s">
-        <v>917</v>
+        <v>916</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
@@ -17584,7 +17584,7 @@
         <v>87</v>
       </c>
       <c r="B162" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
@@ -17592,7 +17592,7 @@
         <v>90</v>
       </c>
       <c r="B163" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
@@ -17600,7 +17600,7 @@
         <v>88</v>
       </c>
       <c r="B164" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
@@ -17616,7 +17616,7 @@
         <v>85</v>
       </c>
       <c r="B166" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
@@ -17624,7 +17624,7 @@
         <v>242</v>
       </c>
       <c r="B167" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
@@ -17632,7 +17632,7 @@
         <v>241</v>
       </c>
       <c r="B168" t="s">
-        <v>921</v>
+        <v>920</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
@@ -17640,7 +17640,7 @@
         <v>268</v>
       </c>
       <c r="B169" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
@@ -17648,7 +17648,7 @@
         <v>256</v>
       </c>
       <c r="B170" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
@@ -17656,7 +17656,7 @@
         <v>46</v>
       </c>
       <c r="B171" t="s">
-        <v>924</v>
+        <v>923</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -17664,7 +17664,7 @@
         <v>45</v>
       </c>
       <c r="B172" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
@@ -17672,7 +17672,7 @@
         <v>41</v>
       </c>
       <c r="B173" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
@@ -17680,7 +17680,7 @@
         <v>42</v>
       </c>
       <c r="B174" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
@@ -17688,7 +17688,7 @@
         <v>44</v>
       </c>
       <c r="B175" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
@@ -17696,7 +17696,7 @@
         <v>170</v>
       </c>
       <c r="B176" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
@@ -17704,7 +17704,7 @@
         <v>166</v>
       </c>
       <c r="B177" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
@@ -17712,7 +17712,7 @@
         <v>163</v>
       </c>
       <c r="B178" t="s">
-        <v>928</v>
+        <v>927</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
@@ -17720,7 +17720,7 @@
         <v>165</v>
       </c>
       <c r="B179" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
@@ -17728,7 +17728,7 @@
         <v>168</v>
       </c>
       <c r="B180" t="s">
-        <v>910</v>
+        <v>909</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
@@ -17736,7 +17736,7 @@
         <v>164</v>
       </c>
       <c r="B181" t="s">
-        <v>929</v>
+        <v>928</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
@@ -17744,7 +17744,7 @@
         <v>162</v>
       </c>
       <c r="B182" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
@@ -17752,7 +17752,7 @@
         <v>167</v>
       </c>
       <c r="B183" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
@@ -17760,7 +17760,7 @@
         <v>169</v>
       </c>
       <c r="B184" t="s">
-        <v>931</v>
+        <v>930</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
@@ -17768,7 +17768,7 @@
         <v>179</v>
       </c>
       <c r="B185" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
@@ -17776,7 +17776,7 @@
         <v>172</v>
       </c>
       <c r="B186" t="s">
-        <v>932</v>
+        <v>931</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
@@ -17784,7 +17784,7 @@
         <v>173</v>
       </c>
       <c r="B187" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
@@ -17792,7 +17792,7 @@
         <v>176</v>
       </c>
       <c r="B188" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
@@ -17800,7 +17800,7 @@
         <v>175</v>
       </c>
       <c r="B189" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
@@ -17808,7 +17808,7 @@
         <v>177</v>
       </c>
       <c r="B190" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
@@ -17816,7 +17816,7 @@
         <v>178</v>
       </c>
       <c r="B191" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
@@ -17824,7 +17824,7 @@
         <v>174</v>
       </c>
       <c r="B192" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
@@ -17832,7 +17832,7 @@
         <v>129</v>
       </c>
       <c r="B193" t="s">
-        <v>936</v>
+        <v>935</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
@@ -17840,7 +17840,7 @@
         <v>130</v>
       </c>
       <c r="B194" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
@@ -17848,7 +17848,7 @@
         <v>131</v>
       </c>
       <c r="B195" t="s">
-        <v>937</v>
+        <v>936</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
@@ -17856,7 +17856,7 @@
         <v>285</v>
       </c>
       <c r="B196" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
@@ -17864,7 +17864,7 @@
         <v>290</v>
       </c>
       <c r="B197" t="s">
-        <v>939</v>
+        <v>938</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
@@ -17872,7 +17872,7 @@
         <v>279</v>
       </c>
       <c r="B198" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
@@ -17880,7 +17880,7 @@
         <v>278</v>
       </c>
       <c r="B199" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
@@ -17888,7 +17888,7 @@
         <v>275</v>
       </c>
       <c r="B200" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
@@ -17896,7 +17896,7 @@
         <v>202</v>
       </c>
       <c r="B201" t="s">
-        <v>942</v>
+        <v>941</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
@@ -17904,7 +17904,7 @@
         <v>274</v>
       </c>
       <c r="B202" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
@@ -17912,7 +17912,7 @@
         <v>289</v>
       </c>
       <c r="B203" t="s">
-        <v>943</v>
+        <v>942</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
@@ -17920,7 +17920,7 @@
         <v>280</v>
       </c>
       <c r="B204" t="s">
-        <v>944</v>
+        <v>943</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
@@ -17928,7 +17928,7 @@
         <v>282</v>
       </c>
       <c r="B205" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
@@ -17936,7 +17936,7 @@
         <v>277</v>
       </c>
       <c r="B206" t="s">
-        <v>945</v>
+        <v>944</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
@@ -17944,7 +17944,7 @@
         <v>272</v>
       </c>
       <c r="B207" t="s">
-        <v>892</v>
+        <v>891</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
@@ -17952,7 +17952,7 @@
         <v>281</v>
       </c>
       <c r="B208" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
@@ -17960,7 +17960,7 @@
         <v>273</v>
       </c>
       <c r="B209" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
@@ -17968,7 +17968,7 @@
         <v>287</v>
       </c>
       <c r="B210" t="s">
-        <v>947</v>
+        <v>946</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
@@ -17976,7 +17976,7 @@
         <v>276</v>
       </c>
       <c r="B211" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
@@ -17984,7 +17984,7 @@
         <v>286</v>
       </c>
       <c r="B212" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
@@ -17992,7 +17992,7 @@
         <v>291</v>
       </c>
       <c r="B213" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
@@ -18000,7 +18000,7 @@
         <v>283</v>
       </c>
       <c r="B214" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
@@ -18008,7 +18008,7 @@
         <v>100</v>
       </c>
       <c r="B215" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
@@ -18016,7 +18016,7 @@
         <v>94</v>
       </c>
       <c r="B216" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
@@ -18024,7 +18024,7 @@
         <v>108</v>
       </c>
       <c r="B217" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
@@ -18032,7 +18032,7 @@
         <v>96</v>
       </c>
       <c r="B218" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
@@ -18040,7 +18040,7 @@
         <v>107</v>
       </c>
       <c r="B219" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
@@ -18048,7 +18048,7 @@
         <v>95</v>
       </c>
       <c r="B220" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
@@ -18056,7 +18056,7 @@
         <v>99</v>
       </c>
       <c r="B221" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
@@ -18064,7 +18064,7 @@
         <v>97</v>
       </c>
       <c r="B222" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
@@ -18072,7 +18072,7 @@
         <v>98</v>
       </c>
       <c r="B223" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
@@ -18080,7 +18080,7 @@
         <v>93</v>
       </c>
       <c r="B224" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.2">
@@ -18088,7 +18088,7 @@
         <v>104</v>
       </c>
       <c r="B225" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.2">
@@ -18096,7 +18096,7 @@
         <v>102</v>
       </c>
       <c r="B226" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.2">
@@ -18104,7 +18104,7 @@
         <v>103</v>
       </c>
       <c r="B227" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.2">
@@ -18112,7 +18112,7 @@
         <v>106</v>
       </c>
       <c r="B228" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.2">
@@ -18120,7 +18120,7 @@
         <v>105</v>
       </c>
       <c r="B229" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.2">
@@ -18136,7 +18136,7 @@
         <v>198</v>
       </c>
       <c r="B231" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.2">
@@ -18144,7 +18144,7 @@
         <v>200</v>
       </c>
       <c r="B232" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.2">
@@ -18152,7 +18152,7 @@
         <v>262</v>
       </c>
       <c r="B233" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.2">
@@ -18160,7 +18160,7 @@
         <v>133</v>
       </c>
       <c r="B234" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.2">
@@ -18168,7 +18168,7 @@
         <v>137</v>
       </c>
       <c r="B235" t="s">
-        <v>965</v>
+        <v>964</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.2">
@@ -18176,7 +18176,7 @@
         <v>144</v>
       </c>
       <c r="B236" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.2">
@@ -18184,7 +18184,7 @@
         <v>136</v>
       </c>
       <c r="B237" t="s">
-        <v>966</v>
+        <v>965</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.2">
@@ -18192,7 +18192,7 @@
         <v>134</v>
       </c>
       <c r="B238" t="s">
-        <v>967</v>
+        <v>966</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.2">
@@ -18200,7 +18200,7 @@
         <v>146</v>
       </c>
       <c r="B239" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.2">
@@ -18208,7 +18208,7 @@
         <v>142</v>
       </c>
       <c r="B240" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
@@ -18216,7 +18216,7 @@
         <v>143</v>
       </c>
       <c r="B241" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
@@ -18224,7 +18224,7 @@
         <v>135</v>
       </c>
       <c r="B242" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
@@ -18232,7 +18232,7 @@
         <v>139</v>
       </c>
       <c r="B243" t="s">
-        <v>969</v>
+        <v>968</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
@@ -18240,7 +18240,7 @@
         <v>145</v>
       </c>
       <c r="B244" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
@@ -18248,7 +18248,7 @@
         <v>284</v>
       </c>
       <c r="B245" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
@@ -18256,7 +18256,7 @@
         <v>141</v>
       </c>
       <c r="B246" t="s">
-        <v>970</v>
+        <v>969</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
@@ -18264,7 +18264,7 @@
         <v>147</v>
       </c>
       <c r="B247" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
     </row>
   </sheetData>
@@ -18279,8 +18279,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F44"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18325,7 +18325,7 @@
         <v>806</v>
       </c>
       <c r="F2" t="s">
-        <v>811</v>
+        <v>978</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -18342,7 +18342,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -18428,7 +18428,7 @@
         <v>80</v>
       </c>
       <c r="F10" t="s">
-        <v>979</v>
+        <v>976</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
@@ -18448,7 +18448,7 @@
         <v>20</v>
       </c>
       <c r="F11" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
@@ -18468,7 +18468,7 @@
         <v>50</v>
       </c>
       <c r="F12" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
@@ -18488,7 +18488,7 @@
         <v>50</v>
       </c>
       <c r="F13" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.2">
@@ -18508,7 +18508,7 @@
         <v>608</v>
       </c>
       <c r="F14" t="s">
-        <v>977</v>
+        <v>974</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.2">
@@ -18576,7 +18576,7 @@
         <v>116</v>
       </c>
       <c r="F19" t="s">
-        <v>974</v>
+        <v>977</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -18596,7 +18596,7 @@
         <v>19</v>
       </c>
       <c r="F20" t="s">
-        <v>976</v>
+        <v>979</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -18696,7 +18696,7 @@
         <v>543</v>
       </c>
       <c r="F27" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -18746,7 +18746,7 @@
         <v>751</v>
       </c>
       <c r="F31" t="s">
-        <v>971</v>
+        <v>970</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -18843,7 +18843,7 @@
         <v>151</v>
       </c>
       <c r="F39" t="s">
-        <v>972</v>
+        <v>971</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -18851,7 +18851,7 @@
         <v>738</v>
       </c>
       <c r="B40" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="C40" t="s">
         <v>751</v>
@@ -18863,7 +18863,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -18888,7 +18888,7 @@
         <v>739</v>
       </c>
       <c r="B42" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="C42" t="s">
         <v>751</v>
@@ -18900,7 +18900,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>978</v>
+        <v>975</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="150" windowWidth="12195" windowHeight="6570" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="12195" windowHeight="6510" tabRatio="731" firstSheet="5" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,23 @@
     <sheet name="Productcodes" sheetId="3" r:id="rId3"/>
     <sheet name="Werkpakketcodes" sheetId="4" r:id="rId4"/>
     <sheet name="Procesflows" sheetId="5" r:id="rId5"/>
+    <sheet name="Requirements" sheetId="6" r:id="rId6"/>
+    <sheet name="Zaaktypen" sheetId="7" r:id="rId7"/>
+    <sheet name="Taken" sheetId="16" r:id="rId8"/>
+    <sheet name="Overtredingen" sheetId="8" r:id="rId9"/>
+    <sheet name="Concepten" sheetId="9" r:id="rId10"/>
+    <sheet name="Klachten" sheetId="10" r:id="rId11"/>
+    <sheet name="Besluiten" sheetId="12" r:id="rId12"/>
+    <sheet name="Delegaties" sheetId="13" r:id="rId13"/>
+    <sheet name="Rollen" sheetId="14" r:id="rId14"/>
+    <sheet name="Eenheden" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3008" uniqueCount="980">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="1912">
   <si>
     <t>Divisie</t>
   </si>
@@ -2958,6 +2968,2811 @@
   </si>
   <si>
     <t>Mail,www,fax,telefoon,post,App social media,MOS,form desk,outlook (App),voice log,ISI,Spin,Digitaal dossier,I&amp;R,PDF</t>
+  </si>
+  <si>
+    <t>rol</t>
+  </si>
+  <si>
+    <t>wens</t>
+  </si>
+  <si>
+    <t>doel</t>
+  </si>
+  <si>
+    <t>processtap</t>
+  </si>
+  <si>
+    <t>opmerking</t>
+  </si>
+  <si>
+    <t>Rol</t>
+  </si>
+  <si>
+    <t>Processtap</t>
+  </si>
+  <si>
+    <t>combineren van opdrachten op bedrijven</t>
+  </si>
+  <si>
+    <t>analist</t>
+  </si>
+  <si>
+    <t>waarom er conflicten ontstaan</t>
+  </si>
+  <si>
+    <t>ik hierover een beslissing kan nemen of kan terugkoppelen</t>
+  </si>
+  <si>
+    <t>marian</t>
+  </si>
+  <si>
+    <t>identificeren conflicten</t>
+  </si>
+  <si>
+    <t>duidelijke afspraken mbt geoormerkte bedrijven (wie mag het, hoe lang staat het, waarvoor is het geoormerkt)</t>
+  </si>
+  <si>
+    <t>de lijst van geoormerkte bedrijven niet vervuild raakt en zo klein mogelijk blijft</t>
+  </si>
+  <si>
+    <t>ivo</t>
+  </si>
+  <si>
+    <t>wil ik dat het systeem a.d.h.v. de activiteiten van een bedrijf bepaalt of een projectopdracht (o.b.v. wetgeving) van toepassing is</t>
+  </si>
+  <si>
+    <t>ik een matrix opdracht vs bedrijf krijg</t>
+  </si>
+  <si>
+    <t>ant</t>
+  </si>
+  <si>
+    <t>combineren van bedrijven en opdrachten</t>
+  </si>
+  <si>
+    <t>bij combineren inzicht krijgen in de totale inspectieduur per opdracht</t>
+  </si>
+  <si>
+    <t>combineren van inspectie wel zinnig is</t>
+  </si>
+  <si>
+    <t>jos</t>
+  </si>
+  <si>
+    <t>identificeren conflichten</t>
+  </si>
+  <si>
+    <t>zelf kunnen aangeven welke bedrijven hoge prioriteit hebben</t>
+  </si>
+  <si>
+    <t>inspecteurs weten welke bedrijven MOETEN bezocht worden</t>
+  </si>
+  <si>
+    <t>oormerken bedrijven</t>
+  </si>
+  <si>
+    <t>n.b. oormerken hoeft niet om de opdracht te realiseren, maar je komt wel beter bij de boeven</t>
+  </si>
+  <si>
+    <t>mogelijke conflicten aangeeft op o.b.v. onderwerpen/wetgving, tijdsduur, periode, soort medewerker</t>
+  </si>
+  <si>
+    <t>ik niet alles handmatig hoef langs te lopen</t>
+  </si>
+  <si>
+    <t>een actuele lijst van conflichtbedrijven</t>
+  </si>
+  <si>
+    <t>ik de combinaties zo zuiver mogelijk houd</t>
+  </si>
+  <si>
+    <t>afspraken weten mbt conflicten en oplossen conflicten</t>
+  </si>
+  <si>
+    <t>ik kan uitleggen waarom een bedrijf buiten de selectie valt</t>
+  </si>
+  <si>
+    <t>oplossen conflict</t>
+  </si>
+  <si>
+    <t>n.b. niet alle conflicten kunnen transparant voor iedereen zichtbaar zijn, bv IOD. Autorisatie is hierbij belangrijk.</t>
+  </si>
+  <si>
+    <t>of een project select of aselect is met evt. ruimte/reserve</t>
+  </si>
+  <si>
+    <t>ik meer bedrijven kan combineren</t>
+  </si>
+  <si>
+    <t>samen met mijn collega's een goede afweging kan maken bij de keus</t>
+  </si>
+  <si>
+    <t>wil ik inzichtelijk hebben welke bedrijven gecombineerd kunnen worden op basis van pc+huisnr of bedrijfsnaam/keten</t>
+  </si>
+  <si>
+    <t>zodat er meer combi's mogelijk zijn</t>
+  </si>
+  <si>
+    <t>n.b. beleidsafspraken zijn nodig hoe om te gaan met convenanten en kwaliteitssystemen. Doen losse lokaties mee of niet? En horen deze lokaties in de aselecte opdrachten thuis?</t>
+  </si>
+  <si>
+    <t>toepassen selectiecriteria</t>
+  </si>
+  <si>
+    <t>een gebruiksvriendelijk systeem voor het genereren van selecties</t>
+  </si>
+  <si>
+    <t>ik minder tijd bezig ben met het maken van selecties</t>
+  </si>
+  <si>
+    <t>n.b. is dit criterium voor deze feature of bij 'maken selectie'</t>
+  </si>
+  <si>
+    <t>wil kunnen tijdreizen voor het maken van selecties (kunnen selecteren alsof het bv een jaar eerder was)</t>
+  </si>
+  <si>
+    <t>zodat je kunt voldoen aan de voorwaarde van inspecteren over over afgesloten kalenderjaren</t>
+  </si>
+  <si>
+    <t>frans</t>
+  </si>
+  <si>
+    <t>zien welke selectiecriteria worden toegepast</t>
+  </si>
+  <si>
+    <t>ik weet welke eventueel aangepast moeten worden</t>
+  </si>
+  <si>
+    <t>tim</t>
+  </si>
+  <si>
+    <t>afwegen uitvoeren opdracht</t>
+  </si>
+  <si>
+    <t>een systeem gebruiken waarin makkelijk allerlei bronnen zijn in te laden</t>
+  </si>
+  <si>
+    <t>zodat ik veel data heb om mee te selecteren</t>
+  </si>
+  <si>
+    <t>betrokken zijn bij het opstellen van de selectiecriteria</t>
+  </si>
+  <si>
+    <t>ik weet hoe ze tot stand zijn gekomen (ik achtergronden ken)</t>
+  </si>
+  <si>
+    <t>wil ik dat de gegevens van externe partijen uniform worden onsloten</t>
+  </si>
+  <si>
+    <t>ik deze gegevens makkelijk kan verwerken in de selectiecrieteria</t>
+  </si>
+  <si>
+    <t>weet wie de opdrachtgever is</t>
+  </si>
+  <si>
+    <t>weet met wie ik moet terugkoppelen bij vragen en problemen</t>
+  </si>
+  <si>
+    <t>aanpassen selectiecriteria</t>
+  </si>
+  <si>
+    <t>ik weet of dit invloed heeft op de selectie</t>
+  </si>
+  <si>
+    <t>hoort bij zichtbaar maken van 'conflicten' in proces</t>
+  </si>
+  <si>
+    <t>maken evaluatie</t>
+  </si>
+  <si>
+    <t>dat alle data (uren, bevindingen, rapporten) juist en ten spoedigste (&lt;3 wkn) is verantwoord</t>
+  </si>
+  <si>
+    <t>er een snelle en reele analyse gemaakt kan worden</t>
+  </si>
+  <si>
+    <t>verzamelen projectdata</t>
+  </si>
+  <si>
+    <t>dataanalist</t>
+  </si>
+  <si>
+    <t>data analyseren uit diverse bronnen</t>
+  </si>
+  <si>
+    <t>de gewenste effecten en naleving kan leveren aan projectleider</t>
+  </si>
+  <si>
+    <t>jolanda</t>
+  </si>
+  <si>
+    <t>analyseren data</t>
+  </si>
+  <si>
+    <t>statistische analyses kunnen doen op de resultaten</t>
+  </si>
+  <si>
+    <t>er geen extra stappen zijn (met gegevens via usb sticks naar andere systemen)</t>
+  </si>
+  <si>
+    <t>inspecteur</t>
+  </si>
+  <si>
+    <t>niet met onmogelijke opdrachten op pad hoef</t>
+  </si>
+  <si>
+    <t>nb geen eis voor ICT</t>
+  </si>
+  <si>
+    <t>wil ik beschikken over meest recente data voor de selectie</t>
+  </si>
+  <si>
+    <t>geen of zo min mogelijk vervuiling ontstaan in de selecties</t>
+  </si>
+  <si>
+    <t>weten welke selectiecriteria zijn toegepast (doel van selectie)</t>
+  </si>
+  <si>
+    <t>ik kan uitleggen waarom ik deze 'gecontroleerde' inspecteer</t>
+  </si>
+  <si>
+    <t>dat de selectiecriteria gedurende een project (kunnen) worden aangepast</t>
+  </si>
+  <si>
+    <t>bij voortschrijdend inzicht tijdig bijgestuurd wordt</t>
+  </si>
+  <si>
+    <t>n.b. dit is een fundamentele keus of je dit op dit stadium nog wilt. Tevens mee nemen bij monitoring van 'uitvoering'</t>
+  </si>
+  <si>
+    <t>opbouwen inspectiedossier</t>
+  </si>
+  <si>
+    <t>jules/marian</t>
+  </si>
+  <si>
+    <t>jurgen</t>
+  </si>
+  <si>
+    <t>zodat ik op de hoogte ben van de actuele situatie</t>
+  </si>
+  <si>
+    <t>zodat je weet hoe het in de sector gaat en dat je als autoriteit, weet hoe de processen lopen en over komt en niets op de mouw krijgt gespeld</t>
+  </si>
+  <si>
+    <t>peter</t>
+  </si>
+  <si>
+    <t>dit is informatie per product</t>
+  </si>
+  <si>
+    <t>ik ook hardcopy het materiaal kan gebruiken dat ik aan het bedrijf kan geven en achterlaten (ik wil niet iedereen mijn handheld in de hand geven)</t>
+  </si>
+  <si>
+    <t>meer een technische eis dan een functionele. discussie of in 20.. Inspecteur nog papier gebruikt voor zichzelf (voordeel:minder zwaar/kan niet kapot vallen)</t>
+  </si>
+  <si>
+    <t>jan-peter</t>
+  </si>
+  <si>
+    <t>zodat ik op het bedrijf alleen de relevante informatie zichtbaar heb</t>
+  </si>
+  <si>
+    <t>ramon</t>
+  </si>
+  <si>
+    <t>de selectiecriteria (risicoprofiel; reden selectie) weten</t>
+  </si>
+  <si>
+    <t>ik deze kan gebruiken bij controle</t>
+  </si>
+  <si>
+    <t>ik niet zelf hoef te zoeken naar de juiste lijst</t>
+  </si>
+  <si>
+    <t>jules</t>
+  </si>
+  <si>
+    <t>zodat ik weet dat er een 1 op 1 relatie is en aanwezige middelen kan controleren</t>
+  </si>
+  <si>
+    <t>gaat om infovarken, domeinspecifieke informatie</t>
+  </si>
+  <si>
+    <t>zodat ik een integraal beeld heb van de inspectiehistorie</t>
+  </si>
+  <si>
+    <t>zodat ik een juiste benadering van het bedrijf heb</t>
+  </si>
+  <si>
+    <t>zodat ik alle informatie snel bij elkaar heb</t>
+  </si>
+  <si>
+    <t>ook bij combineren van opdrachten op bedrijven.</t>
+  </si>
+  <si>
+    <t>zodat ik inizcht heb op overige locaties van hetzelfde bedrijf</t>
+  </si>
+  <si>
+    <t>nu is het een onduidelijke registratie, waardoor eigenaren de inspecteur kunnen verrassen met wat en waar hij heeft</t>
+  </si>
+  <si>
+    <t>leiding-gevende</t>
+  </si>
+  <si>
+    <t>wil ik dat het combineren van bedrijven en opdrachten niet leidt tot uitstel of oponthoud in de uitvoering</t>
+  </si>
+  <si>
+    <t>manager?</t>
+  </si>
+  <si>
+    <t>dashboard over hoeveel projecten je hebt en de status van uitvoering</t>
+  </si>
+  <si>
+    <t>deze brainwave kwam van Ramon en hoort niet specifiek bij deze feature</t>
+  </si>
+  <si>
+    <t>medewerker</t>
+  </si>
+  <si>
+    <t>ik kan kijken of er wel een combi mogelijk is met 1 persoon</t>
+  </si>
+  <si>
+    <t>goede werkinstructies zijn waarbij vragen uit inspectielijsten maar eenmaal gesteld worden</t>
+  </si>
+  <si>
+    <t>ik de inspectieopdracht voor gecombineerde bedrijven en opdrachten kan voorbereiden en uitvoeren</t>
+  </si>
+  <si>
+    <t>nb deze eis hoort buiten deze feature</t>
+  </si>
+  <si>
+    <t>overzicht van bedrijven genereren die vanuit bepaalde wetgeving die verplicht bezocht meoten worden</t>
+  </si>
+  <si>
+    <t>ik kan prioriteren en mogelijk alsnog kan combineren</t>
+  </si>
+  <si>
+    <t>prioriteren bedrijven</t>
+  </si>
+  <si>
+    <t>wil ik van elk project/wetgeving een overzicht van vragen die minimaal nodig zijn</t>
+  </si>
+  <si>
+    <t>ik een nieuwe gecombineerde lijst kan maken</t>
+  </si>
+  <si>
+    <t>buiten deze feature</t>
+  </si>
+  <si>
+    <t>wil ik van elke project/wetgeving weten hoeveel tijd een inspectie vergt</t>
+  </si>
+  <si>
+    <t>zodat ik rekening kan houden met de haalbaarheid qua tijd van een combi</t>
+  </si>
+  <si>
+    <t>zodat de selectie automatisch o.b.v. prioriteiten kan (bv eerst hoog risico, dan middel, dan laag of spreiding)</t>
+  </si>
+  <si>
+    <t>wil ik dat ik goed opgeleid worden</t>
+  </si>
+  <si>
+    <t>ik toegerust ben om gecombineerde opdrachten goed kan uitvoeren</t>
+  </si>
+  <si>
+    <t>dit gaat meer om competenties voor mensen dan over requirements</t>
+  </si>
+  <si>
+    <t>wil ik van elk project/wetgeving weten of deze inspectie in een bepaald jaargetijde moet plaatsvinden</t>
+  </si>
+  <si>
+    <t>ik geen onlogische combi's maak of juist logische combi's maak</t>
+  </si>
+  <si>
+    <t>wil ik dat prioriteiten bepaling op harde criteria plaatsvindt</t>
+  </si>
+  <si>
+    <t>er geen willekeur ontstaat</t>
+  </si>
+  <si>
+    <t>overzicht kunnen genereren van bedrijven die vanuit meerdere wetgeving/opdrachten worden geselecteerd</t>
+  </si>
+  <si>
+    <t>ik kan kijken of er gecombineerd kan worden</t>
+  </si>
+  <si>
+    <t>ik afspraken kan maken + of ik de juiste mensen heb gesproken</t>
+  </si>
+  <si>
+    <t>het interventiebeleid goed kan toepassen</t>
+  </si>
+  <si>
+    <t>in verantwoording kan duiden waar wat speelt</t>
+  </si>
+  <si>
+    <t>ik weet welke inspecties ik moet doen</t>
+  </si>
+  <si>
+    <t>(boete)rapportages kan opstellen</t>
+  </si>
+  <si>
+    <t>weet waar bedrijfsprocessen plaats kunnen vinden en specifieke gewassen geteeld.</t>
+  </si>
+  <si>
+    <t>zodat ik verandering in het nalevingsgedrag kan zien</t>
+  </si>
+  <si>
+    <t>als voorbereiding op inspectie</t>
+  </si>
+  <si>
+    <t>in de rapportage kan laten zien hoe/waar bepaalde gegevens verzameld stonden (bevindingen overnemen)</t>
+  </si>
+  <si>
+    <t>makkelijk controle aantekeningen kan maken t.b.v. inspectie</t>
+  </si>
+  <si>
+    <t>n.b. dit hoort meer bij de uitvoering van de inspectie</t>
+  </si>
+  <si>
+    <t>ik de strategie van het team op dit bedrijf ken (dit speelt bij slachthuizen)</t>
+  </si>
+  <si>
+    <t>het bedrijfsdossier kan worden geactualiseerd</t>
+  </si>
+  <si>
+    <t>ik weet eventuele recidive/gesprekken kan voeren</t>
+  </si>
+  <si>
+    <t>ik weet wat het bedrijf produceert en welke activiteiten daarbij horen</t>
+  </si>
+  <si>
+    <t>niet meerdere malen een checklist hoef in te vullen</t>
+  </si>
+  <si>
+    <t>zodat ik bij het nemen van interventie maatregelen daarmee rekening kan houden</t>
+  </si>
+  <si>
+    <t>zodat er mogelijk gecombineerd kan worden</t>
+  </si>
+  <si>
+    <t>zodat ik over de juiste gegevens beschik voor mijn controle opdracht</t>
+  </si>
+  <si>
+    <t>hoort bij de uitvoering</t>
+  </si>
+  <si>
+    <t>ik een eigen planningsschema kan maken</t>
+  </si>
+  <si>
+    <t>zodat risico bepaald kan worden</t>
+  </si>
+  <si>
+    <t>iedereen weet waar wat staat</t>
+  </si>
+  <si>
+    <t>genereren projectopdracht</t>
+  </si>
+  <si>
+    <t>weten welke doelgroep</t>
+  </si>
+  <si>
+    <t>ik weet hoe ik de communicatie (met bv media of branche-organisaties) moet inzetten en welke medewerkers ik nodig heb</t>
+  </si>
+  <si>
+    <t>lieneke</t>
+  </si>
+  <si>
+    <t>bepalen methode</t>
+  </si>
+  <si>
+    <t>Overzicht van interventiemethoden met toelichting van de methode, praktijkvoorbeeld en relevante literatuur</t>
+  </si>
+  <si>
+    <t>Om een juiste keuze te maken</t>
+  </si>
+  <si>
+    <t>Laurie Jansen</t>
+  </si>
+  <si>
+    <t>Bepalen methode</t>
+  </si>
+  <si>
+    <t>Duidelijkheid over vraagstelling/opdracht (bijv. prevalentie, verbeteren naleving, verbeteren proces, toezicht)</t>
+  </si>
+  <si>
+    <t>ik een onderbouwde keuze kan maken voor de methode.</t>
+  </si>
+  <si>
+    <t>Herman Jansen</t>
+  </si>
+  <si>
+    <t>In gesprek met doelgroep (of interviews laten afnemen)</t>
+  </si>
+  <si>
+    <t>ik weet wat er speelt bij doelgroep, wat zij belangrijk vinden, waar zij tegen aan lopen, hoe zij denken hoe naleving verhoogd kan worden. EN juiste interventie en type inspectie kan worden geselecteerd en de uitvoering draagvlak vindt bij de doelgroep</t>
+  </si>
+  <si>
+    <t>Wilbert Jansen</t>
+  </si>
+  <si>
+    <t>juiste interventie en type inspectie kan worden geselecteerd en de uitvoering draagvlak vindt bij de doelgroep</t>
+  </si>
+  <si>
+    <t>Weten of een doelgroep ook toezicht geniet vanuit andere  projecten of andere toezichthouders</t>
+  </si>
+  <si>
+    <t>Inzicht in huidige naleving en afgelopen 5 jaar, literatuur, behoeften en waarden doelgroep</t>
+  </si>
+  <si>
+    <t>Selecteren selectiecriteria</t>
+  </si>
+  <si>
+    <t>Weten welke formulebedrijven er zijn</t>
+  </si>
+  <si>
+    <t>ik de juiste locaties kan selecteren</t>
+  </si>
+  <si>
+    <t>Bepalen type selectie</t>
+  </si>
+  <si>
+    <t>inzicht hebben in de locaties van andere domeinen</t>
+  </si>
+  <si>
+    <t>ik de juiste informatie van locaties kan verkrijgen</t>
+  </si>
+  <si>
+    <t>de competenties van inspecteurs kennen</t>
+  </si>
+  <si>
+    <t>ik de juiste mensen op de uitvoering project kan inzetten</t>
+  </si>
+  <si>
+    <t>weten welke uitrusting voor inspecteurs nodig is (bijv. bij monstername)</t>
+  </si>
+  <si>
+    <t>ik de juiste uitvoering van het project kan doen</t>
+  </si>
+  <si>
+    <t>een social media monitor die overzicht geeft van wat er zich af heeft gespeeld in de media rondom een onderwerp</t>
+  </si>
+  <si>
+    <t>ik weet of ik rekening moet houden met bepaalde bedrijven en/of andere criteria moet inbouwen</t>
+  </si>
+  <si>
+    <t>Doelgroep, naleefniveau, locatie, historie bedrijf, gegevens andere inspectiediensten</t>
+  </si>
+  <si>
+    <t>goede selectie te maken</t>
+  </si>
+  <si>
+    <t>Beeld van branche, handels/producentenketens</t>
+  </si>
+  <si>
+    <t>bepalen naleefgedrag wel of niet</t>
+  </si>
+  <si>
+    <t>Riny Denissen</t>
+  </si>
+  <si>
+    <t>keuze van juiste bedrijven</t>
+  </si>
+  <si>
+    <t>Berekenen benodigde bedrijven</t>
+  </si>
+  <si>
+    <t>weten welke processen, hygienecode worden toegepast, Openingstijden, formulebedrijf etc</t>
+  </si>
+  <si>
+    <t>weten hoe lang 1 inspectie gemiddeld duurt</t>
+  </si>
+  <si>
+    <t>het systeem voor mij berekend hoeveel bedrijven bezocht kunnen worden ahdv beschikbare capaciteit</t>
+  </si>
+  <si>
+    <t>Hoveelheid per branche, nalevers, niet-nalevers</t>
+  </si>
+  <si>
+    <t>inzicht krijg in aantallen</t>
+  </si>
+  <si>
+    <t>gebruik maken van wetenschappelijk onderbouwde verdeelslseutels</t>
+  </si>
+  <si>
+    <t>ik de juiste keuze kan maken</t>
+  </si>
+  <si>
+    <t>een "oogstkalender"</t>
+  </si>
+  <si>
+    <t>wanneer is het juiste moment bijv. sla van de koude grond of ijs</t>
+  </si>
+  <si>
+    <t>Bepalen kritisch inspectiemoment</t>
+  </si>
+  <si>
+    <t>bepalen waar mogelijke knelpunten zitten</t>
+  </si>
+  <si>
+    <t>Overzicht van beschikbare inspecteurs incl. afwezigheidsdagen</t>
+  </si>
+  <si>
+    <t>bepalen capaciteit</t>
+  </si>
+  <si>
+    <t>Berekenen benodigde capaciteit</t>
+  </si>
+  <si>
+    <t>Overzicht van Laboratoriumcapaciteit</t>
+  </si>
+  <si>
+    <t>Inspectietijd per branche of bedrijfscategorie</t>
+  </si>
+  <si>
+    <t>Gemiddelde verlies in bedrijven door sluiting bedrijven, fouten tijdens uitvoering etc.</t>
+  </si>
+  <si>
+    <t>Realtime overzicht van beschikbare competente capaciteit ook gedurende de looptijd van het project</t>
+  </si>
+  <si>
+    <t>bepalen eventueel bijstellen inzet</t>
+  </si>
+  <si>
+    <t>Controleren inzetbare capaciteit</t>
+  </si>
+  <si>
+    <t>Welke raamcontracten zijn er afgesloten</t>
+  </si>
+  <si>
+    <t>ik niet bedrijven benader voor vormgeving/interviews etc terwijl dit bij andere bedrijven zou moeten</t>
+  </si>
+  <si>
+    <t>keuze kunnen maken uit bibliotheek met documenten up-to-date (zoals wetgeving, richtlijnen, interventiebeleid, andere projecten etc.)</t>
+  </si>
+  <si>
+    <t>Relatie met wetgeving en richtlijnen, afspraken</t>
+  </si>
+  <si>
+    <t>Selecteren documenten</t>
+  </si>
+  <si>
+    <t>Mogelijkheid om te verwijzen (link) naar relevante documenten, websites, intern en extern</t>
+  </si>
+  <si>
+    <t>aanvulling op de projectopdracht</t>
+  </si>
+  <si>
+    <t>wanneer wordt wat van mij verwacht als PL, afronding project -&gt; verzamel projectdata</t>
+  </si>
+  <si>
+    <t>Heidi v. Gennip</t>
+  </si>
+  <si>
+    <t>Verzamelen projectdata</t>
+  </si>
+  <si>
+    <t>eenvoudige dataanalyses kunnen uitvoeren voor verzamelen projectdata</t>
+  </si>
+  <si>
+    <t>bruikbare en toegankelijke projectdatabestanden beschikbaar zijn voor mij</t>
+  </si>
+  <si>
+    <t>Inzicht in realisatie</t>
+  </si>
+  <si>
+    <t>Kan zien of is gedaan wat men moest doen conform protocol (kwalitatief en kwantitatief)</t>
+  </si>
+  <si>
+    <t>Jeroen Peijs</t>
+  </si>
+  <si>
+    <t>Uitvoeren resultaatanalyse</t>
+  </si>
+  <si>
+    <t>De data in grafieken en tabelen</t>
+  </si>
+  <si>
+    <t>kan vaststellen hoe proces van uitvoering is verlopen, hoe capaciteit is ingezet</t>
+  </si>
+  <si>
+    <t>Solide database met alle rapportages van voorgaande jaren</t>
+  </si>
+  <si>
+    <t>o.a. voor trendanalyse</t>
+  </si>
+  <si>
+    <t>Tool om statistische analyses uit te voeren</t>
+  </si>
+  <si>
+    <t>Analyseren data</t>
+  </si>
+  <si>
+    <t>Standaard format voor rapportage</t>
+  </si>
+  <si>
+    <t>Opstellen concept-rapportage</t>
+  </si>
+  <si>
+    <t>Automatisch aanmaken rapportage: voor verschillende doelgroepen</t>
+  </si>
+  <si>
+    <t>Intern, extern, management, intranet etc</t>
+  </si>
+  <si>
+    <t>zowel harde als zachte data uit diverse interne en externe bronnen (bv cbs, iszw, belastingdienst, kvk, iod)</t>
+  </si>
+  <si>
+    <t>ik evaluatie met resultaten, conclusies en risico's inzichtelijk kan maken tbv project</t>
+  </si>
+  <si>
+    <t>verzamelen (overige) projectdata</t>
+  </si>
+  <si>
+    <t>wil ik rapportages over andere jaren of andere wetgeving eenvoudig kunnen opvragen</t>
+  </si>
+  <si>
+    <t>ik trends &amp; ontwikkelingen kan zien</t>
+  </si>
+  <si>
+    <t>verzamelen overige data</t>
+  </si>
+  <si>
+    <t>duideijk de zachte data identificeerbaar in het systeem hebben</t>
+  </si>
+  <si>
+    <t>ik ze gemakkelijk kan verzamelen</t>
+  </si>
+  <si>
+    <t>gemakkelijk grafieken en tabellen kunnen maken</t>
+  </si>
+  <si>
+    <t>het een overzichtelijke rapportage wordt</t>
+  </si>
+  <si>
+    <t>uitvoeren resultaat analyse</t>
+  </si>
+  <si>
+    <t>gemakkelijk in kunnen zoomen op opvallende inspectie-/monsterresultaten</t>
+  </si>
+  <si>
+    <t>eventuele zachte data ontsloten worden</t>
+  </si>
+  <si>
+    <t>kunnen selecteren op diverse criteria zoals project, doelgroep, wetgeving, postcode, etc</t>
+  </si>
+  <si>
+    <t>ik weet waarover ik rapporteer en kan vergelijken met met andere groepen of criteria</t>
+  </si>
+  <si>
+    <t>binnen de geselecteerde bedrijven een nadere prioritering aangeven</t>
+  </si>
+  <si>
+    <t>de oplossing van het conflict in kunnen brengen in de planningsmatrix</t>
+  </si>
+  <si>
+    <t>dit resultaat gebruikt wordt voor de definitieve bedrijvenselectie per opdracht</t>
+  </si>
+  <si>
+    <t>bepaalde bedrijven kunnen oormerken/deselecteren</t>
+  </si>
+  <si>
+    <t>ze niet per ongeluk voor een andere opdracht bezocht en alleen voor deze opdracht beschikbaar zijn (bv openbaarmaking)</t>
+  </si>
+  <si>
+    <t>procesteam</t>
+  </si>
+  <si>
+    <t>ze niet bezocht worden (bv na een overlijden van de bedrijfsleider)</t>
+  </si>
+  <si>
+    <t>wil ik de wachttijd kunnen ingeven</t>
+  </si>
+  <si>
+    <t>meteen daarna een nieuw projectenbestand geselecteerd en klaargezet wordt</t>
+  </si>
+  <si>
+    <t>instellen wachttijd</t>
+  </si>
+  <si>
+    <t>het bestand van geselecteerde bedrijven makkelijk analyseren (gemiddeldes, plotjes, etc.)</t>
+  </si>
+  <si>
+    <t>ik snel de kwaliteit van deze slectie kan inschatten</t>
+  </si>
+  <si>
+    <t>locaties kunnen deselecteren of op-slot zetten</t>
+  </si>
+  <si>
+    <t>ze ze niet per ongeluk vanuit een andere selectie bezocht worden</t>
+  </si>
+  <si>
+    <t>verbeterpunten inzichtelijk krijgen</t>
+  </si>
+  <si>
+    <t>hiermee bij een vervolg/volgens project rekening mee kan worden gehouden</t>
+  </si>
+  <si>
+    <t>bespreken project rapportage</t>
+  </si>
+  <si>
+    <t>deels kan deze informatie in het systeem opgehaald worden. Wel is het nodig om deze opzet te bespreken bij de concept rapportage</t>
+  </si>
+  <si>
+    <t>de overige data, zoals signalen en trends, afkomstig van collega's uit een systeem kunnen halen</t>
+  </si>
+  <si>
+    <t>ook deze signalen vast liggen en niet onder 'de inspecteurs' blijven</t>
+  </si>
+  <si>
+    <t>wil ik de kwaliteitsindicatoren (vb: is de geregistreerde bezoekreden juist of is de geregistreerde inspectielijst juist)van het project kunnen meten (N.b. kwantitatief is bv aantal inspecties per doelgroep of aantal richtwaarden monsters per inspectie)</t>
+  </si>
+  <si>
+    <t>zodat ik kan verbeteren en sturen</t>
+  </si>
+  <si>
+    <t>ik het effect kunnen meten adhv aangeleverde data analyses</t>
+  </si>
+  <si>
+    <t>conclusies, aanbevelingen, trends en ontwikkelingen kan rapporteren</t>
+  </si>
+  <si>
+    <t>n.b. als projectleider moet je dus een opdracht kunnen geven tot data analyse in het project en wat hij/zij moet doen (nieuwe processtap?)</t>
+  </si>
+  <si>
+    <t>vragen formuleren waarop data analyse kan plaatsvinden</t>
+  </si>
+  <si>
+    <t>de gevraagde data kan gebruiken voor de rapportage</t>
+  </si>
+  <si>
+    <t>nieuwe processtap</t>
+  </si>
+  <si>
+    <t>beleidssignalen en aanbevelingen kunnen beschikken die inspecteurs tijdens uitvoering hebben geconstateerd</t>
+  </si>
+  <si>
+    <t>deze kan vermelden bij rapporteren</t>
+  </si>
+  <si>
+    <t>eerlijk en goed beeld van verantwoorde uren ontvangen</t>
+  </si>
+  <si>
+    <t>er een uitsplitsing gemaakt kan worden tussen voorbereiding, uitvoering, rapportage, instructie, etc</t>
+  </si>
+  <si>
+    <t>alle gegevens die we verzamelen kunnen gebruiken voor een analyse</t>
+  </si>
+  <si>
+    <t>zodat ik bij opvallende zaken een antwoord kan geven op de vraag die daarbij hoort</t>
+  </si>
+  <si>
+    <t>n.b. bij het opstellen van de inspectielijsten is het belangrijk om aan te geven welke informatie apart opgeslagen moet worden</t>
+  </si>
+  <si>
+    <t>harde projectdata altijd (ook na afsluiten project) kunnen raadplegen</t>
+  </si>
+  <si>
+    <t>kan sturen en rapporteren/evalueren</t>
+  </si>
+  <si>
+    <t>projectuitvoering gereed</t>
+  </si>
+  <si>
+    <t>ik de naleving kunnen meten adhv aangeleverde data analyses</t>
+  </si>
+  <si>
+    <t>wil ik weten welke maatschappelijke relevantie er is</t>
+  </si>
+  <si>
+    <t>kan bepalen welke instrumenten we daarvoor kunnen inzetten</t>
+  </si>
+  <si>
+    <t>bespreken concept rapportage</t>
+  </si>
+  <si>
+    <t>dat er niet zoveel aan de concept rapportage valt aan te merken</t>
+  </si>
+  <si>
+    <t>blijkt dat alle data en analyses juist zijn uitgevoerd</t>
+  </si>
+  <si>
+    <t>rapporteur</t>
+  </si>
+  <si>
+    <t>de layout van gevens rapportage idem is</t>
+  </si>
+  <si>
+    <t>zodat rapportages duidelijk en uniform zijn (appels met appels vergeleken kunnen worden)</t>
+  </si>
+  <si>
+    <t>concept rapportage</t>
+  </si>
+  <si>
+    <t>dat volgens een vast format gerapporteerd wordt</t>
+  </si>
+  <si>
+    <t>er uniform gewerkt wordt binnen de NVWA</t>
+  </si>
+  <si>
+    <t>n.b. zie ook format in procesomschrijving</t>
+  </si>
+  <si>
+    <t>senior analist</t>
+  </si>
+  <si>
+    <t>lijst met selectiecriteria kan wijzigen</t>
+  </si>
+  <si>
+    <t>ik altijd maatwerk kan leveren</t>
+  </si>
+  <si>
+    <t>deze eis is over projectopdrachten heen</t>
+  </si>
+  <si>
+    <t>SIO</t>
+  </si>
+  <si>
+    <t>dat het systeem o.b.v. door mij ingegeven parameters (populatie grootte, verwachtte # niet-nalevers, etc), de benodigde steekproefomvang berekent</t>
+  </si>
+  <si>
+    <t>zodat ik onderbouwde keuzes maak voor steekproefomvang</t>
+  </si>
+  <si>
+    <t>berekenen # benodigde bedrijven</t>
+  </si>
+  <si>
+    <t>inzicht in een actueel risicoprofiel van een toezichtsobject</t>
+  </si>
+  <si>
+    <t>ik weet of die invloed heeft op de selectie</t>
+  </si>
+  <si>
+    <t>vergelijken inspectieresultaat</t>
+  </si>
+  <si>
+    <t>n.b. in het proces is het beeld dat dit een automatische stap. In dat geval zou dit automatisch in de selectie toegepast worden.</t>
+  </si>
+  <si>
+    <t>inzicht in de criteria waarop een bedrijf in de selectie is gekomen</t>
+  </si>
+  <si>
+    <t>ik kan controleren of de criteria matchen met wat ik bedoelde</t>
+  </si>
+  <si>
+    <t>ruim van tevoren de planning weten</t>
+  </si>
+  <si>
+    <t>ik op tijd met de selectie kan beginnen</t>
+  </si>
+  <si>
+    <t>n.b. deze is vanuit de projectopdracht reeds bekend</t>
+  </si>
+  <si>
+    <t>het systeem een random geselecteerd bestand met inspectielokaties selecteert</t>
+  </si>
+  <si>
+    <t>makkelijk en snel selectiecriteria kunnen aanpassen</t>
+  </si>
+  <si>
+    <t>mijn productieve uren makkelijk kan aanpassen</t>
+  </si>
+  <si>
+    <t>selectie ontvangen die juist zijn (jusite data)</t>
+  </si>
+  <si>
+    <t>ik niet voor niets op pad wordt gestuurd</t>
+  </si>
+  <si>
+    <t>beschikken over een systeem, waarin de selectiecriteria geautomatiseerd wordt toegepast</t>
+  </si>
+  <si>
+    <t>snel en uniform kan werken</t>
+  </si>
+  <si>
+    <t>wil ik de toegang tot gegevens van rvo.nl</t>
+  </si>
+  <si>
+    <t>deze gegevens gebruikt worden bij de selectie</t>
+  </si>
+  <si>
+    <t>up tot date inspectie gegevens van bedrijven (historie)</t>
+  </si>
+  <si>
+    <t>ik hieruit kan gegevens van putten voor het maken van selecties</t>
+  </si>
+  <si>
+    <t>ik makkelijk kan selecteren</t>
+  </si>
+  <si>
+    <t>wil ik rapportages kunnen maken op de toegepaste selectiecriteria</t>
+  </si>
+  <si>
+    <t>kan controleren over juistheid</t>
+  </si>
+  <si>
+    <t>wil ik dat het systeem mij een seintje geeft bij afwijking van het selectieresultaat (m.n. verwachte # selecties)</t>
+  </si>
+  <si>
+    <t>zodat ik kan weet dat ik een probleem moet oplossen</t>
+  </si>
+  <si>
+    <t>vergelijken selectieresultaat</t>
+  </si>
+  <si>
+    <t>selectiecriteria uit een lijst kunnen aanvinken i.g.v. selecte steekproef</t>
+  </si>
+  <si>
+    <t>het systeem die toepast en een bestand met inspectielokaties genereert</t>
+  </si>
+  <si>
+    <t>weten welke actuele zaken op bedrijven spelen (bv dierziektencrisis of IOD of convenantbedrijven)</t>
+  </si>
+  <si>
+    <t>dat kan gebruiken in de selectie</t>
+  </si>
+  <si>
+    <t>het proces van uitvoering volgen (het % van uitvoering)</t>
+  </si>
+  <si>
+    <t>ik stand van zaken weet t.a.v. de realisatie</t>
+  </si>
+  <si>
+    <t>wil ik een dashboard</t>
+  </si>
+  <si>
+    <t>altijd het project kan monitoren</t>
+  </si>
+  <si>
+    <t>hoort dit bij de Uitvoering van het project?</t>
+  </si>
+  <si>
+    <t>gebruik kunnen maken van tools om grafieken te kunnen maken</t>
+  </si>
+  <si>
+    <t>rapportages inzichtelijker worden</t>
+  </si>
+  <si>
+    <t>wil ik risicoanalyse van een doelgroep</t>
+  </si>
+  <si>
+    <t>zodat ik de juiste handhavingsaanpak (methode) kies</t>
+  </si>
+  <si>
+    <t>geschiedenis van doelgroep en vergelijkbare projecten</t>
+  </si>
+  <si>
+    <t>zodat ik een goede selectie van bedrijven kan maken</t>
+  </si>
+  <si>
+    <t>suzanne</t>
+  </si>
+  <si>
+    <t>selecteren selectiecriteria</t>
+  </si>
+  <si>
+    <t>kunnen aanvinken welk risicoprofiel, regio, bedrijfsgrootte, tijdsperiode, etc</t>
+  </si>
+  <si>
+    <t>de juiste mthoden op de juiste manier ingezet worden</t>
+  </si>
+  <si>
+    <t>doelgroep (evenement, bv 4-daagse) zichtbaar maken</t>
+  </si>
+  <si>
+    <t>je kunt checken of de geprogrammeerde handhaving uitvoerbaar is (op de 4e dag geen inspecties meer doen gezien de aantallen)</t>
+  </si>
+  <si>
+    <t>dat het systeem aangeeft welke methoden er zijn</t>
+  </si>
+  <si>
+    <t>welke maatschappelijke relevantie is</t>
+  </si>
+  <si>
+    <t>de juiste methoden kan inzetten</t>
+  </si>
+  <si>
+    <t>evaluatie</t>
+  </si>
+  <si>
+    <t>n.b. deze stap hoort voor de start van het proces</t>
+  </si>
+  <si>
+    <t>welke relevante artikelen/verordeningen van de wetgeving betrokken is bij de opdracht</t>
+  </si>
+  <si>
+    <t>we weten wat te doen bij een inspectie met welke inspecteur</t>
+  </si>
+  <si>
+    <t>relevante wet- en regelgeving bepalen</t>
+  </si>
+  <si>
+    <t>juiste naleving plaatsvindt</t>
+  </si>
+  <si>
+    <t>idem</t>
+  </si>
+  <si>
+    <t>info over totale doelgroep</t>
+  </si>
+  <si>
+    <t>ik de mogelijkheid heb om te selecteren op sub doelgroepen</t>
+  </si>
+  <si>
+    <t>ik wil weten hoeveel de gebudgeteerde capaciteit is</t>
+  </si>
+  <si>
+    <t>zodat ik de kaders voor de planning weet</t>
+  </si>
+  <si>
+    <t>kunnen aanvinken en laten voorstellen om handhavingsmethode (inspectie, monstername + -onderzoek, internettoezicht, etc) te combineren met type inspecteur en benodigde tijd</t>
+  </si>
+  <si>
+    <t>een optimale mix ontstaat van deze elementen wordt voorgesteld</t>
+  </si>
+  <si>
+    <t>bereken benodigde capaciteit</t>
+  </si>
+  <si>
+    <t>hier zit een link met het proces Inzetplanning</t>
+  </si>
+  <si>
+    <t>kunnen opgeven welke inpsectiemomenten er zijn</t>
+  </si>
+  <si>
+    <t>de planning hier rekening mee kan houden</t>
+  </si>
+  <si>
+    <t>bepalen kritisch inspectiemoment</t>
+  </si>
+  <si>
+    <t>start en periode en periode project bepalen</t>
+  </si>
+  <si>
+    <t>het past bij de projectenkalender</t>
+  </si>
+  <si>
+    <t>kunnen aanvinken welke documenten (werkinstructies, interventiebeleid, stukken uit jaarplan, etc) relevant zijn voor projectopdracht</t>
+  </si>
+  <si>
+    <t>goede uitgangs documenten kunnen worden gebruikt</t>
+  </si>
+  <si>
+    <t>welke methodes gekozen zijn</t>
+  </si>
+  <si>
+    <t>ik daarop de procesopdracht inricht</t>
+  </si>
+  <si>
+    <t>dat ik weet welke wetgeving van toepassing is</t>
+  </si>
+  <si>
+    <t>zodat ik weet wat ik moet handhaven</t>
+  </si>
+  <si>
+    <t>selecteren methode</t>
+  </si>
+  <si>
+    <t>alle beschikbare documenten kunnen inzien en toevoegen aan projectopdracht</t>
+  </si>
+  <si>
+    <t>zodat ik een goede selectie kan maken</t>
+  </si>
+  <si>
+    <t>selecteren documenten</t>
+  </si>
+  <si>
+    <t>n.b. het betreft documenten zoals in de procesbeschrijving genoemd</t>
+  </si>
+  <si>
+    <t>weten of monsters genomen moeten worden (relatie leggen)</t>
+  </si>
+  <si>
+    <t>ik capaciteit van lab kan inplannen</t>
+  </si>
+  <si>
+    <t>bepalen benodigde systemen</t>
+  </si>
+  <si>
+    <t>wil ik dat het systeem obv het # benodigde bedrijven en het kritisch inspectiemoment de benodgde capaciteit berekent</t>
+  </si>
+  <si>
+    <t>ik daar inzicht in heb en weet waar de rekorten en overschotten  zitten</t>
+  </si>
+  <si>
+    <t>berekenen  benodigde capaciteit</t>
+  </si>
+  <si>
+    <t>ik kan selecteren op de juiste bedrijven uit de (verschillende) doelgroep(en)</t>
+  </si>
+  <si>
+    <t>type medewerkers TU bepalen</t>
+  </si>
+  <si>
+    <t>inspecties op de juiste manier worden uitgevoerd met de juiste kennis en knowhow</t>
+  </si>
+  <si>
+    <t>n.b. is een extra processtap nodig om de benodigde competenties te bepalen of hoort het bij 'proces methode'?</t>
+  </si>
+  <si>
+    <t>wil ik dat het systeem de benodigde capaciteit vergelijkt met de beschikbare capaciteit en aangeeft waar discrepantie is</t>
+  </si>
+  <si>
+    <t>ik weet hoe haalbaar mijn plan is</t>
+  </si>
+  <si>
+    <t>controleren inzetbare capaciteit</t>
+  </si>
+  <si>
+    <t>dat we risicoprofielen tot op bedrijfsniveau inzichtelijk hebben</t>
+  </si>
+  <si>
+    <t>ik een goede selectie kan maken</t>
+  </si>
+  <si>
+    <t>dat de lijst selectiecriteria vooraf bekend is</t>
+  </si>
+  <si>
+    <t>ik snel kan selecteren</t>
+  </si>
+  <si>
+    <t>dat het systeem de geselecteerde documenten (evt. als link) combineert met de info uit de eerdere stappen in 1 document</t>
+  </si>
+  <si>
+    <t>alle documentatie beschikbaar is vanuit 1 document, de projectopdracht</t>
+  </si>
+  <si>
+    <t>auteur</t>
+  </si>
+  <si>
+    <t>Requirement</t>
+  </si>
+  <si>
+    <t>[Requirement]</t>
+  </si>
+  <si>
+    <t>Req001</t>
+  </si>
+  <si>
+    <t>Req002</t>
+  </si>
+  <si>
+    <t>Req003</t>
+  </si>
+  <si>
+    <t>Req004</t>
+  </si>
+  <si>
+    <t>Req005</t>
+  </si>
+  <si>
+    <t>Req006</t>
+  </si>
+  <si>
+    <t>Req007</t>
+  </si>
+  <si>
+    <t>Req008</t>
+  </si>
+  <si>
+    <t>Req009</t>
+  </si>
+  <si>
+    <t>Req010</t>
+  </si>
+  <si>
+    <t>Req011</t>
+  </si>
+  <si>
+    <t>Req012</t>
+  </si>
+  <si>
+    <t>Req013</t>
+  </si>
+  <si>
+    <t>Req014</t>
+  </si>
+  <si>
+    <t>Req015</t>
+  </si>
+  <si>
+    <t>Req016</t>
+  </si>
+  <si>
+    <t>Req017</t>
+  </si>
+  <si>
+    <t>Req018</t>
+  </si>
+  <si>
+    <t>Req019</t>
+  </si>
+  <si>
+    <t>Req020</t>
+  </si>
+  <si>
+    <t>Req021</t>
+  </si>
+  <si>
+    <t>Req022</t>
+  </si>
+  <si>
+    <t>Req023</t>
+  </si>
+  <si>
+    <t>Req024</t>
+  </si>
+  <si>
+    <t>Req025</t>
+  </si>
+  <si>
+    <t>Req026</t>
+  </si>
+  <si>
+    <t>Req027</t>
+  </si>
+  <si>
+    <t>Req028</t>
+  </si>
+  <si>
+    <t>Req029</t>
+  </si>
+  <si>
+    <t>Req030</t>
+  </si>
+  <si>
+    <t>Req031</t>
+  </si>
+  <si>
+    <t>Req032</t>
+  </si>
+  <si>
+    <t>Req033</t>
+  </si>
+  <si>
+    <t>Req034</t>
+  </si>
+  <si>
+    <t>Req035</t>
+  </si>
+  <si>
+    <t>Req036</t>
+  </si>
+  <si>
+    <t>Req037</t>
+  </si>
+  <si>
+    <t>Req038</t>
+  </si>
+  <si>
+    <t>Req039</t>
+  </si>
+  <si>
+    <t>Req040</t>
+  </si>
+  <si>
+    <t>Req041</t>
+  </si>
+  <si>
+    <t>Req042</t>
+  </si>
+  <si>
+    <t>Req043</t>
+  </si>
+  <si>
+    <t>Req044</t>
+  </si>
+  <si>
+    <t>Req045</t>
+  </si>
+  <si>
+    <t>Req046</t>
+  </si>
+  <si>
+    <t>Req047</t>
+  </si>
+  <si>
+    <t>Req048</t>
+  </si>
+  <si>
+    <t>Req049</t>
+  </si>
+  <si>
+    <t>Req050</t>
+  </si>
+  <si>
+    <t>Req051</t>
+  </si>
+  <si>
+    <t>Req052</t>
+  </si>
+  <si>
+    <t>Req053</t>
+  </si>
+  <si>
+    <t>Req054</t>
+  </si>
+  <si>
+    <t>Req055</t>
+  </si>
+  <si>
+    <t>Req056</t>
+  </si>
+  <si>
+    <t>Req057</t>
+  </si>
+  <si>
+    <t>Req059</t>
+  </si>
+  <si>
+    <t>Req060</t>
+  </si>
+  <si>
+    <t>Req061</t>
+  </si>
+  <si>
+    <t>Req062</t>
+  </si>
+  <si>
+    <t>Req063</t>
+  </si>
+  <si>
+    <t>Req064</t>
+  </si>
+  <si>
+    <t>Req065</t>
+  </si>
+  <si>
+    <t>Req066</t>
+  </si>
+  <si>
+    <t>Req067</t>
+  </si>
+  <si>
+    <t>Req068</t>
+  </si>
+  <si>
+    <t>Req069</t>
+  </si>
+  <si>
+    <t>Req070</t>
+  </si>
+  <si>
+    <t>Req071</t>
+  </si>
+  <si>
+    <t>Req072</t>
+  </si>
+  <si>
+    <t>Req073</t>
+  </si>
+  <si>
+    <t>Req074</t>
+  </si>
+  <si>
+    <t>Req075</t>
+  </si>
+  <si>
+    <t>Req076</t>
+  </si>
+  <si>
+    <t>Req077</t>
+  </si>
+  <si>
+    <t>Req078</t>
+  </si>
+  <si>
+    <t>Req079</t>
+  </si>
+  <si>
+    <t>Req080</t>
+  </si>
+  <si>
+    <t>Req081</t>
+  </si>
+  <si>
+    <t>Req082</t>
+  </si>
+  <si>
+    <t>Req083</t>
+  </si>
+  <si>
+    <t>Req084</t>
+  </si>
+  <si>
+    <t>Req085</t>
+  </si>
+  <si>
+    <t>Req086</t>
+  </si>
+  <si>
+    <t>Req087</t>
+  </si>
+  <si>
+    <t>Req088</t>
+  </si>
+  <si>
+    <t>Req089</t>
+  </si>
+  <si>
+    <t>Req090</t>
+  </si>
+  <si>
+    <t>Req091</t>
+  </si>
+  <si>
+    <t>Req092</t>
+  </si>
+  <si>
+    <t>Req093</t>
+  </si>
+  <si>
+    <t>Req094</t>
+  </si>
+  <si>
+    <t>Req095</t>
+  </si>
+  <si>
+    <t>Req096</t>
+  </si>
+  <si>
+    <t>Req097</t>
+  </si>
+  <si>
+    <t>Req098</t>
+  </si>
+  <si>
+    <t>Req099</t>
+  </si>
+  <si>
+    <t>Req100</t>
+  </si>
+  <si>
+    <t>Req101</t>
+  </si>
+  <si>
+    <t>Req102</t>
+  </si>
+  <si>
+    <t>Req103</t>
+  </si>
+  <si>
+    <t>Req104</t>
+  </si>
+  <si>
+    <t>Req105</t>
+  </si>
+  <si>
+    <t>Req106</t>
+  </si>
+  <si>
+    <t>Req107</t>
+  </si>
+  <si>
+    <t>Req108</t>
+  </si>
+  <si>
+    <t>Req109</t>
+  </si>
+  <si>
+    <t>Req110</t>
+  </si>
+  <si>
+    <t>Req111</t>
+  </si>
+  <si>
+    <t>Req112</t>
+  </si>
+  <si>
+    <t>Req113</t>
+  </si>
+  <si>
+    <t>Req114</t>
+  </si>
+  <si>
+    <t>Req115</t>
+  </si>
+  <si>
+    <t>Req116</t>
+  </si>
+  <si>
+    <t>Req117</t>
+  </si>
+  <si>
+    <t>Req118</t>
+  </si>
+  <si>
+    <t>Req119</t>
+  </si>
+  <si>
+    <t>Req120</t>
+  </si>
+  <si>
+    <t>Req121</t>
+  </si>
+  <si>
+    <t>Req122</t>
+  </si>
+  <si>
+    <t>Req123</t>
+  </si>
+  <si>
+    <t>Req124</t>
+  </si>
+  <si>
+    <t>Req125</t>
+  </si>
+  <si>
+    <t>Req126</t>
+  </si>
+  <si>
+    <t>Req127</t>
+  </si>
+  <si>
+    <t>Req128</t>
+  </si>
+  <si>
+    <t>Req129</t>
+  </si>
+  <si>
+    <t>Req130</t>
+  </si>
+  <si>
+    <t>Req131</t>
+  </si>
+  <si>
+    <t>Req132</t>
+  </si>
+  <si>
+    <t>Req133</t>
+  </si>
+  <si>
+    <t>Req134</t>
+  </si>
+  <si>
+    <t>Req135</t>
+  </si>
+  <si>
+    <t>Req136</t>
+  </si>
+  <si>
+    <t>Req137</t>
+  </si>
+  <si>
+    <t>Req138</t>
+  </si>
+  <si>
+    <t>Req139</t>
+  </si>
+  <si>
+    <t>Req140</t>
+  </si>
+  <si>
+    <t>Req141</t>
+  </si>
+  <si>
+    <t>Req142</t>
+  </si>
+  <si>
+    <t>Req143</t>
+  </si>
+  <si>
+    <t>Req144</t>
+  </si>
+  <si>
+    <t>Req145</t>
+  </si>
+  <si>
+    <t>Req146</t>
+  </si>
+  <si>
+    <t>Req147</t>
+  </si>
+  <si>
+    <t>Req148</t>
+  </si>
+  <si>
+    <t>Req149</t>
+  </si>
+  <si>
+    <t>Req150</t>
+  </si>
+  <si>
+    <t>Req151</t>
+  </si>
+  <si>
+    <t>Req152</t>
+  </si>
+  <si>
+    <t>Req153</t>
+  </si>
+  <si>
+    <t>Req154</t>
+  </si>
+  <si>
+    <t>Req155</t>
+  </si>
+  <si>
+    <t>Req156</t>
+  </si>
+  <si>
+    <t>Req157</t>
+  </si>
+  <si>
+    <t>Req158</t>
+  </si>
+  <si>
+    <t>Req159</t>
+  </si>
+  <si>
+    <t>Req160</t>
+  </si>
+  <si>
+    <t>Req161</t>
+  </si>
+  <si>
+    <t>Req162</t>
+  </si>
+  <si>
+    <t>Req163</t>
+  </si>
+  <si>
+    <t>Req164</t>
+  </si>
+  <si>
+    <t>Req165</t>
+  </si>
+  <si>
+    <t>Req166</t>
+  </si>
+  <si>
+    <t>Req167</t>
+  </si>
+  <si>
+    <t>Req168</t>
+  </si>
+  <si>
+    <t>Req169</t>
+  </si>
+  <si>
+    <t>Req170</t>
+  </si>
+  <si>
+    <t>Req171</t>
+  </si>
+  <si>
+    <t>Req172</t>
+  </si>
+  <si>
+    <t>Req173</t>
+  </si>
+  <si>
+    <t>Req174</t>
+  </si>
+  <si>
+    <t>Req175</t>
+  </si>
+  <si>
+    <t>Req176</t>
+  </si>
+  <si>
+    <t>Req177</t>
+  </si>
+  <si>
+    <t>Req178</t>
+  </si>
+  <si>
+    <t>Req179</t>
+  </si>
+  <si>
+    <t>Req180</t>
+  </si>
+  <si>
+    <t>Req181</t>
+  </si>
+  <si>
+    <t>Req182</t>
+  </si>
+  <si>
+    <t>Req183</t>
+  </si>
+  <si>
+    <t>Req184</t>
+  </si>
+  <si>
+    <t>Req185</t>
+  </si>
+  <si>
+    <t>Req186</t>
+  </si>
+  <si>
+    <t>Req187</t>
+  </si>
+  <si>
+    <t>Req188</t>
+  </si>
+  <si>
+    <t>Req189</t>
+  </si>
+  <si>
+    <t>Req190</t>
+  </si>
+  <si>
+    <t>omschrijving</t>
+  </si>
+  <si>
+    <t>procesflow</t>
+  </si>
+  <si>
+    <t>weten of er gespecialiseerde medewerker (bv dierenarts) nodig is</t>
+  </si>
+  <si>
+    <t>ik verder kan sturen op de volgorde van opdrachten</t>
+  </si>
+  <si>
+    <t>oormerken van bedrijven en _x000D_
+identificeren conflicten</t>
+  </si>
+  <si>
+    <t>goed wordt nagedacht over het combineren van bedrijven en opdrachten</t>
+  </si>
+  <si>
+    <t>dat het systeem alle bedrijven prioriteert</t>
+  </si>
+  <si>
+    <t>bij een random steekproef de parameters (populatie omvang, gewenste betrouwbaarheid, verwacht nalevings%, etc) kunnen geven</t>
+  </si>
+  <si>
+    <t>wil ik een actueel data bestand met selectie criteria (incl. Adressenbestand) zodat ik makkelijk kan selecteren.</t>
+  </si>
+  <si>
+    <t>welke bedrijven voor welke periode zijn aangesloten bij kwaliteitssystemen en welke gevolgen dat heeft</t>
+  </si>
+  <si>
+    <t>aparte processtap (selecteren verbijzondering wet- en regelgeving) voor stap Bepalen methode</t>
+  </si>
+  <si>
+    <t>weten in welke bedrijven dit speelt; subdoelgroepen kunnen bepalen</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie welke diploma's</t>
+  </si>
+  <si>
+    <t>externe informatie: IMR overzicht met daarin bedrijfsrisico's (wanneer oomerken zijn bijbesteld en wanneer ze zijn aangemeld)</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: over de meest recente gegevens beschikken</t>
+  </si>
+  <si>
+    <t>sectorinformatie: hoe gaat het in de sector, waar komt het basismateriaal vandaag, wat is bestemming van eindproduct en jargon.</t>
+  </si>
+  <si>
+    <t>ICT: dat de informatie printbaar is</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: informatie van alle crisis situaties, meldingen en incidenten van het te bezoeken bedrijf van medehandhavers (RWS bv)</t>
+  </si>
+  <si>
+    <t>procesinformatie: uit de basisvoorziening een filtering kan maken uit het volledig bedrijfsdossier</t>
+  </si>
+  <si>
+    <t>procesinformatie: alleen de juiste inspectielijsten</t>
+  </si>
+  <si>
+    <t>externe informatie: wie de dierenarts van het bedrijf is (niet de nvwa dierenarts)</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: de rapportages van alle inspecties zien van nvwa van alle bedrijven ook van medehandhavers</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: zelf alle benodigde gegevens kunnen benaderen (inzien)</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: alle relevante informatie in 1 overzicht</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie; of er meer inspecties op het bedrijf zijn gepland de komende maanden</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: ook overige bedrijven van zelfde eigenaar kunnen zien</t>
+  </si>
+  <si>
+    <t>ICT: een uniform bedrijfsdossier (vaste layout)</t>
+  </si>
+  <si>
+    <t>procesinformatie: de naam van de senior toezichthoudend inspecteur hebben</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: overzicht van alle controle inspectie objecten en alle bekende inspectie resultaten,</t>
+  </si>
+  <si>
+    <t>procesinformatie: ik wil de wetgeving behorende bij de inspectie kunnen zien</t>
+  </si>
+  <si>
+    <t>ICT: de gegevens uit het inspectiedossier makkelijk 'over te nemen zijn'(kopieren iod) ten behoeve van rapportage</t>
+  </si>
+  <si>
+    <t>procesinformatie: mogelijkheden hebben om aantekeningen te maken tijdens de inspectie (bv ik sta in het veld en ik zie dat er een huisje staat dat illegaal gebouwd lijkt)</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: het verslag van de intervisiebijeenkomst van collega's over dit bedrijf kunnen zien</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: dat het bedrijfsdossier kan worden aangepast</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: controle historie met eventuele boetes (bedrag/betaald/bezwaar/uitkomsten)</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: bedrijfshistorie kunnen inzien</t>
+  </si>
+  <si>
+    <t>procesinformatie:1 gegenereerde checklist op basis van een opdracht</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: het risicoprofiel van het bedrijf kennen</t>
+  </si>
+  <si>
+    <t>procesinformatie:alle bedrijfsdossiers kunnen raadplegen</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: historische gegevens beschikken</t>
+  </si>
+  <si>
+    <t>Procesinformatie: dat de benodigde tijd voor aangevraagde inspectie kan worden aangepast en automatisch wordt toegevoegd aan mijn tijdsverantwoording</t>
+  </si>
+  <si>
+    <t>Procesinformatie: de tijd tussen de inspecties, dagplanning kennen</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: overzicht destructiegegevens afgezet tegen landelijk gemiddelde</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: kvk + bestuurders, naw gegevens, telnr, email, website</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: overzicht bedrijfshistori/controlehistory</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: luchtfoto van bedrijf</t>
+  </si>
+  <si>
+    <t>procesinformatie: kunnen zien dat de inspectie automatisch wordt afgerekend in het bedrijf</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: de werkzaamheden weten</t>
+  </si>
+  <si>
+    <t>bedrijfshistorie: overzicht MOS meldingen; niet elke mos melding is automatisch controle, maar wel een signaal voor de inspecteur</t>
+  </si>
+  <si>
+    <t>procesinformatie: het deel van het interventiebeleid inzien dat betrekking kan hebben op de inspectie</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: kaartinformatie met percelen en teelten. Ook luchtfoto van object</t>
+  </si>
+  <si>
+    <t>Uniforme en up to date lijst met locatiecatgorieën</t>
+  </si>
+  <si>
+    <t>Analyseren data = wat is de conclusie, statistisch</t>
+  </si>
+  <si>
+    <t>Indien x% vd insp.lijsten onvoldoende is ingevuld: markeren,verwijderen_x000D_
+Als bezoek ontbreekt, protocol niet is gevolgd, markeren, verwijderen</t>
+  </si>
+  <si>
+    <t>wil ik bij het oplossen van een conflict een overzicht hebben van alternatieve scenario's (wat als opdrachten gesplitst worden, bedrijven afvallen uit selectie)</t>
+  </si>
+  <si>
+    <t>selecteren methode, bepalen kritisch inspectiemoment</t>
+  </si>
+  <si>
+    <t>inspectiehistorie weten over de afgelopen 5 jaar welke inspecties zijn geweest en of er interventie maatregelen zijn gedaan en wat de juridische gevolgen zijn, tevens informatie of meldingen zijn geweest over het bedrijf.</t>
+  </si>
+  <si>
+    <t>je weet of het bedrijf recidivist is, wat is de trend in naleving om een passende interventie kiest (en voorkomt dat er waarschuwing op waarschuwing wordt gegeven), tevens input voor het gesprek op het bedrijf (wat voor vlees je in de kuip hebt)</t>
+  </si>
+  <si>
+    <t>ik een indicator heb over het nalevingsniveau van dit bedrijf en de grootte van het risico (het is dus mogelijk een selectiecriterium) NU: wordt het ook gebruikt om te bepalen of je alleen of met 2 heen moet gaan</t>
+  </si>
+  <si>
+    <t>sneller (efficienter) mijn dossier kan samenstellen. n.b. bepaalde informatie is nu alleen voor 'gemandateerden' in te zien (bv export certificaten mest)</t>
+  </si>
+  <si>
+    <t>bedrijfshistorie: bijzonderheden van een bedrijf inzichtelijk hebben (gemene hond, mkz verleden met grote impact, bedrijf waar je altijd met politie naar toe moet)</t>
+  </si>
+  <si>
+    <t>zodat je de vast tips kunt geven voor de volgende inspectie toch nog iets combineren? Tegemoet komen aan wens van inspecteur in het kunnen mee denken met de (interventie)strategie ook herinspecties geven invloed op de aanpak</t>
+  </si>
+  <si>
+    <t>medewerker/inspecteur</t>
+  </si>
+  <si>
+    <t>zodat ik weet wie ik kan raadplegen bij inhoudelijke zaken ook het weergeven van de piketdiensten past hierin</t>
+  </si>
+  <si>
+    <t>bedrijfsinformatie: alle bedrijfsgegevens van kva, sba, ?</t>
+  </si>
+  <si>
+    <t>Weten wat er bekend is over de doelgroep, zijn er al doelgroepanalyses gedaan, aantal en wat vindt de doelgroep belangrijk</t>
+  </si>
+  <si>
+    <t>samenwerking met andere toezichthouders en combinaties</t>
+  </si>
+  <si>
+    <t>ik weet welke selectiecriteria toegepast moeten worden</t>
+  </si>
+  <si>
+    <t>Herman Jansen/Riny Denissen</t>
+  </si>
+  <si>
+    <t>Overzicht wie deelneemt aan de projecten/workflowactiviteiten voor wie,waar,wanneer druk is met bepaalde projecten, vakantie</t>
+  </si>
+  <si>
+    <t>alle tijdspannes beschrijven (alle processtappen)</t>
+  </si>
+  <si>
+    <t>zaken wat mee te nemen en te beschrijven in je rapportage_x000D_
+- voor wie bedoeld_x000D_
+- laten lezen door collega_x000D_
+- doelen project laten terugkomen_x000D_
+- makkelijk leesbaar_x000D_
+- welke taal?_x000D_
+- standard format_x000D_
+- autom. genereren format adhv data-analyse</t>
+  </si>
+  <si>
+    <t>[Rol/]</t>
+  </si>
+  <si>
+    <t>[Tekst/]</t>
+  </si>
+  <si>
+    <t>BWBR0032146,BWBR0005528</t>
+  </si>
+  <si>
+    <t>regelgeving</t>
+  </si>
+  <si>
+    <t>BWBR0032626</t>
+  </si>
+  <si>
+    <t>BWBR0028123</t>
+  </si>
+  <si>
+    <t>BWBR0036837</t>
+  </si>
+  <si>
+    <t>BWBR0035217,BWBR0007248</t>
+  </si>
+  <si>
+    <t>[Regeling,]</t>
+  </si>
+  <si>
+    <t>BWBR0007049</t>
+  </si>
+  <si>
+    <t>BWBR0022420</t>
+  </si>
+  <si>
+    <t>BWBR0019235</t>
+  </si>
+  <si>
+    <t>[Zaaktype]</t>
+  </si>
+  <si>
+    <t>Zaaktype</t>
+  </si>
+  <si>
+    <t>Beleid</t>
+  </si>
+  <si>
+    <t>Programma</t>
+  </si>
+  <si>
+    <t>Aanvraag</t>
+  </si>
+  <si>
+    <t>Klacht</t>
+  </si>
+  <si>
+    <t>Vraag</t>
+  </si>
+  <si>
+    <t>Melding</t>
+  </si>
+  <si>
+    <t>Opdracht</t>
+  </si>
+  <si>
+    <t>Inspectie</t>
+  </si>
+  <si>
+    <t>Keuring</t>
+  </si>
+  <si>
+    <t>Monsterneming</t>
+  </si>
+  <si>
+    <t>WOB</t>
+  </si>
+  <si>
+    <t>Claim</t>
+  </si>
+  <si>
+    <t>Ingebrekestelling</t>
+  </si>
+  <si>
+    <t>Gesprek</t>
+  </si>
+  <si>
+    <t>Interventie</t>
+  </si>
+  <si>
+    <t>Verzet</t>
+  </si>
+  <si>
+    <t>Verzoek</t>
+  </si>
+  <si>
+    <t>zt1</t>
+  </si>
+  <si>
+    <t>zt2</t>
+  </si>
+  <si>
+    <t>zt3</t>
+  </si>
+  <si>
+    <t>zt4</t>
+  </si>
+  <si>
+    <t>zt5</t>
+  </si>
+  <si>
+    <t>zt6</t>
+  </si>
+  <si>
+    <t>zt7</t>
+  </si>
+  <si>
+    <t>zt8</t>
+  </si>
+  <si>
+    <t>zt9</t>
+  </si>
+  <si>
+    <t>zt10</t>
+  </si>
+  <si>
+    <t>zt11</t>
+  </si>
+  <si>
+    <t>zt12</t>
+  </si>
+  <si>
+    <t>zt13</t>
+  </si>
+  <si>
+    <t>zt14</t>
+  </si>
+  <si>
+    <t>zt15</t>
+  </si>
+  <si>
+    <t>zt16</t>
+  </si>
+  <si>
+    <t>zt17</t>
+  </si>
+  <si>
+    <t>zt18</t>
+  </si>
+  <si>
+    <t>Art. 1:3 lid 3 AwB</t>
+  </si>
+  <si>
+    <t>definitie</t>
+  </si>
+  <si>
+    <t>Onder een aanvraag wordt verstaan: een verzoek van een belanghebbende, een besluit te nemen.</t>
+  </si>
+  <si>
+    <t>[Overtreding]</t>
+  </si>
+  <si>
+    <t>Overtreding</t>
+  </si>
+  <si>
+    <t>Art. 5:1 lid 1 Awb</t>
+  </si>
+  <si>
+    <t>Onder overtreding wordt verstaan een gedraging die in strijd is met het bepaalde bij of krachtens enig wettelijk voorschrift.</t>
+  </si>
+  <si>
+    <t>Overtreder</t>
+  </si>
+  <si>
+    <t>Art. 5:1 lid 2 Awb</t>
+  </si>
+  <si>
+    <t>Onder overtreder wordt verstaan: degene die de overtreding pleeft of medepleegt.</t>
+  </si>
+  <si>
+    <t>Bestuurlijke sanctie</t>
+  </si>
+  <si>
+    <t>Art. 5:2 lid 1 sub a. Awb</t>
+  </si>
+  <si>
+    <t>Onder bestuurlijke sanctie wordt verstaan: een door een bestuursorgaan wegens een overtreding opgelegde verplichting of onthouden aanspraak;</t>
+  </si>
+  <si>
+    <t>Herstelsanctie</t>
+  </si>
+  <si>
+    <t>Art. 5:2 lid 1 sub b. Awb</t>
+  </si>
+  <si>
+    <t>Onder herstelsanctie wordt verstaan: een bestuurlijke sanctie die strekt tot het geheel of gedeeltelijk ongedaan maken of beeindigen van een overtreding, tot het voorkomen van herhaling van een overtreding, dan wel tot het wegnemen of beperken van de gevolgen van een overtreding.</t>
+  </si>
+  <si>
+    <t>Bestraffende sanctie</t>
+  </si>
+  <si>
+    <t>Art. 5:2 lid 1 sub c. Awb</t>
+  </si>
+  <si>
+    <t>Onder bestraffende sanctie wordt verstaan: een bestuurlijke sanctie voor zover deze beoogt de overtreder leed toe te voegen.</t>
+  </si>
+  <si>
+    <t>voorschrift</t>
+  </si>
+  <si>
+    <t>Wetsartikel</t>
+  </si>
+  <si>
+    <t>plaats</t>
+  </si>
+  <si>
+    <t>tijdstip</t>
+  </si>
+  <si>
+    <t>Plaatsaanduiding</t>
+  </si>
+  <si>
+    <t>Tijdsaanduiding</t>
+  </si>
+  <si>
+    <t>Toezichthouder</t>
+  </si>
+  <si>
+    <t>Art. 5:11 Awb</t>
+  </si>
+  <si>
+    <t>Onder toezichthouder wordt verstaan: een persoon, bij of krachtens wettelijk voorschrift belast met het houden van toezicht op de naleving van het bepaalde bij of krachtens enig wettelijk voorschrift.</t>
+  </si>
+  <si>
+    <t>Persoon</t>
+  </si>
+  <si>
+    <t>geconstateerd</t>
+  </si>
+  <si>
+    <t>overtreder</t>
+  </si>
+  <si>
+    <t>Last onder bestuursdwang</t>
+  </si>
+  <si>
+    <t>Art. 5:21 Awb</t>
+  </si>
+  <si>
+    <t>Onder last onder bestuursdwang wordt verstaan: een herstelsanctie, inhoudende een last tot geheel of gedeeltelijk herstel van de overtreding, en de bevoegdheid van het bestuursorgaan om de last door feitelijk handelen ten uitvoer te leggen, indien de last niet of niet tijdig wordt uitgevoerd.</t>
+  </si>
+  <si>
+    <t>Last onder dwangsom</t>
+  </si>
+  <si>
+    <t>Art. 5:31d Awb</t>
+  </si>
+  <si>
+    <t>Onder last onder dwangsom wordt verstaan: een herstelsanctie, inhoudende een last tot geheel of gedeeltelijk herstel van de overtreding, en de verplichting tot betaling van een geldsom indien de last niet of niet tijdig wordt uitgevoerd.</t>
+  </si>
+  <si>
+    <t>Bestuurlijke boete</t>
+  </si>
+  <si>
+    <t>Art. 5:40 Awb</t>
+  </si>
+  <si>
+    <t>Onder bestuurlijke boete wordt verstaan: de bestraffende sanctie, inhoudende een onvoorwaardelijke verplichting tot betaling van een geldsom.</t>
+  </si>
+  <si>
+    <t>uitgereikt</t>
+  </si>
+  <si>
+    <t>Art. 5:48 lid 3 Awb</t>
+  </si>
+  <si>
+    <t>Art. 5:9 Awb</t>
+  </si>
+  <si>
+    <t>Art. 5:9 sub b. Awb</t>
+  </si>
+  <si>
+    <t>Art. 5:9 sub a. Awb</t>
+  </si>
+  <si>
+    <t>Art. 9:1 AwB</t>
+  </si>
+  <si>
+    <t>[Klacht]</t>
+  </si>
+  <si>
+    <t>indiener</t>
+  </si>
+  <si>
+    <t>Art. 9:4 lid 2 sub a. AwB</t>
+  </si>
+  <si>
+    <t>dagtekening</t>
+  </si>
+  <si>
+    <t>Art. 9:4 lid 2 sub c. AwB</t>
+  </si>
+  <si>
+    <t>Art. 9:4 lid 2 sub b. AwB</t>
+  </si>
+  <si>
+    <t>klaagschrift</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Art. 9:4 lid 2 AwB</t>
+  </si>
+  <si>
+    <t>behandelaar</t>
+  </si>
+  <si>
+    <t>stuk</t>
+  </si>
+  <si>
+    <t>beklaagde</t>
+  </si>
+  <si>
+    <t>klager</t>
+  </si>
+  <si>
+    <t>hoorzitting</t>
+  </si>
+  <si>
+    <t>Zitting</t>
+  </si>
+  <si>
+    <t>Mandaat</t>
+  </si>
+  <si>
+    <t>Art. 10:1 AwB</t>
+  </si>
+  <si>
+    <t>Onder mandaat wordt verstaan: de bevoegdheid om in naam van een bestuursorgaan een besluit te nemen.</t>
+  </si>
+  <si>
+    <t>bestuursorgaan</t>
+  </si>
+  <si>
+    <t>Bestuursorgaan</t>
+  </si>
+  <si>
+    <t>besluit</t>
+  </si>
+  <si>
+    <t>Besluit</t>
+  </si>
+  <si>
+    <t>krachtens</t>
+  </si>
+  <si>
+    <t>beschikking</t>
+  </si>
+  <si>
+    <t>Delegatie</t>
+  </si>
+  <si>
+    <t>Art. 10:13 AwB</t>
+  </si>
+  <si>
+    <t>Onder delegatie wordt verstaan: het overdragen door een bestuursorgaan van zijn bevoegdheid tot het nemen van besluiten aan een ander die deze onder eigen verantwoordelijkheid uitoefent.</t>
+  </si>
+  <si>
+    <t>gedelegeerde</t>
+  </si>
+  <si>
+    <t>inspecteur-generaal</t>
+  </si>
+  <si>
+    <t>plaatsvervangend inspecteur-generaal</t>
+  </si>
+  <si>
+    <t>Chief Veterinary Inspector</t>
+  </si>
+  <si>
+    <t>Deputy Director National Plant Protection Organisation</t>
+  </si>
+  <si>
+    <t>de afdelingshoofden van een directie of divisie van de Nederlandse Voedsel- en Warenautoriteit</t>
+  </si>
+  <si>
+    <t>directieraad</t>
+  </si>
+  <si>
+    <t>het collectief van de onder a tot en met d bedoelde functionarissen</t>
+  </si>
+  <si>
+    <t>grond</t>
+  </si>
+  <si>
+    <t>[Rol]</t>
+  </si>
+  <si>
+    <t>rol1</t>
+  </si>
+  <si>
+    <t>rol2</t>
+  </si>
+  <si>
+    <t>rol3</t>
+  </si>
+  <si>
+    <t>rol4</t>
+  </si>
+  <si>
+    <t>rol5</t>
+  </si>
+  <si>
+    <t>rol6</t>
+  </si>
+  <si>
+    <t>rol7</t>
+  </si>
+  <si>
+    <t>rol8</t>
+  </si>
+  <si>
+    <t>rol9</t>
+  </si>
+  <si>
+    <t>rol10</t>
+  </si>
+  <si>
+    <t>rol11</t>
+  </si>
+  <si>
+    <t>rol12</t>
+  </si>
+  <si>
+    <t>rol13</t>
+  </si>
+  <si>
+    <t>directeur</t>
+  </si>
+  <si>
+    <t>hoofdinspecteur</t>
+  </si>
+  <si>
+    <t>plaatsvervangend hoofdinspecteur</t>
+  </si>
+  <si>
+    <t>afdelingshoofd</t>
+  </si>
+  <si>
+    <t>toezichthoudende dierenarts</t>
+  </si>
+  <si>
+    <t>inspecteur van de Afdeling Toezichtuitvoering Landbouw</t>
+  </si>
+  <si>
+    <t>inspecteur van de Afdeling Toezichtuitvoering Plant en Natuur</t>
+  </si>
+  <si>
+    <t>inspecteur medewerker toezicht van de Afdeling Toezichtuitvoering Plant en Natuur</t>
+  </si>
+  <si>
+    <t>Art 1 sub a. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub b. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub c. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub d. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub e. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub f. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub g. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub h. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub i. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub j. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub k. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub l. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Art 1 sub m. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>Vergunning</t>
+  </si>
+  <si>
+    <t>Art. 5 WaW</t>
+  </si>
+  <si>
+    <t>Een vergunning is een beschikking waarin aan een persoon een afwijking op regelgeving wordt toegestaan of een bij regelgeving vereiste toestemming wordt verleend.</t>
+  </si>
+  <si>
+    <t>o1</t>
+  </si>
+  <si>
+    <t>o2</t>
+  </si>
+  <si>
+    <t>o3</t>
+  </si>
+  <si>
+    <t>o4</t>
+  </si>
+  <si>
+    <t>o5</t>
+  </si>
+  <si>
+    <t>o6</t>
+  </si>
+  <si>
+    <t>o7</t>
+  </si>
+  <si>
+    <t>o8</t>
+  </si>
+  <si>
+    <t>Nederlandse Voedsel- en Warenautoriteit</t>
+  </si>
+  <si>
+    <t>Bureau Risicobeoordeling en Onderzoeksprogrammering</t>
+  </si>
+  <si>
+    <t>Divisie Klatcontact en Dienstverlening</t>
+  </si>
+  <si>
+    <t>Divisie Veterinair en Import</t>
+  </si>
+  <si>
+    <t>V&amp;I</t>
+  </si>
+  <si>
+    <t>Divisie Landbouw &amp; Natuur</t>
+  </si>
+  <si>
+    <t>L&amp;N</t>
+  </si>
+  <si>
+    <t>Divisie Consument &amp; Veiligheid</t>
+  </si>
+  <si>
+    <t>C&amp;V</t>
+  </si>
+  <si>
+    <t>Inlichtingen- en Opsporingsdienst</t>
+  </si>
+  <si>
+    <t>R&amp;O</t>
+  </si>
+  <si>
+    <t>afkorting</t>
+  </si>
+  <si>
+    <t>Directie Staf</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 sub b. Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 sub d. Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 sub e. Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 sub f. Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 sub g. Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 3 sub a. Besluit mandaat, volmacht en machtiging EZ 2015</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub a. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>werken aan de veiligheid van voedsel- en niet-voedsel producten om de gezondheid van mens en dier te beschermen</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub b. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>zorg dragen voor handhaving van wet- en regelgeving waarvoor de minister (mede) verantwoordelijkheid draagt op het terrein van land- en tuinbouw, natuur, visserij, diergezondheid en welzijn, milieu, dierproeven, voedselveiligheid en consumentenproducten</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub c. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>verzamelen en verdelen van inlichtingen en het uitvoeren van analyses ter vergroting van inzicht, aard en omvang van (niet-)naleving</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub d. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>informeren van de buitenwereld over risico's en risicoreductie</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub e. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>fungeren als centraal meldpunt voor consumenten, bedrijven, laboratoria, de Europese Commissie en andere landen op het gebied van voedselveiligheid</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub f. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>samenwerken met de Europese Voedsel Veiligheidsautoriteit</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub g. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>bewaken en bevorderen van de gezondheid van planten waarmee een bijdrage wordt geleverd aan een gezonde groene sector van internationaal aanzien, een gezonde en veilige land- en tuinbouw en een landschap met een hoge biodiversiteit</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub h. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>voorkomen dat ziekten, plagen en ongewenste planten binnen Nederland en over de wereld worden verspreid</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub i. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>bevorderen dat planten, ziekten, plagen en onkruiden op een veilige en duurzame wijze worden beheerst</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub j. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>optreden als coördinerend controle orgaan voor het Gemeenschappelijk Landbouwbeleid</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub k. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>uitoefenen van verificaties en controles van het Gemeenschappelijk Landbouwbeleid</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub l. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>verlenen van ontheffingen van maatregelen ter bestrijding van plantenziekten op grond van de Invoeringswet openbare lichamen Bonaire, Sint Eustatius en Saba</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub m. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>verrichten van taken waaronder het verlenen, schorsen en intrekken van ontheffingen, erkenningen, vergunningen, het nemen van maatregelen en het doen van aanwijzingen op het terrein van de Gezondheids- en welzijnswet voor dieren, de Wet gewasbeschermingsmiddelen en biociden, de Wet dieren, de Plantenziektenwet, de Landbouwwet, de Landbouwkwaliteitswet, de Flora- en Faunawet, visserijregelgeving en de daarmee samenhangende besluiten</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub n. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>ontwikkelen van de kennisagenda en ondersteunen divisies bij strategische kennisontwikkeling</t>
+  </si>
+  <si>
+    <t>Art XVII lid 2 sub o. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
+  </si>
+  <si>
+    <t>verzorgen van opleidingen voor managers en (bij)scholing voor handhavers op het gebied van toezicht en opsporing.</t>
+  </si>
+  <si>
+    <t>Taak</t>
+  </si>
+  <si>
+    <t>[Taak]</t>
+  </si>
+  <si>
+    <t>taak1</t>
+  </si>
+  <si>
+    <t>taak2</t>
+  </si>
+  <si>
+    <t>taak3</t>
+  </si>
+  <si>
+    <t>taak4</t>
+  </si>
+  <si>
+    <t>taak5</t>
+  </si>
+  <si>
+    <t>taak6</t>
+  </si>
+  <si>
+    <t>taak7</t>
+  </si>
+  <si>
+    <t>taak8</t>
+  </si>
+  <si>
+    <t>taak9</t>
+  </si>
+  <si>
+    <t>taak10</t>
+  </si>
+  <si>
+    <t>taak11</t>
+  </si>
+  <si>
+    <t>taak12</t>
+  </si>
+  <si>
+    <t>taak13</t>
+  </si>
+  <si>
+    <t>taak14</t>
+  </si>
+  <si>
+    <t>taak15</t>
+  </si>
+  <si>
+    <t>RechtsGrond</t>
+  </si>
+  <si>
+    <t>projectleider</t>
+  </si>
+  <si>
+    <t>Eenheid</t>
+  </si>
+  <si>
+    <t>[Eenheid]</t>
+  </si>
+  <si>
+    <t>Staf</t>
+  </si>
+  <si>
+    <t>projectanalist</t>
+  </si>
+  <si>
+    <t>projectmedewerker</t>
   </si>
 </sst>
 </file>
@@ -2967,7 +5782,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/mm/yy;@"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2987,6 +5802,30 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -3002,7 +5841,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -3025,12 +5864,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -3039,6 +5898,39 @@
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="6" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -15945,41 +18837,700 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="B3:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B27"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1716</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1722</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>1726</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1727</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>1735</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1736</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1737</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>1741</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1742</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>1744</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1745</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>1747</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1748</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1749</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D12" t="s">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.2">
+      <c r="B13" t="s">
+        <v>1780</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1781</v>
+      </c>
+      <c r="D13" t="s">
+        <v>1782</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:J3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:J3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1762</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1766</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1767</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="J1" t="s">
+        <v>1769</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1678</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="C2" t="s">
+        <v>706</v>
+      </c>
+      <c r="D2" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1763</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="J2" t="s">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1758</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1761</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1760</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1764</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1778</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1777</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1774</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1776</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1780</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1775</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1763</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="40.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1792</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>985</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1814</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1794</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1795</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1816</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1806</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1796</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1817</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1797</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1818</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1798</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1819</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1799</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1820</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1800</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1821</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1809</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1788</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1801</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1822</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1789</v>
+      </c>
+      <c r="D11" t="s">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1802</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1823</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1803</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1824</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1811</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1804</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1825</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1805</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1826</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1813</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="40.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="B1" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1849</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1791</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1907</v>
+      </c>
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1830</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1838</v>
+      </c>
+      <c r="C3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1831</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1839</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1848</v>
+      </c>
+      <c r="D4" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1832</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1840</v>
+      </c>
+      <c r="C5" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1833</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1841</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1842</v>
+      </c>
+      <c r="D6" t="s">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1834</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1843</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1844</v>
+      </c>
+      <c r="D7" t="s">
+        <v>1854</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1835</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1845</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1846</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1836</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1847</v>
+      </c>
+      <c r="C9" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" t="s">
+        <v>1856</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1837</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1850</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D10" t="s">
+        <v>1857</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D27"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E20" sqref="E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>317</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>318</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>319</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D2" s="19" t="s">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>315</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D3" s="18" t="s">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>314</v>
       </c>
@@ -15987,7 +19538,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>299</v>
       </c>
@@ -15995,7 +19546,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>307</v>
       </c>
@@ -16003,47 +19554,62 @@
         <v>110</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>297</v>
       </c>
       <c r="B7" t="s">
         <v>203</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D7" s="18" t="s">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>306</v>
       </c>
       <c r="B8" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D8" s="18" t="s">
+        <v>1665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>313</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D9" s="18" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>216</v>
       </c>
       <c r="B10" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D10" s="18" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>312</v>
       </c>
       <c r="B11" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D11" s="18" t="s">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>305</v>
       </c>
@@ -16051,7 +19617,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>296</v>
       </c>
@@ -16059,7 +19625,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>304</v>
       </c>
@@ -16067,15 +19633,18 @@
         <v>132</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>303</v>
       </c>
       <c r="B15" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D15" s="18" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>302</v>
       </c>
@@ -16083,7 +19652,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>311</v>
       </c>
@@ -16091,7 +19660,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>295</v>
       </c>
@@ -16099,7 +19668,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>232</v>
       </c>
@@ -16107,15 +19676,18 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>294</v>
       </c>
       <c r="B20" t="s">
         <v>239</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="D20" s="18" t="s">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>301</v>
       </c>
@@ -16123,7 +19695,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>310</v>
       </c>
@@ -16131,7 +19703,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>300</v>
       </c>
@@ -16139,7 +19711,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>298</v>
       </c>
@@ -16147,7 +19719,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>309</v>
       </c>
@@ -16155,7 +19727,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>308</v>
       </c>
@@ -16163,7 +19735,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>293</v>
       </c>
@@ -18277,10 +21849,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F44"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -18925,10 +22497,5630 @@
         <v>752</v>
       </c>
     </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="D45">
+        <f>SUM(D3:D44)</f>
+        <v>2625227</v>
+      </c>
+      <c r="E45">
+        <f>SUM(E3:E44)</f>
+        <v>1944</v>
+      </c>
+    </row>
   </sheetData>
   <sortState ref="A3:E18">
     <sortCondition ref="A3:A18"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I194"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
+      <selection activeCell="E81" sqref="E81"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="45.42578125" customWidth="1"/>
+    <col min="4" max="4" width="30.7109375" customWidth="1"/>
+    <col min="5" max="5" width="29.42578125" customWidth="1"/>
+    <col min="7" max="7" width="39.28515625" customWidth="1"/>
+    <col min="8" max="8" width="22.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>1399</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>980</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>981</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>982</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>1397</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>983</v>
+      </c>
+      <c r="H1" s="8" t="s">
+        <v>984</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>1590</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="8" t="s">
+        <v>1398</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>1662</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>986</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="I2" s="8" t="s">
+        <v>809</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A3" s="9" t="s">
+        <v>1400</v>
+      </c>
+      <c r="B3" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>1591</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>1095</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>999</v>
+      </c>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A4" s="9" t="s">
+        <v>1401</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>1238</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>1592</v>
+      </c>
+      <c r="F4" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A5" s="9" t="s">
+        <v>1402</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>1239</v>
+      </c>
+      <c r="E5" s="10" t="s">
+        <v>1240</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G5" s="10" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A6" s="9" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B6" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>1096</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>1097</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="11" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I6" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A7" s="9" t="s">
+        <v>1404</v>
+      </c>
+      <c r="B7" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>989</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>990</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>992</v>
+      </c>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A8" s="9" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>1090</v>
+      </c>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H8" s="11"/>
+      <c r="I8" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A9" s="9" t="s">
+        <v>1406</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>993</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>1593</v>
+      </c>
+      <c r="H9" s="11"/>
+      <c r="I9" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A10" s="9" t="s">
+        <v>1407</v>
+      </c>
+      <c r="B10" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>1099</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H10" s="11"/>
+      <c r="I10" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A11" s="9" t="s">
+        <v>1408</v>
+      </c>
+      <c r="B11" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>996</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H11" s="11"/>
+      <c r="I11" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A12" s="9" t="s">
+        <v>1409</v>
+      </c>
+      <c r="B12" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>1000</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="H12" s="11"/>
+      <c r="I12" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A13" s="9" t="s">
+        <v>1410</v>
+      </c>
+      <c r="B13" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>1102</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>1103</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>1104</v>
+      </c>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A14" s="9" t="s">
+        <v>1411</v>
+      </c>
+      <c r="B14" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>1594</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>1056</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H14" s="11" t="s">
+        <v>1057</v>
+      </c>
+      <c r="I14" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A15" s="9" t="s">
+        <v>1412</v>
+      </c>
+      <c r="B15" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>1004</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>1005</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H15" s="11" t="s">
+        <v>1007</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A16" s="9" t="s">
+        <v>1413</v>
+      </c>
+      <c r="B16" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>1008</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17" s="9" t="s">
+        <v>1414</v>
+      </c>
+      <c r="B17" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D17" s="9" t="s">
+        <v>1010</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="F17" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G17" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A18" s="9" t="s">
+        <v>1415</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D18" s="9" t="s">
+        <v>1105</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>1106</v>
+      </c>
+      <c r="F18" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G18" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A19" s="9" t="s">
+        <v>1416</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D19" s="9" t="s">
+        <v>1012</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>1013</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H19" s="11" t="s">
+        <v>1015</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A20" s="9" t="s">
+        <v>1417</v>
+      </c>
+      <c r="B20" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>1595</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>1107</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H20" s="11"/>
+      <c r="I20" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A21" s="9" t="s">
+        <v>1418</v>
+      </c>
+      <c r="B21" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D21" s="9" t="s">
+        <v>1108</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>1109</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G21" s="9"/>
+      <c r="H21" s="11" t="s">
+        <v>1110</v>
+      </c>
+      <c r="I21" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A22" s="9" t="s">
+        <v>1419</v>
+      </c>
+      <c r="B22" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H22" s="11"/>
+      <c r="I22" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A23" s="9" t="s">
+        <v>1420</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D23" s="9" t="s">
+        <v>1241</v>
+      </c>
+      <c r="E23" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="F23" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>1006</v>
+      </c>
+      <c r="H23" s="11"/>
+      <c r="I23" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A24" s="9" t="s">
+        <v>1421</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>1016</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>1017</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G24" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H24" s="11"/>
+      <c r="I24" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A25" s="9" t="s">
+        <v>1422</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D25" s="9" t="s">
+        <v>1111</v>
+      </c>
+      <c r="E25" s="9" t="s">
+        <v>1112</v>
+      </c>
+      <c r="F25" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H25" s="11"/>
+      <c r="I25" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A26" s="9" t="s">
+        <v>1423</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D26" s="9" t="s">
+        <v>1113</v>
+      </c>
+      <c r="E26" s="9" t="s">
+        <v>1114</v>
+      </c>
+      <c r="F26" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G26" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H26" s="11"/>
+      <c r="I26" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A27" s="9" t="s">
+        <v>1424</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D27" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="E27" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G27" s="9" t="s">
+        <v>1014</v>
+      </c>
+      <c r="H27" s="11"/>
+      <c r="I27" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A28" s="9" t="s">
+        <v>1425</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>1115</v>
+      </c>
+      <c r="E28" s="9" t="s">
+        <v>1116</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G28" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="H28" s="11"/>
+      <c r="I28" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A29" s="9" t="s">
+        <v>1426</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>987</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>1019</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>1020</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G29" s="9"/>
+      <c r="H29" s="11" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A30" s="9" t="s">
+        <v>1427</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D30" s="10" t="s">
+        <v>1023</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>1024</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H30" s="11" t="s">
+        <v>1025</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A31" s="9" t="s">
+        <v>1428</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C31" s="10"/>
+      <c r="D31" s="10" t="s">
+        <v>1297</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>1298</v>
+      </c>
+      <c r="F31" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>1299</v>
+      </c>
+      <c r="H31" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I31" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A32" s="9" t="s">
+        <v>1429</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>1302</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H32" s="11" t="s">
+        <v>1300</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A33" s="9" t="s">
+        <v>1430</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10" t="s">
+        <v>1303</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>1304</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H33" s="11" t="s">
+        <v>1305</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A34" s="9" t="s">
+        <v>1431</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C34" s="10"/>
+      <c r="D34" s="10" t="s">
+        <v>1596</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>1306</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A35" s="9" t="s">
+        <v>1432</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C35" s="10"/>
+      <c r="D35" s="10" t="s">
+        <v>1307</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>1308</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A36" s="9" t="s">
+        <v>1433</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C36" s="10"/>
+      <c r="D36" s="10" t="s">
+        <v>1309</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>1310</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H36" s="11"/>
+      <c r="I36" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A37" s="9" t="s">
+        <v>1434</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C37" s="10"/>
+      <c r="D37" s="9" t="s">
+        <v>1311</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>1312</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H37" s="11"/>
+      <c r="I37" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A38" s="9" t="s">
+        <v>1435</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C38" s="10"/>
+      <c r="D38" s="9" t="s">
+        <v>1313</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>1314</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G38" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H38" s="11"/>
+      <c r="I38" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A39" s="9" t="s">
+        <v>1436</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C39" s="10"/>
+      <c r="D39" s="9" t="s">
+        <v>1315</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>1316</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G39" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H39" s="11"/>
+      <c r="I39" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A40" s="9" t="s">
+        <v>1437</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D40" s="9" t="s">
+        <v>1058</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G40" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H40" s="11"/>
+      <c r="I40" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A41" s="9" t="s">
+        <v>1438</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D41" s="9" t="s">
+        <v>1026</v>
+      </c>
+      <c r="E41" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H41" s="11"/>
+      <c r="I41" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A42" s="9" t="s">
+        <v>1439</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C42" s="10"/>
+      <c r="D42" s="9" t="s">
+        <v>1597</v>
+      </c>
+      <c r="E42" s="9" t="s">
+        <v>1317</v>
+      </c>
+      <c r="F42" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G42" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H42" s="11"/>
+      <c r="I42" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A43" s="9" t="s">
+        <v>1440</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C43" s="10"/>
+      <c r="D43" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="E43" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="F43" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G43" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H43" s="11"/>
+      <c r="I43" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A44" s="9" t="s">
+        <v>1441</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C44" s="10"/>
+      <c r="D44" s="9" t="s">
+        <v>1320</v>
+      </c>
+      <c r="E44" s="9" t="s">
+        <v>1321</v>
+      </c>
+      <c r="F44" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>1322</v>
+      </c>
+      <c r="H44" s="11"/>
+      <c r="I44" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A45" s="9" t="s">
+        <v>1442</v>
+      </c>
+      <c r="B45" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C45" s="10"/>
+      <c r="D45" s="9" t="s">
+        <v>1323</v>
+      </c>
+      <c r="E45" s="9" t="s">
+        <v>1324</v>
+      </c>
+      <c r="F45" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G45" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H45" s="11"/>
+      <c r="I45" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A46" s="9" t="s">
+        <v>1443</v>
+      </c>
+      <c r="B46" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C46" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D46" s="9" t="s">
+        <v>1060</v>
+      </c>
+      <c r="E46" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G46" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H46" s="11"/>
+      <c r="I46" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A47" s="9" t="s">
+        <v>1444</v>
+      </c>
+      <c r="B47" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C47" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D47" s="9" t="s">
+        <v>1029</v>
+      </c>
+      <c r="E47" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G47" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H47" s="11"/>
+      <c r="I47" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A48" s="9" t="s">
+        <v>1445</v>
+      </c>
+      <c r="B48" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C48" s="10"/>
+      <c r="D48" s="9" t="s">
+        <v>1325</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>1326</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G48" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H48" s="11"/>
+      <c r="I48" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A49" s="9" t="s">
+        <v>1446</v>
+      </c>
+      <c r="B49" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C49" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D49" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="E49" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="H49" s="11"/>
+      <c r="I49" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A50" s="9" t="s">
+        <v>1447</v>
+      </c>
+      <c r="B50" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C50" s="10" t="s">
+        <v>1091</v>
+      </c>
+      <c r="D50" s="9" t="s">
+        <v>1092</v>
+      </c>
+      <c r="E50" s="9"/>
+      <c r="F50" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G50" s="9"/>
+      <c r="H50" s="11" t="s">
+        <v>1093</v>
+      </c>
+      <c r="I50" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A51" s="9" t="s">
+        <v>1448</v>
+      </c>
+      <c r="B51" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C51" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D51" s="9" t="s">
+        <v>1033</v>
+      </c>
+      <c r="E51" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H51" s="11"/>
+      <c r="I51" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A52" s="9" t="s">
+        <v>1449</v>
+      </c>
+      <c r="B52" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C52" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D52" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="E52" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G52" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H52" s="11"/>
+      <c r="I52" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A53" s="9" t="s">
+        <v>1450</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C53" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D53" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="E53" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="H53" s="11"/>
+      <c r="I53" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A54" s="9" t="s">
+        <v>1451</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C54" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D54" s="9" t="s">
+        <v>1062</v>
+      </c>
+      <c r="E54" s="9" t="s">
+        <v>1063</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H54" s="11" t="s">
+        <v>1064</v>
+      </c>
+      <c r="I54" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="9" t="s">
+        <v>1452</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C55" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D55" s="9" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E55" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="H55" s="11"/>
+      <c r="I55" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A56" s="9" t="s">
+        <v>1453</v>
+      </c>
+      <c r="B56" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C56" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D56" s="9" t="s">
+        <v>1039</v>
+      </c>
+      <c r="E56" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G56" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H56" s="11"/>
+      <c r="I56" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A57" s="9" t="s">
+        <v>1454</v>
+      </c>
+      <c r="B57" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C57" s="10" t="s">
+        <v>1289</v>
+      </c>
+      <c r="D57" s="9" t="s">
+        <v>1290</v>
+      </c>
+      <c r="E57" s="9" t="s">
+        <v>1291</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H57" s="11" t="s">
+        <v>1292</v>
+      </c>
+      <c r="I57" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A58" s="9" t="s">
+        <v>1455</v>
+      </c>
+      <c r="B58" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C58" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D58" s="9" t="s">
+        <v>1598</v>
+      </c>
+      <c r="E58" s="9" t="s">
+        <v>1042</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>1031</v>
+      </c>
+      <c r="G58" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="H58" s="11"/>
+      <c r="I58" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A59" s="9" t="s">
+        <v>1456</v>
+      </c>
+      <c r="B59" s="9" t="s">
+        <v>1022</v>
+      </c>
+      <c r="C59" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D59" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="E59" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G59" s="9"/>
+      <c r="H59" s="11"/>
+      <c r="I59" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A60" s="9" t="s">
+        <v>1457</v>
+      </c>
+      <c r="B60" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C60" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D60" s="9" t="s">
+        <v>1223</v>
+      </c>
+      <c r="E60" s="9" t="s">
+        <v>1224</v>
+      </c>
+      <c r="F60" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H60" s="11"/>
+      <c r="I60" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A61" s="9" t="s">
+        <v>1458</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C61" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D61" s="10" t="s">
+        <v>1226</v>
+      </c>
+      <c r="E61" s="10" t="s">
+        <v>1227</v>
+      </c>
+      <c r="F61" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H61" s="11"/>
+      <c r="I61" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="9" t="s">
+        <v>1459</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C62" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D62" s="10" t="s">
+        <v>1252</v>
+      </c>
+      <c r="E62" s="10" t="s">
+        <v>1253</v>
+      </c>
+      <c r="F62" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>1254</v>
+      </c>
+      <c r="H62" s="11" t="s">
+        <v>1255</v>
+      </c>
+      <c r="I62" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A63" s="9" t="s">
+        <v>1460</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C63" s="10"/>
+      <c r="D63" s="10" t="s">
+        <v>1327</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="F63" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G63" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H63" s="11"/>
+      <c r="I63" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A64" s="9" t="s">
+        <v>1461</v>
+      </c>
+      <c r="B64" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C64" s="10"/>
+      <c r="D64" s="10" t="s">
+        <v>1329</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>1330</v>
+      </c>
+      <c r="F64" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>1331</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>1462</v>
+      </c>
+      <c r="B65" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C65" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D65" s="10" t="s">
+        <v>1229</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>1230</v>
+      </c>
+      <c r="F65" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G65" s="10"/>
+      <c r="H65" s="11"/>
+      <c r="I65" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A66" s="9" t="s">
+        <v>1463</v>
+      </c>
+      <c r="B66" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>1332</v>
+      </c>
+      <c r="E66" s="10" t="s">
+        <v>1333</v>
+      </c>
+      <c r="F66" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G66" s="10" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H66" s="11"/>
+      <c r="I66" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A67" s="9" t="s">
+        <v>1464</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C67" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D67" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="E67" s="9" t="s">
+        <v>1232</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H67" s="11"/>
+      <c r="I67" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A68" s="9" t="s">
+        <v>1465</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C68" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D68" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="E68" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H68" s="11"/>
+      <c r="I68" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A69" s="9" t="s">
+        <v>1466</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C69" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D69" s="9" t="s">
+        <v>1049</v>
+      </c>
+      <c r="E69" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F69" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H69" s="11"/>
+      <c r="I69" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A70" s="9" t="s">
+        <v>1467</v>
+      </c>
+      <c r="B70" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C70" s="10" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D70" s="9" t="s">
+        <v>1053</v>
+      </c>
+      <c r="E70" s="9" t="s">
+        <v>1054</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H70" s="11"/>
+      <c r="I70" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A71" s="9" t="s">
+        <v>1468</v>
+      </c>
+      <c r="B71" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C71" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="E71" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H71" s="11"/>
+      <c r="I71" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A72" s="9" t="s">
+        <v>1469</v>
+      </c>
+      <c r="B72" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C72" s="10" t="s">
+        <v>1282</v>
+      </c>
+      <c r="D72" s="9" t="s">
+        <v>1286</v>
+      </c>
+      <c r="E72" s="9" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F72" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H72" s="11" t="s">
+        <v>1288</v>
+      </c>
+      <c r="I72" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A73" s="9" t="s">
+        <v>1470</v>
+      </c>
+      <c r="B73" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C73" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D73" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="E73" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="F73" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G73" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H73" s="11"/>
+      <c r="I73" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A74" s="9" t="s">
+        <v>1471</v>
+      </c>
+      <c r="B74" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C74" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D74" s="9" t="s">
+        <v>1234</v>
+      </c>
+      <c r="E74" s="9" t="s">
+        <v>1235</v>
+      </c>
+      <c r="F74" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G74" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="H74" s="11"/>
+      <c r="I74" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A75" s="9" t="s">
+        <v>1472</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C75" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D75" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="E75" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="F75" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H75" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I75" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A76" s="9" t="s">
+        <v>1473</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D76" s="9" t="s">
+        <v>1263</v>
+      </c>
+      <c r="E76" s="9" t="s">
+        <v>1264</v>
+      </c>
+      <c r="F76" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>1265</v>
+      </c>
+      <c r="H76" s="11" t="s">
+        <v>1262</v>
+      </c>
+      <c r="I76" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A77" s="9" t="s">
+        <v>1474</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C77" s="10" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D77" s="9" t="s">
+        <v>1236</v>
+      </c>
+      <c r="E77" s="9" t="s">
+        <v>1237</v>
+      </c>
+      <c r="F77" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G77" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H77" s="11"/>
+      <c r="I77" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A78" s="9" t="s">
+        <v>1475</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C78" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D78" s="9" t="s">
+        <v>1266</v>
+      </c>
+      <c r="E78" s="9" t="s">
+        <v>1267</v>
+      </c>
+      <c r="F78" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G78" s="9" t="s">
+        <v>1228</v>
+      </c>
+      <c r="H78" s="11"/>
+      <c r="I78" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A79" s="9" t="s">
+        <v>1476</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C79" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D79" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="E79" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="F79" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G79" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H79" s="11"/>
+      <c r="I79" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A80" s="9" t="s">
+        <v>1477</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C80" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D80" s="9" t="s">
+        <v>1270</v>
+      </c>
+      <c r="E80" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="F80" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H80" s="11" t="s">
+        <v>1272</v>
+      </c>
+      <c r="I80" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A81" s="9" t="s">
+        <v>1478</v>
+      </c>
+      <c r="B81" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C81" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D81" s="9" t="s">
+        <v>1273</v>
+      </c>
+      <c r="E81" s="9" t="s">
+        <v>1274</v>
+      </c>
+      <c r="F81" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="H81" s="11"/>
+      <c r="I81" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A82" s="9" t="s">
+        <v>1479</v>
+      </c>
+      <c r="B82" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C82" s="10" t="s">
+        <v>988</v>
+      </c>
+      <c r="D82" s="9" t="s">
+        <v>1045</v>
+      </c>
+      <c r="E82" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="F82" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G82" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="H82" s="11"/>
+      <c r="I82" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A83" s="9" t="s">
+        <v>1480</v>
+      </c>
+      <c r="B83" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C83" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D83" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="E83" s="9"/>
+      <c r="F83" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G83" s="9" t="s">
+        <v>1233</v>
+      </c>
+      <c r="H83" s="11"/>
+      <c r="I83" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A84" s="9" t="s">
+        <v>1481</v>
+      </c>
+      <c r="B84" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C84" s="10" t="s">
+        <v>1911</v>
+      </c>
+      <c r="D84" s="9" t="s">
+        <v>1280</v>
+      </c>
+      <c r="E84" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="F84" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G84" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H84" s="11"/>
+      <c r="I84" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A85" s="9" t="s">
+        <v>1482</v>
+      </c>
+      <c r="B85" s="9" t="s">
+        <v>1044</v>
+      </c>
+      <c r="C85" s="10" t="s">
+        <v>1906</v>
+      </c>
+      <c r="D85" s="9" t="s">
+        <v>1277</v>
+      </c>
+      <c r="E85" s="9" t="s">
+        <v>1278</v>
+      </c>
+      <c r="F85" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>1279</v>
+      </c>
+      <c r="H85" s="11"/>
+      <c r="I85" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+      <c r="A86" s="9" t="s">
+        <v>1483</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C86" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D86" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="E86" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G86" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H86" s="11"/>
+      <c r="I86" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A87" s="9" t="s">
+        <v>1484</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10" t="s">
+        <v>1334</v>
+      </c>
+      <c r="E87" s="10" t="s">
+        <v>1335</v>
+      </c>
+      <c r="F87" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G87" s="10" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H87" s="11"/>
+      <c r="I87" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A88" s="9" t="s">
+        <v>1485</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C88" s="10"/>
+      <c r="D88" s="10" t="s">
+        <v>1336</v>
+      </c>
+      <c r="E88" s="10" t="s">
+        <v>1337</v>
+      </c>
+      <c r="F88" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H88" s="11"/>
+      <c r="I88" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A89" s="9" t="s">
+        <v>1486</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C89" s="10"/>
+      <c r="D89" s="10" t="s">
+        <v>1340</v>
+      </c>
+      <c r="E89" s="10" t="s">
+        <v>1341</v>
+      </c>
+      <c r="F89" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G89" s="10"/>
+      <c r="H89" s="11"/>
+      <c r="I89" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A90" s="9" t="s">
+        <v>1487</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C90" s="10"/>
+      <c r="D90" s="10" t="s">
+        <v>1342</v>
+      </c>
+      <c r="E90" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="F90" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G90" s="10" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H90" s="11"/>
+      <c r="I90" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A91" s="9" t="s">
+        <v>1488</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="E91" s="10" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G91" s="10"/>
+      <c r="H91" s="11"/>
+      <c r="I91" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A92" s="9" t="s">
+        <v>1489</v>
+      </c>
+      <c r="B92" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C92" s="10"/>
+      <c r="D92" s="10" t="s">
+        <v>1345</v>
+      </c>
+      <c r="E92" s="10" t="s">
+        <v>1346</v>
+      </c>
+      <c r="F92" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>1347</v>
+      </c>
+      <c r="H92" s="11" t="s">
+        <v>1348</v>
+      </c>
+      <c r="I92" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A93" s="9" t="s">
+        <v>1490</v>
+      </c>
+      <c r="B93" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C93" s="10"/>
+      <c r="D93" s="10" t="s">
+        <v>1349</v>
+      </c>
+      <c r="E93" s="10" t="s">
+        <v>1350</v>
+      </c>
+      <c r="F93" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G93" s="10" t="s">
+        <v>1599</v>
+      </c>
+      <c r="H93" s="11"/>
+      <c r="I93" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A94" s="9" t="s">
+        <v>1491</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C94" s="10"/>
+      <c r="D94" s="9" t="s">
+        <v>1351</v>
+      </c>
+      <c r="E94" s="9" t="s">
+        <v>1352</v>
+      </c>
+      <c r="F94" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>1353</v>
+      </c>
+      <c r="H94" s="11"/>
+      <c r="I94" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A95" s="9" t="s">
+        <v>1492</v>
+      </c>
+      <c r="B95" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C95" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D95" s="9" t="s">
+        <v>1294</v>
+      </c>
+      <c r="E95" s="9" t="s">
+        <v>1295</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G95" s="9" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H95" s="11"/>
+      <c r="I95" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A96" s="9" t="s">
+        <v>1493</v>
+      </c>
+      <c r="B96" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C96" s="10"/>
+      <c r="D96" s="9" t="s">
+        <v>1354</v>
+      </c>
+      <c r="E96" s="9" t="s">
+        <v>1355</v>
+      </c>
+      <c r="F96" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G96" s="9"/>
+      <c r="H96" s="11"/>
+      <c r="I96" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A97" s="9" t="s">
+        <v>1494</v>
+      </c>
+      <c r="B97" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C97" s="10"/>
+      <c r="D97" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="E97" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="F97" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G97" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H97" s="11"/>
+      <c r="I97" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A98" s="9" t="s">
+        <v>1495</v>
+      </c>
+      <c r="B98" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C98" s="10"/>
+      <c r="D98" s="9" t="s">
+        <v>1358</v>
+      </c>
+      <c r="E98" s="9" t="s">
+        <v>1359</v>
+      </c>
+      <c r="F98" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="H98" s="11" t="s">
+        <v>1361</v>
+      </c>
+      <c r="I98" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A99" s="9" t="s">
+        <v>1496</v>
+      </c>
+      <c r="B99" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C99" s="10"/>
+      <c r="D99" s="9" t="s">
+        <v>1362</v>
+      </c>
+      <c r="E99" s="9" t="s">
+        <v>1363</v>
+      </c>
+      <c r="F99" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H99" s="11"/>
+      <c r="I99" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A100" s="9" t="s">
+        <v>1497</v>
+      </c>
+      <c r="B100" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C100" s="10"/>
+      <c r="D100" s="9" t="s">
+        <v>1365</v>
+      </c>
+      <c r="E100" s="9" t="s">
+        <v>1366</v>
+      </c>
+      <c r="F100" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G100" s="9" t="s">
+        <v>1364</v>
+      </c>
+      <c r="H100" s="11"/>
+      <c r="I100" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A101" s="9" t="s">
+        <v>1498</v>
+      </c>
+      <c r="B101" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C101" s="10"/>
+      <c r="D101" s="9" t="s">
+        <v>1367</v>
+      </c>
+      <c r="E101" s="9" t="s">
+        <v>1368</v>
+      </c>
+      <c r="F101" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G101" s="9"/>
+      <c r="H101" s="11"/>
+      <c r="I101" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A102" s="9" t="s">
+        <v>1499</v>
+      </c>
+      <c r="B102" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C102" s="10"/>
+      <c r="D102" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="E102" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="F102" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G102" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H102" s="11"/>
+      <c r="I102" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A103" s="9" t="s">
+        <v>1500</v>
+      </c>
+      <c r="B103" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C103" s="10"/>
+      <c r="D103" s="9" t="s">
+        <v>1371</v>
+      </c>
+      <c r="E103" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="F103" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H103" s="11"/>
+      <c r="I103" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A104" s="9" t="s">
+        <v>1501</v>
+      </c>
+      <c r="B104" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C104" s="10"/>
+      <c r="D104" s="9" t="s">
+        <v>1374</v>
+      </c>
+      <c r="E104" s="9" t="s">
+        <v>1375</v>
+      </c>
+      <c r="F104" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="H104" s="11" t="s">
+        <v>1377</v>
+      </c>
+      <c r="I104" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A105" s="9" t="s">
+        <v>1502</v>
+      </c>
+      <c r="B105" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C105" s="10"/>
+      <c r="D105" s="9" t="s">
+        <v>1378</v>
+      </c>
+      <c r="E105" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="F105" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H105" s="11"/>
+      <c r="I105" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A106" s="9" t="s">
+        <v>1503</v>
+      </c>
+      <c r="B106" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C106" s="10"/>
+      <c r="D106" s="9" t="s">
+        <v>1381</v>
+      </c>
+      <c r="E106" s="9" t="s">
+        <v>1382</v>
+      </c>
+      <c r="F106" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="H106" s="11"/>
+      <c r="I106" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A107" s="9" t="s">
+        <v>1504</v>
+      </c>
+      <c r="B107" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C107" s="10"/>
+      <c r="D107" s="9" t="s">
+        <v>1600</v>
+      </c>
+      <c r="E107" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="F107" s="9" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G107" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H107" s="11"/>
+      <c r="I107" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A108" s="9" t="s">
+        <v>1505</v>
+      </c>
+      <c r="B108" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C108" s="10"/>
+      <c r="D108" s="9" t="s">
+        <v>1385</v>
+      </c>
+      <c r="E108" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="F108" s="9" t="s">
+        <v>1051</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H108" s="11" t="s">
+        <v>1387</v>
+      </c>
+      <c r="I108" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A109" s="9" t="s">
+        <v>1506</v>
+      </c>
+      <c r="B109" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C109" s="10"/>
+      <c r="D109" s="9" t="s">
+        <v>1388</v>
+      </c>
+      <c r="E109" s="9" t="s">
+        <v>1389</v>
+      </c>
+      <c r="F109" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>1390</v>
+      </c>
+      <c r="H109" s="11"/>
+      <c r="I109" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A110" s="9" t="s">
+        <v>1507</v>
+      </c>
+      <c r="B110" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C110" s="10"/>
+      <c r="D110" s="9" t="s">
+        <v>1391</v>
+      </c>
+      <c r="E110" s="9" t="s">
+        <v>1392</v>
+      </c>
+      <c r="F110" s="9" t="s">
+        <v>1338</v>
+      </c>
+      <c r="G110" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H110" s="11"/>
+      <c r="I110" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A111" s="9" t="s">
+        <v>1508</v>
+      </c>
+      <c r="B111" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C111" s="10"/>
+      <c r="D111" s="9" t="s">
+        <v>1393</v>
+      </c>
+      <c r="E111" s="9" t="s">
+        <v>1394</v>
+      </c>
+      <c r="F111" s="9" t="s">
+        <v>1002</v>
+      </c>
+      <c r="G111" s="9" t="s">
+        <v>1339</v>
+      </c>
+      <c r="H111" s="11"/>
+      <c r="I111" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A112" s="9" t="s">
+        <v>1509</v>
+      </c>
+      <c r="B112" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C112" s="10"/>
+      <c r="D112" s="9" t="s">
+        <v>1395</v>
+      </c>
+      <c r="E112" s="9" t="s">
+        <v>1396</v>
+      </c>
+      <c r="F112" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="G112" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="H112" s="11"/>
+      <c r="I112" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A113" s="9" t="s">
+        <v>1510</v>
+      </c>
+      <c r="B113" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C113" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D113" s="9" t="s">
+        <v>1645</v>
+      </c>
+      <c r="E113" s="9" t="s">
+        <v>1646</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>1066</v>
+      </c>
+      <c r="G113" s="9"/>
+      <c r="H113" s="11"/>
+      <c r="I113" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A114" s="9" t="s">
+        <v>1511</v>
+      </c>
+      <c r="B114" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C114" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D114" s="12" t="s">
+        <v>1601</v>
+      </c>
+      <c r="E114" s="10"/>
+      <c r="F114" s="9"/>
+      <c r="G114" s="10"/>
+      <c r="H114" s="11"/>
+      <c r="I114" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A115" s="9" t="s">
+        <v>1512</v>
+      </c>
+      <c r="B115" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C115" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D115" s="12" t="s">
+        <v>1602</v>
+      </c>
+      <c r="E115" s="10" t="s">
+        <v>1647</v>
+      </c>
+      <c r="F115" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G115" s="10"/>
+      <c r="H115" s="11"/>
+      <c r="I115" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A116" s="9" t="s">
+        <v>1513</v>
+      </c>
+      <c r="B116" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C116" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D116" s="12" t="s">
+        <v>1603</v>
+      </c>
+      <c r="E116" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F116" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G116" s="10"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A117" s="9" t="s">
+        <v>1514</v>
+      </c>
+      <c r="B117" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C117" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D117" s="12" t="s">
+        <v>1604</v>
+      </c>
+      <c r="E117" s="10" t="s">
+        <v>1069</v>
+      </c>
+      <c r="F117" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G117" s="10"/>
+      <c r="H117" s="11" t="s">
+        <v>1071</v>
+      </c>
+      <c r="I117" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A118" s="9" t="s">
+        <v>1515</v>
+      </c>
+      <c r="B118" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C118" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D118" s="12" t="s">
+        <v>1605</v>
+      </c>
+      <c r="E118" s="10" t="s">
+        <v>1072</v>
+      </c>
+      <c r="F118" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11" t="s">
+        <v>1073</v>
+      </c>
+      <c r="I118" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A119" s="9" t="s">
+        <v>1516</v>
+      </c>
+      <c r="B119" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C119" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D119" s="12" t="s">
+        <v>1606</v>
+      </c>
+      <c r="E119" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="F119" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G119" s="10"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A120" s="9" t="s">
+        <v>1517</v>
+      </c>
+      <c r="B120" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C120" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D120" s="13" t="s">
+        <v>1607</v>
+      </c>
+      <c r="E120" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="F120" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G120" s="9"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A121" s="9" t="s">
+        <v>1518</v>
+      </c>
+      <c r="B121" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C121" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D121" s="13" t="s">
+        <v>1077</v>
+      </c>
+      <c r="E121" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="F121" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G121" s="9"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A122" s="9" t="s">
+        <v>1519</v>
+      </c>
+      <c r="B122" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C122" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D122" s="9" t="s">
+        <v>1608</v>
+      </c>
+      <c r="E122" s="9" t="s">
+        <v>1079</v>
+      </c>
+      <c r="F122" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G122" s="9"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A123" s="9" t="s">
+        <v>1520</v>
+      </c>
+      <c r="B123" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C123" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D123" s="13" t="s">
+        <v>1609</v>
+      </c>
+      <c r="E123" s="9" t="s">
+        <v>1081</v>
+      </c>
+      <c r="F123" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G123" s="9"/>
+      <c r="H123" s="11" t="s">
+        <v>1082</v>
+      </c>
+      <c r="I123" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A124" s="9" t="s">
+        <v>1521</v>
+      </c>
+      <c r="B124" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C124" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D124" s="13" t="s">
+        <v>1610</v>
+      </c>
+      <c r="E124" s="9" t="s">
+        <v>1083</v>
+      </c>
+      <c r="F124" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G124" s="9"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A125" s="9" t="s">
+        <v>1522</v>
+      </c>
+      <c r="B125" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C125" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D125" s="13" t="s">
+        <v>1611</v>
+      </c>
+      <c r="E125" s="9" t="s">
+        <v>1648</v>
+      </c>
+      <c r="F125" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G125" s="9"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A126" s="9" t="s">
+        <v>1523</v>
+      </c>
+      <c r="B126" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C126" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D126" s="13" t="s">
+        <v>1649</v>
+      </c>
+      <c r="E126" s="9" t="s">
+        <v>1084</v>
+      </c>
+      <c r="F126" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G126" s="9"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A127" s="9" t="s">
+        <v>1524</v>
+      </c>
+      <c r="B127" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C127" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D127" s="13" t="s">
+        <v>1612</v>
+      </c>
+      <c r="E127" s="9" t="s">
+        <v>1085</v>
+      </c>
+      <c r="F127" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G127" s="9"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A128" s="9" t="s">
+        <v>1525</v>
+      </c>
+      <c r="B128" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C128" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D128" s="13" t="s">
+        <v>1613</v>
+      </c>
+      <c r="E128" s="9" t="s">
+        <v>1650</v>
+      </c>
+      <c r="F128" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G128" s="9"/>
+      <c r="H128" s="11" t="s">
+        <v>1086</v>
+      </c>
+      <c r="I128" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A129" s="9" t="s">
+        <v>1526</v>
+      </c>
+      <c r="B129" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C129" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D129" s="13" t="s">
+        <v>1614</v>
+      </c>
+      <c r="E129" s="9" t="s">
+        <v>1087</v>
+      </c>
+      <c r="F129" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G129" s="9"/>
+      <c r="H129" s="11" t="s">
+        <v>1088</v>
+      </c>
+      <c r="I129" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A130" s="9" t="s">
+        <v>1527</v>
+      </c>
+      <c r="B130" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C130" s="10" t="s">
+        <v>1651</v>
+      </c>
+      <c r="D130" s="13" t="s">
+        <v>1615</v>
+      </c>
+      <c r="E130" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="F130" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G130" s="9"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A131" s="9" t="s">
+        <v>1528</v>
+      </c>
+      <c r="B131" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C131" s="10" t="s">
+        <v>1055</v>
+      </c>
+      <c r="D131" s="13" t="s">
+        <v>1616</v>
+      </c>
+      <c r="E131" s="9" t="s">
+        <v>1652</v>
+      </c>
+      <c r="F131" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G131" s="9"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A132" s="9" t="s">
+        <v>1529</v>
+      </c>
+      <c r="B132" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C132" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D132" s="13" t="s">
+        <v>1617</v>
+      </c>
+      <c r="E132" s="9" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F132" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G132" s="9"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A133" s="9" t="s">
+        <v>1530</v>
+      </c>
+      <c r="B133" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C133" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D133" s="13" t="s">
+        <v>1618</v>
+      </c>
+      <c r="E133" s="9" t="s">
+        <v>1124</v>
+      </c>
+      <c r="F133" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G133" s="9"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A134" s="9" t="s">
+        <v>1531</v>
+      </c>
+      <c r="B134" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C134" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D134" s="13" t="s">
+        <v>1619</v>
+      </c>
+      <c r="E134" s="9" t="s">
+        <v>1125</v>
+      </c>
+      <c r="F134" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G134" s="9"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A135" s="9" t="s">
+        <v>1532</v>
+      </c>
+      <c r="B135" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C135" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D135" s="13" t="s">
+        <v>1620</v>
+      </c>
+      <c r="E135" s="9" t="s">
+        <v>1126</v>
+      </c>
+      <c r="F135" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G135" s="9"/>
+      <c r="H135" s="11" t="s">
+        <v>1127</v>
+      </c>
+      <c r="I135" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A136" s="9" t="s">
+        <v>1533</v>
+      </c>
+      <c r="B136" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C136" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D136" s="13" t="s">
+        <v>1621</v>
+      </c>
+      <c r="E136" s="9" t="s">
+        <v>1128</v>
+      </c>
+      <c r="F136" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G136" s="9"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A137" s="9" t="s">
+        <v>1534</v>
+      </c>
+      <c r="B137" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C137" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D137" s="13" t="s">
+        <v>1622</v>
+      </c>
+      <c r="E137" s="9" t="s">
+        <v>1129</v>
+      </c>
+      <c r="F137" s="9" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G137" s="9"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A138" s="9" t="s">
+        <v>1535</v>
+      </c>
+      <c r="B138" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C138" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D138" s="13" t="s">
+        <v>1623</v>
+      </c>
+      <c r="E138" s="9" t="s">
+        <v>1130</v>
+      </c>
+      <c r="F138" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G138" s="9"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A139" s="9" t="s">
+        <v>1536</v>
+      </c>
+      <c r="B139" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C139" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D139" s="13" t="s">
+        <v>1624</v>
+      </c>
+      <c r="E139" s="9" t="s">
+        <v>1131</v>
+      </c>
+      <c r="F139" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G139" s="9"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A140" s="9" t="s">
+        <v>1537</v>
+      </c>
+      <c r="B140" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C140" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D140" s="13" t="s">
+        <v>1625</v>
+      </c>
+      <c r="E140" s="9" t="s">
+        <v>1132</v>
+      </c>
+      <c r="F140" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G140" s="9"/>
+      <c r="H140" s="11"/>
+      <c r="I140" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A141" s="9" t="s">
+        <v>1538</v>
+      </c>
+      <c r="B141" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C141" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D141" s="13" t="s">
+        <v>1626</v>
+      </c>
+      <c r="E141" s="9" t="s">
+        <v>1133</v>
+      </c>
+      <c r="F141" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G141" s="9"/>
+      <c r="H141" s="11"/>
+      <c r="I141" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A142" s="9" t="s">
+        <v>1539</v>
+      </c>
+      <c r="B142" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C142" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D142" s="13" t="s">
+        <v>1627</v>
+      </c>
+      <c r="E142" s="9" t="s">
+        <v>1134</v>
+      </c>
+      <c r="F142" s="9" t="s">
+        <v>991</v>
+      </c>
+      <c r="G142" s="9"/>
+      <c r="H142" s="11"/>
+      <c r="I142" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A143" s="9" t="s">
+        <v>1540</v>
+      </c>
+      <c r="B143" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C143" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D143" s="13" t="s">
+        <v>1628</v>
+      </c>
+      <c r="E143" s="9" t="s">
+        <v>1135</v>
+      </c>
+      <c r="F143" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G143" s="9"/>
+      <c r="H143" s="11"/>
+      <c r="I143" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A144" s="9" t="s">
+        <v>1541</v>
+      </c>
+      <c r="B144" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C144" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D144" s="13" t="s">
+        <v>1629</v>
+      </c>
+      <c r="E144" s="9"/>
+      <c r="F144" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G144" s="9"/>
+      <c r="H144" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I144" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A145" s="9" t="s">
+        <v>1542</v>
+      </c>
+      <c r="B145" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C145" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D145" s="13" t="s">
+        <v>1630</v>
+      </c>
+      <c r="E145" s="9" t="s">
+        <v>1137</v>
+      </c>
+      <c r="F145" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G145" s="9"/>
+      <c r="H145" s="11" t="s">
+        <v>1136</v>
+      </c>
+      <c r="I145" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A146" s="9" t="s">
+        <v>1543</v>
+      </c>
+      <c r="B146" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C146" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D146" s="13" t="s">
+        <v>1631</v>
+      </c>
+      <c r="E146" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F146" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G146" s="9"/>
+      <c r="H146" s="11"/>
+      <c r="I146" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A147" s="9" t="s">
+        <v>1544</v>
+      </c>
+      <c r="B147" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C147" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D147" s="13" t="s">
+        <v>1632</v>
+      </c>
+      <c r="E147" s="9" t="s">
+        <v>1117</v>
+      </c>
+      <c r="F147" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G147" s="9"/>
+      <c r="H147" s="11"/>
+      <c r="I147" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A148" s="9" t="s">
+        <v>1545</v>
+      </c>
+      <c r="B148" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C148" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D148" s="13" t="s">
+        <v>1633</v>
+      </c>
+      <c r="E148" s="9" t="s">
+        <v>1118</v>
+      </c>
+      <c r="F148" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G148" s="9"/>
+      <c r="H148" s="11"/>
+      <c r="I148" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A149" s="9" t="s">
+        <v>1546</v>
+      </c>
+      <c r="B149" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C149" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D149" s="13" t="s">
+        <v>1634</v>
+      </c>
+      <c r="E149" s="9" t="s">
+        <v>1119</v>
+      </c>
+      <c r="F149" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G149" s="9"/>
+      <c r="H149" s="11"/>
+      <c r="I149" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A150" s="9" t="s">
+        <v>1547</v>
+      </c>
+      <c r="B150" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C150" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D150" s="13" t="s">
+        <v>1635</v>
+      </c>
+      <c r="E150" s="9"/>
+      <c r="F150" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G150" s="9"/>
+      <c r="H150" s="11"/>
+      <c r="I150" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A151" s="9" t="s">
+        <v>1548</v>
+      </c>
+      <c r="B151" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C151" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D151" s="13" t="s">
+        <v>1636</v>
+      </c>
+      <c r="E151" s="9" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F151" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G151" s="9"/>
+      <c r="H151" s="11"/>
+      <c r="I151" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A152" s="9" t="s">
+        <v>1549</v>
+      </c>
+      <c r="B152" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C152" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D152" s="13" t="s">
+        <v>1637</v>
+      </c>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9" t="s">
+        <v>1067</v>
+      </c>
+      <c r="G152" s="9"/>
+      <c r="H152" s="11"/>
+      <c r="I152" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A153" s="9" t="s">
+        <v>1550</v>
+      </c>
+      <c r="B153" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C153" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D153" s="13" t="s">
+        <v>1653</v>
+      </c>
+      <c r="E153" s="9" t="s">
+        <v>1121</v>
+      </c>
+      <c r="F153" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G153" s="9"/>
+      <c r="H153" s="11"/>
+      <c r="I153" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A154" s="9" t="s">
+        <v>1551</v>
+      </c>
+      <c r="B154" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C154" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D154" s="13" t="s">
+        <v>1638</v>
+      </c>
+      <c r="E154" s="9"/>
+      <c r="F154" s="9" t="s">
+        <v>1080</v>
+      </c>
+      <c r="G154" s="9"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A155" s="9" t="s">
+        <v>1552</v>
+      </c>
+      <c r="B155" s="9" t="s">
+        <v>1065</v>
+      </c>
+      <c r="C155" s="10" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D155" s="13" t="s">
+        <v>1639</v>
+      </c>
+      <c r="E155" s="9" t="s">
+        <v>1122</v>
+      </c>
+      <c r="F155" s="9" t="s">
+        <v>1070</v>
+      </c>
+      <c r="G155" s="9"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A156" s="9" t="s">
+        <v>1553</v>
+      </c>
+      <c r="B156" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C156" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D156" s="13" t="s">
+        <v>1145</v>
+      </c>
+      <c r="E156" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="F156" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H156" s="11"/>
+      <c r="I156" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A157" s="9" t="s">
+        <v>1554</v>
+      </c>
+      <c r="B157" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C157" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D157" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="E157" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="F157" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H157" s="11"/>
+      <c r="I157" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A158" s="9" t="s">
+        <v>1555</v>
+      </c>
+      <c r="B158" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C158" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D158" s="9" t="s">
+        <v>1152</v>
+      </c>
+      <c r="E158" s="9" t="s">
+        <v>1153</v>
+      </c>
+      <c r="F158" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H158" s="11"/>
+      <c r="I158" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A159" s="9" t="s">
+        <v>1556</v>
+      </c>
+      <c r="B159" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C159" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D159" s="15" t="s">
+        <v>1654</v>
+      </c>
+      <c r="E159" s="15" t="s">
+        <v>1155</v>
+      </c>
+      <c r="F159" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G159" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H159" s="11"/>
+      <c r="I159" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A160" s="9" t="s">
+        <v>1557</v>
+      </c>
+      <c r="B160" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C160" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D160" s="16" t="s">
+        <v>1156</v>
+      </c>
+      <c r="E160" s="15" t="s">
+        <v>1655</v>
+      </c>
+      <c r="F160" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G160" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H160" s="11"/>
+      <c r="I160" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A161" s="9" t="s">
+        <v>1558</v>
+      </c>
+      <c r="B161" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C161" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E161" s="16" t="s">
+        <v>1656</v>
+      </c>
+      <c r="F161" s="9" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G161" s="9" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H161" s="11"/>
+      <c r="I161" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A162" s="9" t="s">
+        <v>1559</v>
+      </c>
+      <c r="B162" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C162" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D162" s="14" t="s">
+        <v>1159</v>
+      </c>
+      <c r="E162" s="16" t="s">
+        <v>1160</v>
+      </c>
+      <c r="F162" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G162" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H162" s="11"/>
+      <c r="I162" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A163" s="9" t="s">
+        <v>1560</v>
+      </c>
+      <c r="B163" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C163" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D163" s="16" t="s">
+        <v>1162</v>
+      </c>
+      <c r="E163" s="14" t="s">
+        <v>1163</v>
+      </c>
+      <c r="F163" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G163" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H163" s="11"/>
+      <c r="I163" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A164" s="9" t="s">
+        <v>1561</v>
+      </c>
+      <c r="B164" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C164" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D164" s="14" t="s">
+        <v>1164</v>
+      </c>
+      <c r="E164" s="16" t="s">
+        <v>1165</v>
+      </c>
+      <c r="F164" s="14" t="s">
+        <v>1657</v>
+      </c>
+      <c r="G164" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H164" s="11"/>
+      <c r="I164" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A165" s="9" t="s">
+        <v>1562</v>
+      </c>
+      <c r="B165" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C165" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D165" s="14" t="s">
+        <v>1166</v>
+      </c>
+      <c r="E165" s="16" t="s">
+        <v>1167</v>
+      </c>
+      <c r="F165" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G165" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H165" s="11"/>
+      <c r="I165" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A166" s="9" t="s">
+        <v>1563</v>
+      </c>
+      <c r="B166" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C166" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D166" s="14" t="s">
+        <v>1168</v>
+      </c>
+      <c r="E166" s="14" t="s">
+        <v>1169</v>
+      </c>
+      <c r="F166" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G166" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H166" s="11"/>
+      <c r="I166" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A167" s="9" t="s">
+        <v>1564</v>
+      </c>
+      <c r="B167" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C167" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="E167" s="16" t="s">
+        <v>1171</v>
+      </c>
+      <c r="F167" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G167" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H167" s="11"/>
+      <c r="I167" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A168" s="9" t="s">
+        <v>1565</v>
+      </c>
+      <c r="B168" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C168" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>1172</v>
+      </c>
+      <c r="E168" s="14" t="s">
+        <v>1173</v>
+      </c>
+      <c r="F168" s="16" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>1161</v>
+      </c>
+      <c r="H168" s="11"/>
+      <c r="I168" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A169" s="9" t="s">
+        <v>1566</v>
+      </c>
+      <c r="B169" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C169" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D169" s="14" t="s">
+        <v>1640</v>
+      </c>
+      <c r="E169" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F169" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G169" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H169" s="11"/>
+      <c r="I169" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A170" s="9" t="s">
+        <v>1567</v>
+      </c>
+      <c r="B170" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C170" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D170" s="14" t="s">
+        <v>1177</v>
+      </c>
+      <c r="E170" s="14" t="s">
+        <v>1175</v>
+      </c>
+      <c r="F170" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G170" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H170" s="11"/>
+      <c r="I170" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A171" s="9" t="s">
+        <v>1568</v>
+      </c>
+      <c r="B171" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C171" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D171" s="16" t="s">
+        <v>1178</v>
+      </c>
+      <c r="E171" s="14" t="s">
+        <v>1179</v>
+      </c>
+      <c r="F171" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G171" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H171" s="11"/>
+      <c r="I171" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A172" s="9" t="s">
+        <v>1569</v>
+      </c>
+      <c r="B172" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C172" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D172" s="14" t="s">
+        <v>1180</v>
+      </c>
+      <c r="E172" s="16" t="s">
+        <v>1181</v>
+      </c>
+      <c r="F172" s="9" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G172" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H172" s="11"/>
+      <c r="I172" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A173" s="9" t="s">
+        <v>1570</v>
+      </c>
+      <c r="B173" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C173" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D173" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="E173" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="F173" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G173" s="14" t="s">
+        <v>1176</v>
+      </c>
+      <c r="H173" s="11"/>
+      <c r="I173" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A174" s="9" t="s">
+        <v>1571</v>
+      </c>
+      <c r="B174" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C174" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D174" s="14" t="s">
+        <v>1184</v>
+      </c>
+      <c r="E174" s="14" t="s">
+        <v>1185</v>
+      </c>
+      <c r="F174" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H174" s="11"/>
+      <c r="I174" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A175" s="9" t="s">
+        <v>1572</v>
+      </c>
+      <c r="B175" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C175" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D175" s="14" t="s">
+        <v>1658</v>
+      </c>
+      <c r="E175" s="16" t="s">
+        <v>1187</v>
+      </c>
+      <c r="F175" s="14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G175" s="14" t="s">
+        <v>1186</v>
+      </c>
+      <c r="H175" s="11"/>
+      <c r="I175" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A176" s="9" t="s">
+        <v>1573</v>
+      </c>
+      <c r="B176" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C176" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D176" s="16" t="s">
+        <v>1188</v>
+      </c>
+      <c r="E176" s="14" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F176" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H176" s="11"/>
+      <c r="I176" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A177" s="9" t="s">
+        <v>1574</v>
+      </c>
+      <c r="B177" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C177" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D177" s="16" t="s">
+        <v>1191</v>
+      </c>
+      <c r="E177" s="16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F177" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G177" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H177" s="11"/>
+      <c r="I177" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A178" s="9" t="s">
+        <v>1575</v>
+      </c>
+      <c r="B178" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C178" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D178" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="E178" s="16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F178" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G178" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H178" s="11"/>
+      <c r="I178" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A179" s="9" t="s">
+        <v>1576</v>
+      </c>
+      <c r="B179" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C179" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>1193</v>
+      </c>
+      <c r="E179" s="16" t="s">
+        <v>1189</v>
+      </c>
+      <c r="F179" s="16" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G179" s="16" t="s">
+        <v>1190</v>
+      </c>
+      <c r="H179" s="11"/>
+      <c r="I179" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A180" s="9" t="s">
+        <v>1577</v>
+      </c>
+      <c r="B180" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C180" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>1194</v>
+      </c>
+      <c r="E180" s="16" t="s">
+        <v>1195</v>
+      </c>
+      <c r="F180" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H180" s="11"/>
+      <c r="I180" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A181" s="9" t="s">
+        <v>1578</v>
+      </c>
+      <c r="B181" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C181" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D181" s="16" t="s">
+        <v>1197</v>
+      </c>
+      <c r="E181" s="14" t="s">
+        <v>1198</v>
+      </c>
+      <c r="F181" s="14" t="s">
+        <v>1154</v>
+      </c>
+      <c r="G181" s="14" t="s">
+        <v>1196</v>
+      </c>
+      <c r="H181" s="11"/>
+      <c r="I181" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A182" s="9" t="s">
+        <v>1579</v>
+      </c>
+      <c r="B182" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C182" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>1199</v>
+      </c>
+      <c r="E182" s="16" t="s">
+        <v>1200</v>
+      </c>
+      <c r="F182" s="14" t="s">
+        <v>1174</v>
+      </c>
+      <c r="G182" s="14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H182" s="11"/>
+      <c r="I182" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A183" s="9" t="s">
+        <v>1580</v>
+      </c>
+      <c r="B183" s="9" t="s">
+        <v>1140</v>
+      </c>
+      <c r="C183" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D183" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="E183" s="16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="F183" s="14" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G183" s="14" t="s">
+        <v>1201</v>
+      </c>
+      <c r="H183" s="11"/>
+      <c r="I183" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A184" s="9" t="s">
+        <v>1581</v>
+      </c>
+      <c r="B184" s="9" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C184" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D184" s="9" t="s">
+        <v>1659</v>
+      </c>
+      <c r="E184" s="16" t="s">
+        <v>1204</v>
+      </c>
+      <c r="F184" s="16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G184" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H184" s="11"/>
+      <c r="I184" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A185" s="9" t="s">
+        <v>1582</v>
+      </c>
+      <c r="B185" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C185" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D185" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="E185" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="F185" s="16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G185" s="16" t="s">
+        <v>1206</v>
+      </c>
+      <c r="H185" s="11"/>
+      <c r="I185" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A186" s="9" t="s">
+        <v>1583</v>
+      </c>
+      <c r="B186" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C186" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D186" s="16" t="s">
+        <v>1209</v>
+      </c>
+      <c r="E186" s="16" t="s">
+        <v>1210</v>
+      </c>
+      <c r="F186" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G186" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H186" s="11"/>
+      <c r="I186" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A187" s="9" t="s">
+        <v>1584</v>
+      </c>
+      <c r="B187" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C187" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D187" s="16" t="s">
+        <v>1213</v>
+      </c>
+      <c r="E187" s="16" t="s">
+        <v>1214</v>
+      </c>
+      <c r="F187" s="16" t="s">
+        <v>1151</v>
+      </c>
+      <c r="G187" s="16" t="s">
+        <v>1212</v>
+      </c>
+      <c r="H187" s="11"/>
+      <c r="I187" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A188" s="9" t="s">
+        <v>1585</v>
+      </c>
+      <c r="B188" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C188" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>1215</v>
+      </c>
+      <c r="E188" s="16" t="s">
+        <v>1216</v>
+      </c>
+      <c r="F188" s="16" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G188" s="16" t="s">
+        <v>1641</v>
+      </c>
+      <c r="H188" s="11"/>
+      <c r="I188" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A189" s="9" t="s">
+        <v>1586</v>
+      </c>
+      <c r="B189" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C189" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D189" s="16" t="s">
+        <v>1217</v>
+      </c>
+      <c r="E189" s="16" t="s">
+        <v>1642</v>
+      </c>
+      <c r="F189" s="14" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G189" s="14" t="s">
+        <v>1218</v>
+      </c>
+      <c r="H189" s="11"/>
+      <c r="I189" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A190" s="9" t="s">
+        <v>1587</v>
+      </c>
+      <c r="B190" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C190" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D190" s="14" t="s">
+        <v>1219</v>
+      </c>
+      <c r="E190" s="16" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F190" s="14" t="s">
+        <v>1205</v>
+      </c>
+      <c r="G190" s="14" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H190" s="11"/>
+      <c r="I190" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A191" s="9" t="s">
+        <v>1588</v>
+      </c>
+      <c r="B191" s="16" t="s">
+        <v>1047</v>
+      </c>
+      <c r="C191" s="10" t="s">
+        <v>1293</v>
+      </c>
+      <c r="D191" s="16" t="s">
+        <v>1221</v>
+      </c>
+      <c r="E191" s="16" t="s">
+        <v>1222</v>
+      </c>
+      <c r="F191" s="16" t="s">
+        <v>1211</v>
+      </c>
+      <c r="G191" s="16" t="s">
+        <v>1220</v>
+      </c>
+      <c r="H191" s="11"/>
+      <c r="I191" s="11" t="s">
+        <v>719</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A192" s="9"/>
+      <c r="B192" s="16"/>
+      <c r="C192" s="10"/>
+      <c r="D192" s="16"/>
+      <c r="E192" s="16"/>
+      <c r="F192" s="16"/>
+      <c r="G192" s="16"/>
+      <c r="H192" s="11"/>
+      <c r="I192" s="11"/>
+    </row>
+    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E193" s="17"/>
+    </row>
+    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
+      <c r="E194" s="17"/>
+    </row>
+  </sheetData>
+  <sortState ref="A3:I191">
+    <sortCondition ref="A3:A191"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A15" sqref="A15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>1673</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="C1" s="20" t="s">
+        <v>807</v>
+      </c>
+      <c r="D1" s="20" t="s">
+        <v>1791</v>
+      </c>
+      <c r="E1" s="20" t="s">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1674</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>319</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>1905</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="20" t="s">
+        <v>1692</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1675</v>
+      </c>
+      <c r="C3" s="20"/>
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>1693</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1676</v>
+      </c>
+      <c r="C4" s="20"/>
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>1694</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1677</v>
+      </c>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20" t="s">
+        <v>1710</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1695</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20" t="s">
+        <v>1755</v>
+      </c>
+      <c r="E6" s="20"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>1696</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1679</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>1697</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1680</v>
+      </c>
+      <c r="C8" s="20"/>
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>1698</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1681</v>
+      </c>
+      <c r="C9" s="20"/>
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>1699</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1682</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>1682</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>1700</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1683</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>1701</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1684</v>
+      </c>
+      <c r="C12" s="20"/>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>1702</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1685</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="20" t="s">
+        <v>1703</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1686</v>
+      </c>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="20" t="s">
+        <v>1704</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1687</v>
+      </c>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="20" t="s">
+        <v>1705</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1688</v>
+      </c>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17" s="20" t="s">
+        <v>1706</v>
+      </c>
+      <c r="B17" s="20"/>
+      <c r="C17" s="20" t="s">
+        <v>1689</v>
+      </c>
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18" s="20" t="s">
+        <v>1707</v>
+      </c>
+      <c r="B18" s="20"/>
+      <c r="C18" s="20" t="s">
+        <v>1690</v>
+      </c>
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19" s="20" t="s">
+        <v>1708</v>
+      </c>
+      <c r="B19" s="20"/>
+      <c r="C19" s="20" t="s">
+        <v>1691</v>
+      </c>
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20" s="20" t="s">
+        <v>1709</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>1827</v>
+      </c>
+      <c r="C20" s="20"/>
+      <c r="D20" s="20" t="s">
+        <v>1828</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>1829</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C17"/>
+  <sheetViews>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1889</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1791</v>
+      </c>
+      <c r="C1" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1888</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C2" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1890</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1858</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1891</v>
+      </c>
+      <c r="B4" t="s">
+        <v>1860</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1861</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1892</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1862</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1893</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1864</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1865</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>1894</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1867</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>1895</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1869</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>1896</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" t="s">
+        <v>1897</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1873</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" t="s">
+        <v>1898</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>1899</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1877</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" t="s">
+        <v>1900</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A14" t="s">
+        <v>1901</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C14" t="s">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A15" t="s">
+        <v>1902</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C15" t="s">
+        <v>1883</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A16" t="s">
+        <v>1903</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A17" t="s">
+        <v>1904</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C17" t="s">
+        <v>1887</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1713</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1589</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1729</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1731</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1732</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1739</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1740</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1750</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1714</v>
+      </c>
+      <c r="B2" t="s">
+        <v>319</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1730</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1733</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1734</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1738</v>
+      </c>
+      <c r="H2" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1754</v>
+      </c>
+      <c r="D3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="E3" t="s">
+        <v>1753</v>
+      </c>
+      <c r="F3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="G3" t="s">
+        <v>1718</v>
+      </c>
+      <c r="H3" t="s">
+        <v>1751</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="12195" windowHeight="6510" tabRatio="731" firstSheet="5" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="210" windowWidth="12195" windowHeight="6510" tabRatio="731" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4758" uniqueCount="1912">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1908">
   <si>
     <t>Divisie</t>
   </si>
@@ -5169,9 +5169,6 @@
     <t>zt18</t>
   </si>
   <si>
-    <t>Art. 1:3 lid 3 AwB</t>
-  </si>
-  <si>
     <t>definitie</t>
   </si>
   <si>
@@ -5229,9 +5226,6 @@
     <t>voorschrift</t>
   </si>
   <si>
-    <t>Wetsartikel</t>
-  </si>
-  <si>
     <t>plaats</t>
   </si>
   <si>
@@ -5292,21 +5286,6 @@
     <t>uitgereikt</t>
   </si>
   <si>
-    <t>Art. 5:48 lid 3 Awb</t>
-  </si>
-  <si>
-    <t>Art. 5:9 Awb</t>
-  </si>
-  <si>
-    <t>Art. 5:9 sub b. Awb</t>
-  </si>
-  <si>
-    <t>Art. 5:9 sub a. Awb</t>
-  </si>
-  <si>
-    <t>Art. 9:1 AwB</t>
-  </si>
-  <si>
     <t>[Klacht]</t>
   </si>
   <si>
@@ -5481,51 +5460,9 @@
     <t>inspecteur medewerker toezicht van de Afdeling Toezichtuitvoering Plant en Natuur</t>
   </si>
   <si>
-    <t>Art 1 sub a. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub b. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub c. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub d. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub e. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub f. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub g. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub h. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub i. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub j. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub k. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub l. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
-    <t>Art 1 sub m. Besluit mandaat, volmacht en machtiging van de inspecteur-generaal van de Nederlandse Voedsel- en Warenautoriteit van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>Vergunning</t>
   </si>
   <si>
-    <t>Art. 5 WaW</t>
-  </si>
-  <si>
     <t>Een vergunning is een beschikking waarin aan een persoon een afwijking op regelgeving wordt toegestaan of een bij regelgeving vereiste toestemming wordt verleend.</t>
   </si>
   <si>
@@ -5592,114 +5529,48 @@
     <t>Directie Staf</t>
   </si>
   <si>
-    <t>Art XVII lid 3 Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 3 sub b. Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 3 sub d. Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 3 sub e. Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 3 sub f. Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 3 sub g. Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 3 sub a. Besluit mandaat, volmacht en machtiging EZ 2015</t>
-  </si>
-  <si>
-    <t>Art XVII lid 2 sub a. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>werken aan de veiligheid van voedsel- en niet-voedsel producten om de gezondheid van mens en dier te beschermen</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub b. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>zorg dragen voor handhaving van wet- en regelgeving waarvoor de minister (mede) verantwoordelijkheid draagt op het terrein van land- en tuinbouw, natuur, visserij, diergezondheid en welzijn, milieu, dierproeven, voedselveiligheid en consumentenproducten</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub c. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>verzamelen en verdelen van inlichtingen en het uitvoeren van analyses ter vergroting van inzicht, aard en omvang van (niet-)naleving</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub d. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>informeren van de buitenwereld over risico's en risicoreductie</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub e. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>fungeren als centraal meldpunt voor consumenten, bedrijven, laboratoria, de Europese Commissie en andere landen op het gebied van voedselveiligheid</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub f. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>samenwerken met de Europese Voedsel Veiligheidsautoriteit</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub g. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>bewaken en bevorderen van de gezondheid van planten waarmee een bijdrage wordt geleverd aan een gezonde groene sector van internationaal aanzien, een gezonde en veilige land- en tuinbouw en een landschap met een hoge biodiversiteit</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub h. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>voorkomen dat ziekten, plagen en ongewenste planten binnen Nederland en over de wereld worden verspreid</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub i. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>bevorderen dat planten, ziekten, plagen en onkruiden op een veilige en duurzame wijze worden beheerst</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub j. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>optreden als coördinerend controle orgaan voor het Gemeenschappelijk Landbouwbeleid</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub k. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>uitoefenen van verificaties en controles van het Gemeenschappelijk Landbouwbeleid</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub l. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>verlenen van ontheffingen van maatregelen ter bestrijding van plantenziekten op grond van de Invoeringswet openbare lichamen Bonaire, Sint Eustatius en Saba</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub m. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>verrichten van taken waaronder het verlenen, schorsen en intrekken van ontheffingen, erkenningen, vergunningen, het nemen van maatregelen en het doen van aanwijzingen op het terrein van de Gezondheids- en welzijnswet voor dieren, de Wet gewasbeschermingsmiddelen en biociden, de Wet dieren, de Plantenziektenwet, de Landbouwwet, de Landbouwkwaliteitswet, de Flora- en Faunawet, visserijregelgeving en de daarmee samenhangende besluiten</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub n. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>ontwikkelen van de kennisagenda en ondersteunen divisies bij strategische kennisontwikkeling</t>
   </si>
   <si>
-    <t>Art XVII lid 2 sub o. Besluit mandaat, volmacht en machtiging van het Ministerie van Economische Zaken 2015</t>
-  </si>
-  <si>
     <t>verzorgen van opleidingen voor managers en (bij)scholing voor handhavers op het gebied van toezicht en opsporing.</t>
   </si>
   <si>
@@ -5773,6 +5644,123 @@
   </si>
   <si>
     <t>projectmedewerker</t>
+  </si>
+  <si>
+    <t>486</t>
+  </si>
+  <si>
+    <t>487</t>
+  </si>
+  <si>
+    <t>488</t>
+  </si>
+  <si>
+    <t>489</t>
+  </si>
+  <si>
+    <t>490</t>
+  </si>
+  <si>
+    <t>491</t>
+  </si>
+  <si>
+    <t>492</t>
+  </si>
+  <si>
+    <t>493</t>
+  </si>
+  <si>
+    <t>494</t>
+  </si>
+  <si>
+    <t>495</t>
+  </si>
+  <si>
+    <t>496</t>
+  </si>
+  <si>
+    <t>497</t>
+  </si>
+  <si>
+    <t>498</t>
+  </si>
+  <si>
+    <t>499</t>
+  </si>
+  <si>
+    <t>500</t>
+  </si>
+  <si>
+    <t>501</t>
+  </si>
+  <si>
+    <t>502</t>
+  </si>
+  <si>
+    <t>503</t>
+  </si>
+  <si>
+    <t>504</t>
+  </si>
+  <si>
+    <t>505</t>
+  </si>
+  <si>
+    <t>506</t>
+  </si>
+  <si>
+    <t>507</t>
+  </si>
+  <si>
+    <t>508</t>
+  </si>
+  <si>
+    <t>509</t>
+  </si>
+  <si>
+    <t>510</t>
+  </si>
+  <si>
+    <t>511</t>
+  </si>
+  <si>
+    <t>512</t>
+  </si>
+  <si>
+    <t>513</t>
+  </si>
+  <si>
+    <t>514</t>
+  </si>
+  <si>
+    <t>515</t>
+  </si>
+  <si>
+    <t>516</t>
+  </si>
+  <si>
+    <t>517</t>
+  </si>
+  <si>
+    <t>518</t>
+  </si>
+  <si>
+    <t>519</t>
+  </si>
+  <si>
+    <t>520</t>
+  </si>
+  <si>
+    <t>521</t>
+  </si>
+  <si>
+    <t>522</t>
+  </si>
+  <si>
+    <t>523</t>
+  </si>
+  <si>
+    <t>524</t>
   </si>
 </sst>
 </file>
@@ -5790,6 +5778,7 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -18849,123 +18838,123 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>1713</v>
+      </c>
+      <c r="C3" t="s">
         <v>1714</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>1715</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1716</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>1716</v>
+      </c>
+      <c r="C4" t="s">
         <v>1717</v>
       </c>
-      <c r="C4" t="s">
+      <c r="D4" t="s">
         <v>1718</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1719</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>1719</v>
+      </c>
+      <c r="C5" t="s">
         <v>1720</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>1721</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1722</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1722</v>
+      </c>
+      <c r="C6" t="s">
         <v>1723</v>
       </c>
-      <c r="C6" t="s">
+      <c r="D6" t="s">
         <v>1724</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1725</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>1725</v>
+      </c>
+      <c r="C7" t="s">
         <v>1726</v>
       </c>
-      <c r="C7" t="s">
+      <c r="D7" t="s">
         <v>1727</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1728</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>1733</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1734</v>
+      </c>
+      <c r="D8" t="s">
         <v>1735</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1736</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1737</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>1739</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1740</v>
+      </c>
+      <c r="D9" t="s">
         <v>1741</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1742</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1743</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>1742</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1743</v>
+      </c>
+      <c r="D10" t="s">
         <v>1744</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1745</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1746</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>1745</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1746</v>
+      </c>
+      <c r="D11" t="s">
         <v>1747</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1748</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1749</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="C12" t="s">
-        <v>1772</v>
+        <v>1765</v>
       </c>
       <c r="D12" t="s">
-        <v>1773</v>
+        <v>1766</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="C13" t="s">
-        <v>1781</v>
+        <v>1774</v>
       </c>
       <c r="D13" t="s">
-        <v>1782</v>
+        <v>1775</v>
       </c>
     </row>
   </sheetData>
@@ -18985,34 +18974,34 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1756</v>
+        <v>1749</v>
       </c>
       <c r="B1" t="s">
-        <v>1757</v>
+        <v>1750</v>
       </c>
       <c r="C1" t="s">
-        <v>1759</v>
+        <v>1752</v>
       </c>
       <c r="D1" t="s">
         <v>1589</v>
       </c>
       <c r="E1" t="s">
+        <v>1755</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1759</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1760</v>
+      </c>
+      <c r="I1" t="s">
+        <v>1761</v>
+      </c>
+      <c r="J1" t="s">
         <v>1762</v>
-      </c>
-      <c r="F1" t="s">
-        <v>1766</v>
-      </c>
-      <c r="G1" t="s">
-        <v>1765</v>
-      </c>
-      <c r="H1" t="s">
-        <v>1767</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1768</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1769</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
@@ -19020,7 +19009,7 @@
         <v>1678</v>
       </c>
       <c r="B2" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="C2" t="s">
         <v>706</v>
@@ -19029,36 +19018,36 @@
         <v>319</v>
       </c>
       <c r="E2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1756</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="I2" t="s">
+        <v>1736</v>
+      </c>
+      <c r="J2" t="s">
         <v>1763</v>
-      </c>
-      <c r="F2" t="s">
-        <v>1763</v>
-      </c>
-      <c r="G2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="H2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="I2" t="s">
-        <v>1738</v>
-      </c>
-      <c r="J2" t="s">
-        <v>1770</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>1758</v>
+        <v>1751</v>
       </c>
       <c r="C3" t="s">
-        <v>1761</v>
+        <v>1754</v>
       </c>
       <c r="D3" t="s">
-        <v>1760</v>
+        <v>1753</v>
       </c>
       <c r="E3" t="s">
-        <v>1764</v>
+        <v>1757</v>
       </c>
     </row>
   </sheetData>
@@ -19076,24 +19065,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="B1" t="s">
-        <v>1778</v>
+        <v>1771</v>
       </c>
       <c r="C1" t="s">
-        <v>1779</v>
+        <v>1772</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1777</v>
+        <v>1770</v>
       </c>
       <c r="B2" t="s">
-        <v>1771</v>
+        <v>1764</v>
       </c>
       <c r="C2" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -19111,27 +19100,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="B1" t="s">
-        <v>1774</v>
+        <v>1767</v>
       </c>
       <c r="C1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="D1" t="s">
         <v>1776</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1783</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1780</v>
+        <v>1773</v>
       </c>
       <c r="B2" t="s">
-        <v>1775</v>
+        <v>1768</v>
       </c>
       <c r="C2" t="s">
-        <v>1763</v>
+        <v>1756</v>
       </c>
     </row>
   </sheetData>
@@ -19149,16 +19138,16 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" style="20" customWidth="1"/>
     <col min="3" max="3" width="40.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1792</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1791</v>
+        <v>1785</v>
+      </c>
+      <c r="B1" s="20" t="s">
+        <v>1784</v>
       </c>
       <c r="C1" t="s">
         <v>807</v>
@@ -19168,8 +19157,8 @@
       <c r="A2" t="s">
         <v>985</v>
       </c>
-      <c r="B2" t="s">
-        <v>1905</v>
+      <c r="B2" s="20" t="s">
+        <v>1862</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -19177,151 +19166,151 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1814</v>
+        <v>1786</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1869</v>
       </c>
       <c r="C3" t="s">
-        <v>1784</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1794</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1815</v>
+        <v>1787</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1870</v>
       </c>
       <c r="C4" t="s">
-        <v>1785</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1795</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1816</v>
+        <v>1788</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1871</v>
       </c>
       <c r="C5" t="s">
-        <v>1806</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1796</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1817</v>
+        <v>1789</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1872</v>
       </c>
       <c r="C6" t="s">
-        <v>1807</v>
+        <v>1800</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1797</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1818</v>
+        <v>1790</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1873</v>
       </c>
       <c r="C7" t="s">
-        <v>1808</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1798</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1819</v>
+        <v>1791</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1874</v>
       </c>
       <c r="C8" t="s">
-        <v>1786</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1799</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1820</v>
+        <v>1792</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1875</v>
       </c>
       <c r="C9" t="s">
-        <v>1787</v>
+        <v>1780</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1800</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1821</v>
+        <v>1793</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1876</v>
       </c>
       <c r="C10" t="s">
-        <v>1809</v>
+        <v>1802</v>
       </c>
       <c r="D10" t="s">
-        <v>1788</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1801</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1822</v>
+        <v>1794</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1877</v>
       </c>
       <c r="C11" t="s">
-        <v>1789</v>
+        <v>1782</v>
       </c>
       <c r="D11" t="s">
-        <v>1790</v>
+        <v>1783</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1802</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1823</v>
+        <v>1795</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1878</v>
       </c>
       <c r="C12" t="s">
-        <v>1810</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1803</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1824</v>
+        <v>1796</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1879</v>
       </c>
       <c r="C13" t="s">
-        <v>1811</v>
+        <v>1804</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1804</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1825</v>
+        <v>1797</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1880</v>
       </c>
       <c r="C14" t="s">
-        <v>1812</v>
+        <v>1805</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1805</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1826</v>
+        <v>1798</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1881</v>
       </c>
       <c r="C15" t="s">
-        <v>1813</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -19333,9 +19322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19344,21 +19331,21 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1908</v>
+        <v>1865</v>
       </c>
       <c r="B1" t="s">
         <v>807</v>
       </c>
       <c r="C1" t="s">
-        <v>1849</v>
+        <v>1828</v>
       </c>
       <c r="D1" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1907</v>
+        <v>1864</v>
       </c>
       <c r="B2" t="s">
         <v>319</v>
@@ -19367,119 +19354,119 @@
         <v>319</v>
       </c>
       <c r="D2" t="s">
-        <v>1905</v>
+        <v>1862</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1830</v>
+        <v>1809</v>
       </c>
       <c r="B3" t="s">
-        <v>1838</v>
+        <v>1817</v>
       </c>
       <c r="C3" t="s">
         <v>190</v>
       </c>
       <c r="D3" t="s">
-        <v>1851</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1831</v>
+        <v>1810</v>
       </c>
       <c r="B4" t="s">
-        <v>1839</v>
+        <v>1818</v>
       </c>
       <c r="C4" t="s">
-        <v>1848</v>
+        <v>1827</v>
       </c>
       <c r="D4" t="s">
-        <v>1852</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1832</v>
+        <v>1811</v>
       </c>
       <c r="B5" t="s">
-        <v>1840</v>
+        <v>1819</v>
       </c>
       <c r="C5" t="s">
         <v>816</v>
       </c>
       <c r="D5" t="s">
-        <v>1853</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1833</v>
+        <v>1812</v>
       </c>
       <c r="B6" t="s">
-        <v>1841</v>
+        <v>1820</v>
       </c>
       <c r="C6" t="s">
-        <v>1842</v>
+        <v>1821</v>
       </c>
       <c r="D6" t="s">
-        <v>1853</v>
+        <v>1903</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1834</v>
+        <v>1813</v>
       </c>
       <c r="B7" t="s">
-        <v>1843</v>
+        <v>1822</v>
       </c>
       <c r="C7" t="s">
-        <v>1844</v>
+        <v>1823</v>
       </c>
       <c r="D7" t="s">
-        <v>1854</v>
+        <v>1904</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1835</v>
+        <v>1814</v>
       </c>
       <c r="B8" t="s">
-        <v>1845</v>
+        <v>1824</v>
       </c>
       <c r="C8" t="s">
-        <v>1846</v>
+        <v>1825</v>
       </c>
       <c r="D8" t="s">
-        <v>1855</v>
+        <v>1905</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1836</v>
+        <v>1815</v>
       </c>
       <c r="B9" t="s">
-        <v>1847</v>
+        <v>1826</v>
       </c>
       <c r="C9" t="s">
         <v>298</v>
       </c>
       <c r="D9" t="s">
-        <v>1856</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1837</v>
+        <v>1816</v>
       </c>
       <c r="B10" t="s">
-        <v>1850</v>
+        <v>1829</v>
       </c>
       <c r="C10" t="s">
-        <v>1909</v>
+        <v>1866</v>
       </c>
       <c r="D10" t="s">
-        <v>1857</v>
+        <v>1907</v>
       </c>
     </row>
   </sheetData>
@@ -22519,9 +22506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C61" workbookViewId="0">
-      <selection activeCell="E81" sqref="E81"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -22592,7 +22577,7 @@
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1400</v>
       </c>
@@ -22627,7 +22612,7 @@
         <v>987</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1238</v>
@@ -22646,7 +22631,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1402</v>
       </c>
@@ -22654,7 +22639,7 @@
         <v>987</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1239</v>
@@ -22673,7 +22658,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>1403</v>
       </c>
@@ -22700,7 +22685,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>1404</v>
       </c>
@@ -22727,7 +22712,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>1405</v>
       </c>
@@ -22752,7 +22737,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>1406</v>
       </c>
@@ -22779,7 +22764,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>1407</v>
       </c>
@@ -22806,7 +22791,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>1408</v>
       </c>
@@ -22833,7 +22818,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>1409</v>
       </c>
@@ -22860,7 +22845,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>1410</v>
       </c>
@@ -22887,7 +22872,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>1411</v>
       </c>
@@ -22916,7 +22901,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>1412</v>
       </c>
@@ -22945,7 +22930,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>1413</v>
       </c>
@@ -22972,7 +22957,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>1414</v>
       </c>
@@ -22999,7 +22984,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>1415</v>
       </c>
@@ -23026,7 +23011,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>1416</v>
       </c>
@@ -23055,7 +23040,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>1417</v>
       </c>
@@ -23082,7 +23067,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>1418</v>
       </c>
@@ -23109,7 +23094,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>1419</v>
       </c>
@@ -23117,7 +23102,7 @@
         <v>987</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>1241</v>
@@ -23136,7 +23121,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>1420</v>
       </c>
@@ -23144,7 +23129,7 @@
         <v>987</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>1241</v>
@@ -23163,7 +23148,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>1421</v>
       </c>
@@ -23190,7 +23175,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>1422</v>
       </c>
@@ -23217,7 +23202,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>1423</v>
       </c>
@@ -23244,7 +23229,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1424</v>
       </c>
@@ -23271,7 +23256,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>1425</v>
       </c>
@@ -23298,7 +23283,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>1426</v>
       </c>
@@ -23325,7 +23310,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>1427</v>
       </c>
@@ -23354,7 +23339,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>1428</v>
       </c>
@@ -23381,7 +23366,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>1429</v>
       </c>
@@ -23408,7 +23393,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>1430</v>
       </c>
@@ -23435,7 +23420,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>1431</v>
       </c>
@@ -23460,7 +23445,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>1432</v>
       </c>
@@ -23485,7 +23470,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>1433</v>
       </c>
@@ -23510,7 +23495,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>1434</v>
       </c>
@@ -23535,7 +23520,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>1435</v>
       </c>
@@ -23560,7 +23545,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>1436</v>
       </c>
@@ -23585,7 +23570,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>1437</v>
       </c>
@@ -23612,7 +23597,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>1438</v>
       </c>
@@ -23639,7 +23624,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>1439</v>
       </c>
@@ -23664,7 +23649,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>1440</v>
       </c>
@@ -23689,7 +23674,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>1441</v>
       </c>
@@ -23714,7 +23699,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>1442</v>
       </c>
@@ -23739,7 +23724,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>1443</v>
       </c>
@@ -23766,7 +23751,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>1444</v>
       </c>
@@ -23793,7 +23778,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>1445</v>
       </c>
@@ -23818,7 +23803,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1446</v>
       </c>
@@ -23826,7 +23811,7 @@
         <v>1022</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>1245</v>
@@ -23845,7 +23830,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>1447</v>
       </c>
@@ -23870,7 +23855,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>1448</v>
       </c>
@@ -23897,7 +23882,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>1449</v>
       </c>
@@ -23924,7 +23909,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>1450</v>
       </c>
@@ -23932,7 +23917,7 @@
         <v>1022</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>1248</v>
@@ -23951,7 +23936,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>1451</v>
       </c>
@@ -23980,7 +23965,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>1452</v>
       </c>
@@ -24007,7 +23992,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>1453</v>
       </c>
@@ -24034,7 +24019,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>1454</v>
       </c>
@@ -24063,7 +24048,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>1455</v>
       </c>
@@ -24090,7 +24075,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>1456</v>
       </c>
@@ -24098,7 +24083,7 @@
         <v>1022</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>1250</v>
@@ -24115,7 +24100,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>1457</v>
       </c>
@@ -24123,7 +24108,7 @@
         <v>1044</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1910</v>
+        <v>1867</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>1223</v>
@@ -24142,7 +24127,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>1458</v>
       </c>
@@ -24150,7 +24135,7 @@
         <v>1044</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1910</v>
+        <v>1867</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>1226</v>
@@ -24169,7 +24154,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>1459</v>
       </c>
@@ -24177,7 +24162,7 @@
         <v>1044</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>1252</v>
@@ -24198,7 +24183,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>1460</v>
       </c>
@@ -24223,7 +24208,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>1461</v>
       </c>
@@ -24250,7 +24235,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>1462</v>
       </c>
@@ -24258,7 +24243,7 @@
         <v>1044</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1910</v>
+        <v>1867</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>1229</v>
@@ -24275,7 +24260,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>1463</v>
       </c>
@@ -24300,7 +24285,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>1464</v>
       </c>
@@ -24308,7 +24293,7 @@
         <v>1044</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1910</v>
+        <v>1867</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>1231</v>
@@ -24327,7 +24312,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>1465</v>
       </c>
@@ -24335,7 +24320,7 @@
         <v>1044</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>1256</v>
@@ -24354,7 +24339,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>1466</v>
       </c>
@@ -24381,7 +24366,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>1467</v>
       </c>
@@ -24408,7 +24393,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1468</v>
       </c>
@@ -24435,7 +24420,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>1469</v>
       </c>
@@ -24464,7 +24449,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>1470</v>
       </c>
@@ -24472,7 +24457,7 @@
         <v>1044</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>1258</v>
@@ -24491,7 +24476,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>1471</v>
       </c>
@@ -24499,7 +24484,7 @@
         <v>1044</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1910</v>
+        <v>1867</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>1234</v>
@@ -24518,7 +24503,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>1472</v>
       </c>
@@ -24526,7 +24511,7 @@
         <v>1044</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>1260</v>
@@ -24547,7 +24532,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>1473</v>
       </c>
@@ -24555,7 +24540,7 @@
         <v>1044</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>1263</v>
@@ -24576,7 +24561,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>1474</v>
       </c>
@@ -24584,7 +24569,7 @@
         <v>1044</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1910</v>
+        <v>1867</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>1236</v>
@@ -24603,7 +24588,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>1475</v>
       </c>
@@ -24611,7 +24596,7 @@
         <v>1044</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>1266</v>
@@ -24630,7 +24615,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>1476</v>
       </c>
@@ -24638,7 +24623,7 @@
         <v>1044</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>1268</v>
@@ -24657,7 +24642,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>1477</v>
       </c>
@@ -24665,7 +24650,7 @@
         <v>1044</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>1270</v>
@@ -24686,7 +24671,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>1478</v>
       </c>
@@ -24694,7 +24679,7 @@
         <v>1044</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>1273</v>
@@ -24713,7 +24698,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>1479</v>
       </c>
@@ -24740,7 +24725,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>1480</v>
       </c>
@@ -24748,7 +24733,7 @@
         <v>1044</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>1276</v>
@@ -24773,7 +24758,7 @@
         <v>1044</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1911</v>
+        <v>1868</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>1280</v>
@@ -24792,7 +24777,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>1482</v>
       </c>
@@ -24800,7 +24785,7 @@
         <v>1044</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1906</v>
+        <v>1863</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>1277</v>
@@ -24846,7 +24831,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>1484</v>
       </c>
@@ -24871,7 +24856,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>1485</v>
       </c>
@@ -24896,7 +24881,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>1486</v>
       </c>
@@ -24919,7 +24904,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>1487</v>
       </c>
@@ -24944,7 +24929,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>1488</v>
       </c>
@@ -24967,7 +24952,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1489</v>
       </c>
@@ -24994,7 +24979,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>1490</v>
       </c>
@@ -25019,7 +25004,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>1491</v>
       </c>
@@ -25044,7 +25029,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>1492</v>
       </c>
@@ -25071,7 +25056,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>1493</v>
       </c>
@@ -25094,7 +25079,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>1494</v>
       </c>
@@ -25119,7 +25104,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>1495</v>
       </c>
@@ -25146,7 +25131,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>1496</v>
       </c>
@@ -25171,7 +25156,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>1497</v>
       </c>
@@ -25196,7 +25181,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>1498</v>
       </c>
@@ -25219,7 +25204,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>1499</v>
       </c>
@@ -25244,7 +25229,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>1500</v>
       </c>
@@ -25269,7 +25254,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>1501</v>
       </c>
@@ -25296,7 +25281,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>1502</v>
       </c>
@@ -25321,7 +25306,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>1503</v>
       </c>
@@ -25346,7 +25331,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>1504</v>
       </c>
@@ -25371,7 +25356,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>1505</v>
       </c>
@@ -25398,7 +25383,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>1506</v>
       </c>
@@ -25423,7 +25408,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1507</v>
       </c>
@@ -25448,7 +25433,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>1508</v>
       </c>
@@ -25473,7 +25458,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>1509</v>
       </c>
@@ -25498,7 +25483,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>1510</v>
       </c>
@@ -25523,7 +25508,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1511</v>
       </c>
@@ -25544,7 +25529,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:9" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>1512</v>
       </c>
@@ -25569,7 +25554,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>1513</v>
       </c>
@@ -25594,7 +25579,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>1514</v>
       </c>
@@ -25621,7 +25606,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>1515</v>
       </c>
@@ -25648,7 +25633,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>1516</v>
       </c>
@@ -25673,7 +25658,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="120" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>1517</v>
       </c>
@@ -25698,7 +25683,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="121" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>1518</v>
       </c>
@@ -25723,7 +25708,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="122" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>1519</v>
       </c>
@@ -25748,7 +25733,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="123" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>1520</v>
       </c>
@@ -25775,7 +25760,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="124" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>1521</v>
       </c>
@@ -25800,7 +25785,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="125" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>1522</v>
       </c>
@@ -25825,7 +25810,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="126" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>1523</v>
       </c>
@@ -25850,7 +25835,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="127" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>1524</v>
       </c>
@@ -25875,7 +25860,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="128" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1525</v>
       </c>
@@ -25902,7 +25887,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="129" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>1526</v>
       </c>
@@ -25929,7 +25914,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="130" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>1527</v>
       </c>
@@ -25954,7 +25939,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="131" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>1528</v>
       </c>
@@ -25979,7 +25964,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="132" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>1529</v>
       </c>
@@ -26004,7 +25989,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="133" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>1530</v>
       </c>
@@ -26029,7 +26014,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="134" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>1531</v>
       </c>
@@ -26054,7 +26039,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>1532</v>
       </c>
@@ -26081,7 +26066,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="136" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>1533</v>
       </c>
@@ -26106,7 +26091,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="137" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>1534</v>
       </c>
@@ -26131,7 +26116,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="138" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>1535</v>
       </c>
@@ -26156,7 +26141,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="139" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>1536</v>
       </c>
@@ -26181,7 +26166,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="140" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>1537</v>
       </c>
@@ -26206,7 +26191,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="141" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>1538</v>
       </c>
@@ -26231,7 +26216,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="142" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>1539</v>
       </c>
@@ -26256,7 +26241,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="143" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>1540</v>
       </c>
@@ -26281,7 +26266,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="144" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>1541</v>
       </c>
@@ -26306,7 +26291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="145" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>1542</v>
       </c>
@@ -26333,7 +26318,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="146" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1543</v>
       </c>
@@ -26358,7 +26343,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="147" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>1544</v>
       </c>
@@ -26383,7 +26368,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="148" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>1545</v>
       </c>
@@ -26408,7 +26393,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="149" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1546</v>
       </c>
@@ -26433,7 +26418,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="150" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>1547</v>
       </c>
@@ -26456,7 +26441,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="151" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>1548</v>
       </c>
@@ -26481,7 +26466,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="152" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>1549</v>
       </c>
@@ -26504,7 +26489,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="153" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>1550</v>
       </c>
@@ -26529,7 +26514,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="154" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>1551</v>
       </c>
@@ -26552,7 +26537,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="155" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>1552</v>
       </c>
@@ -26577,7 +26562,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="156" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>1553</v>
       </c>
@@ -26604,7 +26589,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="157" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>1554</v>
       </c>
@@ -26631,7 +26616,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="158" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>1555</v>
       </c>
@@ -26658,7 +26643,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="159" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>1556</v>
       </c>
@@ -26685,7 +26670,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="160" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>1557</v>
       </c>
@@ -26712,7 +26697,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="161" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>1558</v>
       </c>
@@ -26739,7 +26724,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="162" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>1559</v>
       </c>
@@ -26766,7 +26751,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="163" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>1560</v>
       </c>
@@ -26793,7 +26778,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="164" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1561</v>
       </c>
@@ -26820,7 +26805,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="165" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>1562</v>
       </c>
@@ -26874,7 +26859,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="167" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>1564</v>
       </c>
@@ -26901,7 +26886,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>1565</v>
       </c>
@@ -26982,7 +26967,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="171" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>1568</v>
       </c>
@@ -27009,7 +26994,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="172" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>1569</v>
       </c>
@@ -27090,7 +27075,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="175" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>1572</v>
       </c>
@@ -27117,7 +27102,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="176" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>1573</v>
       </c>
@@ -27144,7 +27129,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>1574</v>
       </c>
@@ -27171,7 +27156,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>1575</v>
       </c>
@@ -27198,7 +27183,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>1576</v>
       </c>
@@ -27225,7 +27210,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>1577</v>
       </c>
@@ -27252,7 +27237,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>1578</v>
       </c>
@@ -27279,7 +27264,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1579</v>
       </c>
@@ -27306,7 +27291,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>1580</v>
       </c>
@@ -27333,7 +27318,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>1581</v>
       </c>
@@ -27360,7 +27345,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>1582</v>
       </c>
@@ -27387,7 +27372,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>1583</v>
       </c>
@@ -27414,7 +27399,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>1584</v>
       </c>
@@ -27441,7 +27426,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>1585</v>
       </c>
@@ -27468,7 +27453,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
         <v>1586</v>
       </c>
@@ -27495,7 +27480,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:9" ht="153" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>1587</v>
       </c>
@@ -27522,7 +27507,7 @@
         <v>719</v>
       </c>
     </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>1588</v>
       </c>
@@ -27579,10 +27564,13 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="4" max="4" width="24.5703125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
@@ -27595,10 +27583,10 @@
         <v>807</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1711</v>
+        <v>1710</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
@@ -27612,7 +27600,7 @@
         <v>319</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1905</v>
+        <v>1862</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>319</v>
@@ -27649,10 +27637,10 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>1710</v>
+        <v>1882</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1712</v>
+        <v>1711</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -27664,7 +27652,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>1755</v>
+        <v>1883</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -27676,7 +27664,6 @@
         <v>1679</v>
       </c>
       <c r="C7" s="20"/>
-      <c r="D7" s="20"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -27818,14 +27805,14 @@
         <v>1709</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1827</v>
+        <v>1807</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>1828</v>
+        <v>1884</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1829</v>
+        <v>1808</v>
       </c>
     </row>
   </sheetData>
@@ -27838,17 +27825,20 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="2" max="2" width="12" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1889</v>
+        <v>1846</v>
       </c>
       <c r="B1" t="s">
-        <v>1791</v>
+        <v>1784</v>
       </c>
       <c r="C1" t="s">
         <v>807</v>
@@ -27856,10 +27846,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1888</v>
+        <v>1845</v>
       </c>
       <c r="B2" t="s">
-        <v>1905</v>
+        <v>1862</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -27867,167 +27857,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1890</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1858</v>
+        <v>1847</v>
+      </c>
+      <c r="B3" s="20" t="s">
+        <v>1885</v>
       </c>
       <c r="C3" t="s">
-        <v>1859</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1891</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1860</v>
+        <v>1848</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1886</v>
       </c>
       <c r="C4" t="s">
-        <v>1861</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1892</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1862</v>
+        <v>1849</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1887</v>
       </c>
       <c r="C5" t="s">
-        <v>1863</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1893</v>
-      </c>
-      <c r="B6" t="s">
-        <v>1864</v>
+        <v>1850</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1888</v>
       </c>
       <c r="C6" t="s">
-        <v>1865</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1894</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1866</v>
+        <v>1851</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1889</v>
       </c>
       <c r="C7" t="s">
-        <v>1867</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1895</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1868</v>
+        <v>1852</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1890</v>
       </c>
       <c r="C8" t="s">
-        <v>1869</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1896</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1870</v>
+        <v>1853</v>
+      </c>
+      <c r="B9" s="20" t="s">
+        <v>1891</v>
       </c>
       <c r="C9" t="s">
-        <v>1871</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1897</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1872</v>
+        <v>1854</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>1892</v>
       </c>
       <c r="C10" t="s">
-        <v>1873</v>
+        <v>1837</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1898</v>
-      </c>
-      <c r="B11" t="s">
-        <v>1874</v>
+        <v>1855</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>1893</v>
       </c>
       <c r="C11" t="s">
-        <v>1875</v>
+        <v>1838</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1899</v>
-      </c>
-      <c r="B12" t="s">
-        <v>1876</v>
+        <v>1856</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1894</v>
       </c>
       <c r="C12" t="s">
-        <v>1877</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1900</v>
-      </c>
-      <c r="B13" t="s">
-        <v>1878</v>
+        <v>1857</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>1895</v>
       </c>
       <c r="C13" t="s">
-        <v>1879</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1901</v>
-      </c>
-      <c r="B14" t="s">
-        <v>1880</v>
+        <v>1858</v>
+      </c>
+      <c r="B14" s="20" t="s">
+        <v>1896</v>
       </c>
       <c r="C14" t="s">
-        <v>1881</v>
+        <v>1841</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1902</v>
-      </c>
-      <c r="B15" t="s">
-        <v>1882</v>
+        <v>1859</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>1897</v>
       </c>
       <c r="C15" t="s">
-        <v>1883</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1903</v>
-      </c>
-      <c r="B16" t="s">
-        <v>1884</v>
+        <v>1860</v>
+      </c>
+      <c r="B16" s="20" t="s">
+        <v>1898</v>
       </c>
       <c r="C16" t="s">
-        <v>1885</v>
+        <v>1843</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1904</v>
-      </c>
-      <c r="B17" t="s">
-        <v>1886</v>
+        <v>1861</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>1899</v>
       </c>
       <c r="C17" t="s">
-        <v>1887</v>
+        <v>1844</v>
       </c>
     </row>
   </sheetData>
@@ -28037,87 +28027,64 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1713</v>
+        <v>1712</v>
       </c>
       <c r="B1" t="s">
         <v>1589</v>
       </c>
       <c r="C1" t="s">
+        <v>1728</v>
+      </c>
+      <c r="D1" t="s">
         <v>1729</v>
       </c>
-      <c r="D1" t="s">
-        <v>1731</v>
-      </c>
       <c r="E1" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="F1" t="s">
-        <v>1739</v>
+        <v>1737</v>
       </c>
       <c r="G1" t="s">
-        <v>1740</v>
+        <v>1738</v>
       </c>
       <c r="H1" t="s">
-        <v>1750</v>
+        <v>1748</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1714</v>
+        <v>1713</v>
       </c>
       <c r="B2" t="s">
         <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>1730</v>
+        <v>1862</v>
       </c>
       <c r="D2" t="s">
-        <v>1733</v>
+        <v>1731</v>
       </c>
       <c r="E2" t="s">
-        <v>1734</v>
+        <v>1732</v>
       </c>
       <c r="F2" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="G2" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H2" t="s">
         <v>706</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="B3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="E3" t="s">
-        <v>1753</v>
-      </c>
-      <c r="F3" t="s">
-        <v>1752</v>
-      </c>
-      <c r="G3" t="s">
-        <v>1718</v>
-      </c>
-      <c r="H3" t="s">
-        <v>1751</v>
       </c>
     </row>
   </sheetData>

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="210" windowWidth="12195" windowHeight="6510" tabRatio="731" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="12195" windowHeight="6450" tabRatio="731" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -19322,7 +19322,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
@@ -19478,8 +19478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="12195" windowHeight="6450" tabRatio="731" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="12195" windowHeight="6390" tabRatio="731" firstSheet="4" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4751" uniqueCount="1908">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4787" uniqueCount="1922">
   <si>
     <t>Divisie</t>
   </si>
@@ -5466,39 +5466,12 @@
     <t>Een vergunning is een beschikking waarin aan een persoon een afwijking op regelgeving wordt toegestaan of een bij regelgeving vereiste toestemming wordt verleend.</t>
   </si>
   <si>
-    <t>o1</t>
-  </si>
-  <si>
-    <t>o2</t>
-  </si>
-  <si>
-    <t>o3</t>
-  </si>
-  <si>
-    <t>o4</t>
-  </si>
-  <si>
-    <t>o5</t>
-  </si>
-  <si>
-    <t>o6</t>
-  </si>
-  <si>
-    <t>o7</t>
-  </si>
-  <si>
-    <t>o8</t>
-  </si>
-  <si>
     <t>Nederlandse Voedsel- en Warenautoriteit</t>
   </si>
   <si>
     <t>Bureau Risicobeoordeling en Onderzoeksprogrammering</t>
   </si>
   <si>
-    <t>Divisie Klatcontact en Dienstverlening</t>
-  </si>
-  <si>
     <t>Divisie Veterinair en Import</t>
   </si>
   <si>
@@ -5761,6 +5734,75 @@
   </si>
   <si>
     <t>524</t>
+  </si>
+  <si>
+    <t>taak</t>
+  </si>
+  <si>
+    <t>[Taak,]</t>
+  </si>
+  <si>
+    <t>taak12,taak13</t>
+  </si>
+  <si>
+    <t>taak2,taak3</t>
+  </si>
+  <si>
+    <t>taak2,taak7,taak11</t>
+  </si>
+  <si>
+    <t>taak7,taak8,taak9</t>
+  </si>
+  <si>
+    <t>NVWA IG en Plv IG</t>
+  </si>
+  <si>
+    <t>NVWA 05 VWNW kandidaten</t>
+  </si>
+  <si>
+    <t>Divisie Klantcontact en Dienstverlening</t>
+  </si>
+  <si>
+    <t>Directie Bedrijfsvoering</t>
+  </si>
+  <si>
+    <t>BV</t>
+  </si>
+  <si>
+    <t>IG</t>
+  </si>
+  <si>
+    <t>63070166</t>
+  </si>
+  <si>
+    <t>63070170</t>
+  </si>
+  <si>
+    <t>63070171</t>
+  </si>
+  <si>
+    <t>63070172</t>
+  </si>
+  <si>
+    <t>63070173</t>
+  </si>
+  <si>
+    <t>63070174</t>
+  </si>
+  <si>
+    <t>63070175</t>
+  </si>
+  <si>
+    <t>63070169</t>
+  </si>
+  <si>
+    <t>63070168</t>
+  </si>
+  <si>
+    <t>63287511</t>
+  </si>
+  <si>
+    <t>63287555</t>
   </si>
 </sst>
 </file>
@@ -5878,7 +5920,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -5920,6 +5962,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -19158,7 +19201,7 @@
         <v>985</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -19169,7 +19212,7 @@
         <v>1786</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1869</v>
+        <v>1860</v>
       </c>
       <c r="C3" t="s">
         <v>1777</v>
@@ -19180,7 +19223,7 @@
         <v>1787</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1870</v>
+        <v>1861</v>
       </c>
       <c r="C4" t="s">
         <v>1778</v>
@@ -19191,7 +19234,7 @@
         <v>1788</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1871</v>
+        <v>1862</v>
       </c>
       <c r="C5" t="s">
         <v>1799</v>
@@ -19202,7 +19245,7 @@
         <v>1789</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1872</v>
+        <v>1863</v>
       </c>
       <c r="C6" t="s">
         <v>1800</v>
@@ -19213,7 +19256,7 @@
         <v>1790</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1873</v>
+        <v>1864</v>
       </c>
       <c r="C7" t="s">
         <v>1801</v>
@@ -19224,7 +19267,7 @@
         <v>1791</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1874</v>
+        <v>1865</v>
       </c>
       <c r="C8" t="s">
         <v>1779</v>
@@ -19235,7 +19278,7 @@
         <v>1792</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1875</v>
+        <v>1866</v>
       </c>
       <c r="C9" t="s">
         <v>1780</v>
@@ -19246,7 +19289,7 @@
         <v>1793</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1876</v>
+        <v>1867</v>
       </c>
       <c r="C10" t="s">
         <v>1802</v>
@@ -19260,7 +19303,7 @@
         <v>1794</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1877</v>
+        <v>1868</v>
       </c>
       <c r="C11" t="s">
         <v>1782</v>
@@ -19274,7 +19317,7 @@
         <v>1795</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1878</v>
+        <v>1869</v>
       </c>
       <c r="C12" t="s">
         <v>1803</v>
@@ -19285,7 +19328,7 @@
         <v>1796</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1879</v>
+        <v>1870</v>
       </c>
       <c r="C13" t="s">
         <v>1804</v>
@@ -19296,7 +19339,7 @@
         <v>1797</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1880</v>
+        <v>1871</v>
       </c>
       <c r="C14" t="s">
         <v>1805</v>
@@ -19307,7 +19350,7 @@
         <v>1798</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1881</v>
+        <v>1872</v>
       </c>
       <c r="C15" t="s">
         <v>1806</v>
@@ -19320,154 +19363,233 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
     <col min="2" max="2" width="40.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>1865</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="20" t="s">
+        <v>1856</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>807</v>
       </c>
-      <c r="C1" t="s">
-        <v>1828</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="C1" s="20" t="s">
+        <v>1819</v>
+      </c>
+      <c r="D1" s="20" t="s">
         <v>1784</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1864</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="20" t="s">
+        <v>1855</v>
+      </c>
+      <c r="B2" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="20" t="s">
         <v>319</v>
       </c>
-      <c r="D2" t="s">
-        <v>1862</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+      <c r="D2" s="20" t="s">
+        <v>1853</v>
+      </c>
+      <c r="E2" s="20"/>
+      <c r="F2" s="20"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3" s="21" t="s">
+        <v>1911</v>
+      </c>
+      <c r="B3" s="20" t="s">
         <v>1809</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>1891</v>
+      </c>
+      <c r="E3" s="20"/>
+      <c r="F3" s="20"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4" s="20" t="s">
+        <v>1912</v>
+      </c>
+      <c r="B4" s="20" t="s">
+        <v>1810</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>1818</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>1892</v>
+      </c>
+      <c r="E4" s="20"/>
+      <c r="F4" s="20"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5" s="20" t="s">
+        <v>1913</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>816</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>1893</v>
+      </c>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6" s="20" t="s">
+        <v>1914</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>1811</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>1812</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>1894</v>
+      </c>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7" s="20" t="s">
+        <v>1915</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>1813</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>1814</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>1895</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A8" s="20" t="s">
+        <v>1916</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>1815</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>1816</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>1896</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A9" s="20" t="s">
+        <v>1917</v>
+      </c>
+      <c r="B9" s="20" t="s">
         <v>1817</v>
       </c>
-      <c r="C3" t="s">
-        <v>190</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1900</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>1810</v>
-      </c>
-      <c r="B4" t="s">
-        <v>1818</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1827</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1901</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>1811</v>
-      </c>
-      <c r="B5" t="s">
-        <v>1819</v>
-      </c>
-      <c r="C5" t="s">
-        <v>816</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1902</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>1812</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="C9" s="20" t="s">
+        <v>298</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>1897</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A10" s="20" t="s">
+        <v>1918</v>
+      </c>
+      <c r="B10" s="20" t="s">
         <v>1820</v>
       </c>
-      <c r="C6" t="s">
-        <v>1821</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1903</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>1813</v>
-      </c>
-      <c r="B7" t="s">
-        <v>1822</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1823</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1904</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>1814</v>
-      </c>
-      <c r="B8" t="s">
-        <v>1824</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1825</v>
-      </c>
-      <c r="D8" t="s">
+      <c r="C10" s="20" t="s">
+        <v>1857</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>1898</v>
+      </c>
+      <c r="E10" s="20"/>
+      <c r="F10" s="20"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A11" s="20" t="s">
+        <v>1919</v>
+      </c>
+      <c r="B11" s="20" t="s">
         <v>1905</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>1815</v>
-      </c>
-      <c r="B9" t="s">
-        <v>1826</v>
-      </c>
-      <c r="C9" t="s">
-        <v>298</v>
-      </c>
-      <c r="D9" t="s">
+      <c r="C11" s="20" t="s">
+        <v>1910</v>
+      </c>
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A12" s="20" t="s">
+        <v>1920</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>1909</v>
+      </c>
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A13" s="20" t="s">
+        <v>1921</v>
+      </c>
+      <c r="B13" s="20" t="s">
         <v>1906</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>1816</v>
-      </c>
-      <c r="B10" t="s">
-        <v>1829</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1866</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1907</v>
-      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="20"/>
+      <c r="B14" s="20"/>
+      <c r="C14" s="20"/>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A15" s="20"/>
+      <c r="B15" s="20"/>
+      <c r="C15" s="20"/>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19478,7 +19600,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A3" sqref="A3:A27"/>
     </sheetView>
   </sheetViews>
@@ -19838,10 +19960,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B247"/>
+  <dimension ref="A1:C247"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B247"/>
+    <sheetView topLeftCell="A218" workbookViewId="0">
+      <selection activeCell="C231" sqref="C231:C234"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -19868,439 +19990,439 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>6</v>
+        <v>149</v>
       </c>
       <c r="B3" t="s">
-        <v>813</v>
+        <v>860</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
       <c r="B4" t="s">
-        <v>814</v>
+        <v>956</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="B5" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>13</v>
+        <v>118</v>
       </c>
       <c r="B6" t="s">
-        <v>816</v>
+        <v>875</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>240</v>
       </c>
       <c r="B7" t="s">
-        <v>817</v>
+        <v>888</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>241</v>
       </c>
       <c r="B8" t="s">
-        <v>818</v>
+        <v>920</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>21</v>
+        <v>111</v>
       </c>
       <c r="B9" t="s">
-        <v>819</v>
+        <v>826</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>26</v>
+        <v>150</v>
       </c>
       <c r="B10" t="s">
-        <v>820</v>
+        <v>858</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>271</v>
       </c>
       <c r="B11" t="s">
-        <v>821</v>
+        <v>848</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s">
-        <v>822</v>
+        <v>936</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>129</v>
       </c>
       <c r="B13" t="s">
-        <v>823</v>
+        <v>935</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="B14" t="s">
-        <v>824</v>
+        <v>907</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
-        <v>815</v>
+        <v>906</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>113</v>
+        <v>94</v>
       </c>
       <c r="B16" t="s">
-        <v>825</v>
+        <v>952</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>112</v>
+        <v>220</v>
       </c>
       <c r="B17" t="s">
-        <v>816</v>
+        <v>840</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>111</v>
+        <v>242</v>
       </c>
       <c r="B18" t="s">
-        <v>826</v>
+        <v>919</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>115</v>
+        <v>172</v>
       </c>
       <c r="B19" t="s">
-        <v>827</v>
+        <v>931</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
-        <v>828</v>
+        <v>961</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B21" t="s">
-        <v>829</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
-        <v>830</v>
+        <v>844</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>217</v>
+        <v>119</v>
       </c>
       <c r="B23" t="s">
-        <v>824</v>
+        <v>878</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>41</v>
       </c>
       <c r="B24" t="s">
-        <v>831</v>
+        <v>924</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>215</v>
+        <v>204</v>
       </c>
       <c r="B25" t="s">
-        <v>832</v>
+        <v>837</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>210</v>
+        <v>48</v>
       </c>
       <c r="B26" t="s">
-        <v>815</v>
+        <v>855</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>214</v>
+        <v>59</v>
       </c>
       <c r="B27" t="s">
-        <v>833</v>
+        <v>863</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>211</v>
+        <v>182</v>
       </c>
       <c r="B28" t="s">
-        <v>711</v>
+        <v>911</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>207</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s">
-        <v>834</v>
+        <v>853</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="B30" t="s">
-        <v>835</v>
+        <v>853</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>212</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>836</v>
+        <v>853</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>204</v>
+        <v>151</v>
       </c>
       <c r="B32" t="s">
-        <v>837</v>
+        <v>862</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>205</v>
+        <v>243</v>
       </c>
       <c r="B33" t="s">
-        <v>838</v>
+        <v>883</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>206</v>
+        <v>193</v>
       </c>
       <c r="B34" t="s">
-        <v>839</v>
+        <v>32</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="B35" t="s">
-        <v>840</v>
+        <v>904</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>222</v>
+        <v>184</v>
       </c>
       <c r="B36" t="s">
-        <v>834</v>
+        <v>910</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>224</v>
+        <v>60</v>
       </c>
       <c r="B37" t="s">
-        <v>815</v>
+        <v>865</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>228</v>
+        <v>133</v>
       </c>
       <c r="B38" t="s">
-        <v>841</v>
+        <v>963</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>221</v>
+        <v>134</v>
       </c>
       <c r="B39" t="s">
-        <v>842</v>
+        <v>966</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>195</v>
+        <v>135</v>
       </c>
       <c r="B40" t="s">
-        <v>5</v>
+        <v>967</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>193</v>
+        <v>136</v>
       </c>
       <c r="B41" t="s">
-        <v>32</v>
+        <v>965</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>194</v>
+        <v>137</v>
       </c>
       <c r="B42" t="s">
-        <v>843</v>
+        <v>964</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>192</v>
+        <v>139</v>
       </c>
       <c r="B43" t="s">
-        <v>844</v>
+        <v>968</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>225</v>
+        <v>141</v>
       </c>
       <c r="B44" t="s">
-        <v>845</v>
+        <v>969</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>226</v>
+        <v>50</v>
       </c>
       <c r="B45" t="s">
-        <v>827</v>
+        <v>849</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>223</v>
+        <v>33</v>
       </c>
       <c r="B46" t="s">
-        <v>846</v>
+        <v>849</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>227</v>
+        <v>152</v>
       </c>
       <c r="B47" t="s">
-        <v>847</v>
+        <v>859</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>271</v>
+        <v>153</v>
       </c>
       <c r="B48" t="s">
-        <v>848</v>
+        <v>857</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>205</v>
       </c>
       <c r="B49" t="s">
-        <v>849</v>
+        <v>838</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
-        <v>54</v>
+        <v>162</v>
       </c>
       <c r="B50" t="s">
-        <v>850</v>
+        <v>929</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
-        <v>57</v>
+        <v>163</v>
       </c>
       <c r="B51" t="s">
-        <v>851</v>
+        <v>927</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>164</v>
       </c>
       <c r="B52" t="s">
-        <v>834</v>
+        <v>928</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="B53" t="s">
-        <v>842</v>
+        <v>877</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>21</v>
       </c>
       <c r="B54" t="s">
-        <v>852</v>
+        <v>819</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
-        <v>49</v>
+        <v>173</v>
       </c>
       <c r="B55" t="s">
-        <v>853</v>
+        <v>932</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
-        <v>56</v>
+        <v>174</v>
       </c>
       <c r="B56" t="s">
-        <v>854</v>
+        <v>934</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B57" t="s">
         <v>823</v>
@@ -20308,74 +20430,74 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B58" t="s">
-        <v>855</v>
+        <v>823</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s">
-        <v>856</v>
+        <v>839</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>244</v>
       </c>
       <c r="B60" t="s">
-        <v>831</v>
+        <v>882</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
-        <v>153</v>
+        <v>246</v>
       </c>
       <c r="B61" t="s">
-        <v>857</v>
+        <v>885</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
-        <v>150</v>
+        <v>247</v>
       </c>
       <c r="B62" t="s">
-        <v>858</v>
+        <v>881</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
-        <v>152</v>
+        <v>248</v>
       </c>
       <c r="B63" t="s">
-        <v>859</v>
+        <v>889</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
-        <v>156</v>
+        <v>249</v>
       </c>
       <c r="B64" t="s">
-        <v>816</v>
+        <v>884</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
-        <v>157</v>
+        <v>109</v>
       </c>
       <c r="B65" t="s">
-        <v>815</v>
+        <v>890</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
-        <v>149</v>
+        <v>250</v>
       </c>
       <c r="B66" t="s">
-        <v>860</v>
+        <v>887</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.2">
@@ -20396,207 +20518,207 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
-        <v>151</v>
+        <v>251</v>
       </c>
       <c r="B69" t="s">
-        <v>862</v>
+        <v>891</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
-        <v>158</v>
+        <v>272</v>
       </c>
       <c r="B70" t="s">
-        <v>827</v>
+        <v>891</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
-        <v>59</v>
+        <v>68</v>
       </c>
       <c r="B71" t="s">
-        <v>863</v>
+        <v>914</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>273</v>
       </c>
       <c r="B72" t="s">
-        <v>864</v>
+        <v>914</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
-        <v>61</v>
+        <v>185</v>
       </c>
       <c r="B73" t="s">
-        <v>816</v>
+        <v>903</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
-        <v>60</v>
+        <v>95</v>
       </c>
       <c r="B74" t="s">
-        <v>865</v>
+        <v>955</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B75" t="s">
-        <v>815</v>
+        <v>816</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
       <c r="B76" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
-        <v>62</v>
+        <v>156</v>
       </c>
       <c r="B77" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
-        <v>288</v>
+        <v>61</v>
       </c>
       <c r="B78" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
-        <v>267</v>
+        <v>79</v>
       </c>
       <c r="B79" t="s">
-        <v>824</v>
+        <v>816</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
-        <v>230</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>842</v>
+        <v>816</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
-        <v>234</v>
+        <v>85</v>
       </c>
       <c r="B81" t="s">
-        <v>867</v>
+        <v>816</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
-        <v>233</v>
+        <v>165</v>
       </c>
       <c r="B82" t="s">
-        <v>868</v>
+        <v>816</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
-        <v>237</v>
+        <v>142</v>
       </c>
       <c r="B83" t="s">
-        <v>869</v>
+        <v>816</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
-        <v>238</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>870</v>
+        <v>842</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
-        <v>236</v>
+        <v>52</v>
       </c>
       <c r="B85" t="s">
-        <v>871</v>
+        <v>842</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
-        <v>235</v>
+        <v>62</v>
       </c>
       <c r="B86" t="s">
-        <v>815</v>
+        <v>842</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B87" t="s">
-        <v>820</v>
+        <v>842</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
-        <v>231</v>
+        <v>34</v>
       </c>
       <c r="B88" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
-        <v>33</v>
+        <v>252</v>
       </c>
       <c r="B89" t="s">
-        <v>849</v>
+        <v>842</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="B90" t="s">
-        <v>872</v>
+        <v>842</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
-        <v>36</v>
+        <v>175</v>
       </c>
       <c r="B91" t="s">
-        <v>873</v>
+        <v>842</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
       <c r="B92" t="s">
-        <v>851</v>
+        <v>842</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
-        <v>35</v>
+        <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>834</v>
+        <v>842</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
-        <v>34</v>
+        <v>143</v>
       </c>
       <c r="B94" t="s">
         <v>842</v>
@@ -20604,87 +20726,87 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
-        <v>31</v>
+        <v>207</v>
       </c>
       <c r="B95" t="s">
-        <v>853</v>
+        <v>834</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
-        <v>37</v>
+        <v>222</v>
       </c>
       <c r="B96" t="s">
-        <v>874</v>
+        <v>834</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
-        <v>118</v>
+        <v>53</v>
       </c>
       <c r="B97" t="s">
-        <v>875</v>
+        <v>834</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
-        <v>122</v>
+        <v>231</v>
       </c>
       <c r="B98" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="B99" t="s">
-        <v>877</v>
+        <v>834</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="B100" t="s">
-        <v>878</v>
+        <v>834</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
-        <v>126</v>
+        <v>253</v>
       </c>
       <c r="B101" t="s">
-        <v>824</v>
+        <v>834</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
-        <v>127</v>
+        <v>70</v>
       </c>
       <c r="B102" t="s">
-        <v>831</v>
+        <v>834</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
-        <v>124</v>
+        <v>42</v>
       </c>
       <c r="B103" t="s">
-        <v>827</v>
+        <v>834</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
-        <v>123</v>
+        <v>176</v>
       </c>
       <c r="B104" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="B105" t="s">
         <v>834</v>
@@ -20692,31 +20814,31 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
-        <v>125</v>
+        <v>275</v>
       </c>
       <c r="B106" t="s">
-        <v>879</v>
+        <v>834</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
-        <v>257</v>
+        <v>97</v>
       </c>
       <c r="B107" t="s">
-        <v>815</v>
+        <v>834</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
-        <v>253</v>
+        <v>166</v>
       </c>
       <c r="B108" t="s">
-        <v>834</v>
+        <v>926</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A109" t="s">
-        <v>254</v>
+        <v>26</v>
       </c>
       <c r="B109" t="s">
         <v>820</v>
@@ -20724,439 +20846,439 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B110" t="s">
-        <v>842</v>
+        <v>820</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B111" t="s">
-        <v>880</v>
+        <v>820</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
-        <v>247</v>
+        <v>71</v>
       </c>
       <c r="B112" t="s">
-        <v>881</v>
+        <v>820</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
-        <v>244</v>
+        <v>98</v>
       </c>
       <c r="B113" t="s">
-        <v>882</v>
+        <v>820</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
-        <v>243</v>
+        <v>80</v>
       </c>
       <c r="B114" t="s">
-        <v>883</v>
+        <v>899</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
-        <v>249</v>
+        <v>54</v>
       </c>
       <c r="B115" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
-        <v>246</v>
+        <v>36</v>
       </c>
       <c r="B116" t="s">
-        <v>885</v>
+        <v>873</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
-        <v>265</v>
+        <v>27</v>
       </c>
       <c r="B117" t="s">
-        <v>886</v>
+        <v>821</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
-        <v>250</v>
+        <v>72</v>
       </c>
       <c r="B118" t="s">
-        <v>887</v>
+        <v>821</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
-        <v>240</v>
+        <v>99</v>
       </c>
       <c r="B119" t="s">
-        <v>888</v>
+        <v>821</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A120" t="s">
-        <v>248</v>
+        <v>63</v>
       </c>
       <c r="B120" t="s">
-        <v>889</v>
+        <v>864</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
-        <v>109</v>
+        <v>15</v>
       </c>
       <c r="B121" t="s">
-        <v>890</v>
+        <v>817</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A122" t="s">
-        <v>251</v>
+        <v>86</v>
       </c>
       <c r="B122" t="s">
-        <v>891</v>
+        <v>916</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A123" t="s">
-        <v>266</v>
+        <v>276</v>
       </c>
       <c r="B123" t="s">
-        <v>892</v>
+        <v>947</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A124" t="s">
-        <v>259</v>
+        <v>100</v>
       </c>
       <c r="B124" t="s">
-        <v>893</v>
+        <v>951</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A125" t="s">
-        <v>264</v>
+        <v>223</v>
       </c>
       <c r="B125" t="s">
-        <v>894</v>
+        <v>846</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
-        <v>269</v>
+        <v>233</v>
       </c>
       <c r="B126" t="s">
-        <v>895</v>
+        <v>868</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A127" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
       <c r="B127" t="s">
-        <v>896</v>
+        <v>867</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A128" t="s">
-        <v>263</v>
+        <v>208</v>
       </c>
       <c r="B128" t="s">
-        <v>897</v>
+        <v>828</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A129" t="s">
-        <v>83</v>
+        <v>122</v>
       </c>
       <c r="B129" t="s">
-        <v>815</v>
+        <v>876</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A130" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B130" t="s">
-        <v>816</v>
+        <v>898</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A131" t="s">
-        <v>81</v>
+        <v>28</v>
       </c>
       <c r="B131" t="s">
-        <v>898</v>
+        <v>822</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A132" t="s">
-        <v>80</v>
+        <v>277</v>
       </c>
       <c r="B132" t="s">
-        <v>899</v>
+        <v>944</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
-        <v>82</v>
+        <v>278</v>
       </c>
       <c r="B133" t="s">
-        <v>900</v>
+        <v>940</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
-        <v>255</v>
+        <v>279</v>
       </c>
       <c r="B134" t="s">
-        <v>901</v>
+        <v>939</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B135" t="s">
-        <v>902</v>
+        <v>957</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
-        <v>185</v>
+        <v>37</v>
       </c>
       <c r="B136" t="s">
-        <v>903</v>
+        <v>874</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
-        <v>183</v>
+        <v>44</v>
       </c>
       <c r="B137" t="s">
-        <v>904</v>
+        <v>925</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A138" t="s">
-        <v>140</v>
+        <v>55</v>
       </c>
       <c r="B138" t="s">
-        <v>905</v>
+        <v>852</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
-        <v>186</v>
+        <v>209</v>
       </c>
       <c r="B139" t="s">
-        <v>816</v>
+        <v>830</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A140" t="s">
-        <v>9</v>
+        <v>194</v>
       </c>
       <c r="B140" t="s">
-        <v>815</v>
+        <v>843</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
-        <v>23</v>
+        <v>56</v>
       </c>
       <c r="B141" t="s">
-        <v>906</v>
+        <v>854</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
-        <v>181</v>
+        <v>38</v>
       </c>
       <c r="B142" t="s">
-        <v>907</v>
+        <v>872</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
-        <v>187</v>
+        <v>87</v>
       </c>
       <c r="B143" t="s">
-        <v>908</v>
+        <v>917</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A144" t="s">
-        <v>11</v>
+        <v>255</v>
       </c>
       <c r="B144" t="s">
-        <v>909</v>
+        <v>901</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A145" t="s">
-        <v>258</v>
+        <v>113</v>
       </c>
       <c r="B145" t="s">
-        <v>871</v>
+        <v>825</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A146" t="s">
-        <v>184</v>
+        <v>256</v>
       </c>
       <c r="B146" t="s">
-        <v>910</v>
+        <v>922</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B147" t="s">
-        <v>827</v>
+        <v>908</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
-        <v>189</v>
+        <v>64</v>
       </c>
       <c r="B148" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
-        <v>182</v>
+        <v>140</v>
       </c>
       <c r="B149" t="s">
-        <v>911</v>
+        <v>905</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
-        <v>67</v>
+        <v>82</v>
       </c>
       <c r="B150" t="s">
-        <v>853</v>
+        <v>900</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
-        <v>72</v>
+        <v>103</v>
       </c>
       <c r="B151" t="s">
-        <v>821</v>
+        <v>958</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
-        <v>70</v>
+        <v>280</v>
       </c>
       <c r="B152" t="s">
-        <v>834</v>
+        <v>943</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
-        <v>71</v>
+        <v>281</v>
       </c>
       <c r="B153" t="s">
-        <v>820</v>
+        <v>945</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="B154" t="s">
-        <v>842</v>
+        <v>815</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
-        <v>73</v>
+        <v>114</v>
       </c>
       <c r="B155" t="s">
-        <v>851</v>
+        <v>815</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
-        <v>74</v>
+        <v>210</v>
       </c>
       <c r="B156" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
-        <v>75</v>
+        <v>224</v>
       </c>
       <c r="B157" t="s">
-        <v>912</v>
+        <v>815</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
-        <v>77</v>
+        <v>157</v>
       </c>
       <c r="B158" t="s">
-        <v>913</v>
+        <v>815</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B159" t="s">
-        <v>914</v>
+        <v>815</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
-        <v>76</v>
+        <v>235</v>
       </c>
       <c r="B160" t="s">
-        <v>915</v>
+        <v>815</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
-        <v>86</v>
+        <v>123</v>
       </c>
       <c r="B161" t="s">
-        <v>916</v>
+        <v>815</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>87</v>
+        <v>257</v>
       </c>
       <c r="B162" t="s">
-        <v>917</v>
+        <v>815</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="B163" t="s">
-        <v>918</v>
+        <v>815</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>88</v>
+        <v>9</v>
       </c>
       <c r="B164" t="s">
         <v>815</v>
@@ -21164,58 +21286,58 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B165" t="s">
-        <v>5</v>
+        <v>815</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>85</v>
+        <v>177</v>
       </c>
       <c r="B166" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>242</v>
+        <v>282</v>
       </c>
       <c r="B167" t="s">
-        <v>919</v>
+        <v>815</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>241</v>
+        <v>144</v>
       </c>
       <c r="B168" t="s">
-        <v>920</v>
+        <v>815</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>268</v>
+        <v>57</v>
       </c>
       <c r="B169" t="s">
-        <v>921</v>
+        <v>851</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>256</v>
+        <v>39</v>
       </c>
       <c r="B170" t="s">
-        <v>922</v>
+        <v>851</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>46</v>
+        <v>73</v>
       </c>
       <c r="B171" t="s">
-        <v>923</v>
+        <v>851</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.2">
@@ -21228,607 +21350,622 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>41</v>
+        <v>104</v>
       </c>
       <c r="B173" t="s">
-        <v>924</v>
+        <v>851</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>42</v>
+        <v>29</v>
       </c>
       <c r="B174" t="s">
-        <v>834</v>
+        <v>818</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="B175" t="s">
-        <v>925</v>
+        <v>818</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>170</v>
+        <v>283</v>
       </c>
       <c r="B176" t="s">
-        <v>856</v>
+        <v>950</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>166</v>
+        <v>19</v>
       </c>
       <c r="B177" t="s">
-        <v>926</v>
+        <v>814</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>163</v>
+        <v>178</v>
       </c>
       <c r="B178" t="s">
-        <v>927</v>
+        <v>933</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>165</v>
+        <v>225</v>
       </c>
       <c r="B179" t="s">
-        <v>816</v>
+        <v>845</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>168</v>
+        <v>236</v>
       </c>
       <c r="B180" t="s">
-        <v>909</v>
+        <v>871</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>164</v>
+        <v>258</v>
       </c>
       <c r="B181" t="s">
-        <v>928</v>
+        <v>871</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B182" t="s">
-        <v>929</v>
+        <v>871</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>167</v>
+        <v>284</v>
       </c>
       <c r="B183" t="s">
-        <v>827</v>
+        <v>871</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>169</v>
+        <v>115</v>
       </c>
       <c r="B184" t="s">
-        <v>930</v>
+        <v>827</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>179</v>
+        <v>226</v>
       </c>
       <c r="B185" t="s">
-        <v>856</v>
+        <v>827</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="B186" t="s">
-        <v>931</v>
+        <v>827</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
-        <v>173</v>
+        <v>124</v>
       </c>
       <c r="B187" t="s">
-        <v>932</v>
+        <v>827</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
-        <v>176</v>
+        <v>188</v>
       </c>
       <c r="B188" t="s">
-        <v>834</v>
+        <v>827</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
       <c r="B189" t="s">
-        <v>842</v>
+        <v>827</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A190" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="B190" t="s">
-        <v>815</v>
+        <v>827</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A191" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="B191" t="s">
-        <v>933</v>
+        <v>711</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
-        <v>174</v>
+        <v>212</v>
       </c>
       <c r="B192" t="s">
-        <v>934</v>
+        <v>836</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
-        <v>129</v>
+        <v>11</v>
       </c>
       <c r="B193" t="s">
-        <v>935</v>
+        <v>909</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
-        <v>130</v>
+        <v>168</v>
       </c>
       <c r="B194" t="s">
-        <v>834</v>
+        <v>909</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
-        <v>131</v>
+        <v>259</v>
       </c>
       <c r="B195" t="s">
-        <v>936</v>
+        <v>893</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
-        <v>285</v>
+        <v>260</v>
       </c>
       <c r="B196" t="s">
-        <v>937</v>
+        <v>880</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A197" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
       <c r="B197" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A198" t="s">
-        <v>279</v>
+        <v>169</v>
       </c>
       <c r="B198" t="s">
-        <v>939</v>
+        <v>930</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="B199" t="s">
-        <v>940</v>
+        <v>948</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
-        <v>275</v>
+        <v>125</v>
       </c>
       <c r="B200" t="s">
-        <v>834</v>
+        <v>879</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
-        <v>202</v>
+        <v>261</v>
       </c>
       <c r="B201" t="s">
-        <v>941</v>
+        <v>896</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
-        <v>274</v>
+        <v>105</v>
       </c>
       <c r="B202" t="s">
-        <v>842</v>
+        <v>960</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
-        <v>289</v>
+        <v>213</v>
       </c>
       <c r="B203" t="s">
-        <v>942</v>
+        <v>829</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
-        <v>280</v>
+        <v>90</v>
       </c>
       <c r="B204" t="s">
-        <v>943</v>
+        <v>918</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
-        <v>282</v>
+        <v>262</v>
       </c>
       <c r="B205" t="s">
-        <v>815</v>
+        <v>962</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
-        <v>277</v>
+        <v>227</v>
       </c>
       <c r="B206" t="s">
-        <v>944</v>
+        <v>847</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>272</v>
+        <v>214</v>
       </c>
       <c r="B207" t="s">
-        <v>891</v>
+        <v>833</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="B208" t="s">
-        <v>945</v>
+        <v>897</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
-        <v>273</v>
+        <v>202</v>
       </c>
       <c r="B209" t="s">
-        <v>914</v>
+        <v>941</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
-        <v>287</v>
+        <v>237</v>
       </c>
       <c r="B210" t="s">
-        <v>946</v>
+        <v>869</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="B211" t="s">
-        <v>947</v>
+        <v>894</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>286</v>
+        <v>265</v>
       </c>
       <c r="B212" t="s">
-        <v>948</v>
+        <v>886</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>291</v>
+        <v>266</v>
       </c>
       <c r="B213" t="s">
-        <v>949</v>
+        <v>892</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>283</v>
+        <v>228</v>
       </c>
       <c r="B214" t="s">
-        <v>950</v>
+        <v>841</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>100</v>
+        <v>215</v>
       </c>
       <c r="B215" t="s">
-        <v>951</v>
+        <v>832</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>94</v>
+        <v>216</v>
       </c>
       <c r="B216" t="s">
-        <v>952</v>
+        <v>835</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>108</v>
+        <v>238</v>
       </c>
       <c r="B217" t="s">
-        <v>953</v>
+        <v>870</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>96</v>
+        <v>287</v>
       </c>
       <c r="B218" t="s">
-        <v>842</v>
+        <v>946</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>107</v>
+        <v>7</v>
       </c>
       <c r="B219" t="s">
-        <v>954</v>
+        <v>902</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>95</v>
+        <v>159</v>
       </c>
       <c r="B220" t="s">
-        <v>955</v>
+        <v>856</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>99</v>
+        <v>189</v>
       </c>
       <c r="B221" t="s">
-        <v>821</v>
+        <v>856</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>97</v>
+        <v>170</v>
       </c>
       <c r="B222" t="s">
-        <v>834</v>
+        <v>856</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>98</v>
+        <v>179</v>
       </c>
       <c r="B223" t="s">
-        <v>820</v>
+        <v>856</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="B224" t="s">
-        <v>956</v>
-      </c>
-    </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="225" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>104</v>
+        <v>217</v>
       </c>
       <c r="B225" t="s">
-        <v>851</v>
-      </c>
-    </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="226" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>102</v>
+        <v>288</v>
       </c>
       <c r="B226" t="s">
-        <v>957</v>
-      </c>
-    </row>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="227" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>103</v>
+        <v>267</v>
       </c>
       <c r="B227" t="s">
-        <v>958</v>
-      </c>
-    </row>
-    <row r="228" spans="1:2" x14ac:dyDescent="0.2">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="228" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
+        <v>126</v>
+      </c>
+      <c r="B228" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="229" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A229" t="s">
+        <v>289</v>
+      </c>
+      <c r="B229" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="230" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A230" t="s">
+        <v>75</v>
+      </c>
+      <c r="B230" t="s">
+        <v>912</v>
+      </c>
+      <c r="C230" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="231" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A231" t="s">
+        <v>76</v>
+      </c>
+      <c r="B231" t="s">
+        <v>915</v>
+      </c>
+      <c r="C231" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="232" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A232" t="s">
         <v>106</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B232" t="s">
         <v>959</v>
       </c>
-    </row>
-    <row r="229" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A229" t="s">
-        <v>105</v>
-      </c>
-      <c r="B229" t="s">
-        <v>960</v>
-      </c>
-    </row>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A230" t="s">
+      <c r="C232" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="233" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A233" t="s">
+        <v>107</v>
+      </c>
+      <c r="B233" t="s">
+        <v>954</v>
+      </c>
+      <c r="C233" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="234" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A234" t="s">
+        <v>77</v>
+      </c>
+      <c r="B234" t="s">
+        <v>913</v>
+      </c>
+      <c r="C234" t="s">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="235" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A235" t="s">
+        <v>290</v>
+      </c>
+      <c r="B235" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="236" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A236" t="s">
+        <v>195</v>
+      </c>
+      <c r="B236" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A237" t="s">
+        <v>91</v>
+      </c>
+      <c r="B237" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="238" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
         <v>201</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B238" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="231" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A231" t="s">
-        <v>198</v>
-      </c>
-      <c r="B231" t="s">
-        <v>961</v>
-      </c>
-    </row>
-    <row r="232" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A232" t="s">
-        <v>200</v>
-      </c>
-      <c r="B232" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A233" t="s">
-        <v>262</v>
-      </c>
-      <c r="B233" t="s">
-        <v>962</v>
-      </c>
-    </row>
-    <row r="234" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A234" t="s">
-        <v>133</v>
-      </c>
-      <c r="B234" t="s">
-        <v>963</v>
-      </c>
-    </row>
-    <row r="235" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A235" t="s">
-        <v>137</v>
-      </c>
-      <c r="B235" t="s">
-        <v>964</v>
-      </c>
-    </row>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A236" t="s">
-        <v>144</v>
-      </c>
-      <c r="B236" t="s">
-        <v>815</v>
-      </c>
-    </row>
-    <row r="237" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A237" t="s">
-        <v>136</v>
-      </c>
-      <c r="B237" t="s">
-        <v>965</v>
-      </c>
-    </row>
-    <row r="238" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A238" t="s">
-        <v>134</v>
-      </c>
-      <c r="B238" t="s">
-        <v>966</v>
-      </c>
-    </row>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A239" t="s">
-        <v>146</v>
+        <v>218</v>
       </c>
       <c r="B239" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="240" spans="1:2" x14ac:dyDescent="0.2">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="240" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A240" t="s">
-        <v>142</v>
+        <v>160</v>
       </c>
       <c r="B240" t="s">
-        <v>816</v>
+        <v>831</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A241" t="s">
-        <v>143</v>
+        <v>127</v>
       </c>
       <c r="B241" t="s">
-        <v>842</v>
+        <v>831</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A242" t="s">
-        <v>135</v>
+        <v>268</v>
       </c>
       <c r="B242" t="s">
-        <v>967</v>
+        <v>921</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A243" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="B243" t="s">
-        <v>968</v>
+        <v>831</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A244" t="s">
-        <v>145</v>
+        <v>291</v>
       </c>
       <c r="B244" t="s">
-        <v>871</v>
+        <v>949</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A245" t="s">
-        <v>284</v>
+        <v>46</v>
       </c>
       <c r="B245" t="s">
-        <v>871</v>
+        <v>923</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A246" t="s">
-        <v>141</v>
+        <v>108</v>
       </c>
       <c r="B246" t="s">
-        <v>969</v>
+        <v>953</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>147</v>
+        <v>269</v>
       </c>
       <c r="B247" t="s">
-        <v>831</v>
+        <v>895</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:B381">
-    <sortCondition ref="A3:A381"/>
+  <sortState ref="A3:B247">
+    <sortCondition ref="B3:B247"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -21836,18 +21973,19 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="E45" sqref="E45"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="38.85546875" customWidth="1"/>
+    <col min="6" max="6" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>808</v>
       </c>
@@ -21866,8 +22004,11 @@
       <c r="F1" t="s">
         <v>810</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>1899</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>809</v>
       </c>
@@ -21886,8 +22027,11 @@
       <c r="F2" t="s">
         <v>978</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G2" t="s">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>717</v>
       </c>
@@ -21903,8 +22047,11 @@
       <c r="F3" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G3" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>743</v>
       </c>
@@ -21915,7 +22062,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>744</v>
       </c>
@@ -21926,7 +22073,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>762</v>
       </c>
@@ -21937,7 +22084,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>763</v>
       </c>
@@ -21948,7 +22095,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>764</v>
       </c>
@@ -21959,7 +22106,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>745</v>
       </c>
@@ -21970,7 +22117,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>729</v>
       </c>
@@ -21989,8 +22136,11 @@
       <c r="F10" t="s">
         <v>976</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G10" t="s">
+        <v>1902</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>731</v>
       </c>
@@ -22009,8 +22159,11 @@
       <c r="F11" t="s">
         <v>972</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G11" t="s">
+        <v>1841</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>740</v>
       </c>
@@ -22030,7 +22183,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>741</v>
       </c>
@@ -22050,7 +22203,7 @@
         <v>972</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>719</v>
       </c>
@@ -22069,8 +22222,11 @@
       <c r="F14" t="s">
         <v>974</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G14" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>768</v>
       </c>
@@ -22081,8 +22237,11 @@
         <v>751</v>
       </c>
       <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G15" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>769</v>
       </c>
@@ -22093,8 +22252,11 @@
         <v>751</v>
       </c>
       <c r="D16" s="7"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G16" t="s">
+        <v>1904</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>770</v>
       </c>
@@ -22105,8 +22267,11 @@
         <v>751</v>
       </c>
       <c r="D17" s="7"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G17" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>771</v>
       </c>
@@ -22117,8 +22282,11 @@
         <v>751</v>
       </c>
       <c r="D18" s="7"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G18" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>721</v>
       </c>
@@ -22138,7 +22306,7 @@
         <v>977</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>727</v>
       </c>
@@ -22157,8 +22325,11 @@
       <c r="F20" t="s">
         <v>979</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G20" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>776</v>
       </c>
@@ -22169,8 +22340,11 @@
         <v>751</v>
       </c>
       <c r="D21" s="7"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G21" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>777</v>
       </c>
@@ -22181,8 +22355,11 @@
         <v>751</v>
       </c>
       <c r="D22" s="7"/>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G22" t="s">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>723</v>
       </c>
@@ -22201,8 +22378,11 @@
       <c r="F23" t="s">
         <v>724</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G23" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>780</v>
       </c>
@@ -22213,8 +22393,11 @@
         <v>751</v>
       </c>
       <c r="D24" s="7"/>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G24" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>781</v>
       </c>
@@ -22225,8 +22408,11 @@
         <v>751</v>
       </c>
       <c r="D25" s="7"/>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G25" t="s">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>782</v>
       </c>
@@ -22237,8 +22423,11 @@
         <v>751</v>
       </c>
       <c r="D26" s="7"/>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G26" t="s">
+        <v>1901</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>725</v>
       </c>
@@ -22257,8 +22446,11 @@
       <c r="F27" t="s">
         <v>973</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G27" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>786</v>
       </c>
@@ -22269,8 +22461,11 @@
         <v>751</v>
       </c>
       <c r="D28" s="7"/>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G28" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>787</v>
       </c>
@@ -22281,8 +22476,11 @@
         <v>751</v>
       </c>
       <c r="D29" s="7"/>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G29" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>788</v>
       </c>
@@ -22293,8 +22491,11 @@
         <v>751</v>
       </c>
       <c r="D30" s="7"/>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G30" t="s">
+        <v>1903</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>733</v>
       </c>
@@ -22308,7 +22509,7 @@
         <v>970</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>792</v>
       </c>
@@ -22319,7 +22520,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>793</v>
       </c>
@@ -22330,7 +22531,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>794</v>
       </c>
@@ -22341,7 +22542,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>728</v>
       </c>
@@ -22352,7 +22553,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>798</v>
       </c>
@@ -22363,7 +22564,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>799</v>
       </c>
@@ -22374,7 +22575,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>800</v>
       </c>
@@ -22385,7 +22586,7 @@
         <v>751</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>735</v>
       </c>
@@ -22405,7 +22606,7 @@
         <v>971</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>738</v>
       </c>
@@ -22425,7 +22626,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>737</v>
       </c>
@@ -22442,7 +22643,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>739</v>
       </c>
@@ -22462,7 +22663,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>753</v>
       </c>
@@ -22472,8 +22673,11 @@
       <c r="C43" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G43" t="s">
+        <v>1851</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>754</v>
       </c>
@@ -22483,8 +22687,11 @@
       <c r="C44" t="s">
         <v>752</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="G44" t="s">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
       <c r="D45">
         <f>SUM(D3:D44)</f>
         <v>2625227</v>
@@ -22612,7 +22819,7 @@
         <v>987</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D4" s="10" t="s">
         <v>1238</v>
@@ -22639,7 +22846,7 @@
         <v>987</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D5" s="10" t="s">
         <v>1239</v>
@@ -23102,7 +23309,7 @@
         <v>987</v>
       </c>
       <c r="C22" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D22" s="9" t="s">
         <v>1241</v>
@@ -23129,7 +23336,7 @@
         <v>987</v>
       </c>
       <c r="C23" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D23" s="9" t="s">
         <v>1241</v>
@@ -23811,7 +24018,7 @@
         <v>1022</v>
       </c>
       <c r="C49" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D49" s="9" t="s">
         <v>1245</v>
@@ -23917,7 +24124,7 @@
         <v>1022</v>
       </c>
       <c r="C53" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D53" s="9" t="s">
         <v>1248</v>
@@ -24083,7 +24290,7 @@
         <v>1022</v>
       </c>
       <c r="C59" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D59" s="9" t="s">
         <v>1250</v>
@@ -24108,7 +24315,7 @@
         <v>1044</v>
       </c>
       <c r="C60" s="10" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="D60" s="9" t="s">
         <v>1223</v>
@@ -24135,7 +24342,7 @@
         <v>1044</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="D61" s="10" t="s">
         <v>1226</v>
@@ -24162,7 +24369,7 @@
         <v>1044</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D62" s="10" t="s">
         <v>1252</v>
@@ -24243,7 +24450,7 @@
         <v>1044</v>
       </c>
       <c r="C65" s="10" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="D65" s="10" t="s">
         <v>1229</v>
@@ -24293,7 +24500,7 @@
         <v>1044</v>
       </c>
       <c r="C67" s="10" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="D67" s="9" t="s">
         <v>1231</v>
@@ -24320,7 +24527,7 @@
         <v>1044</v>
       </c>
       <c r="C68" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D68" s="9" t="s">
         <v>1256</v>
@@ -24457,7 +24664,7 @@
         <v>1044</v>
       </c>
       <c r="C73" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D73" s="9" t="s">
         <v>1258</v>
@@ -24484,7 +24691,7 @@
         <v>1044</v>
       </c>
       <c r="C74" s="10" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>1234</v>
@@ -24511,7 +24718,7 @@
         <v>1044</v>
       </c>
       <c r="C75" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D75" s="9" t="s">
         <v>1260</v>
@@ -24540,7 +24747,7 @@
         <v>1044</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D76" s="9" t="s">
         <v>1263</v>
@@ -24569,7 +24776,7 @@
         <v>1044</v>
       </c>
       <c r="C77" s="10" t="s">
-        <v>1867</v>
+        <v>1858</v>
       </c>
       <c r="D77" s="9" t="s">
         <v>1236</v>
@@ -24596,7 +24803,7 @@
         <v>1044</v>
       </c>
       <c r="C78" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D78" s="9" t="s">
         <v>1266</v>
@@ -24623,7 +24830,7 @@
         <v>1044</v>
       </c>
       <c r="C79" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D79" s="9" t="s">
         <v>1268</v>
@@ -24650,7 +24857,7 @@
         <v>1044</v>
       </c>
       <c r="C80" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D80" s="9" t="s">
         <v>1270</v>
@@ -24679,7 +24886,7 @@
         <v>1044</v>
       </c>
       <c r="C81" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D81" s="9" t="s">
         <v>1273</v>
@@ -24733,7 +24940,7 @@
         <v>1044</v>
       </c>
       <c r="C83" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>1276</v>
@@ -24758,7 +24965,7 @@
         <v>1044</v>
       </c>
       <c r="C84" s="10" t="s">
-        <v>1868</v>
+        <v>1859</v>
       </c>
       <c r="D84" s="9" t="s">
         <v>1280</v>
@@ -24785,7 +24992,7 @@
         <v>1044</v>
       </c>
       <c r="C85" s="10" t="s">
-        <v>1863</v>
+        <v>1854</v>
       </c>
       <c r="D85" s="9" t="s">
         <v>1277</v>
@@ -27600,7 +27807,7 @@
         <v>319</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>319</v>
@@ -27637,7 +27844,7 @@
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>1882</v>
+        <v>1873</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>1711</v>
@@ -27652,7 +27859,7 @@
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>1883</v>
+        <v>1874</v>
       </c>
       <c r="E6" s="20"/>
     </row>
@@ -27809,7 +28016,7 @@
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>1884</v>
+        <v>1875</v>
       </c>
       <c r="E20" s="20" t="s">
         <v>1808</v>
@@ -27825,7 +28032,7 @@
   <dimension ref="A1:C17"/>
   <sheetViews>
     <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A2" sqref="A2:C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -27835,7 +28042,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1846</v>
+        <v>1837</v>
       </c>
       <c r="B1" t="s">
         <v>1784</v>
@@ -27846,10 +28053,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1845</v>
+        <v>1836</v>
       </c>
       <c r="B2" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -27857,167 +28064,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1847</v>
+        <v>1838</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1885</v>
+        <v>1876</v>
       </c>
       <c r="C3" t="s">
-        <v>1830</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1848</v>
+        <v>1839</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1886</v>
+        <v>1877</v>
       </c>
       <c r="C4" t="s">
-        <v>1831</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1849</v>
+        <v>1840</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1887</v>
+        <v>1878</v>
       </c>
       <c r="C5" t="s">
-        <v>1832</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1850</v>
+        <v>1841</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1888</v>
+        <v>1879</v>
       </c>
       <c r="C6" t="s">
-        <v>1833</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1851</v>
+        <v>1842</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1889</v>
+        <v>1880</v>
       </c>
       <c r="C7" t="s">
-        <v>1834</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1852</v>
+        <v>1843</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1890</v>
+        <v>1881</v>
       </c>
       <c r="C8" t="s">
-        <v>1835</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1853</v>
+        <v>1844</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1891</v>
+        <v>1882</v>
       </c>
       <c r="C9" t="s">
-        <v>1836</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1854</v>
+        <v>1845</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1892</v>
+        <v>1883</v>
       </c>
       <c r="C10" t="s">
-        <v>1837</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1855</v>
+        <v>1846</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1893</v>
+        <v>1884</v>
       </c>
       <c r="C11" t="s">
-        <v>1838</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1856</v>
+        <v>1847</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1894</v>
+        <v>1885</v>
       </c>
       <c r="C12" t="s">
-        <v>1839</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1857</v>
+        <v>1848</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1895</v>
+        <v>1886</v>
       </c>
       <c r="C13" t="s">
-        <v>1840</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1858</v>
+        <v>1849</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1896</v>
+        <v>1887</v>
       </c>
       <c r="C14" t="s">
-        <v>1841</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1859</v>
+        <v>1850</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1897</v>
+        <v>1888</v>
       </c>
       <c r="C15" t="s">
-        <v>1842</v>
+        <v>1833</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1860</v>
+        <v>1851</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1898</v>
+        <v>1889</v>
       </c>
       <c r="C16" t="s">
-        <v>1843</v>
+        <v>1834</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1861</v>
+        <v>1852</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1899</v>
+        <v>1890</v>
       </c>
       <c r="C17" t="s">
-        <v>1844</v>
+        <v>1835</v>
       </c>
     </row>
   </sheetData>
@@ -28069,7 +28276,7 @@
         <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>1862</v>
+        <v>1853</v>
       </c>
       <c r="D2" t="s">
         <v>1731</v>

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="12195" windowHeight="6390" tabRatio="731" firstSheet="4" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="12195" windowHeight="6390" tabRatio="731" firstSheet="4" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4787" uniqueCount="1922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="1930">
   <si>
     <t>Divisie</t>
   </si>
@@ -5803,6 +5803,30 @@
   </si>
   <si>
     <t>63287555</t>
+  </si>
+  <si>
+    <t>plannen</t>
+  </si>
+  <si>
+    <t>inspectie</t>
+  </si>
+  <si>
+    <t>voorbereiden</t>
+  </si>
+  <si>
+    <t>maken</t>
+  </si>
+  <si>
+    <t>handhavingsafspraak</t>
+  </si>
+  <si>
+    <t>project</t>
+  </si>
+  <si>
+    <t>volgen</t>
+  </si>
+  <si>
+    <t>opleiding</t>
   </si>
 </sst>
 </file>
@@ -19365,7 +19389,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -22711,5052 +22735,5514 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I194"/>
+  <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="15.140625" customWidth="1"/>
-    <col min="2" max="2" width="45.42578125" customWidth="1"/>
-    <col min="4" max="4" width="30.7109375" customWidth="1"/>
-    <col min="5" max="5" width="29.42578125" customWidth="1"/>
-    <col min="7" max="7" width="39.28515625" customWidth="1"/>
-    <col min="8" max="8" width="22.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" customWidth="1"/>
+    <col min="1" max="3" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="6" max="6" width="30.7109375" customWidth="1"/>
+    <col min="7" max="7" width="29.42578125" customWidth="1"/>
+    <col min="9" max="9" width="39.28515625" customWidth="1"/>
+    <col min="10" max="10" width="22.5703125" customWidth="1"/>
+    <col min="11" max="11" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>1399</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8" t="s">
         <v>1589</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="F1" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="H1" s="8" t="s">
         <v>1397</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="I1" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>984</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="K1" s="8" t="s">
         <v>1590</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
         <v>1398</v>
       </c>
-      <c r="B2" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>1661</v>
-      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
       <c r="D2" s="8" t="s">
         <v>319</v>
       </c>
       <c r="E2" s="8" t="s">
+        <v>1661</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
+        <v>319</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>1662</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="I2" s="8" t="s">
         <v>986</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="J2" s="8" t="s">
         <v>319</v>
       </c>
-      <c r="I2" s="8" t="s">
+      <c r="K2" s="8" t="s">
         <v>809</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
         <v>1400</v>
       </c>
       <c r="B3" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D3" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="E3" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="F3" s="10" t="s">
         <v>1591</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>1095</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="H3" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="G3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>999</v>
       </c>
-      <c r="H3" s="11"/>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11"/>
+      <c r="K3" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
         <v>1401</v>
       </c>
       <c r="B4" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="E4" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D4" s="10" t="s">
+      <c r="F4" s="10" t="s">
         <v>1238</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
         <v>1592</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="H4" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G4" s="10" t="s">
+      <c r="I4" s="10" t="s">
         <v>1101</v>
       </c>
-      <c r="H4" s="11"/>
-      <c r="I4" s="11" t="s">
+      <c r="J4" s="11"/>
+      <c r="K4" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
         <v>1402</v>
       </c>
       <c r="B5" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D5" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="E5" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D5" s="10" t="s">
+      <c r="F5" s="10" t="s">
         <v>1239</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="G5" s="10" t="s">
         <v>1240</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="H5" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G5" s="10" t="s">
+      <c r="I5" s="10" t="s">
         <v>1014</v>
       </c>
-      <c r="H5" s="11"/>
-      <c r="I5" s="11" t="s">
+      <c r="J5" s="11"/>
+      <c r="K5" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
         <v>1403</v>
       </c>
       <c r="B6" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D6" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="E6" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="F6" s="10" t="s">
         <v>1096</v>
       </c>
-      <c r="E6" s="10" t="s">
+      <c r="G6" s="10" t="s">
         <v>1097</v>
       </c>
-      <c r="F6" s="9" t="s">
+      <c r="H6" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G6" s="10"/>
-      <c r="H6" s="11" t="s">
+      <c r="I6" s="10"/>
+      <c r="J6" s="11" t="s">
         <v>1098</v>
       </c>
-      <c r="I6" s="11" t="s">
+      <c r="K6" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
         <v>1404</v>
       </c>
       <c r="B7" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D7" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="E7" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="F7" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="E7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>990</v>
       </c>
-      <c r="F7" s="9" t="s">
+      <c r="H7" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="I7" s="10" t="s">
         <v>992</v>
       </c>
-      <c r="H7" s="11"/>
-      <c r="I7" s="11" t="s">
+      <c r="J7" s="11"/>
+      <c r="K7" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="8" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
         <v>1405</v>
       </c>
       <c r="B8" s="9" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>1923</v>
+      </c>
+      <c r="D8" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C8" s="10" t="s">
+      <c r="E8" s="10" t="s">
         <v>1089</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="F8" s="9" t="s">
         <v>1090</v>
       </c>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9" t="s">
+      <c r="G8" s="9"/>
+      <c r="H8" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H8" s="11"/>
-      <c r="I8" s="11" t="s">
+      <c r="J8" s="11"/>
+      <c r="K8" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
         <v>1406</v>
       </c>
       <c r="B9" s="9" t="s">
+        <v>1925</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>1926</v>
+      </c>
+      <c r="D9" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C9" s="10" t="s">
+      <c r="E9" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D9" s="9" t="s">
+      <c r="F9" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="E9" s="9" t="s">
+      <c r="G9" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="F9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="I9" s="9" t="s">
         <v>1593</v>
       </c>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11" t="s">
+      <c r="J9" s="11"/>
+      <c r="K9" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
         <v>1407</v>
       </c>
       <c r="B10" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D10" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C10" s="10" t="s">
+      <c r="E10" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D10" s="9" t="s">
+      <c r="F10" s="9" t="s">
         <v>1099</v>
       </c>
-      <c r="E10" s="9" t="s">
+      <c r="G10" s="9" t="s">
         <v>1100</v>
       </c>
-      <c r="F10" s="9" t="s">
+      <c r="H10" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="G10" s="9" t="s">
+      <c r="I10" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="11" t="s">
+      <c r="J10" s="11"/>
+      <c r="K10" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
         <v>1408</v>
       </c>
       <c r="B11" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="E11" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D11" s="9" t="s">
+      <c r="F11" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="E11" s="9" t="s">
+      <c r="G11" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="F11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H11" s="11"/>
-      <c r="I11" s="11" t="s">
+      <c r="J11" s="11"/>
+      <c r="K11" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
         <v>1409</v>
       </c>
       <c r="B12" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D12" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="E12" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D12" s="9" t="s">
+      <c r="F12" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="E12" s="9" t="s">
+      <c r="G12" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="F12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>1003</v>
       </c>
-      <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
+      <c r="J12" s="11"/>
+      <c r="K12" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
         <v>1410</v>
       </c>
       <c r="B13" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D13" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="E13" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D13" s="9" t="s">
+      <c r="F13" s="9" t="s">
         <v>1102</v>
       </c>
-      <c r="E13" s="9" t="s">
+      <c r="G13" s="9" t="s">
         <v>1103</v>
       </c>
-      <c r="F13" s="9" t="s">
+      <c r="H13" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="G13" s="9" t="s">
+      <c r="I13" s="9" t="s">
         <v>1104</v>
       </c>
-      <c r="H13" s="11"/>
-      <c r="I13" s="11" t="s">
+      <c r="J13" s="11"/>
+      <c r="K13" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
         <v>1411</v>
       </c>
       <c r="B14" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C14" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D14" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C14" s="10" t="s">
+      <c r="E14" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D14" s="9" t="s">
+      <c r="F14" s="9" t="s">
         <v>1594</v>
       </c>
-      <c r="E14" s="9" t="s">
+      <c r="G14" s="9" t="s">
         <v>1056</v>
       </c>
-      <c r="F14" s="9" t="s">
+      <c r="H14" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G14" s="9" t="s">
+      <c r="I14" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H14" s="11" t="s">
+      <c r="J14" s="11" t="s">
         <v>1057</v>
       </c>
-      <c r="I14" s="11" t="s">
+      <c r="K14" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
         <v>1412</v>
       </c>
       <c r="B15" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D15" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C15" s="10" t="s">
+      <c r="E15" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D15" s="9" t="s">
+      <c r="F15" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="E15" s="9" t="s">
+      <c r="G15" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="F15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="I15" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="H15" s="11" t="s">
+      <c r="J15" s="11" t="s">
         <v>1007</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="K15" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
         <v>1413</v>
       </c>
       <c r="B16" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D16" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="E16" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D16" s="9" t="s">
+      <c r="F16" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="E16" s="9" t="s">
+      <c r="G16" s="9" t="s">
         <v>1009</v>
       </c>
-      <c r="F16" s="9" t="s">
+      <c r="H16" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G16" s="9" t="s">
+      <c r="I16" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="H16" s="11"/>
-      <c r="I16" s="11" t="s">
+      <c r="J16" s="11"/>
+      <c r="K16" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
         <v>1414</v>
       </c>
       <c r="B17" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D17" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C17" s="10" t="s">
+      <c r="E17" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D17" s="9" t="s">
+      <c r="F17" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="E17" s="9" t="s">
+      <c r="G17" s="9" t="s">
         <v>1011</v>
       </c>
-      <c r="F17" s="9" t="s">
+      <c r="H17" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G17" s="9" t="s">
+      <c r="I17" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11" t="s">
+      <c r="J17" s="11"/>
+      <c r="K17" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>1415</v>
       </c>
       <c r="B18" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C18" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D18" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C18" s="10" t="s">
+      <c r="E18" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D18" s="9" t="s">
+      <c r="F18" s="9" t="s">
         <v>1105</v>
       </c>
-      <c r="E18" s="9" t="s">
+      <c r="G18" s="9" t="s">
         <v>1106</v>
       </c>
-      <c r="F18" s="9" t="s">
+      <c r="H18" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G18" s="9" t="s">
+      <c r="I18" s="9" t="s">
         <v>992</v>
       </c>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11" t="s">
+      <c r="J18" s="11"/>
+      <c r="K18" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
         <v>1416</v>
       </c>
       <c r="B19" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D19" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="E19" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="H19" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="I19" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="H19" s="11" t="s">
+      <c r="J19" s="11" t="s">
         <v>1015</v>
       </c>
-      <c r="I19" s="11" t="s">
+      <c r="K19" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
         <v>1417</v>
       </c>
       <c r="B20" s="9" t="s">
+        <v>1924</v>
+      </c>
+      <c r="C20" s="9" t="s">
+        <v>1927</v>
+      </c>
+      <c r="D20" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C20" s="10" t="s">
+      <c r="E20" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D20" s="9" t="s">
+      <c r="F20" s="9" t="s">
         <v>1595</v>
       </c>
-      <c r="E20" s="9" t="s">
+      <c r="G20" s="9" t="s">
         <v>1107</v>
       </c>
-      <c r="F20" s="9" t="s">
+      <c r="H20" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G20" s="9" t="s">
+      <c r="I20" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11" t="s">
+      <c r="J20" s="11"/>
+      <c r="K20" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
         <v>1418</v>
       </c>
       <c r="B21" s="9" t="s">
+        <v>1928</v>
+      </c>
+      <c r="C21" s="9" t="s">
+        <v>1929</v>
+      </c>
+      <c r="D21" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C21" s="10" t="s">
+      <c r="E21" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D21" s="9" t="s">
+      <c r="F21" s="9" t="s">
         <v>1108</v>
       </c>
-      <c r="E21" s="9" t="s">
+      <c r="G21" s="9" t="s">
         <v>1109</v>
       </c>
-      <c r="F21" s="9" t="s">
+      <c r="H21" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G21" s="9"/>
-      <c r="H21" s="11" t="s">
+      <c r="I21" s="9"/>
+      <c r="J21" s="11" t="s">
         <v>1110</v>
       </c>
-      <c r="I21" s="11" t="s">
+      <c r="K21" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
         <v>1419</v>
       </c>
-      <c r="B22" s="9" t="s">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="E22" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D22" s="9" t="s">
+      <c r="F22" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="E22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>1242</v>
       </c>
-      <c r="F22" s="9" t="s">
+      <c r="H22" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="G22" s="9" t="s">
+      <c r="I22" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11" t="s">
+      <c r="J22" s="11"/>
+      <c r="K22" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>1420</v>
       </c>
-      <c r="B23" s="9" t="s">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C23" s="10" t="s">
+      <c r="E23" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D23" s="9" t="s">
+      <c r="F23" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="E23" s="9" t="s">
+      <c r="G23" s="9" t="s">
         <v>1244</v>
       </c>
-      <c r="F23" s="9" t="s">
+      <c r="H23" s="9" t="s">
         <v>1243</v>
       </c>
-      <c r="G23" s="9" t="s">
+      <c r="I23" s="9" t="s">
         <v>1006</v>
       </c>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11" t="s">
+      <c r="J23" s="11"/>
+      <c r="K23" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
         <v>1421</v>
       </c>
-      <c r="B24" s="9" t="s">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C24" s="10" t="s">
+      <c r="E24" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="E24" s="9" t="s">
+      <c r="G24" s="9" t="s">
         <v>1017</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="H24" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G24" s="9" t="s">
+      <c r="I24" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11" t="s">
+      <c r="J24" s="11"/>
+      <c r="K24" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
         <v>1422</v>
       </c>
-      <c r="B25" s="9" t="s">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C25" s="10" t="s">
+      <c r="E25" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D25" s="9" t="s">
+      <c r="F25" s="9" t="s">
         <v>1111</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="G25" s="9" t="s">
         <v>1112</v>
       </c>
-      <c r="F25" s="9" t="s">
+      <c r="H25" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G25" s="9" t="s">
+      <c r="I25" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11" t="s">
+      <c r="J25" s="11"/>
+      <c r="K25" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
         <v>1423</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C26" s="10" t="s">
+      <c r="E26" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D26" s="9" t="s">
+      <c r="F26" s="9" t="s">
         <v>1113</v>
       </c>
-      <c r="E26" s="9" t="s">
+      <c r="G26" s="9" t="s">
         <v>1114</v>
       </c>
-      <c r="F26" s="9" t="s">
+      <c r="H26" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G26" s="9" t="s">
+      <c r="I26" s="9" t="s">
         <v>1101</v>
       </c>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11" t="s">
+      <c r="J26" s="11"/>
+      <c r="K26" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
         <v>1424</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C27" s="10" t="s">
+      <c r="E27" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D27" s="9" t="s">
+      <c r="F27" s="9" t="s">
         <v>1643</v>
       </c>
-      <c r="E27" s="9" t="s">
+      <c r="G27" s="9" t="s">
         <v>1018</v>
       </c>
-      <c r="F27" s="9" t="s">
+      <c r="H27" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G27" s="9" t="s">
+      <c r="I27" s="9" t="s">
         <v>1014</v>
       </c>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11" t="s">
+      <c r="J27" s="11"/>
+      <c r="K27" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
         <v>1425</v>
       </c>
-      <c r="B28" s="9" t="s">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C28" s="10" t="s">
+      <c r="E28" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>1115</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="G28" s="9" t="s">
         <v>1116</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="H28" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G28" s="9" t="s">
+      <c r="I28" s="9" t="s">
         <v>999</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11" t="s">
+      <c r="J28" s="11"/>
+      <c r="K28" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
         <v>1426</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9" t="s">
         <v>987</v>
       </c>
-      <c r="C29" s="10" t="s">
+      <c r="E29" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D29" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="E29" s="9" t="s">
+      <c r="G29" s="9" t="s">
         <v>1020</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="H29" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G29" s="9"/>
-      <c r="H29" s="11" t="s">
+      <c r="I29" s="9"/>
+      <c r="J29" s="11" t="s">
         <v>1021</v>
       </c>
-      <c r="I29" s="11" t="s">
+      <c r="K29" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
         <v>1427</v>
       </c>
-      <c r="B30" s="9" t="s">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C30" s="10" t="s">
+      <c r="E30" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="F30" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="E30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>1024</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="H30" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="I30" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="H30" s="11" t="s">
+      <c r="J30" s="11" t="s">
         <v>1025</v>
       </c>
-      <c r="I30" s="11" t="s">
+      <c r="K30" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
         <v>1428</v>
       </c>
-      <c r="B31" s="9" t="s">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C31" s="10"/>
-      <c r="D31" s="10" t="s">
+      <c r="E31" s="10"/>
+      <c r="F31" s="10" t="s">
         <v>1297</v>
       </c>
-      <c r="E31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>1298</v>
       </c>
-      <c r="F31" s="9" t="s">
+      <c r="H31" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="I31" s="10" t="s">
         <v>1299</v>
       </c>
-      <c r="H31" s="11" t="s">
+      <c r="J31" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="I31" s="11" t="s">
+      <c r="K31" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="32" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
         <v>1429</v>
       </c>
-      <c r="B32" s="9" t="s">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C32" s="10"/>
-      <c r="D32" s="10" t="s">
+      <c r="E32" s="10"/>
+      <c r="F32" s="10" t="s">
         <v>1301</v>
       </c>
-      <c r="E32" s="10" t="s">
+      <c r="G32" s="10" t="s">
         <v>1302</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="H32" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="G32" s="10" t="s">
+      <c r="I32" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="H32" s="11" t="s">
+      <c r="J32" s="11" t="s">
         <v>1300</v>
       </c>
-      <c r="I32" s="11" t="s">
+      <c r="K32" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="33" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
         <v>1430</v>
       </c>
-      <c r="B33" s="9" t="s">
+      <c r="B33" s="9"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
+      <c r="E33" s="10"/>
+      <c r="F33" s="10" t="s">
         <v>1303</v>
       </c>
-      <c r="E33" s="10" t="s">
+      <c r="G33" s="10" t="s">
         <v>1304</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="H33" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G33" s="10" t="s">
+      <c r="I33" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="H33" s="11" t="s">
+      <c r="J33" s="11" t="s">
         <v>1305</v>
       </c>
-      <c r="I33" s="11" t="s">
+      <c r="K33" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
         <v>1431</v>
       </c>
-      <c r="B34" s="9" t="s">
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10" t="s">
+      <c r="E34" s="10"/>
+      <c r="F34" s="10" t="s">
         <v>1596</v>
       </c>
-      <c r="E34" s="10" t="s">
+      <c r="G34" s="10" t="s">
         <v>1306</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="H34" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G34" s="10" t="s">
+      <c r="I34" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11" t="s">
+      <c r="J34" s="11"/>
+      <c r="K34" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
         <v>1432</v>
       </c>
-      <c r="B35" s="9" t="s">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C35" s="10"/>
-      <c r="D35" s="10" t="s">
+      <c r="E35" s="10"/>
+      <c r="F35" s="10" t="s">
         <v>1307</v>
       </c>
-      <c r="E35" s="10" t="s">
+      <c r="G35" s="10" t="s">
         <v>1308</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="H35" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="I35" s="10" t="s">
         <v>1041</v>
       </c>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11" t="s">
+      <c r="J35" s="11"/>
+      <c r="K35" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
         <v>1433</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="9"/>
+      <c r="C36" s="9"/>
+      <c r="D36" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="10" t="s">
+      <c r="E36" s="10"/>
+      <c r="F36" s="10" t="s">
         <v>1309</v>
       </c>
-      <c r="E36" s="10" t="s">
+      <c r="G36" s="10" t="s">
         <v>1310</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="H36" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="I36" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11" t="s">
+      <c r="J36" s="11"/>
+      <c r="K36" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
         <v>1434</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="9"/>
+      <c r="C37" s="9"/>
+      <c r="D37" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C37" s="10"/>
-      <c r="D37" s="9" t="s">
+      <c r="E37" s="10"/>
+      <c r="F37" s="9" t="s">
         <v>1311</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="G37" s="9" t="s">
         <v>1312</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="H37" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G37" s="9" t="s">
+      <c r="I37" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11" t="s">
+      <c r="J37" s="11"/>
+      <c r="K37" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
         <v>1435</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9" t="s">
+      <c r="E38" s="10"/>
+      <c r="F38" s="9" t="s">
         <v>1313</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="G38" s="9" t="s">
         <v>1314</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="H38" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G38" s="9" t="s">
+      <c r="I38" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H38" s="11"/>
-      <c r="I38" s="11" t="s">
+      <c r="J38" s="11"/>
+      <c r="K38" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
         <v>1436</v>
       </c>
-      <c r="B39" s="9" t="s">
+      <c r="B39" s="9"/>
+      <c r="C39" s="9"/>
+      <c r="D39" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C39" s="10"/>
-      <c r="D39" s="9" t="s">
+      <c r="E39" s="10"/>
+      <c r="F39" s="9" t="s">
         <v>1315</v>
       </c>
-      <c r="E39" s="9" t="s">
+      <c r="G39" s="9" t="s">
         <v>1316</v>
       </c>
-      <c r="F39" s="9" t="s">
+      <c r="H39" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G39" s="9" t="s">
+      <c r="I39" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H39" s="11"/>
-      <c r="I39" s="11" t="s">
+      <c r="J39" s="11"/>
+      <c r="K39" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
         <v>1437</v>
       </c>
-      <c r="B40" s="9" t="s">
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
+      <c r="D40" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C40" s="10" t="s">
+      <c r="E40" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D40" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>1058</v>
       </c>
-      <c r="E40" s="9" t="s">
+      <c r="G40" s="9" t="s">
         <v>1059</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="H40" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G40" s="9" t="s">
+      <c r="I40" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H40" s="11"/>
-      <c r="I40" s="11" t="s">
+      <c r="J40" s="11"/>
+      <c r="K40" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
         <v>1438</v>
       </c>
-      <c r="B41" s="9" t="s">
+      <c r="B41" s="9"/>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C41" s="10" t="s">
+      <c r="E41" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D41" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="E41" s="9" t="s">
+      <c r="G41" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="F41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="I41" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H41" s="11"/>
-      <c r="I41" s="11" t="s">
+      <c r="J41" s="11"/>
+      <c r="K41" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
         <v>1439</v>
       </c>
-      <c r="B42" s="9" t="s">
+      <c r="B42" s="9"/>
+      <c r="C42" s="9"/>
+      <c r="D42" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C42" s="10"/>
-      <c r="D42" s="9" t="s">
+      <c r="E42" s="10"/>
+      <c r="F42" s="9" t="s">
         <v>1597</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="G42" s="9" t="s">
         <v>1317</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="H42" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G42" s="9" t="s">
+      <c r="I42" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H42" s="11"/>
-      <c r="I42" s="11" t="s">
+      <c r="J42" s="11"/>
+      <c r="K42" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
         <v>1440</v>
       </c>
-      <c r="B43" s="9" t="s">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C43" s="10"/>
-      <c r="D43" s="9" t="s">
+      <c r="E43" s="10"/>
+      <c r="F43" s="9" t="s">
         <v>1318</v>
       </c>
-      <c r="E43" s="9" t="s">
+      <c r="G43" s="9" t="s">
         <v>1319</v>
       </c>
-      <c r="F43" s="9" t="s">
+      <c r="H43" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="G43" s="9" t="s">
+      <c r="I43" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H43" s="11"/>
-      <c r="I43" s="11" t="s">
+      <c r="J43" s="11"/>
+      <c r="K43" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
         <v>1441</v>
       </c>
-      <c r="B44" s="9" t="s">
+      <c r="B44" s="9"/>
+      <c r="C44" s="9"/>
+      <c r="D44" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C44" s="10"/>
-      <c r="D44" s="9" t="s">
+      <c r="E44" s="10"/>
+      <c r="F44" s="9" t="s">
         <v>1320</v>
       </c>
-      <c r="E44" s="9" t="s">
+      <c r="G44" s="9" t="s">
         <v>1321</v>
       </c>
-      <c r="F44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="I44" s="9" t="s">
         <v>1322</v>
       </c>
-      <c r="H44" s="11"/>
-      <c r="I44" s="11" t="s">
+      <c r="J44" s="11"/>
+      <c r="K44" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
         <v>1442</v>
       </c>
-      <c r="B45" s="9" t="s">
+      <c r="B45" s="9"/>
+      <c r="C45" s="9"/>
+      <c r="D45" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C45" s="10"/>
-      <c r="D45" s="9" t="s">
+      <c r="E45" s="10"/>
+      <c r="F45" s="9" t="s">
         <v>1323</v>
       </c>
-      <c r="E45" s="9" t="s">
+      <c r="G45" s="9" t="s">
         <v>1324</v>
       </c>
-      <c r="F45" s="9" t="s">
+      <c r="H45" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G45" s="9" t="s">
+      <c r="I45" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H45" s="11"/>
-      <c r="I45" s="11" t="s">
+      <c r="J45" s="11"/>
+      <c r="K45" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
         <v>1443</v>
       </c>
-      <c r="B46" s="9" t="s">
+      <c r="B46" s="9"/>
+      <c r="C46" s="9"/>
+      <c r="D46" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C46" s="10" t="s">
+      <c r="E46" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D46" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="E46" s="9" t="s">
+      <c r="G46" s="9" t="s">
         <v>1061</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="H46" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G46" s="9" t="s">
+      <c r="I46" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H46" s="11"/>
-      <c r="I46" s="11" t="s">
+      <c r="J46" s="11"/>
+      <c r="K46" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
         <v>1444</v>
       </c>
-      <c r="B47" s="9" t="s">
+      <c r="B47" s="9"/>
+      <c r="C47" s="9"/>
+      <c r="D47" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C47" s="10" t="s">
+      <c r="E47" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D47" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="E47" s="9" t="s">
+      <c r="G47" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="H47" s="11"/>
-      <c r="I47" s="11" t="s">
+      <c r="J47" s="11"/>
+      <c r="K47" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
         <v>1445</v>
       </c>
-      <c r="B48" s="9" t="s">
+      <c r="B48" s="9"/>
+      <c r="C48" s="9"/>
+      <c r="D48" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C48" s="10"/>
-      <c r="D48" s="9" t="s">
+      <c r="E48" s="10"/>
+      <c r="F48" s="9" t="s">
         <v>1325</v>
       </c>
-      <c r="E48" s="9" t="s">
+      <c r="G48" s="9" t="s">
         <v>1326</v>
       </c>
-      <c r="F48" s="9" t="s">
+      <c r="H48" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G48" s="9" t="s">
+      <c r="I48" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="H48" s="11"/>
-      <c r="I48" s="11" t="s">
+      <c r="J48" s="11"/>
+      <c r="K48" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="49" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
         <v>1446</v>
       </c>
-      <c r="B49" s="9" t="s">
+      <c r="B49" s="9"/>
+      <c r="C49" s="9"/>
+      <c r="D49" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C49" s="10" t="s">
+      <c r="E49" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D49" s="9" t="s">
+      <c r="F49" s="9" t="s">
         <v>1245</v>
       </c>
-      <c r="E49" s="9" t="s">
+      <c r="G49" s="9" t="s">
         <v>1246</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="H49" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G49" s="9" t="s">
+      <c r="I49" s="9" t="s">
         <v>1247</v>
       </c>
-      <c r="H49" s="11"/>
-      <c r="I49" s="11" t="s">
+      <c r="J49" s="11"/>
+      <c r="K49" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="50" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
         <v>1447</v>
       </c>
-      <c r="B50" s="9" t="s">
+      <c r="B50" s="9"/>
+      <c r="C50" s="9"/>
+      <c r="D50" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C50" s="10" t="s">
+      <c r="E50" s="10" t="s">
         <v>1091</v>
       </c>
-      <c r="D50" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>1092</v>
       </c>
-      <c r="E50" s="9"/>
-      <c r="F50" s="9" t="s">
+      <c r="G50" s="9"/>
+      <c r="H50" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="G50" s="9"/>
-      <c r="H50" s="11" t="s">
+      <c r="I50" s="9"/>
+      <c r="J50" s="11" t="s">
         <v>1093</v>
       </c>
-      <c r="I50" s="11" t="s">
+      <c r="K50" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="51" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
         <v>1448</v>
       </c>
-      <c r="B51" s="9" t="s">
+      <c r="B51" s="9"/>
+      <c r="C51" s="9"/>
+      <c r="D51" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C51" s="10" t="s">
+      <c r="E51" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D51" s="9" t="s">
+      <c r="F51" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="E51" s="9" t="s">
+      <c r="G51" s="9" t="s">
         <v>1034</v>
       </c>
-      <c r="F51" s="9" t="s">
+      <c r="H51" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G51" s="9" t="s">
+      <c r="I51" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H51" s="11"/>
-      <c r="I51" s="11" t="s">
+      <c r="J51" s="11"/>
+      <c r="K51" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
         <v>1449</v>
       </c>
-      <c r="B52" s="9" t="s">
+      <c r="B52" s="9"/>
+      <c r="C52" s="9"/>
+      <c r="D52" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C52" s="10" t="s">
+      <c r="E52" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D52" s="9" t="s">
+      <c r="F52" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="E52" s="9" t="s">
+      <c r="G52" s="9" t="s">
         <v>1036</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="H52" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G52" s="9" t="s">
+      <c r="I52" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H52" s="11"/>
-      <c r="I52" s="11" t="s">
+      <c r="J52" s="11"/>
+      <c r="K52" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
         <v>1450</v>
       </c>
-      <c r="B53" s="9" t="s">
+      <c r="B53" s="9"/>
+      <c r="C53" s="9"/>
+      <c r="D53" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C53" s="10" t="s">
+      <c r="E53" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D53" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>1248</v>
       </c>
-      <c r="E53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>1249</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="H53" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="I53" s="9" t="s">
         <v>1032</v>
       </c>
-      <c r="H53" s="11"/>
-      <c r="I53" s="11" t="s">
+      <c r="J53" s="11"/>
+      <c r="K53" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
         <v>1451</v>
       </c>
-      <c r="B54" s="9" t="s">
+      <c r="B54" s="9"/>
+      <c r="C54" s="9"/>
+      <c r="D54" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C54" s="10" t="s">
+      <c r="E54" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D54" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="E54" s="9" t="s">
+      <c r="G54" s="9" t="s">
         <v>1063</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="I54" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="H54" s="11" t="s">
+      <c r="J54" s="11" t="s">
         <v>1064</v>
       </c>
-      <c r="I54" s="11" t="s">
+      <c r="K54" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
         <v>1452</v>
       </c>
-      <c r="B55" s="9" t="s">
+      <c r="B55" s="9"/>
+      <c r="C55" s="9"/>
+      <c r="D55" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C55" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D55" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="E55" s="9" t="s">
+      <c r="G55" s="9" t="s">
         <v>1038</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="H55" s="9" t="s">
         <v>1028</v>
       </c>
-      <c r="G55" s="9" t="s">
+      <c r="I55" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="H55" s="11"/>
-      <c r="I55" s="11" t="s">
+      <c r="J55" s="11"/>
+      <c r="K55" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="56" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
         <v>1453</v>
       </c>
-      <c r="B56" s="9" t="s">
+      <c r="B56" s="9"/>
+      <c r="C56" s="9"/>
+      <c r="D56" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C56" s="10" t="s">
+      <c r="E56" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D56" s="9" t="s">
+      <c r="F56" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="E56" s="9" t="s">
+      <c r="G56" s="9" t="s">
         <v>1040</v>
       </c>
-      <c r="F56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="I56" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="H56" s="11"/>
-      <c r="I56" s="11" t="s">
+      <c r="J56" s="11"/>
+      <c r="K56" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="57" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
         <v>1454</v>
       </c>
-      <c r="B57" s="9" t="s">
+      <c r="B57" s="9"/>
+      <c r="C57" s="9"/>
+      <c r="D57" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C57" s="10" t="s">
+      <c r="E57" s="10" t="s">
         <v>1289</v>
       </c>
-      <c r="D57" s="9" t="s">
+      <c r="F57" s="9" t="s">
         <v>1290</v>
       </c>
-      <c r="E57" s="9" t="s">
+      <c r="G57" s="9" t="s">
         <v>1291</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="I57" s="9" t="s">
         <v>1041</v>
       </c>
-      <c r="H57" s="11" t="s">
+      <c r="J57" s="11" t="s">
         <v>1292</v>
       </c>
-      <c r="I57" s="11" t="s">
+      <c r="K57" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
         <v>1455</v>
       </c>
-      <c r="B58" s="9" t="s">
+      <c r="B58" s="9"/>
+      <c r="C58" s="9"/>
+      <c r="D58" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C58" s="10" t="s">
+      <c r="E58" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>1598</v>
       </c>
-      <c r="E58" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>1042</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>1031</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="I58" s="9" t="s">
         <v>1043</v>
       </c>
-      <c r="H58" s="11"/>
-      <c r="I58" s="11" t="s">
+      <c r="J58" s="11"/>
+      <c r="K58" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
         <v>1456</v>
       </c>
-      <c r="B59" s="9" t="s">
+      <c r="B59" s="9"/>
+      <c r="C59" s="9"/>
+      <c r="D59" s="9" t="s">
         <v>1022</v>
       </c>
-      <c r="C59" s="10" t="s">
+      <c r="E59" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D59" s="9" t="s">
+      <c r="F59" s="9" t="s">
         <v>1250</v>
       </c>
-      <c r="E59" s="9" t="s">
+      <c r="G59" s="9" t="s">
         <v>1251</v>
       </c>
-      <c r="F59" s="9" t="s">
+      <c r="H59" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G59" s="9"/>
-      <c r="H59" s="11"/>
-      <c r="I59" s="11" t="s">
+      <c r="I59" s="9"/>
+      <c r="J59" s="11"/>
+      <c r="K59" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="60" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
         <v>1457</v>
       </c>
-      <c r="B60" s="9" t="s">
+      <c r="B60" s="9"/>
+      <c r="C60" s="9"/>
+      <c r="D60" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C60" s="10" t="s">
+      <c r="E60" s="10" t="s">
         <v>1858</v>
       </c>
-      <c r="D60" s="9" t="s">
+      <c r="F60" s="9" t="s">
         <v>1223</v>
       </c>
-      <c r="E60" s="9" t="s">
+      <c r="G60" s="9" t="s">
         <v>1224</v>
       </c>
-      <c r="F60" s="9" t="s">
+      <c r="H60" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G60" s="9" t="s">
+      <c r="I60" s="9" t="s">
         <v>1225</v>
       </c>
-      <c r="H60" s="11"/>
-      <c r="I60" s="11" t="s">
+      <c r="J60" s="11"/>
+      <c r="K60" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="61" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
         <v>1458</v>
       </c>
-      <c r="B61" s="9" t="s">
+      <c r="B61" s="9"/>
+      <c r="C61" s="9"/>
+      <c r="D61" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C61" s="10" t="s">
+      <c r="E61" s="10" t="s">
         <v>1858</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="F61" s="10" t="s">
         <v>1226</v>
       </c>
-      <c r="E61" s="10" t="s">
+      <c r="G61" s="10" t="s">
         <v>1227</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="H61" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G61" s="10" t="s">
+      <c r="I61" s="10" t="s">
         <v>1228</v>
       </c>
-      <c r="H61" s="11"/>
-      <c r="I61" s="11" t="s">
+      <c r="J61" s="11"/>
+      <c r="K61" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="62" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
         <v>1459</v>
       </c>
-      <c r="B62" s="9" t="s">
+      <c r="B62" s="9"/>
+      <c r="C62" s="9"/>
+      <c r="D62" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C62" s="10" t="s">
+      <c r="E62" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="F62" s="10" t="s">
         <v>1252</v>
       </c>
-      <c r="E62" s="10" t="s">
+      <c r="G62" s="10" t="s">
         <v>1253</v>
       </c>
-      <c r="F62" s="9" t="s">
+      <c r="H62" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="I62" s="10" t="s">
         <v>1254</v>
       </c>
-      <c r="H62" s="11" t="s">
+      <c r="J62" s="11" t="s">
         <v>1255</v>
       </c>
-      <c r="I62" s="11" t="s">
+      <c r="K62" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="63" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
         <v>1460</v>
       </c>
-      <c r="B63" s="9" t="s">
+      <c r="B63" s="9"/>
+      <c r="C63" s="9"/>
+      <c r="D63" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C63" s="10"/>
-      <c r="D63" s="10" t="s">
+      <c r="E63" s="10"/>
+      <c r="F63" s="10" t="s">
         <v>1327</v>
       </c>
-      <c r="E63" s="10" t="s">
+      <c r="G63" s="10" t="s">
         <v>1328</v>
       </c>
-      <c r="F63" s="9" t="s">
+      <c r="H63" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G63" s="10" t="s">
+      <c r="I63" s="10" t="s">
         <v>1275</v>
       </c>
-      <c r="H63" s="11"/>
-      <c r="I63" s="11" t="s">
+      <c r="J63" s="11"/>
+      <c r="K63" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
         <v>1461</v>
       </c>
-      <c r="B64" s="9" t="s">
+      <c r="B64" s="9"/>
+      <c r="C64" s="9"/>
+      <c r="D64" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C64" s="10"/>
-      <c r="D64" s="10" t="s">
+      <c r="E64" s="10"/>
+      <c r="F64" s="10" t="s">
         <v>1329</v>
       </c>
-      <c r="E64" s="10" t="s">
+      <c r="G64" s="10" t="s">
         <v>1330</v>
       </c>
-      <c r="F64" s="9" t="s">
+      <c r="H64" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G64" s="10" t="s">
+      <c r="I64" s="10" t="s">
         <v>1275</v>
       </c>
-      <c r="H64" s="11" t="s">
+      <c r="J64" s="11" t="s">
         <v>1331</v>
       </c>
-      <c r="I64" s="11" t="s">
+      <c r="K64" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="65" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
         <v>1462</v>
       </c>
-      <c r="B65" s="9" t="s">
+      <c r="B65" s="9"/>
+      <c r="C65" s="9"/>
+      <c r="D65" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C65" s="10" t="s">
+      <c r="E65" s="10" t="s">
         <v>1858</v>
       </c>
-      <c r="D65" s="10" t="s">
+      <c r="F65" s="10" t="s">
         <v>1229</v>
       </c>
-      <c r="E65" s="10" t="s">
+      <c r="G65" s="10" t="s">
         <v>1230</v>
       </c>
-      <c r="F65" s="9" t="s">
+      <c r="H65" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G65" s="10"/>
-      <c r="H65" s="11"/>
-      <c r="I65" s="11" t="s">
+      <c r="I65" s="10"/>
+      <c r="J65" s="11"/>
+      <c r="K65" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="66" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
         <v>1463</v>
       </c>
-      <c r="B66" s="9" t="s">
+      <c r="B66" s="9"/>
+      <c r="C66" s="9"/>
+      <c r="D66" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C66" s="10"/>
-      <c r="D66" s="10" t="s">
+      <c r="E66" s="10"/>
+      <c r="F66" s="10" t="s">
         <v>1332</v>
       </c>
-      <c r="E66" s="10" t="s">
+      <c r="G66" s="10" t="s">
         <v>1333</v>
       </c>
-      <c r="F66" s="9" t="s">
+      <c r="H66" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G66" s="10" t="s">
+      <c r="I66" s="10" t="s">
         <v>1233</v>
       </c>
-      <c r="H66" s="11"/>
-      <c r="I66" s="11" t="s">
+      <c r="J66" s="11"/>
+      <c r="K66" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="67" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
         <v>1464</v>
       </c>
-      <c r="B67" s="9" t="s">
+      <c r="B67" s="9"/>
+      <c r="C67" s="9"/>
+      <c r="D67" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C67" s="10" t="s">
+      <c r="E67" s="10" t="s">
         <v>1858</v>
       </c>
-      <c r="D67" s="9" t="s">
+      <c r="F67" s="9" t="s">
         <v>1231</v>
       </c>
-      <c r="E67" s="9" t="s">
+      <c r="G67" s="9" t="s">
         <v>1232</v>
       </c>
-      <c r="F67" s="9" t="s">
+      <c r="H67" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="I67" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="H67" s="11"/>
-      <c r="I67" s="11" t="s">
+      <c r="J67" s="11"/>
+      <c r="K67" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="68" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
         <v>1465</v>
       </c>
-      <c r="B68" s="9" t="s">
+      <c r="B68" s="9"/>
+      <c r="C68" s="9"/>
+      <c r="D68" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C68" s="10" t="s">
+      <c r="E68" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D68" s="9" t="s">
+      <c r="F68" s="9" t="s">
         <v>1256</v>
       </c>
-      <c r="E68" s="9" t="s">
+      <c r="G68" s="9" t="s">
         <v>1257</v>
       </c>
-      <c r="F68" s="9" t="s">
+      <c r="H68" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>1228</v>
       </c>
-      <c r="H68" s="11"/>
-      <c r="I68" s="11" t="s">
+      <c r="J68" s="11"/>
+      <c r="K68" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="69" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
         <v>1466</v>
       </c>
-      <c r="B69" s="9" t="s">
+      <c r="B69" s="9"/>
+      <c r="C69" s="9"/>
+      <c r="D69" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C69" s="10" t="s">
+      <c r="E69" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="D69" s="9" t="s">
+      <c r="F69" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="E69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="H69" s="11"/>
-      <c r="I69" s="11" t="s">
+      <c r="J69" s="11"/>
+      <c r="K69" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="70" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
         <v>1467</v>
       </c>
-      <c r="B70" s="9" t="s">
+      <c r="B70" s="9"/>
+      <c r="C70" s="9"/>
+      <c r="D70" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C70" s="10" t="s">
+      <c r="E70" s="10" t="s">
         <v>1048</v>
       </c>
-      <c r="D70" s="9" t="s">
+      <c r="F70" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="E70" s="9" t="s">
+      <c r="G70" s="9" t="s">
         <v>1054</v>
       </c>
-      <c r="F70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G70" s="9" t="s">
+      <c r="I70" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="H70" s="11"/>
-      <c r="I70" s="11" t="s">
+      <c r="J70" s="11"/>
+      <c r="K70" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="71" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
         <v>1468</v>
       </c>
-      <c r="B71" s="9" t="s">
+      <c r="B71" s="9"/>
+      <c r="C71" s="9"/>
+      <c r="D71" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C71" s="10" t="s">
+      <c r="E71" s="10" t="s">
         <v>1282</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="F71" s="9" t="s">
         <v>1283</v>
       </c>
-      <c r="E71" s="9" t="s">
+      <c r="G71" s="9" t="s">
         <v>1284</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="H71" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="I71" s="9" t="s">
         <v>1285</v>
       </c>
-      <c r="H71" s="11"/>
-      <c r="I71" s="11" t="s">
+      <c r="J71" s="11"/>
+      <c r="K71" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="72" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
         <v>1469</v>
       </c>
-      <c r="B72" s="9" t="s">
+      <c r="B72" s="9"/>
+      <c r="C72" s="9"/>
+      <c r="D72" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C72" s="10" t="s">
+      <c r="E72" s="10" t="s">
         <v>1282</v>
       </c>
-      <c r="D72" s="9" t="s">
+      <c r="F72" s="9" t="s">
         <v>1286</v>
       </c>
-      <c r="E72" s="9" t="s">
+      <c r="G72" s="9" t="s">
         <v>1287</v>
       </c>
-      <c r="F72" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="I72" s="9" t="s">
         <v>1285</v>
       </c>
-      <c r="H72" s="11" t="s">
+      <c r="J72" s="11" t="s">
         <v>1288</v>
       </c>
-      <c r="I72" s="11" t="s">
+      <c r="K72" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="73" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
         <v>1470</v>
       </c>
-      <c r="B73" s="9" t="s">
+      <c r="B73" s="9"/>
+      <c r="C73" s="9"/>
+      <c r="D73" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C73" s="10" t="s">
+      <c r="E73" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D73" s="9" t="s">
+      <c r="F73" s="9" t="s">
         <v>1258</v>
       </c>
-      <c r="E73" s="9" t="s">
+      <c r="G73" s="9" t="s">
         <v>1259</v>
       </c>
-      <c r="F73" s="9" t="s">
+      <c r="H73" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G73" s="9" t="s">
+      <c r="I73" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="H73" s="11"/>
-      <c r="I73" s="11" t="s">
+      <c r="J73" s="11"/>
+      <c r="K73" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="74" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
         <v>1471</v>
       </c>
-      <c r="B74" s="9" t="s">
+      <c r="B74" s="9"/>
+      <c r="C74" s="9"/>
+      <c r="D74" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C74" s="10" t="s">
+      <c r="E74" s="10" t="s">
         <v>1858</v>
       </c>
-      <c r="D74" s="9" t="s">
+      <c r="F74" s="9" t="s">
         <v>1234</v>
       </c>
-      <c r="E74" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>1235</v>
       </c>
-      <c r="F74" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G74" s="9" t="s">
+      <c r="I74" s="9" t="s">
         <v>1052</v>
       </c>
-      <c r="H74" s="11"/>
-      <c r="I74" s="11" t="s">
+      <c r="J74" s="11"/>
+      <c r="K74" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="75" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
         <v>1472</v>
       </c>
-      <c r="B75" s="9" t="s">
+      <c r="B75" s="9"/>
+      <c r="C75" s="9"/>
+      <c r="D75" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C75" s="10" t="s">
+      <c r="E75" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D75" s="9" t="s">
+      <c r="F75" s="9" t="s">
         <v>1260</v>
       </c>
-      <c r="E75" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>1261</v>
       </c>
-      <c r="F75" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G75" s="9" t="s">
+      <c r="I75" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="H75" s="11" t="s">
+      <c r="J75" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="I75" s="11" t="s">
+      <c r="K75" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="76" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
         <v>1473</v>
       </c>
-      <c r="B76" s="9" t="s">
+      <c r="B76" s="9"/>
+      <c r="C76" s="9"/>
+      <c r="D76" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C76" s="10" t="s">
+      <c r="E76" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D76" s="9" t="s">
+      <c r="F76" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="E76" s="9" t="s">
+      <c r="G76" s="9" t="s">
         <v>1264</v>
       </c>
-      <c r="F76" s="9" t="s">
+      <c r="H76" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G76" s="9" t="s">
+      <c r="I76" s="9" t="s">
         <v>1265</v>
       </c>
-      <c r="H76" s="11" t="s">
+      <c r="J76" s="11" t="s">
         <v>1262</v>
       </c>
-      <c r="I76" s="11" t="s">
+      <c r="K76" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="77" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
         <v>1474</v>
       </c>
-      <c r="B77" s="9" t="s">
+      <c r="B77" s="9"/>
+      <c r="C77" s="9"/>
+      <c r="D77" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C77" s="10" t="s">
+      <c r="E77" s="10" t="s">
         <v>1858</v>
       </c>
-      <c r="D77" s="9" t="s">
+      <c r="F77" s="9" t="s">
         <v>1236</v>
       </c>
-      <c r="E77" s="9" t="s">
+      <c r="G77" s="9" t="s">
         <v>1237</v>
       </c>
-      <c r="F77" s="9" t="s">
+      <c r="H77" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G77" s="9" t="s">
+      <c r="I77" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="H77" s="11"/>
-      <c r="I77" s="11" t="s">
+      <c r="J77" s="11"/>
+      <c r="K77" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="78" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
         <v>1475</v>
       </c>
-      <c r="B78" s="9" t="s">
+      <c r="B78" s="9"/>
+      <c r="C78" s="9"/>
+      <c r="D78" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C78" s="10" t="s">
+      <c r="E78" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D78" s="9" t="s">
+      <c r="F78" s="9" t="s">
         <v>1266</v>
       </c>
-      <c r="E78" s="9" t="s">
+      <c r="G78" s="9" t="s">
         <v>1267</v>
       </c>
-      <c r="F78" s="9" t="s">
+      <c r="H78" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G78" s="9" t="s">
+      <c r="I78" s="9" t="s">
         <v>1228</v>
       </c>
-      <c r="H78" s="11"/>
-      <c r="I78" s="11" t="s">
+      <c r="J78" s="11"/>
+      <c r="K78" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="79" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
         <v>1476</v>
       </c>
-      <c r="B79" s="9" t="s">
+      <c r="B79" s="9"/>
+      <c r="C79" s="9"/>
+      <c r="D79" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C79" s="10" t="s">
+      <c r="E79" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D79" s="9" t="s">
+      <c r="F79" s="9" t="s">
         <v>1268</v>
       </c>
-      <c r="E79" s="9" t="s">
+      <c r="G79" s="9" t="s">
         <v>1269</v>
       </c>
-      <c r="F79" s="9" t="s">
+      <c r="H79" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G79" s="9" t="s">
+      <c r="I79" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="H79" s="11"/>
-      <c r="I79" s="11" t="s">
+      <c r="J79" s="11"/>
+      <c r="K79" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="80" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
         <v>1477</v>
       </c>
-      <c r="B80" s="9" t="s">
+      <c r="B80" s="9"/>
+      <c r="C80" s="9"/>
+      <c r="D80" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C80" s="10" t="s">
+      <c r="E80" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D80" s="9" t="s">
+      <c r="F80" s="9" t="s">
         <v>1270</v>
       </c>
-      <c r="E80" s="9" t="s">
+      <c r="G80" s="9" t="s">
         <v>1271</v>
       </c>
-      <c r="F80" s="9" t="s">
+      <c r="H80" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G80" s="9" t="s">
+      <c r="I80" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="H80" s="11" t="s">
+      <c r="J80" s="11" t="s">
         <v>1272</v>
       </c>
-      <c r="I80" s="11" t="s">
+      <c r="K80" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
         <v>1478</v>
       </c>
-      <c r="B81" s="9" t="s">
+      <c r="B81" s="9"/>
+      <c r="C81" s="9"/>
+      <c r="D81" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C81" s="10" t="s">
+      <c r="E81" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D81" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>1273</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="G81" s="9" t="s">
         <v>1274</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="H81" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G81" s="9" t="s">
+      <c r="I81" s="9" t="s">
         <v>1275</v>
       </c>
-      <c r="H81" s="11"/>
-      <c r="I81" s="11" t="s">
+      <c r="J81" s="11"/>
+      <c r="K81" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="82" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
         <v>1479</v>
       </c>
-      <c r="B82" s="9" t="s">
+      <c r="B82" s="9"/>
+      <c r="C82" s="9"/>
+      <c r="D82" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C82" s="10" t="s">
+      <c r="E82" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="D82" s="9" t="s">
+      <c r="F82" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="E82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>1046</v>
       </c>
-      <c r="F82" s="9" t="s">
+      <c r="H82" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="I82" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="H82" s="11"/>
-      <c r="I82" s="11" t="s">
+      <c r="J82" s="11"/>
+      <c r="K82" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
         <v>1480</v>
       </c>
-      <c r="B83" s="9" t="s">
+      <c r="B83" s="9"/>
+      <c r="C83" s="9"/>
+      <c r="D83" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C83" s="10" t="s">
+      <c r="E83" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D83" s="9" t="s">
+      <c r="F83" s="9" t="s">
         <v>1276</v>
       </c>
-      <c r="E83" s="9"/>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="9"/>
+      <c r="H83" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G83" s="9" t="s">
+      <c r="I83" s="9" t="s">
         <v>1233</v>
       </c>
-      <c r="H83" s="11"/>
-      <c r="I83" s="11" t="s">
+      <c r="J83" s="11"/>
+      <c r="K83" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
         <v>1481</v>
       </c>
-      <c r="B84" s="9" t="s">
+      <c r="B84" s="9"/>
+      <c r="C84" s="9"/>
+      <c r="D84" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C84" s="10" t="s">
+      <c r="E84" s="10" t="s">
         <v>1859</v>
       </c>
-      <c r="D84" s="9" t="s">
+      <c r="F84" s="9" t="s">
         <v>1280</v>
       </c>
-      <c r="E84" s="9" t="s">
+      <c r="G84" s="9" t="s">
         <v>1281</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="H84" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G84" s="9" t="s">
+      <c r="I84" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="H84" s="11"/>
-      <c r="I84" s="11" t="s">
+      <c r="J84" s="11"/>
+      <c r="K84" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
         <v>1482</v>
       </c>
-      <c r="B85" s="9" t="s">
+      <c r="B85" s="9"/>
+      <c r="C85" s="9"/>
+      <c r="D85" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="C85" s="10" t="s">
+      <c r="E85" s="10" t="s">
         <v>1854</v>
       </c>
-      <c r="D85" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>1277</v>
       </c>
-      <c r="E85" s="9" t="s">
+      <c r="G85" s="9" t="s">
         <v>1278</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="H85" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G85" s="9" t="s">
+      <c r="I85" s="9" t="s">
         <v>1279</v>
       </c>
-      <c r="H85" s="11"/>
-      <c r="I85" s="11" t="s">
+      <c r="J85" s="11"/>
+      <c r="K85" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="86" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
         <v>1483</v>
       </c>
-      <c r="B86" s="9" t="s">
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C86" s="10" t="s">
+      <c r="E86" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D86" s="9" t="s">
+      <c r="F86" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="E86" s="9" t="s">
+      <c r="G86" s="9" t="s">
         <v>1142</v>
       </c>
-      <c r="F86" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="I86" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="H86" s="11"/>
-      <c r="I86" s="11" t="s">
+      <c r="J86" s="11"/>
+      <c r="K86" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="87" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
         <v>1484</v>
       </c>
-      <c r="B87" s="9" t="s">
+      <c r="B87" s="9"/>
+      <c r="C87" s="9"/>
+      <c r="D87" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C87" s="10"/>
-      <c r="D87" s="10" t="s">
+      <c r="E87" s="10"/>
+      <c r="F87" s="10" t="s">
         <v>1334</v>
       </c>
-      <c r="E87" s="10" t="s">
+      <c r="G87" s="10" t="s">
         <v>1335</v>
       </c>
-      <c r="F87" s="9" t="s">
+      <c r="H87" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G87" s="10" t="s">
+      <c r="I87" s="10" t="s">
         <v>1144</v>
       </c>
-      <c r="H87" s="11"/>
-      <c r="I87" s="11" t="s">
+      <c r="J87" s="11"/>
+      <c r="K87" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="88" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
         <v>1485</v>
       </c>
-      <c r="B88" s="9" t="s">
+      <c r="B88" s="9"/>
+      <c r="C88" s="9"/>
+      <c r="D88" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C88" s="10"/>
-      <c r="D88" s="10" t="s">
+      <c r="E88" s="10"/>
+      <c r="F88" s="10" t="s">
         <v>1336</v>
       </c>
-      <c r="E88" s="10" t="s">
+      <c r="G88" s="10" t="s">
         <v>1337</v>
       </c>
-      <c r="F88" s="9" t="s">
+      <c r="H88" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>1339</v>
       </c>
-      <c r="H88" s="11"/>
-      <c r="I88" s="11" t="s">
+      <c r="J88" s="11"/>
+      <c r="K88" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="89" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
         <v>1486</v>
       </c>
-      <c r="B89" s="9" t="s">
+      <c r="B89" s="9"/>
+      <c r="C89" s="9"/>
+      <c r="D89" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C89" s="10"/>
-      <c r="D89" s="10" t="s">
+      <c r="E89" s="10"/>
+      <c r="F89" s="10" t="s">
         <v>1340</v>
       </c>
-      <c r="E89" s="10" t="s">
+      <c r="G89" s="10" t="s">
         <v>1341</v>
       </c>
-      <c r="F89" s="9" t="s">
+      <c r="H89" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G89" s="10"/>
-      <c r="H89" s="11"/>
-      <c r="I89" s="11" t="s">
+      <c r="I89" s="10"/>
+      <c r="J89" s="11"/>
+      <c r="K89" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="90" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
         <v>1487</v>
       </c>
-      <c r="B90" s="9" t="s">
+      <c r="B90" s="9"/>
+      <c r="C90" s="9"/>
+      <c r="D90" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C90" s="10"/>
-      <c r="D90" s="10" t="s">
+      <c r="E90" s="10"/>
+      <c r="F90" s="10" t="s">
         <v>1342</v>
       </c>
-      <c r="E90" s="10" t="s">
+      <c r="G90" s="10" t="s">
         <v>1343</v>
       </c>
-      <c r="F90" s="9" t="s">
+      <c r="H90" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G90" s="10" t="s">
+      <c r="I90" s="10" t="s">
         <v>1644</v>
       </c>
-      <c r="H90" s="11"/>
-      <c r="I90" s="11" t="s">
+      <c r="J90" s="11"/>
+      <c r="K90" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="91" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
         <v>1488</v>
       </c>
-      <c r="B91" s="9" t="s">
+      <c r="B91" s="9"/>
+      <c r="C91" s="9"/>
+      <c r="D91" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C91" s="10"/>
-      <c r="D91" s="10" t="s">
+      <c r="E91" s="10"/>
+      <c r="F91" s="10" t="s">
         <v>1344</v>
       </c>
-      <c r="E91" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>1183</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="H91" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G91" s="10"/>
-      <c r="H91" s="11"/>
-      <c r="I91" s="11" t="s">
+      <c r="I91" s="10"/>
+      <c r="J91" s="11"/>
+      <c r="K91" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="92" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
         <v>1489</v>
       </c>
-      <c r="B92" s="9" t="s">
+      <c r="B92" s="9"/>
+      <c r="C92" s="9"/>
+      <c r="D92" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C92" s="10"/>
-      <c r="D92" s="10" t="s">
+      <c r="E92" s="10"/>
+      <c r="F92" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="E92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>1346</v>
       </c>
-      <c r="F92" s="9" t="s">
+      <c r="H92" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="I92" s="10" t="s">
         <v>1347</v>
       </c>
-      <c r="H92" s="11" t="s">
+      <c r="J92" s="11" t="s">
         <v>1348</v>
       </c>
-      <c r="I92" s="11" t="s">
+      <c r="K92" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="93" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
         <v>1490</v>
       </c>
-      <c r="B93" s="9" t="s">
+      <c r="B93" s="9"/>
+      <c r="C93" s="9"/>
+      <c r="D93" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C93" s="10"/>
-      <c r="D93" s="10" t="s">
+      <c r="E93" s="10"/>
+      <c r="F93" s="10" t="s">
         <v>1349</v>
       </c>
-      <c r="E93" s="10" t="s">
+      <c r="G93" s="10" t="s">
         <v>1350</v>
       </c>
-      <c r="F93" s="9" t="s">
+      <c r="H93" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G93" s="10" t="s">
+      <c r="I93" s="10" t="s">
         <v>1599</v>
       </c>
-      <c r="H93" s="11"/>
-      <c r="I93" s="11" t="s">
+      <c r="J93" s="11"/>
+      <c r="K93" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="94" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
         <v>1491</v>
       </c>
-      <c r="B94" s="9" t="s">
+      <c r="B94" s="9"/>
+      <c r="C94" s="9"/>
+      <c r="D94" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C94" s="10"/>
-      <c r="D94" s="9" t="s">
+      <c r="E94" s="10"/>
+      <c r="F94" s="9" t="s">
         <v>1351</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="G94" s="9" t="s">
         <v>1352</v>
       </c>
-      <c r="F94" s="9" t="s">
+      <c r="H94" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G94" s="9" t="s">
+      <c r="I94" s="9" t="s">
         <v>1353</v>
       </c>
-      <c r="H94" s="11"/>
-      <c r="I94" s="11" t="s">
+      <c r="J94" s="11"/>
+      <c r="K94" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="95" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
         <v>1492</v>
       </c>
-      <c r="B95" s="9" t="s">
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C95" s="10" t="s">
+      <c r="E95" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D95" s="9" t="s">
+      <c r="F95" s="9" t="s">
         <v>1294</v>
       </c>
-      <c r="E95" s="9" t="s">
+      <c r="G95" s="9" t="s">
         <v>1295</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="H95" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G95" s="9" t="s">
+      <c r="I95" s="9" t="s">
         <v>1296</v>
       </c>
-      <c r="H95" s="11"/>
-      <c r="I95" s="11" t="s">
+      <c r="J95" s="11"/>
+      <c r="K95" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="96" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
         <v>1493</v>
       </c>
-      <c r="B96" s="9" t="s">
+      <c r="B96" s="9"/>
+      <c r="C96" s="9"/>
+      <c r="D96" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C96" s="10"/>
-      <c r="D96" s="9" t="s">
+      <c r="E96" s="10"/>
+      <c r="F96" s="9" t="s">
         <v>1354</v>
       </c>
-      <c r="E96" s="9" t="s">
+      <c r="G96" s="9" t="s">
         <v>1355</v>
       </c>
-      <c r="F96" s="9" t="s">
+      <c r="H96" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="G96" s="9"/>
-      <c r="H96" s="11"/>
-      <c r="I96" s="11" t="s">
+      <c r="I96" s="9"/>
+      <c r="J96" s="11"/>
+      <c r="K96" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="97" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
         <v>1494</v>
       </c>
-      <c r="B97" s="9" t="s">
+      <c r="B97" s="9"/>
+      <c r="C97" s="9"/>
+      <c r="D97" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C97" s="10"/>
-      <c r="D97" s="9" t="s">
+      <c r="E97" s="10"/>
+      <c r="F97" s="9" t="s">
         <v>1356</v>
       </c>
-      <c r="E97" s="9" t="s">
+      <c r="G97" s="9" t="s">
         <v>1357</v>
       </c>
-      <c r="F97" s="9" t="s">
+      <c r="H97" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G97" s="9" t="s">
+      <c r="I97" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="H97" s="11"/>
-      <c r="I97" s="11" t="s">
+      <c r="J97" s="11"/>
+      <c r="K97" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="98" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
         <v>1495</v>
       </c>
-      <c r="B98" s="9" t="s">
+      <c r="B98" s="9"/>
+      <c r="C98" s="9"/>
+      <c r="D98" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C98" s="10"/>
-      <c r="D98" s="9" t="s">
+      <c r="E98" s="10"/>
+      <c r="F98" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="E98" s="9" t="s">
+      <c r="G98" s="9" t="s">
         <v>1359</v>
       </c>
-      <c r="F98" s="9" t="s">
+      <c r="H98" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="I98" s="9" t="s">
         <v>1360</v>
       </c>
-      <c r="H98" s="11" t="s">
+      <c r="J98" s="11" t="s">
         <v>1361</v>
       </c>
-      <c r="I98" s="11" t="s">
+      <c r="K98" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="99" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
         <v>1496</v>
       </c>
-      <c r="B99" s="9" t="s">
+      <c r="B99" s="9"/>
+      <c r="C99" s="9"/>
+      <c r="D99" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C99" s="10"/>
-      <c r="D99" s="9" t="s">
+      <c r="E99" s="10"/>
+      <c r="F99" s="9" t="s">
         <v>1362</v>
       </c>
-      <c r="E99" s="9" t="s">
+      <c r="G99" s="9" t="s">
         <v>1363</v>
       </c>
-      <c r="F99" s="9" t="s">
+      <c r="H99" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G99" s="9" t="s">
+      <c r="I99" s="9" t="s">
         <v>1364</v>
       </c>
-      <c r="H99" s="11"/>
-      <c r="I99" s="11" t="s">
+      <c r="J99" s="11"/>
+      <c r="K99" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="100" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
         <v>1497</v>
       </c>
-      <c r="B100" s="9" t="s">
+      <c r="B100" s="9"/>
+      <c r="C100" s="9"/>
+      <c r="D100" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C100" s="10"/>
-      <c r="D100" s="9" t="s">
+      <c r="E100" s="10"/>
+      <c r="F100" s="9" t="s">
         <v>1365</v>
       </c>
-      <c r="E100" s="9" t="s">
+      <c r="G100" s="9" t="s">
         <v>1366</v>
       </c>
-      <c r="F100" s="9" t="s">
+      <c r="H100" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G100" s="9" t="s">
+      <c r="I100" s="9" t="s">
         <v>1364</v>
       </c>
-      <c r="H100" s="11"/>
-      <c r="I100" s="11" t="s">
+      <c r="J100" s="11"/>
+      <c r="K100" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="101" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
         <v>1498</v>
       </c>
-      <c r="B101" s="9" t="s">
+      <c r="B101" s="9"/>
+      <c r="C101" s="9"/>
+      <c r="D101" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C101" s="10"/>
-      <c r="D101" s="9" t="s">
+      <c r="E101" s="10"/>
+      <c r="F101" s="9" t="s">
         <v>1367</v>
       </c>
-      <c r="E101" s="9" t="s">
+      <c r="G101" s="9" t="s">
         <v>1368</v>
       </c>
-      <c r="F101" s="9" t="s">
+      <c r="H101" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G101" s="9"/>
-      <c r="H101" s="11"/>
-      <c r="I101" s="11" t="s">
+      <c r="I101" s="9"/>
+      <c r="J101" s="11"/>
+      <c r="K101" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="102" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
         <v>1499</v>
       </c>
-      <c r="B102" s="9" t="s">
+      <c r="B102" s="9"/>
+      <c r="C102" s="9"/>
+      <c r="D102" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C102" s="10"/>
-      <c r="D102" s="9" t="s">
+      <c r="E102" s="10"/>
+      <c r="F102" s="9" t="s">
         <v>1369</v>
       </c>
-      <c r="E102" s="9" t="s">
+      <c r="G102" s="9" t="s">
         <v>1370</v>
       </c>
-      <c r="F102" s="9" t="s">
+      <c r="H102" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="G102" s="9" t="s">
+      <c r="I102" s="9" t="s">
         <v>1373</v>
       </c>
-      <c r="H102" s="11"/>
-      <c r="I102" s="11" t="s">
+      <c r="J102" s="11"/>
+      <c r="K102" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="103" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
         <v>1500</v>
       </c>
-      <c r="B103" s="9" t="s">
+      <c r="B103" s="9"/>
+      <c r="C103" s="9"/>
+      <c r="D103" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C103" s="10"/>
-      <c r="D103" s="9" t="s">
+      <c r="E103" s="10"/>
+      <c r="F103" s="9" t="s">
         <v>1371</v>
       </c>
-      <c r="E103" s="9" t="s">
+      <c r="G103" s="9" t="s">
         <v>1372</v>
       </c>
-      <c r="F103" s="9" t="s">
+      <c r="H103" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G103" s="9" t="s">
+      <c r="I103" s="9" t="s">
         <v>1373</v>
       </c>
-      <c r="H103" s="11"/>
-      <c r="I103" s="11" t="s">
+      <c r="J103" s="11"/>
+      <c r="K103" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="104" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
         <v>1501</v>
       </c>
-      <c r="B104" s="9" t="s">
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C104" s="10"/>
-      <c r="D104" s="9" t="s">
+      <c r="E104" s="10"/>
+      <c r="F104" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="E104" s="9" t="s">
+      <c r="G104" s="9" t="s">
         <v>1375</v>
       </c>
-      <c r="F104" s="9" t="s">
+      <c r="H104" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="I104" s="9" t="s">
         <v>1376</v>
       </c>
-      <c r="H104" s="11" t="s">
+      <c r="J104" s="11" t="s">
         <v>1377</v>
       </c>
-      <c r="I104" s="11" t="s">
+      <c r="K104" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="105" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
         <v>1502</v>
       </c>
-      <c r="B105" s="9" t="s">
+      <c r="B105" s="9"/>
+      <c r="C105" s="9"/>
+      <c r="D105" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C105" s="10"/>
-      <c r="D105" s="9" t="s">
+      <c r="E105" s="10"/>
+      <c r="F105" s="9" t="s">
         <v>1378</v>
       </c>
-      <c r="E105" s="9" t="s">
+      <c r="G105" s="9" t="s">
         <v>1379</v>
       </c>
-      <c r="F105" s="9" t="s">
+      <c r="H105" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G105" s="9" t="s">
+      <c r="I105" s="9" t="s">
         <v>1380</v>
       </c>
-      <c r="H105" s="11"/>
-      <c r="I105" s="11" t="s">
+      <c r="J105" s="11"/>
+      <c r="K105" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="106" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
         <v>1503</v>
       </c>
-      <c r="B106" s="9" t="s">
+      <c r="B106" s="9"/>
+      <c r="C106" s="9"/>
+      <c r="D106" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C106" s="10"/>
-      <c r="D106" s="9" t="s">
+      <c r="E106" s="10"/>
+      <c r="F106" s="9" t="s">
         <v>1381</v>
       </c>
-      <c r="E106" s="9" t="s">
+      <c r="G106" s="9" t="s">
         <v>1382</v>
       </c>
-      <c r="F106" s="9" t="s">
+      <c r="H106" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G106" s="9" t="s">
+      <c r="I106" s="9" t="s">
         <v>1383</v>
       </c>
-      <c r="H106" s="11"/>
-      <c r="I106" s="11" t="s">
+      <c r="J106" s="11"/>
+      <c r="K106" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="107" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
         <v>1504</v>
       </c>
-      <c r="B107" s="9" t="s">
+      <c r="B107" s="9"/>
+      <c r="C107" s="9"/>
+      <c r="D107" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C107" s="10"/>
-      <c r="D107" s="9" t="s">
+      <c r="E107" s="10"/>
+      <c r="F107" s="9" t="s">
         <v>1600</v>
       </c>
-      <c r="E107" s="9" t="s">
+      <c r="G107" s="9" t="s">
         <v>1384</v>
       </c>
-      <c r="F107" s="9" t="s">
+      <c r="H107" s="9" t="s">
         <v>1143</v>
       </c>
-      <c r="G107" s="9" t="s">
+      <c r="I107" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="H107" s="11"/>
-      <c r="I107" s="11" t="s">
+      <c r="J107" s="11"/>
+      <c r="K107" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="108" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
         <v>1505</v>
       </c>
-      <c r="B108" s="9" t="s">
+      <c r="B108" s="9"/>
+      <c r="C108" s="9"/>
+      <c r="D108" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C108" s="10"/>
-      <c r="D108" s="9" t="s">
+      <c r="E108" s="10"/>
+      <c r="F108" s="9" t="s">
         <v>1385</v>
       </c>
-      <c r="E108" s="9" t="s">
+      <c r="G108" s="9" t="s">
         <v>1386</v>
       </c>
-      <c r="F108" s="9" t="s">
+      <c r="H108" s="9" t="s">
         <v>1051</v>
       </c>
-      <c r="G108" s="9" t="s">
+      <c r="I108" s="9" t="s">
         <v>1144</v>
       </c>
-      <c r="H108" s="11" t="s">
+      <c r="J108" s="11" t="s">
         <v>1387</v>
       </c>
-      <c r="I108" s="11" t="s">
+      <c r="K108" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="109" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
         <v>1506</v>
       </c>
-      <c r="B109" s="9" t="s">
+      <c r="B109" s="9"/>
+      <c r="C109" s="9"/>
+      <c r="D109" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C109" s="10"/>
-      <c r="D109" s="9" t="s">
+      <c r="E109" s="10"/>
+      <c r="F109" s="9" t="s">
         <v>1388</v>
       </c>
-      <c r="E109" s="9" t="s">
+      <c r="G109" s="9" t="s">
         <v>1389</v>
       </c>
-      <c r="F109" s="9" t="s">
+      <c r="H109" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G109" s="9" t="s">
+      <c r="I109" s="9" t="s">
         <v>1390</v>
       </c>
-      <c r="H109" s="11"/>
-      <c r="I109" s="11" t="s">
+      <c r="J109" s="11"/>
+      <c r="K109" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="110" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
         <v>1507</v>
       </c>
-      <c r="B110" s="9" t="s">
+      <c r="B110" s="9"/>
+      <c r="C110" s="9"/>
+      <c r="D110" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C110" s="10"/>
-      <c r="D110" s="9" t="s">
+      <c r="E110" s="10"/>
+      <c r="F110" s="9" t="s">
         <v>1391</v>
       </c>
-      <c r="E110" s="9" t="s">
+      <c r="G110" s="9" t="s">
         <v>1392</v>
       </c>
-      <c r="F110" s="9" t="s">
+      <c r="H110" s="9" t="s">
         <v>1338</v>
       </c>
-      <c r="G110" s="9" t="s">
+      <c r="I110" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="H110" s="11"/>
-      <c r="I110" s="11" t="s">
+      <c r="J110" s="11"/>
+      <c r="K110" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="111" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
         <v>1508</v>
       </c>
-      <c r="B111" s="9" t="s">
+      <c r="B111" s="9"/>
+      <c r="C111" s="9"/>
+      <c r="D111" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C111" s="10"/>
-      <c r="D111" s="9" t="s">
+      <c r="E111" s="10"/>
+      <c r="F111" s="9" t="s">
         <v>1393</v>
       </c>
-      <c r="E111" s="9" t="s">
+      <c r="G111" s="9" t="s">
         <v>1394</v>
       </c>
-      <c r="F111" s="9" t="s">
+      <c r="H111" s="9" t="s">
         <v>1002</v>
       </c>
-      <c r="G111" s="9" t="s">
+      <c r="I111" s="9" t="s">
         <v>1339</v>
       </c>
-      <c r="H111" s="11"/>
-      <c r="I111" s="11" t="s">
+      <c r="J111" s="11"/>
+      <c r="K111" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="112" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
         <v>1509</v>
       </c>
-      <c r="B112" s="9" t="s">
+      <c r="B112" s="9"/>
+      <c r="C112" s="9"/>
+      <c r="D112" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C112" s="10"/>
-      <c r="D112" s="9" t="s">
+      <c r="E112" s="10"/>
+      <c r="F112" s="9" t="s">
         <v>1395</v>
       </c>
-      <c r="E112" s="9" t="s">
+      <c r="G112" s="9" t="s">
         <v>1396</v>
       </c>
-      <c r="F112" s="9" t="s">
+      <c r="H112" s="9" t="s">
         <v>998</v>
       </c>
-      <c r="G112" s="9" t="s">
+      <c r="I112" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="H112" s="11"/>
-      <c r="I112" s="11" t="s">
+      <c r="J112" s="11"/>
+      <c r="K112" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="113" spans="1:9" ht="140.25" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
         <v>1510</v>
       </c>
-      <c r="B113" s="9" t="s">
+      <c r="B113" s="9"/>
+      <c r="C113" s="9"/>
+      <c r="D113" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C113" s="10" t="s">
+      <c r="E113" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D113" s="9" t="s">
+      <c r="F113" s="9" t="s">
         <v>1645</v>
       </c>
-      <c r="E113" s="9" t="s">
+      <c r="G113" s="9" t="s">
         <v>1646</v>
       </c>
-      <c r="F113" s="9" t="s">
+      <c r="H113" s="9" t="s">
         <v>1066</v>
       </c>
-      <c r="G113" s="9"/>
-      <c r="H113" s="11"/>
-      <c r="I113" s="11" t="s">
+      <c r="I113" s="9"/>
+      <c r="J113" s="11"/>
+      <c r="K113" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="114" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
         <v>1511</v>
       </c>
-      <c r="B114" s="9" t="s">
+      <c r="B114" s="9"/>
+      <c r="C114" s="9"/>
+      <c r="D114" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C114" s="10" t="s">
+      <c r="E114" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D114" s="12" t="s">
+      <c r="F114" s="12" t="s">
         <v>1601</v>
       </c>
-      <c r="E114" s="10"/>
-      <c r="F114" s="9"/>
       <c r="G114" s="10"/>
-      <c r="H114" s="11"/>
-      <c r="I114" s="11" t="s">
+      <c r="H114" s="9"/>
+      <c r="I114" s="10"/>
+      <c r="J114" s="11"/>
+      <c r="K114" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="115" spans="1:9" ht="102" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
         <v>1512</v>
       </c>
-      <c r="B115" s="9" t="s">
+      <c r="B115" s="9"/>
+      <c r="C115" s="9"/>
+      <c r="D115" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C115" s="10" t="s">
+      <c r="E115" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D115" s="12" t="s">
+      <c r="F115" s="12" t="s">
         <v>1602</v>
       </c>
-      <c r="E115" s="10" t="s">
+      <c r="G115" s="10" t="s">
         <v>1647</v>
       </c>
-      <c r="F115" s="9" t="s">
+      <c r="H115" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G115" s="10"/>
-      <c r="H115" s="11"/>
-      <c r="I115" s="11" t="s">
+      <c r="I115" s="10"/>
+      <c r="J115" s="11"/>
+      <c r="K115" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="116" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
         <v>1513</v>
       </c>
-      <c r="B116" s="9" t="s">
+      <c r="B116" s="9"/>
+      <c r="C116" s="9"/>
+      <c r="D116" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C116" s="10" t="s">
+      <c r="E116" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D116" s="12" t="s">
+      <c r="F116" s="12" t="s">
         <v>1603</v>
       </c>
-      <c r="E116" s="10" t="s">
+      <c r="G116" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="F116" s="9" t="s">
+      <c r="H116" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G116" s="10"/>
-      <c r="H116" s="11"/>
-      <c r="I116" s="11" t="s">
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
+      <c r="K116" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="117" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
         <v>1514</v>
       </c>
-      <c r="B117" s="9" t="s">
+      <c r="B117" s="9"/>
+      <c r="C117" s="9"/>
+      <c r="D117" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C117" s="10" t="s">
+      <c r="E117" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D117" s="12" t="s">
+      <c r="F117" s="12" t="s">
         <v>1604</v>
       </c>
-      <c r="E117" s="10" t="s">
+      <c r="G117" s="10" t="s">
         <v>1069</v>
       </c>
-      <c r="F117" s="9" t="s">
+      <c r="H117" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="G117" s="10"/>
-      <c r="H117" s="11" t="s">
+      <c r="I117" s="10"/>
+      <c r="J117" s="11" t="s">
         <v>1071</v>
       </c>
-      <c r="I117" s="11" t="s">
+      <c r="K117" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="118" spans="1:9" ht="114.75" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
         <v>1515</v>
       </c>
-      <c r="B118" s="9" t="s">
+      <c r="B118" s="9"/>
+      <c r="C118" s="9"/>
+      <c r="D118" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C118" s="10" t="s">
+      <c r="E118" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D118" s="12" t="s">
+      <c r="F118" s="12" t="s">
         <v>1605</v>
       </c>
-      <c r="E118" s="10" t="s">
+      <c r="G118" s="10" t="s">
         <v>1072</v>
       </c>
-      <c r="F118" s="9" t="s">
+      <c r="H118" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G118" s="10"/>
-      <c r="H118" s="11" t="s">
+      <c r="I118" s="10"/>
+      <c r="J118" s="11" t="s">
         <v>1073</v>
       </c>
-      <c r="I118" s="11" t="s">
+      <c r="K118" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="119" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
         <v>1516</v>
       </c>
-      <c r="B119" s="9" t="s">
+      <c r="B119" s="9"/>
+      <c r="C119" s="9"/>
+      <c r="D119" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C119" s="10" t="s">
+      <c r="E119" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D119" s="12" t="s">
+      <c r="F119" s="12" t="s">
         <v>1606</v>
       </c>
-      <c r="E119" s="10" t="s">
+      <c r="G119" s="10" t="s">
         <v>1068</v>
       </c>
-      <c r="F119" s="9" t="s">
+      <c r="H119" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="G119" s="10"/>
-      <c r="H119" s="11"/>
-      <c r="I119" s="11" t="s">
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
+      <c r="K119" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="120" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
         <v>1517</v>
       </c>
-      <c r="B120" s="9" t="s">
+      <c r="B120" s="9"/>
+      <c r="C120" s="9"/>
+      <c r="D120" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C120" s="10" t="s">
+      <c r="E120" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D120" s="13" t="s">
+      <c r="F120" s="13" t="s">
         <v>1607</v>
       </c>
-      <c r="E120" s="9" t="s">
+      <c r="G120" s="9" t="s">
         <v>1075</v>
       </c>
-      <c r="F120" s="9" t="s">
+      <c r="H120" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="G120" s="9"/>
-      <c r="H120" s="11"/>
-      <c r="I120" s="11" t="s">
+      <c r="I120" s="9"/>
+      <c r="J120" s="11"/>
+      <c r="K120" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="121" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
         <v>1518</v>
       </c>
-      <c r="B121" s="9" t="s">
+      <c r="B121" s="9"/>
+      <c r="C121" s="9"/>
+      <c r="D121" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C121" s="10" t="s">
+      <c r="E121" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D121" s="13" t="s">
+      <c r="F121" s="13" t="s">
         <v>1077</v>
       </c>
-      <c r="E121" s="9" t="s">
+      <c r="G121" s="9" t="s">
         <v>1078</v>
       </c>
-      <c r="F121" s="9" t="s">
+      <c r="H121" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G121" s="9"/>
-      <c r="H121" s="11"/>
-      <c r="I121" s="11" t="s">
+      <c r="I121" s="9"/>
+      <c r="J121" s="11"/>
+      <c r="K121" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="122" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
         <v>1519</v>
       </c>
-      <c r="B122" s="9" t="s">
+      <c r="B122" s="9"/>
+      <c r="C122" s="9"/>
+      <c r="D122" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C122" s="10" t="s">
+      <c r="E122" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D122" s="9" t="s">
+      <c r="F122" s="9" t="s">
         <v>1608</v>
       </c>
-      <c r="E122" s="9" t="s">
+      <c r="G122" s="9" t="s">
         <v>1079</v>
       </c>
-      <c r="F122" s="9" t="s">
+      <c r="H122" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G122" s="9"/>
-      <c r="H122" s="11"/>
-      <c r="I122" s="11" t="s">
+      <c r="I122" s="9"/>
+      <c r="J122" s="11"/>
+      <c r="K122" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="123" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
         <v>1520</v>
       </c>
-      <c r="B123" s="9" t="s">
+      <c r="B123" s="9"/>
+      <c r="C123" s="9"/>
+      <c r="D123" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C123" s="10" t="s">
+      <c r="E123" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D123" s="13" t="s">
+      <c r="F123" s="13" t="s">
         <v>1609</v>
       </c>
-      <c r="E123" s="9" t="s">
+      <c r="G123" s="9" t="s">
         <v>1081</v>
       </c>
-      <c r="F123" s="9" t="s">
+      <c r="H123" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G123" s="9"/>
-      <c r="H123" s="11" t="s">
+      <c r="I123" s="9"/>
+      <c r="J123" s="11" t="s">
         <v>1082</v>
       </c>
-      <c r="I123" s="11" t="s">
+      <c r="K123" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="124" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
         <v>1521</v>
       </c>
-      <c r="B124" s="9" t="s">
+      <c r="B124" s="9"/>
+      <c r="C124" s="9"/>
+      <c r="D124" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C124" s="10" t="s">
+      <c r="E124" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D124" s="13" t="s">
+      <c r="F124" s="13" t="s">
         <v>1610</v>
       </c>
-      <c r="E124" s="9" t="s">
+      <c r="G124" s="9" t="s">
         <v>1083</v>
       </c>
-      <c r="F124" s="9" t="s">
+      <c r="H124" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="G124" s="9"/>
-      <c r="H124" s="11"/>
-      <c r="I124" s="11" t="s">
+      <c r="I124" s="9"/>
+      <c r="J124" s="11"/>
+      <c r="K124" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="125" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
         <v>1522</v>
       </c>
-      <c r="B125" s="9" t="s">
+      <c r="B125" s="9"/>
+      <c r="C125" s="9"/>
+      <c r="D125" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C125" s="10" t="s">
+      <c r="E125" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D125" s="13" t="s">
+      <c r="F125" s="13" t="s">
         <v>1611</v>
       </c>
-      <c r="E125" s="9" t="s">
+      <c r="G125" s="9" t="s">
         <v>1648</v>
       </c>
-      <c r="F125" s="9" t="s">
+      <c r="H125" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G125" s="9"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="11" t="s">
+      <c r="I125" s="9"/>
+      <c r="J125" s="11"/>
+      <c r="K125" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="126" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
         <v>1523</v>
       </c>
-      <c r="B126" s="9" t="s">
+      <c r="B126" s="9"/>
+      <c r="C126" s="9"/>
+      <c r="D126" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C126" s="10" t="s">
+      <c r="E126" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D126" s="13" t="s">
+      <c r="F126" s="13" t="s">
         <v>1649</v>
       </c>
-      <c r="E126" s="9" t="s">
+      <c r="G126" s="9" t="s">
         <v>1084</v>
       </c>
-      <c r="F126" s="9" t="s">
+      <c r="H126" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="G126" s="9"/>
-      <c r="H126" s="11"/>
-      <c r="I126" s="11" t="s">
+      <c r="I126" s="9"/>
+      <c r="J126" s="11"/>
+      <c r="K126" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="127" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
         <v>1524</v>
       </c>
-      <c r="B127" s="9" t="s">
+      <c r="B127" s="9"/>
+      <c r="C127" s="9"/>
+      <c r="D127" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C127" s="10" t="s">
+      <c r="E127" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D127" s="13" t="s">
+      <c r="F127" s="13" t="s">
         <v>1612</v>
       </c>
-      <c r="E127" s="9" t="s">
+      <c r="G127" s="9" t="s">
         <v>1085</v>
       </c>
-      <c r="F127" s="9" t="s">
+      <c r="H127" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G127" s="9"/>
-      <c r="H127" s="11"/>
-      <c r="I127" s="11" t="s">
+      <c r="I127" s="9"/>
+      <c r="J127" s="11"/>
+      <c r="K127" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="128" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
         <v>1525</v>
       </c>
-      <c r="B128" s="9" t="s">
+      <c r="B128" s="9"/>
+      <c r="C128" s="9"/>
+      <c r="D128" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C128" s="10" t="s">
+      <c r="E128" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D128" s="13" t="s">
+      <c r="F128" s="13" t="s">
         <v>1613</v>
       </c>
-      <c r="E128" s="9" t="s">
+      <c r="G128" s="9" t="s">
         <v>1650</v>
       </c>
-      <c r="F128" s="9" t="s">
+      <c r="H128" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G128" s="9"/>
-      <c r="H128" s="11" t="s">
+      <c r="I128" s="9"/>
+      <c r="J128" s="11" t="s">
         <v>1086</v>
       </c>
-      <c r="I128" s="11" t="s">
+      <c r="K128" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="129" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
         <v>1526</v>
       </c>
-      <c r="B129" s="9" t="s">
+      <c r="B129" s="9"/>
+      <c r="C129" s="9"/>
+      <c r="D129" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C129" s="10" t="s">
+      <c r="E129" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D129" s="13" t="s">
+      <c r="F129" s="13" t="s">
         <v>1614</v>
       </c>
-      <c r="E129" s="9" t="s">
+      <c r="G129" s="9" t="s">
         <v>1087</v>
       </c>
-      <c r="F129" s="9" t="s">
+      <c r="H129" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G129" s="9"/>
-      <c r="H129" s="11" t="s">
+      <c r="I129" s="9"/>
+      <c r="J129" s="11" t="s">
         <v>1088</v>
       </c>
-      <c r="I129" s="11" t="s">
+      <c r="K129" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="130" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
         <v>1527</v>
       </c>
-      <c r="B130" s="9" t="s">
+      <c r="B130" s="9"/>
+      <c r="C130" s="9"/>
+      <c r="D130" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C130" s="10" t="s">
+      <c r="E130" s="10" t="s">
         <v>1651</v>
       </c>
-      <c r="D130" s="13" t="s">
+      <c r="F130" s="13" t="s">
         <v>1615</v>
       </c>
-      <c r="E130" s="9" t="s">
+      <c r="G130" s="9" t="s">
         <v>1139</v>
       </c>
-      <c r="F130" s="9" t="s">
+      <c r="H130" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G130" s="9"/>
-      <c r="H130" s="11"/>
-      <c r="I130" s="11" t="s">
+      <c r="I130" s="9"/>
+      <c r="J130" s="11"/>
+      <c r="K130" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="131" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
         <v>1528</v>
       </c>
-      <c r="B131" s="9" t="s">
+      <c r="B131" s="9"/>
+      <c r="C131" s="9"/>
+      <c r="D131" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C131" s="10" t="s">
+      <c r="E131" s="10" t="s">
         <v>1055</v>
       </c>
-      <c r="D131" s="13" t="s">
+      <c r="F131" s="13" t="s">
         <v>1616</v>
       </c>
-      <c r="E131" s="9" t="s">
+      <c r="G131" s="9" t="s">
         <v>1652</v>
       </c>
-      <c r="F131" s="9" t="s">
+      <c r="H131" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G131" s="9"/>
-      <c r="H131" s="11"/>
-      <c r="I131" s="11" t="s">
+      <c r="I131" s="9"/>
+      <c r="J131" s="11"/>
+      <c r="K131" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="132" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
         <v>1529</v>
       </c>
-      <c r="B132" s="9" t="s">
+      <c r="B132" s="9"/>
+      <c r="C132" s="9"/>
+      <c r="D132" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C132" s="10" t="s">
+      <c r="E132" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D132" s="13" t="s">
+      <c r="F132" s="13" t="s">
         <v>1617</v>
       </c>
-      <c r="E132" s="9" t="s">
+      <c r="G132" s="9" t="s">
         <v>1123</v>
       </c>
-      <c r="F132" s="9" t="s">
+      <c r="H132" s="9" t="s">
         <v>1074</v>
       </c>
-      <c r="G132" s="9"/>
-      <c r="H132" s="11"/>
-      <c r="I132" s="11" t="s">
+      <c r="I132" s="9"/>
+      <c r="J132" s="11"/>
+      <c r="K132" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="133" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
         <v>1530</v>
       </c>
-      <c r="B133" s="9" t="s">
+      <c r="B133" s="9"/>
+      <c r="C133" s="9"/>
+      <c r="D133" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C133" s="10" t="s">
+      <c r="E133" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D133" s="13" t="s">
+      <c r="F133" s="13" t="s">
         <v>1618</v>
       </c>
-      <c r="E133" s="9" t="s">
+      <c r="G133" s="9" t="s">
         <v>1124</v>
       </c>
-      <c r="F133" s="9" t="s">
+      <c r="H133" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G133" s="9"/>
-      <c r="H133" s="11"/>
-      <c r="I133" s="11" t="s">
+      <c r="I133" s="9"/>
+      <c r="J133" s="11"/>
+      <c r="K133" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="134" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
         <v>1531</v>
       </c>
-      <c r="B134" s="9" t="s">
+      <c r="B134" s="9"/>
+      <c r="C134" s="9"/>
+      <c r="D134" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C134" s="10" t="s">
+      <c r="E134" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D134" s="13" t="s">
+      <c r="F134" s="13" t="s">
         <v>1619</v>
       </c>
-      <c r="E134" s="9" t="s">
+      <c r="G134" s="9" t="s">
         <v>1125</v>
       </c>
-      <c r="F134" s="9" t="s">
+      <c r="H134" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G134" s="9"/>
-      <c r="H134" s="11"/>
-      <c r="I134" s="11" t="s">
+      <c r="I134" s="9"/>
+      <c r="J134" s="11"/>
+      <c r="K134" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="135" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
         <v>1532</v>
       </c>
-      <c r="B135" s="9" t="s">
+      <c r="B135" s="9"/>
+      <c r="C135" s="9"/>
+      <c r="D135" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C135" s="10" t="s">
+      <c r="E135" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D135" s="13" t="s">
+      <c r="F135" s="13" t="s">
         <v>1620</v>
       </c>
-      <c r="E135" s="9" t="s">
+      <c r="G135" s="9" t="s">
         <v>1126</v>
       </c>
-      <c r="F135" s="9" t="s">
+      <c r="H135" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G135" s="9"/>
-      <c r="H135" s="11" t="s">
+      <c r="I135" s="9"/>
+      <c r="J135" s="11" t="s">
         <v>1127</v>
       </c>
-      <c r="I135" s="11" t="s">
+      <c r="K135" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="136" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
         <v>1533</v>
       </c>
-      <c r="B136" s="9" t="s">
+      <c r="B136" s="9"/>
+      <c r="C136" s="9"/>
+      <c r="D136" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C136" s="10" t="s">
+      <c r="E136" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D136" s="13" t="s">
+      <c r="F136" s="13" t="s">
         <v>1621</v>
       </c>
-      <c r="E136" s="9" t="s">
+      <c r="G136" s="9" t="s">
         <v>1128</v>
       </c>
-      <c r="F136" s="9" t="s">
+      <c r="H136" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G136" s="9"/>
-      <c r="H136" s="11"/>
-      <c r="I136" s="11" t="s">
+      <c r="I136" s="9"/>
+      <c r="J136" s="11"/>
+      <c r="K136" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="137" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
         <v>1534</v>
       </c>
-      <c r="B137" s="9" t="s">
+      <c r="B137" s="9"/>
+      <c r="C137" s="9"/>
+      <c r="D137" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C137" s="10" t="s">
+      <c r="E137" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D137" s="13" t="s">
+      <c r="F137" s="13" t="s">
         <v>1622</v>
       </c>
-      <c r="E137" s="9" t="s">
+      <c r="G137" s="9" t="s">
         <v>1129</v>
       </c>
-      <c r="F137" s="9" t="s">
+      <c r="H137" s="9" t="s">
         <v>1076</v>
       </c>
-      <c r="G137" s="9"/>
-      <c r="H137" s="11"/>
-      <c r="I137" s="11" t="s">
+      <c r="I137" s="9"/>
+      <c r="J137" s="11"/>
+      <c r="K137" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="138" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
         <v>1535</v>
       </c>
-      <c r="B138" s="9" t="s">
+      <c r="B138" s="9"/>
+      <c r="C138" s="9"/>
+      <c r="D138" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C138" s="10" t="s">
+      <c r="E138" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D138" s="13" t="s">
+      <c r="F138" s="13" t="s">
         <v>1623</v>
       </c>
-      <c r="E138" s="9" t="s">
+      <c r="G138" s="9" t="s">
         <v>1130</v>
       </c>
-      <c r="F138" s="9" t="s">
+      <c r="H138" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G138" s="9"/>
-      <c r="H138" s="11"/>
-      <c r="I138" s="11" t="s">
+      <c r="I138" s="9"/>
+      <c r="J138" s="11"/>
+      <c r="K138" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="139" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
         <v>1536</v>
       </c>
-      <c r="B139" s="9" t="s">
+      <c r="B139" s="9"/>
+      <c r="C139" s="9"/>
+      <c r="D139" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C139" s="10" t="s">
+      <c r="E139" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D139" s="13" t="s">
+      <c r="F139" s="13" t="s">
         <v>1624</v>
       </c>
-      <c r="E139" s="9" t="s">
+      <c r="G139" s="9" t="s">
         <v>1131</v>
       </c>
-      <c r="F139" s="9" t="s">
+      <c r="H139" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G139" s="9"/>
-      <c r="H139" s="11"/>
-      <c r="I139" s="11" t="s">
+      <c r="I139" s="9"/>
+      <c r="J139" s="11"/>
+      <c r="K139" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="140" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
         <v>1537</v>
       </c>
-      <c r="B140" s="9" t="s">
+      <c r="B140" s="9"/>
+      <c r="C140" s="9"/>
+      <c r="D140" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C140" s="10" t="s">
+      <c r="E140" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D140" s="13" t="s">
+      <c r="F140" s="13" t="s">
         <v>1625</v>
       </c>
-      <c r="E140" s="9" t="s">
+      <c r="G140" s="9" t="s">
         <v>1132</v>
       </c>
-      <c r="F140" s="9" t="s">
+      <c r="H140" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G140" s="9"/>
-      <c r="H140" s="11"/>
-      <c r="I140" s="11" t="s">
+      <c r="I140" s="9"/>
+      <c r="J140" s="11"/>
+      <c r="K140" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="141" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
         <v>1538</v>
       </c>
-      <c r="B141" s="9" t="s">
+      <c r="B141" s="9"/>
+      <c r="C141" s="9"/>
+      <c r="D141" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C141" s="10" t="s">
+      <c r="E141" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D141" s="13" t="s">
+      <c r="F141" s="13" t="s">
         <v>1626</v>
       </c>
-      <c r="E141" s="9" t="s">
+      <c r="G141" s="9" t="s">
         <v>1133</v>
       </c>
-      <c r="F141" s="9" t="s">
+      <c r="H141" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G141" s="9"/>
-      <c r="H141" s="11"/>
-      <c r="I141" s="11" t="s">
+      <c r="I141" s="9"/>
+      <c r="J141" s="11"/>
+      <c r="K141" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="142" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
         <v>1539</v>
       </c>
-      <c r="B142" s="9" t="s">
+      <c r="B142" s="9"/>
+      <c r="C142" s="9"/>
+      <c r="D142" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C142" s="10" t="s">
+      <c r="E142" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D142" s="13" t="s">
+      <c r="F142" s="13" t="s">
         <v>1627</v>
       </c>
-      <c r="E142" s="9" t="s">
+      <c r="G142" s="9" t="s">
         <v>1134</v>
       </c>
-      <c r="F142" s="9" t="s">
+      <c r="H142" s="9" t="s">
         <v>991</v>
       </c>
-      <c r="G142" s="9"/>
-      <c r="H142" s="11"/>
-      <c r="I142" s="11" t="s">
+      <c r="I142" s="9"/>
+      <c r="J142" s="11"/>
+      <c r="K142" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="143" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
         <v>1540</v>
       </c>
-      <c r="B143" s="9" t="s">
+      <c r="B143" s="9"/>
+      <c r="C143" s="9"/>
+      <c r="D143" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C143" s="10" t="s">
+      <c r="E143" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D143" s="13" t="s">
+      <c r="F143" s="13" t="s">
         <v>1628</v>
       </c>
-      <c r="E143" s="9" t="s">
+      <c r="G143" s="9" t="s">
         <v>1135</v>
       </c>
-      <c r="F143" s="9" t="s">
+      <c r="H143" s="9" t="s">
         <v>995</v>
       </c>
-      <c r="G143" s="9"/>
-      <c r="H143" s="11"/>
-      <c r="I143" s="11" t="s">
+      <c r="I143" s="9"/>
+      <c r="J143" s="11"/>
+      <c r="K143" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="144" spans="1:9" ht="89.25" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
         <v>1541</v>
       </c>
-      <c r="B144" s="9" t="s">
+      <c r="B144" s="9"/>
+      <c r="C144" s="9"/>
+      <c r="D144" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C144" s="10" t="s">
+      <c r="E144" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D144" s="13" t="s">
+      <c r="F144" s="13" t="s">
         <v>1629</v>
       </c>
-      <c r="E144" s="9"/>
-      <c r="F144" s="9" t="s">
+      <c r="G144" s="9"/>
+      <c r="H144" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G144" s="9"/>
-      <c r="H144" s="11" t="s">
+      <c r="I144" s="9"/>
+      <c r="J144" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="I144" s="11" t="s">
+      <c r="K144" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="145" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
         <v>1542</v>
       </c>
-      <c r="B145" s="9" t="s">
+      <c r="B145" s="9"/>
+      <c r="C145" s="9"/>
+      <c r="D145" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C145" s="10" t="s">
+      <c r="E145" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D145" s="13" t="s">
+      <c r="F145" s="13" t="s">
         <v>1630</v>
       </c>
-      <c r="E145" s="9" t="s">
+      <c r="G145" s="9" t="s">
         <v>1137</v>
       </c>
-      <c r="F145" s="9" t="s">
+      <c r="H145" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G145" s="9"/>
-      <c r="H145" s="11" t="s">
+      <c r="I145" s="9"/>
+      <c r="J145" s="11" t="s">
         <v>1136</v>
       </c>
-      <c r="I145" s="11" t="s">
+      <c r="K145" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="146" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
         <v>1543</v>
       </c>
-      <c r="B146" s="9" t="s">
+      <c r="B146" s="9"/>
+      <c r="C146" s="9"/>
+      <c r="D146" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C146" s="10" t="s">
+      <c r="E146" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D146" s="13" t="s">
+      <c r="F146" s="13" t="s">
         <v>1631</v>
       </c>
-      <c r="E146" s="9" t="s">
+      <c r="G146" s="9" t="s">
         <v>1138</v>
       </c>
-      <c r="F146" s="9" t="s">
+      <c r="H146" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G146" s="9"/>
-      <c r="H146" s="11"/>
-      <c r="I146" s="11" t="s">
+      <c r="I146" s="9"/>
+      <c r="J146" s="11"/>
+      <c r="K146" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="147" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
         <v>1544</v>
       </c>
-      <c r="B147" s="9" t="s">
+      <c r="B147" s="9"/>
+      <c r="C147" s="9"/>
+      <c r="D147" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C147" s="10" t="s">
+      <c r="E147" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D147" s="13" t="s">
+      <c r="F147" s="13" t="s">
         <v>1632</v>
       </c>
-      <c r="E147" s="9" t="s">
+      <c r="G147" s="9" t="s">
         <v>1117</v>
       </c>
-      <c r="F147" s="9" t="s">
+      <c r="H147" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="G147" s="9"/>
-      <c r="H147" s="11"/>
-      <c r="I147" s="11" t="s">
+      <c r="I147" s="9"/>
+      <c r="J147" s="11"/>
+      <c r="K147" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="148" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
         <v>1545</v>
       </c>
-      <c r="B148" s="9" t="s">
+      <c r="B148" s="9"/>
+      <c r="C148" s="9"/>
+      <c r="D148" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C148" s="10" t="s">
+      <c r="E148" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D148" s="13" t="s">
+      <c r="F148" s="13" t="s">
         <v>1633</v>
       </c>
-      <c r="E148" s="9" t="s">
+      <c r="G148" s="9" t="s">
         <v>1118</v>
       </c>
-      <c r="F148" s="9" t="s">
+      <c r="H148" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G148" s="9"/>
-      <c r="H148" s="11"/>
-      <c r="I148" s="11" t="s">
+      <c r="I148" s="9"/>
+      <c r="J148" s="11"/>
+      <c r="K148" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="149" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
         <v>1546</v>
       </c>
-      <c r="B149" s="9" t="s">
+      <c r="B149" s="9"/>
+      <c r="C149" s="9"/>
+      <c r="D149" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C149" s="10" t="s">
+      <c r="E149" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D149" s="13" t="s">
+      <c r="F149" s="13" t="s">
         <v>1634</v>
       </c>
-      <c r="E149" s="9" t="s">
+      <c r="G149" s="9" t="s">
         <v>1119</v>
       </c>
-      <c r="F149" s="9" t="s">
+      <c r="H149" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G149" s="9"/>
-      <c r="H149" s="11"/>
-      <c r="I149" s="11" t="s">
+      <c r="I149" s="9"/>
+      <c r="J149" s="11"/>
+      <c r="K149" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="150" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
         <v>1547</v>
       </c>
-      <c r="B150" s="9" t="s">
+      <c r="B150" s="9"/>
+      <c r="C150" s="9"/>
+      <c r="D150" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C150" s="10" t="s">
+      <c r="E150" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D150" s="13" t="s">
+      <c r="F150" s="13" t="s">
         <v>1635</v>
       </c>
-      <c r="E150" s="9"/>
-      <c r="F150" s="9" t="s">
+      <c r="G150" s="9"/>
+      <c r="H150" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G150" s="9"/>
-      <c r="H150" s="11"/>
-      <c r="I150" s="11" t="s">
+      <c r="I150" s="9"/>
+      <c r="J150" s="11"/>
+      <c r="K150" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="151" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
         <v>1548</v>
       </c>
-      <c r="B151" s="9" t="s">
+      <c r="B151" s="9"/>
+      <c r="C151" s="9"/>
+      <c r="D151" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C151" s="10" t="s">
+      <c r="E151" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D151" s="13" t="s">
+      <c r="F151" s="13" t="s">
         <v>1636</v>
       </c>
-      <c r="E151" s="9" t="s">
+      <c r="G151" s="9" t="s">
         <v>1120</v>
       </c>
-      <c r="F151" s="9" t="s">
+      <c r="H151" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G151" s="9"/>
-      <c r="H151" s="11"/>
-      <c r="I151" s="11" t="s">
+      <c r="I151" s="9"/>
+      <c r="J151" s="11"/>
+      <c r="K151" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="152" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
         <v>1549</v>
       </c>
-      <c r="B152" s="9" t="s">
+      <c r="B152" s="9"/>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C152" s="10" t="s">
+      <c r="E152" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D152" s="13" t="s">
+      <c r="F152" s="13" t="s">
         <v>1637</v>
       </c>
-      <c r="E152" s="9"/>
-      <c r="F152" s="9" t="s">
+      <c r="G152" s="9"/>
+      <c r="H152" s="9" t="s">
         <v>1067</v>
       </c>
-      <c r="G152" s="9"/>
-      <c r="H152" s="11"/>
-      <c r="I152" s="11" t="s">
+      <c r="I152" s="9"/>
+      <c r="J152" s="11"/>
+      <c r="K152" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="153" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
         <v>1550</v>
       </c>
-      <c r="B153" s="9" t="s">
+      <c r="B153" s="9"/>
+      <c r="C153" s="9"/>
+      <c r="D153" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C153" s="10" t="s">
+      <c r="E153" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D153" s="13" t="s">
+      <c r="F153" s="13" t="s">
         <v>1653</v>
       </c>
-      <c r="E153" s="9" t="s">
+      <c r="G153" s="9" t="s">
         <v>1121</v>
       </c>
-      <c r="F153" s="9" t="s">
+      <c r="H153" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G153" s="9"/>
-      <c r="H153" s="11"/>
-      <c r="I153" s="11" t="s">
+      <c r="I153" s="9"/>
+      <c r="J153" s="11"/>
+      <c r="K153" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="154" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
         <v>1551</v>
       </c>
-      <c r="B154" s="9" t="s">
+      <c r="B154" s="9"/>
+      <c r="C154" s="9"/>
+      <c r="D154" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C154" s="10" t="s">
+      <c r="E154" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D154" s="13" t="s">
+      <c r="F154" s="13" t="s">
         <v>1638</v>
       </c>
-      <c r="E154" s="9"/>
-      <c r="F154" s="9" t="s">
+      <c r="G154" s="9"/>
+      <c r="H154" s="9" t="s">
         <v>1080</v>
       </c>
-      <c r="G154" s="9"/>
-      <c r="H154" s="11"/>
-      <c r="I154" s="11" t="s">
+      <c r="I154" s="9"/>
+      <c r="J154" s="11"/>
+      <c r="K154" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="155" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
         <v>1552</v>
       </c>
-      <c r="B155" s="9" t="s">
+      <c r="B155" s="9"/>
+      <c r="C155" s="9"/>
+      <c r="D155" s="9" t="s">
         <v>1065</v>
       </c>
-      <c r="C155" s="10" t="s">
+      <c r="E155" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="D155" s="13" t="s">
+      <c r="F155" s="13" t="s">
         <v>1639</v>
       </c>
-      <c r="E155" s="9" t="s">
+      <c r="G155" s="9" t="s">
         <v>1122</v>
       </c>
-      <c r="F155" s="9" t="s">
+      <c r="H155" s="9" t="s">
         <v>1070</v>
       </c>
-      <c r="G155" s="9"/>
-      <c r="H155" s="11"/>
-      <c r="I155" s="11" t="s">
+      <c r="I155" s="9"/>
+      <c r="J155" s="11"/>
+      <c r="K155" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="156" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
         <v>1553</v>
       </c>
-      <c r="B156" s="9" t="s">
+      <c r="B156" s="9"/>
+      <c r="C156" s="9"/>
+      <c r="D156" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C156" s="10" t="s">
+      <c r="E156" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D156" s="13" t="s">
+      <c r="F156" s="13" t="s">
         <v>1145</v>
       </c>
-      <c r="E156" s="9" t="s">
+      <c r="G156" s="9" t="s">
         <v>1146</v>
       </c>
-      <c r="F156" s="9" t="s">
+      <c r="H156" s="9" t="s">
         <v>1147</v>
       </c>
-      <c r="G156" s="9" t="s">
+      <c r="I156" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="H156" s="11"/>
-      <c r="I156" s="11" t="s">
+      <c r="J156" s="11"/>
+      <c r="K156" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="157" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
         <v>1554</v>
       </c>
-      <c r="B157" s="9" t="s">
+      <c r="B157" s="9"/>
+      <c r="C157" s="9"/>
+      <c r="D157" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C157" s="10" t="s">
+      <c r="E157" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D157" s="9" t="s">
+      <c r="F157" s="9" t="s">
         <v>1149</v>
       </c>
-      <c r="E157" s="9" t="s">
+      <c r="G157" s="9" t="s">
         <v>1150</v>
       </c>
-      <c r="F157" s="14" t="s">
+      <c r="H157" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G157" s="9" t="s">
+      <c r="I157" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="H157" s="11"/>
-      <c r="I157" s="11" t="s">
+      <c r="J157" s="11"/>
+      <c r="K157" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="158" spans="1:9" ht="127.5" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
         <v>1555</v>
       </c>
-      <c r="B158" s="9" t="s">
+      <c r="B158" s="9"/>
+      <c r="C158" s="9"/>
+      <c r="D158" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C158" s="10" t="s">
+      <c r="E158" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D158" s="9" t="s">
+      <c r="F158" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="E158" s="9" t="s">
+      <c r="G158" s="9" t="s">
         <v>1153</v>
       </c>
-      <c r="F158" s="9" t="s">
+      <c r="H158" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="G158" s="9" t="s">
+      <c r="I158" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="H158" s="11"/>
-      <c r="I158" s="11" t="s">
+      <c r="J158" s="11"/>
+      <c r="K158" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="159" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
         <v>1556</v>
       </c>
-      <c r="B159" s="9" t="s">
+      <c r="B159" s="9"/>
+      <c r="C159" s="9"/>
+      <c r="D159" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C159" s="10" t="s">
+      <c r="E159" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D159" s="15" t="s">
+      <c r="F159" s="15" t="s">
         <v>1654</v>
       </c>
-      <c r="E159" s="15" t="s">
+      <c r="G159" s="15" t="s">
         <v>1155</v>
       </c>
-      <c r="F159" s="9" t="s">
+      <c r="H159" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="G159" s="9" t="s">
+      <c r="I159" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="H159" s="11"/>
-      <c r="I159" s="11" t="s">
+      <c r="J159" s="11"/>
+      <c r="K159" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="160" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
         <v>1557</v>
       </c>
-      <c r="B160" s="9" t="s">
+      <c r="B160" s="9"/>
+      <c r="C160" s="9"/>
+      <c r="D160" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C160" s="10" t="s">
+      <c r="E160" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D160" s="16" t="s">
+      <c r="F160" s="16" t="s">
         <v>1156</v>
       </c>
-      <c r="E160" s="15" t="s">
+      <c r="G160" s="15" t="s">
         <v>1655</v>
       </c>
-      <c r="F160" s="9" t="s">
+      <c r="H160" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="G160" s="9" t="s">
+      <c r="I160" s="9" t="s">
         <v>1148</v>
       </c>
-      <c r="H160" s="11"/>
-      <c r="I160" s="11" t="s">
+      <c r="J160" s="11"/>
+      <c r="K160" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="161" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
         <v>1558</v>
       </c>
-      <c r="B161" s="9" t="s">
+      <c r="B161" s="9"/>
+      <c r="C161" s="9"/>
+      <c r="D161" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C161" s="10" t="s">
+      <c r="E161" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D161" s="16" t="s">
+      <c r="F161" s="16" t="s">
         <v>1157</v>
       </c>
-      <c r="E161" s="16" t="s">
+      <c r="G161" s="16" t="s">
         <v>1656</v>
       </c>
-      <c r="F161" s="9" t="s">
+      <c r="H161" s="9" t="s">
         <v>1154</v>
       </c>
-      <c r="G161" s="9" t="s">
+      <c r="I161" s="9" t="s">
         <v>1158</v>
       </c>
-      <c r="H161" s="11"/>
-      <c r="I161" s="11" t="s">
+      <c r="J161" s="11"/>
+      <c r="K161" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="162" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
         <v>1559</v>
       </c>
-      <c r="B162" s="9" t="s">
+      <c r="B162" s="9"/>
+      <c r="C162" s="9"/>
+      <c r="D162" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C162" s="10" t="s">
+      <c r="E162" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D162" s="14" t="s">
+      <c r="F162" s="14" t="s">
         <v>1159</v>
       </c>
-      <c r="E162" s="16" t="s">
+      <c r="G162" s="16" t="s">
         <v>1160</v>
       </c>
-      <c r="F162" s="9" t="s">
+      <c r="H162" s="9" t="s">
         <v>1151</v>
       </c>
-      <c r="G162" s="14" t="s">
+      <c r="I162" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H162" s="11"/>
-      <c r="I162" s="11" t="s">
+      <c r="J162" s="11"/>
+      <c r="K162" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="163" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
         <v>1560</v>
       </c>
-      <c r="B163" s="9" t="s">
+      <c r="B163" s="9"/>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C163" s="10" t="s">
+      <c r="E163" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D163" s="16" t="s">
+      <c r="F163" s="16" t="s">
         <v>1162</v>
       </c>
-      <c r="E163" s="14" t="s">
+      <c r="G163" s="14" t="s">
         <v>1163</v>
       </c>
-      <c r="F163" s="14" t="s">
+      <c r="H163" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G163" s="14" t="s">
+      <c r="I163" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H163" s="11"/>
-      <c r="I163" s="11" t="s">
+      <c r="J163" s="11"/>
+      <c r="K163" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="164" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
         <v>1561</v>
       </c>
-      <c r="B164" s="9" t="s">
+      <c r="B164" s="9"/>
+      <c r="C164" s="9"/>
+      <c r="D164" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C164" s="10" t="s">
+      <c r="E164" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D164" s="14" t="s">
+      <c r="F164" s="14" t="s">
         <v>1164</v>
       </c>
-      <c r="E164" s="16" t="s">
+      <c r="G164" s="16" t="s">
         <v>1165</v>
       </c>
-      <c r="F164" s="14" t="s">
+      <c r="H164" s="14" t="s">
         <v>1657</v>
       </c>
-      <c r="G164" s="14" t="s">
+      <c r="I164" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H164" s="11"/>
-      <c r="I164" s="11" t="s">
+      <c r="J164" s="11"/>
+      <c r="K164" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="165" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
         <v>1562</v>
       </c>
-      <c r="B165" s="9" t="s">
+      <c r="B165" s="9"/>
+      <c r="C165" s="9"/>
+      <c r="D165" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C165" s="10" t="s">
+      <c r="E165" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D165" s="14" t="s">
+      <c r="F165" s="14" t="s">
         <v>1166</v>
       </c>
-      <c r="E165" s="16" t="s">
+      <c r="G165" s="16" t="s">
         <v>1167</v>
       </c>
-      <c r="F165" s="16" t="s">
+      <c r="H165" s="16" t="s">
         <v>1151</v>
       </c>
-      <c r="G165" s="14" t="s">
+      <c r="I165" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H165" s="11"/>
-      <c r="I165" s="11" t="s">
+      <c r="J165" s="11"/>
+      <c r="K165" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="166" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
         <v>1563</v>
       </c>
-      <c r="B166" s="9" t="s">
+      <c r="B166" s="9"/>
+      <c r="C166" s="9"/>
+      <c r="D166" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C166" s="10" t="s">
+      <c r="E166" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D166" s="14" t="s">
+      <c r="F166" s="14" t="s">
         <v>1168</v>
       </c>
-      <c r="E166" s="14" t="s">
+      <c r="G166" s="14" t="s">
         <v>1169</v>
       </c>
-      <c r="F166" s="14" t="s">
+      <c r="H166" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="G166" s="14" t="s">
+      <c r="I166" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H166" s="11"/>
-      <c r="I166" s="11" t="s">
+      <c r="J166" s="11"/>
+      <c r="K166" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="167" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
         <v>1564</v>
       </c>
-      <c r="B167" s="9" t="s">
+      <c r="B167" s="9"/>
+      <c r="C167" s="9"/>
+      <c r="D167" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C167" s="10" t="s">
+      <c r="E167" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D167" s="16" t="s">
+      <c r="F167" s="16" t="s">
         <v>1170</v>
       </c>
-      <c r="E167" s="16" t="s">
+      <c r="G167" s="16" t="s">
         <v>1171</v>
       </c>
-      <c r="F167" s="9" t="s">
+      <c r="H167" s="9" t="s">
         <v>1147</v>
       </c>
-      <c r="G167" s="14" t="s">
+      <c r="I167" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H167" s="11"/>
-      <c r="I167" s="11" t="s">
+      <c r="J167" s="11"/>
+      <c r="K167" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="168" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
         <v>1565</v>
       </c>
-      <c r="B168" s="9" t="s">
+      <c r="B168" s="9"/>
+      <c r="C168" s="9"/>
+      <c r="D168" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C168" s="10" t="s">
+      <c r="E168" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D168" s="16" t="s">
+      <c r="F168" s="16" t="s">
         <v>1172</v>
       </c>
-      <c r="E168" s="14" t="s">
+      <c r="G168" s="14" t="s">
         <v>1173</v>
       </c>
-      <c r="F168" s="16" t="s">
+      <c r="H168" s="16" t="s">
         <v>1174</v>
       </c>
-      <c r="G168" s="14" t="s">
+      <c r="I168" s="14" t="s">
         <v>1161</v>
       </c>
-      <c r="H168" s="11"/>
-      <c r="I168" s="11" t="s">
+      <c r="J168" s="11"/>
+      <c r="K168" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="169" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
         <v>1566</v>
       </c>
-      <c r="B169" s="9" t="s">
+      <c r="B169" s="9"/>
+      <c r="C169" s="9"/>
+      <c r="D169" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C169" s="10" t="s">
+      <c r="E169" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D169" s="14" t="s">
+      <c r="F169" s="14" t="s">
         <v>1640</v>
       </c>
-      <c r="E169" s="14" t="s">
+      <c r="G169" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="F169" s="14" t="s">
+      <c r="H169" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G169" s="14" t="s">
+      <c r="I169" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="H169" s="11"/>
-      <c r="I169" s="11" t="s">
+      <c r="J169" s="11"/>
+      <c r="K169" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="170" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
         <v>1567</v>
       </c>
-      <c r="B170" s="9" t="s">
+      <c r="B170" s="9"/>
+      <c r="C170" s="9"/>
+      <c r="D170" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C170" s="10" t="s">
+      <c r="E170" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D170" s="14" t="s">
+      <c r="F170" s="14" t="s">
         <v>1177</v>
       </c>
-      <c r="E170" s="14" t="s">
+      <c r="G170" s="14" t="s">
         <v>1175</v>
       </c>
-      <c r="F170" s="14" t="s">
+      <c r="H170" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G170" s="14" t="s">
+      <c r="I170" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="H170" s="11"/>
-      <c r="I170" s="11" t="s">
+      <c r="J170" s="11"/>
+      <c r="K170" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="171" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
         <v>1568</v>
       </c>
-      <c r="B171" s="9" t="s">
+      <c r="B171" s="9"/>
+      <c r="C171" s="9"/>
+      <c r="D171" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C171" s="10" t="s">
+      <c r="E171" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D171" s="16" t="s">
+      <c r="F171" s="16" t="s">
         <v>1178</v>
       </c>
-      <c r="E171" s="14" t="s">
+      <c r="G171" s="14" t="s">
         <v>1179</v>
       </c>
-      <c r="F171" s="14" t="s">
+      <c r="H171" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="G171" s="14" t="s">
+      <c r="I171" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="H171" s="11"/>
-      <c r="I171" s="11" t="s">
+      <c r="J171" s="11"/>
+      <c r="K171" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="172" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
         <v>1569</v>
       </c>
-      <c r="B172" s="9" t="s">
+      <c r="B172" s="9"/>
+      <c r="C172" s="9"/>
+      <c r="D172" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C172" s="10" t="s">
+      <c r="E172" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D172" s="14" t="s">
+      <c r="F172" s="14" t="s">
         <v>1180</v>
       </c>
-      <c r="E172" s="16" t="s">
+      <c r="G172" s="16" t="s">
         <v>1181</v>
       </c>
-      <c r="F172" s="9" t="s">
+      <c r="H172" s="9" t="s">
         <v>1174</v>
       </c>
-      <c r="G172" s="14" t="s">
+      <c r="I172" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="H172" s="11"/>
-      <c r="I172" s="11" t="s">
+      <c r="J172" s="11"/>
+      <c r="K172" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="173" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
         <v>1570</v>
       </c>
-      <c r="B173" s="9" t="s">
+      <c r="B173" s="9"/>
+      <c r="C173" s="9"/>
+      <c r="D173" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C173" s="10" t="s">
+      <c r="E173" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D173" s="14" t="s">
+      <c r="F173" s="14" t="s">
         <v>1182</v>
       </c>
-      <c r="E173" s="14" t="s">
+      <c r="G173" s="14" t="s">
         <v>1183</v>
       </c>
-      <c r="F173" s="14" t="s">
+      <c r="H173" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="G173" s="14" t="s">
+      <c r="I173" s="14" t="s">
         <v>1176</v>
       </c>
-      <c r="H173" s="11"/>
-      <c r="I173" s="11" t="s">
+      <c r="J173" s="11"/>
+      <c r="K173" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="174" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
         <v>1571</v>
       </c>
-      <c r="B174" s="9" t="s">
+      <c r="B174" s="9"/>
+      <c r="C174" s="9"/>
+      <c r="D174" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C174" s="10" t="s">
+      <c r="E174" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D174" s="14" t="s">
+      <c r="F174" s="14" t="s">
         <v>1184</v>
       </c>
-      <c r="E174" s="14" t="s">
+      <c r="G174" s="14" t="s">
         <v>1185</v>
       </c>
-      <c r="F174" s="14" t="s">
+      <c r="H174" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G174" s="14" t="s">
+      <c r="I174" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="H174" s="11"/>
-      <c r="I174" s="11" t="s">
+      <c r="J174" s="11"/>
+      <c r="K174" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="175" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
         <v>1572</v>
       </c>
-      <c r="B175" s="9" t="s">
+      <c r="B175" s="9"/>
+      <c r="C175" s="9"/>
+      <c r="D175" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C175" s="10" t="s">
+      <c r="E175" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D175" s="14" t="s">
+      <c r="F175" s="14" t="s">
         <v>1658</v>
       </c>
-      <c r="E175" s="16" t="s">
+      <c r="G175" s="16" t="s">
         <v>1187</v>
       </c>
-      <c r="F175" s="14" t="s">
+      <c r="H175" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="G175" s="14" t="s">
+      <c r="I175" s="14" t="s">
         <v>1186</v>
       </c>
-      <c r="H175" s="11"/>
-      <c r="I175" s="11" t="s">
+      <c r="J175" s="11"/>
+      <c r="K175" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="176" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
         <v>1573</v>
       </c>
-      <c r="B176" s="9" t="s">
+      <c r="B176" s="9"/>
+      <c r="C176" s="9"/>
+      <c r="D176" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C176" s="10" t="s">
+      <c r="E176" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D176" s="16" t="s">
+      <c r="F176" s="16" t="s">
         <v>1188</v>
       </c>
-      <c r="E176" s="14" t="s">
+      <c r="G176" s="14" t="s">
         <v>1189</v>
       </c>
-      <c r="F176" s="14" t="s">
+      <c r="H176" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G176" s="14" t="s">
+      <c r="I176" s="14" t="s">
         <v>1190</v>
       </c>
-      <c r="H176" s="11"/>
-      <c r="I176" s="11" t="s">
+      <c r="J176" s="11"/>
+      <c r="K176" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
         <v>1574</v>
       </c>
-      <c r="B177" s="9" t="s">
+      <c r="B177" s="9"/>
+      <c r="C177" s="9"/>
+      <c r="D177" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C177" s="10" t="s">
+      <c r="E177" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D177" s="16" t="s">
+      <c r="F177" s="16" t="s">
         <v>1191</v>
       </c>
-      <c r="E177" s="16" t="s">
+      <c r="G177" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="F177" s="14" t="s">
+      <c r="H177" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G177" s="16" t="s">
+      <c r="I177" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="H177" s="11"/>
-      <c r="I177" s="11" t="s">
+      <c r="J177" s="11"/>
+      <c r="K177" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="178" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
         <v>1575</v>
       </c>
-      <c r="B178" s="9" t="s">
+      <c r="B178" s="9"/>
+      <c r="C178" s="9"/>
+      <c r="D178" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C178" s="10" t="s">
+      <c r="E178" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D178" s="16" t="s">
+      <c r="F178" s="16" t="s">
         <v>1192</v>
       </c>
-      <c r="E178" s="16" t="s">
+      <c r="G178" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="F178" s="14" t="s">
+      <c r="H178" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="G178" s="16" t="s">
+      <c r="I178" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="H178" s="11"/>
-      <c r="I178" s="11" t="s">
+      <c r="J178" s="11"/>
+      <c r="K178" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="179" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
         <v>1576</v>
       </c>
-      <c r="B179" s="9" t="s">
+      <c r="B179" s="9"/>
+      <c r="C179" s="9"/>
+      <c r="D179" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C179" s="10" t="s">
+      <c r="E179" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D179" s="16" t="s">
+      <c r="F179" s="16" t="s">
         <v>1193</v>
       </c>
-      <c r="E179" s="16" t="s">
+      <c r="G179" s="16" t="s">
         <v>1189</v>
       </c>
-      <c r="F179" s="16" t="s">
+      <c r="H179" s="16" t="s">
         <v>1147</v>
       </c>
-      <c r="G179" s="16" t="s">
+      <c r="I179" s="16" t="s">
         <v>1190</v>
       </c>
-      <c r="H179" s="11"/>
-      <c r="I179" s="11" t="s">
+      <c r="J179" s="11"/>
+      <c r="K179" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="180" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
         <v>1577</v>
       </c>
-      <c r="B180" s="9" t="s">
+      <c r="B180" s="9"/>
+      <c r="C180" s="9"/>
+      <c r="D180" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C180" s="10" t="s">
+      <c r="E180" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D180" s="16" t="s">
+      <c r="F180" s="16" t="s">
         <v>1194</v>
       </c>
-      <c r="E180" s="16" t="s">
+      <c r="G180" s="16" t="s">
         <v>1195</v>
       </c>
-      <c r="F180" s="16" t="s">
+      <c r="H180" s="16" t="s">
         <v>1151</v>
       </c>
-      <c r="G180" s="16" t="s">
+      <c r="I180" s="16" t="s">
         <v>1196</v>
       </c>
-      <c r="H180" s="11"/>
-      <c r="I180" s="11" t="s">
+      <c r="J180" s="11"/>
+      <c r="K180" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="181" spans="1:9" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
         <v>1578</v>
       </c>
-      <c r="B181" s="9" t="s">
+      <c r="B181" s="9"/>
+      <c r="C181" s="9"/>
+      <c r="D181" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C181" s="10" t="s">
+      <c r="E181" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D181" s="16" t="s">
+      <c r="F181" s="16" t="s">
         <v>1197</v>
       </c>
-      <c r="E181" s="14" t="s">
+      <c r="G181" s="14" t="s">
         <v>1198</v>
       </c>
-      <c r="F181" s="14" t="s">
+      <c r="H181" s="14" t="s">
         <v>1154</v>
       </c>
-      <c r="G181" s="14" t="s">
+      <c r="I181" s="14" t="s">
         <v>1196</v>
       </c>
-      <c r="H181" s="11"/>
-      <c r="I181" s="11" t="s">
+      <c r="J181" s="11"/>
+      <c r="K181" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="182" spans="1:9" ht="63.75" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
         <v>1579</v>
       </c>
-      <c r="B182" s="9" t="s">
+      <c r="B182" s="9"/>
+      <c r="C182" s="9"/>
+      <c r="D182" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C182" s="10" t="s">
+      <c r="E182" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D182" s="16" t="s">
+      <c r="F182" s="16" t="s">
         <v>1199</v>
       </c>
-      <c r="E182" s="16" t="s">
+      <c r="G182" s="16" t="s">
         <v>1200</v>
       </c>
-      <c r="F182" s="14" t="s">
+      <c r="H182" s="14" t="s">
         <v>1174</v>
       </c>
-      <c r="G182" s="14" t="s">
+      <c r="I182" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="H182" s="11"/>
-      <c r="I182" s="11" t="s">
+      <c r="J182" s="11"/>
+      <c r="K182" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="183" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
         <v>1580</v>
       </c>
-      <c r="B183" s="9" t="s">
+      <c r="B183" s="9"/>
+      <c r="C183" s="9"/>
+      <c r="D183" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="C183" s="10" t="s">
+      <c r="E183" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D183" s="16" t="s">
+      <c r="F183" s="16" t="s">
         <v>1202</v>
       </c>
-      <c r="E183" s="16" t="s">
+      <c r="G183" s="16" t="s">
         <v>1203</v>
       </c>
-      <c r="F183" s="14" t="s">
+      <c r="H183" s="14" t="s">
         <v>1151</v>
       </c>
-      <c r="G183" s="14" t="s">
+      <c r="I183" s="14" t="s">
         <v>1201</v>
       </c>
-      <c r="H183" s="11"/>
-      <c r="I183" s="11" t="s">
+      <c r="J183" s="11"/>
+      <c r="K183" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="184" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
         <v>1581</v>
       </c>
-      <c r="B184" s="9" t="s">
+      <c r="B184" s="9"/>
+      <c r="C184" s="9"/>
+      <c r="D184" s="9" t="s">
         <v>1047</v>
       </c>
-      <c r="C184" s="10" t="s">
+      <c r="E184" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D184" s="9" t="s">
+      <c r="F184" s="9" t="s">
         <v>1659</v>
       </c>
-      <c r="E184" s="16" t="s">
+      <c r="G184" s="16" t="s">
         <v>1204</v>
       </c>
-      <c r="F184" s="16" t="s">
+      <c r="H184" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="G184" s="16" t="s">
+      <c r="I184" s="16" t="s">
         <v>1206</v>
       </c>
-      <c r="H184" s="11"/>
-      <c r="I184" s="11" t="s">
+      <c r="J184" s="11"/>
+      <c r="K184" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
         <v>1582</v>
       </c>
-      <c r="B185" s="16" t="s">
+      <c r="B185" s="15"/>
+      <c r="C185" s="15"/>
+      <c r="D185" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C185" s="10" t="s">
+      <c r="E185" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D185" s="16" t="s">
+      <c r="F185" s="16" t="s">
         <v>1207</v>
       </c>
-      <c r="E185" s="16" t="s">
+      <c r="G185" s="16" t="s">
         <v>1208</v>
       </c>
-      <c r="F185" s="16" t="s">
+      <c r="H185" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="G185" s="16" t="s">
+      <c r="I185" s="16" t="s">
         <v>1206</v>
       </c>
-      <c r="H185" s="11"/>
-      <c r="I185" s="11" t="s">
+      <c r="J185" s="11"/>
+      <c r="K185" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="186" spans="1:9" ht="51" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
         <v>1583</v>
       </c>
-      <c r="B186" s="16" t="s">
+      <c r="B186" s="15"/>
+      <c r="C186" s="15"/>
+      <c r="D186" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C186" s="10" t="s">
+      <c r="E186" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D186" s="16" t="s">
+      <c r="F186" s="16" t="s">
         <v>1209</v>
       </c>
-      <c r="E186" s="16" t="s">
+      <c r="G186" s="16" t="s">
         <v>1210</v>
       </c>
-      <c r="F186" s="16" t="s">
+      <c r="H186" s="16" t="s">
         <v>1211</v>
       </c>
-      <c r="G186" s="16" t="s">
+      <c r="I186" s="16" t="s">
         <v>1212</v>
       </c>
-      <c r="H186" s="11"/>
-      <c r="I186" s="11" t="s">
+      <c r="J186" s="11"/>
+      <c r="K186" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
         <v>1584</v>
       </c>
-      <c r="B187" s="16" t="s">
+      <c r="B187" s="15"/>
+      <c r="C187" s="15"/>
+      <c r="D187" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C187" s="10" t="s">
+      <c r="E187" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D187" s="16" t="s">
+      <c r="F187" s="16" t="s">
         <v>1213</v>
       </c>
-      <c r="E187" s="16" t="s">
+      <c r="G187" s="16" t="s">
         <v>1214</v>
       </c>
-      <c r="F187" s="16" t="s">
+      <c r="H187" s="16" t="s">
         <v>1151</v>
       </c>
-      <c r="G187" s="16" t="s">
+      <c r="I187" s="16" t="s">
         <v>1212</v>
       </c>
-      <c r="H187" s="11"/>
-      <c r="I187" s="11" t="s">
+      <c r="J187" s="11"/>
+      <c r="K187" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="188" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
         <v>1585</v>
       </c>
-      <c r="B188" s="16" t="s">
+      <c r="B188" s="15"/>
+      <c r="C188" s="15"/>
+      <c r="D188" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C188" s="10" t="s">
+      <c r="E188" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D188" s="16" t="s">
+      <c r="F188" s="16" t="s">
         <v>1215</v>
       </c>
-      <c r="E188" s="16" t="s">
+      <c r="G188" s="16" t="s">
         <v>1216</v>
       </c>
-      <c r="F188" s="16" t="s">
+      <c r="H188" s="16" t="s">
         <v>1205</v>
       </c>
-      <c r="G188" s="16" t="s">
+      <c r="I188" s="16" t="s">
         <v>1641</v>
       </c>
-      <c r="H188" s="11"/>
-      <c r="I188" s="11" t="s">
+      <c r="J188" s="11"/>
+      <c r="K188" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="189" spans="1:9" ht="76.5" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
         <v>1586</v>
       </c>
-      <c r="B189" s="16" t="s">
+      <c r="B189" s="15"/>
+      <c r="C189" s="15"/>
+      <c r="D189" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C189" s="10" t="s">
+      <c r="E189" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D189" s="16" t="s">
+      <c r="F189" s="16" t="s">
         <v>1217</v>
       </c>
-      <c r="E189" s="16" t="s">
+      <c r="G189" s="16" t="s">
         <v>1642</v>
       </c>
-      <c r="F189" s="14" t="s">
+      <c r="H189" s="14" t="s">
         <v>1147</v>
       </c>
-      <c r="G189" s="14" t="s">
+      <c r="I189" s="14" t="s">
         <v>1218</v>
       </c>
-      <c r="H189" s="11"/>
-      <c r="I189" s="11" t="s">
+      <c r="J189" s="11"/>
+      <c r="K189" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="190" spans="1:9" ht="153" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
         <v>1587</v>
       </c>
-      <c r="B190" s="16" t="s">
+      <c r="B190" s="15"/>
+      <c r="C190" s="15"/>
+      <c r="D190" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C190" s="10" t="s">
+      <c r="E190" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D190" s="14" t="s">
+      <c r="F190" s="14" t="s">
         <v>1219</v>
       </c>
-      <c r="E190" s="16" t="s">
+      <c r="G190" s="16" t="s">
         <v>1660</v>
       </c>
-      <c r="F190" s="14" t="s">
+      <c r="H190" s="14" t="s">
         <v>1205</v>
       </c>
-      <c r="G190" s="14" t="s">
+      <c r="I190" s="14" t="s">
         <v>1220</v>
       </c>
-      <c r="H190" s="11"/>
-      <c r="I190" s="11" t="s">
+      <c r="J190" s="11"/>
+      <c r="K190" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="191" spans="1:9" ht="38.25" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
         <v>1588</v>
       </c>
-      <c r="B191" s="16" t="s">
+      <c r="B191" s="15"/>
+      <c r="C191" s="15"/>
+      <c r="D191" s="16" t="s">
         <v>1047</v>
       </c>
-      <c r="C191" s="10" t="s">
+      <c r="E191" s="10" t="s">
         <v>1293</v>
       </c>
-      <c r="D191" s="16" t="s">
+      <c r="F191" s="16" t="s">
         <v>1221</v>
       </c>
-      <c r="E191" s="16" t="s">
+      <c r="G191" s="16" t="s">
         <v>1222</v>
       </c>
-      <c r="F191" s="16" t="s">
+      <c r="H191" s="16" t="s">
         <v>1211</v>
       </c>
-      <c r="G191" s="16" t="s">
+      <c r="I191" s="16" t="s">
         <v>1220</v>
       </c>
-      <c r="H191" s="11"/>
-      <c r="I191" s="11" t="s">
+      <c r="J191" s="11"/>
+      <c r="K191" s="11" t="s">
         <v>719</v>
       </c>
     </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
-      <c r="B192" s="16"/>
-      <c r="C192" s="10"/>
+      <c r="B192" s="15"/>
+      <c r="C192" s="15"/>
       <c r="D192" s="16"/>
-      <c r="E192" s="16"/>
+      <c r="E192" s="10"/>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
-      <c r="H192" s="11"/>
-      <c r="I192" s="11"/>
-    </row>
-    <row r="193" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E193" s="17"/>
-    </row>
-    <row r="194" spans="5:5" x14ac:dyDescent="0.2">
-      <c r="E194" s="17"/>
+      <c r="H192" s="16"/>
+      <c r="I192" s="16"/>
+      <c r="J192" s="11"/>
+      <c r="K192" s="11"/>
+    </row>
+    <row r="193" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G193" s="17"/>
+    </row>
+    <row r="194" spans="7:7" x14ac:dyDescent="0.2">
+      <c r="G194" s="17"/>
     </row>
   </sheetData>
   <sortState ref="A3:I191">

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="330" windowWidth="12195" windowHeight="6390" tabRatio="731" firstSheet="4" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="330" windowWidth="12195" windowHeight="6390" tabRatio="731" firstSheet="4" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Strategische planning" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4825" uniqueCount="1930">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4829" uniqueCount="1934">
   <si>
     <t>Divisie</t>
   </si>
@@ -2970,9 +2970,6 @@
     <t>Mail,www,fax,telefoon,post,App social media,MOS,form desk,outlook (App),voice log,ISI,Spin,Digitaal dossier,I&amp;R,PDF</t>
   </si>
   <si>
-    <t>rol</t>
-  </si>
-  <si>
     <t>wens</t>
   </si>
   <si>
@@ -3295,9 +3292,6 @@
   </si>
   <si>
     <t>nu is het een onduidelijke registratie, waardoor eigenaren de inspecteur kunnen verrassen met wat en waar hij heeft</t>
-  </si>
-  <si>
-    <t>leiding-gevende</t>
   </si>
   <si>
     <t>wil ik dat het combineren van bedrijven en opdrachten niet leidt tot uitstel of oponthoud in de uitvoering</t>
@@ -5827,6 +5821,24 @@
   </si>
   <si>
     <t>opleiding</t>
+  </si>
+  <si>
+    <t>gezegde</t>
+  </si>
+  <si>
+    <t>Praedicaat</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>leidinggevende</t>
   </si>
 </sst>
 </file>
@@ -18905,123 +18917,123 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>1711</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1712</v>
+      </c>
+      <c r="D3" t="s">
         <v>1713</v>
-      </c>
-      <c r="C3" t="s">
-        <v>1714</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1715</v>
       </c>
     </row>
     <row r="4" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B4" t="s">
+        <v>1714</v>
+      </c>
+      <c r="C4" t="s">
+        <v>1715</v>
+      </c>
+      <c r="D4" t="s">
         <v>1716</v>
-      </c>
-      <c r="C4" t="s">
-        <v>1717</v>
-      </c>
-      <c r="D4" t="s">
-        <v>1718</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
+        <v>1717</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1718</v>
+      </c>
+      <c r="D5" t="s">
         <v>1719</v>
-      </c>
-      <c r="C5" t="s">
-        <v>1720</v>
-      </c>
-      <c r="D5" t="s">
-        <v>1721</v>
       </c>
     </row>
     <row r="6" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
+        <v>1720</v>
+      </c>
+      <c r="C6" t="s">
+        <v>1721</v>
+      </c>
+      <c r="D6" t="s">
         <v>1722</v>
-      </c>
-      <c r="C6" t="s">
-        <v>1723</v>
-      </c>
-      <c r="D6" t="s">
-        <v>1724</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
+        <v>1723</v>
+      </c>
+      <c r="C7" t="s">
+        <v>1724</v>
+      </c>
+      <c r="D7" t="s">
         <v>1725</v>
-      </c>
-      <c r="C7" t="s">
-        <v>1726</v>
-      </c>
-      <c r="D7" t="s">
-        <v>1727</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
+        <v>1731</v>
+      </c>
+      <c r="C8" t="s">
+        <v>1732</v>
+      </c>
+      <c r="D8" t="s">
         <v>1733</v>
-      </c>
-      <c r="C8" t="s">
-        <v>1734</v>
-      </c>
-      <c r="D8" t="s">
-        <v>1735</v>
       </c>
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
+        <v>1737</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1738</v>
+      </c>
+      <c r="D9" t="s">
         <v>1739</v>
-      </c>
-      <c r="C9" t="s">
-        <v>1740</v>
-      </c>
-      <c r="D9" t="s">
-        <v>1741</v>
       </c>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
+        <v>1740</v>
+      </c>
+      <c r="C10" t="s">
+        <v>1741</v>
+      </c>
+      <c r="D10" t="s">
         <v>1742</v>
-      </c>
-      <c r="C10" t="s">
-        <v>1743</v>
-      </c>
-      <c r="D10" t="s">
-        <v>1744</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
+        <v>1743</v>
+      </c>
+      <c r="C11" t="s">
+        <v>1744</v>
+      </c>
+      <c r="D11" t="s">
         <v>1745</v>
-      </c>
-      <c r="C11" t="s">
-        <v>1746</v>
-      </c>
-      <c r="D11" t="s">
-        <v>1747</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
+        <v>1762</v>
+      </c>
+      <c r="C12" t="s">
+        <v>1763</v>
+      </c>
+      <c r="D12" t="s">
         <v>1764</v>
-      </c>
-      <c r="C12" t="s">
-        <v>1765</v>
-      </c>
-      <c r="D12" t="s">
-        <v>1766</v>
       </c>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
+        <v>1771</v>
+      </c>
+      <c r="C13" t="s">
+        <v>1772</v>
+      </c>
+      <c r="D13" t="s">
         <v>1773</v>
-      </c>
-      <c r="C13" t="s">
-        <v>1774</v>
-      </c>
-      <c r="D13" t="s">
-        <v>1775</v>
       </c>
     </row>
   </sheetData>
@@ -19041,42 +19053,42 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1749</v>
+        <v>1747</v>
       </c>
       <c r="B1" t="s">
+        <v>1748</v>
+      </c>
+      <c r="C1" t="s">
         <v>1750</v>
       </c>
-      <c r="C1" t="s">
-        <v>1752</v>
-      </c>
       <c r="D1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="E1" t="s">
-        <v>1755</v>
+        <v>1753</v>
       </c>
       <c r="F1" t="s">
+        <v>1757</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1756</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1758</v>
+      </c>
+      <c r="I1" t="s">
         <v>1759</v>
       </c>
-      <c r="G1" t="s">
-        <v>1758</v>
-      </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>1760</v>
-      </c>
-      <c r="I1" t="s">
-        <v>1761</v>
-      </c>
-      <c r="J1" t="s">
-        <v>1762</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="B2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="C2" t="s">
         <v>706</v>
@@ -19085,36 +19097,36 @@
         <v>319</v>
       </c>
       <c r="E2" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="F2" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
       <c r="G2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="I2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="J2" t="s">
-        <v>1763</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
+        <v>1749</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1752</v>
+      </c>
+      <c r="D3" t="s">
         <v>1751</v>
       </c>
-      <c r="C3" t="s">
-        <v>1754</v>
-      </c>
-      <c r="D3" t="s">
-        <v>1753</v>
-      </c>
       <c r="E3" t="s">
-        <v>1757</v>
+        <v>1755</v>
       </c>
     </row>
   </sheetData>
@@ -19132,24 +19144,24 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>1768</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1769</v>
+      </c>
+      <c r="C1" t="s">
         <v>1770</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1771</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1772</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1770</v>
+        <v>1768</v>
       </c>
       <c r="B2" t="s">
-        <v>1764</v>
+        <v>1762</v>
       </c>
       <c r="C2" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -19167,27 +19179,27 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B1" t="s">
+        <v>1765</v>
+      </c>
+      <c r="C1" t="s">
         <v>1767</v>
       </c>
-      <c r="C1" t="s">
-        <v>1769</v>
-      </c>
       <c r="D1" t="s">
-        <v>1776</v>
+        <v>1774</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1773</v>
+        <v>1771</v>
       </c>
       <c r="B2" t="s">
-        <v>1768</v>
+        <v>1766</v>
       </c>
       <c r="C2" t="s">
-        <v>1756</v>
+        <v>1754</v>
       </c>
     </row>
   </sheetData>
@@ -19211,10 +19223,10 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1785</v>
+        <v>1783</v>
       </c>
       <c r="B1" s="20" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C1" t="s">
         <v>807</v>
@@ -19222,10 +19234,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -19233,151 +19245,151 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1786</v>
+        <v>1784</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1860</v>
+        <v>1858</v>
       </c>
       <c r="C3" t="s">
-        <v>1777</v>
+        <v>1775</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1787</v>
+        <v>1785</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1861</v>
+        <v>1859</v>
       </c>
       <c r="C4" t="s">
-        <v>1778</v>
+        <v>1776</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1788</v>
+        <v>1786</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1862</v>
+        <v>1860</v>
       </c>
       <c r="C5" t="s">
-        <v>1799</v>
+        <v>1797</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1789</v>
+        <v>1787</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1863</v>
+        <v>1861</v>
       </c>
       <c r="C6" t="s">
-        <v>1800</v>
+        <v>1798</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1790</v>
+        <v>1788</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1864</v>
+        <v>1862</v>
       </c>
       <c r="C7" t="s">
-        <v>1801</v>
+        <v>1799</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1791</v>
+        <v>1789</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1865</v>
+        <v>1863</v>
       </c>
       <c r="C8" t="s">
-        <v>1779</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1792</v>
+        <v>1790</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1866</v>
+        <v>1864</v>
       </c>
       <c r="C9" t="s">
-        <v>1780</v>
+        <v>1778</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1793</v>
+        <v>1791</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1867</v>
+        <v>1865</v>
       </c>
       <c r="C10" t="s">
-        <v>1802</v>
+        <v>1800</v>
       </c>
       <c r="D10" t="s">
-        <v>1781</v>
+        <v>1779</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1794</v>
+        <v>1792</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1868</v>
+        <v>1866</v>
       </c>
       <c r="C11" t="s">
-        <v>1782</v>
+        <v>1780</v>
       </c>
       <c r="D11" t="s">
-        <v>1783</v>
+        <v>1781</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1795</v>
+        <v>1793</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1869</v>
+        <v>1867</v>
       </c>
       <c r="C12" t="s">
-        <v>1803</v>
+        <v>1801</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1796</v>
+        <v>1794</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1870</v>
+        <v>1868</v>
       </c>
       <c r="C13" t="s">
-        <v>1804</v>
+        <v>1802</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1797</v>
+        <v>1795</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1871</v>
+        <v>1869</v>
       </c>
       <c r="C14" t="s">
-        <v>1805</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1798</v>
+        <v>1796</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1872</v>
+        <v>1870</v>
       </c>
       <c r="C15" t="s">
-        <v>1806</v>
+        <v>1804</v>
       </c>
     </row>
   </sheetData>
@@ -19401,23 +19413,23 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>1856</v>
+        <v>1854</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>807</v>
       </c>
       <c r="C1" s="20" t="s">
-        <v>1819</v>
+        <v>1817</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E1" s="20"/>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>1855</v>
+        <v>1853</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>319</v>
@@ -19426,148 +19438,148 @@
         <v>319</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E2" s="20"/>
       <c r="F2" s="20"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="21" t="s">
-        <v>1911</v>
+        <v>1909</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1809</v>
+        <v>1807</v>
       </c>
       <c r="C3" s="20" t="s">
         <v>190</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>1891</v>
+        <v>1889</v>
       </c>
       <c r="E3" s="20"/>
       <c r="F3" s="20"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>1912</v>
+        <v>1910</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1810</v>
+        <v>1808</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>1818</v>
+        <v>1816</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>1892</v>
+        <v>1890</v>
       </c>
       <c r="E4" s="20"/>
       <c r="F4" s="20"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>1913</v>
+        <v>1911</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1907</v>
+        <v>1905</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>816</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>1893</v>
+        <v>1891</v>
       </c>
       <c r="E5" s="20"/>
       <c r="F5" s="20"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>1914</v>
+        <v>1912</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1811</v>
+        <v>1809</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>1812</v>
+        <v>1810</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>1894</v>
+        <v>1892</v>
       </c>
       <c r="E6" s="20"/>
       <c r="F6" s="20"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>1915</v>
+        <v>1913</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1813</v>
+        <v>1811</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>1814</v>
+        <v>1812</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>1895</v>
+        <v>1893</v>
       </c>
       <c r="E7" s="20"/>
       <c r="F7" s="20"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>1916</v>
+        <v>1914</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1815</v>
+        <v>1813</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>1816</v>
+        <v>1814</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>1896</v>
+        <v>1894</v>
       </c>
       <c r="E8" s="20"/>
       <c r="F8" s="20"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>1917</v>
+        <v>1915</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1817</v>
+        <v>1815</v>
       </c>
       <c r="C9" s="20" t="s">
         <v>298</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>1897</v>
+        <v>1895</v>
       </c>
       <c r="E9" s="20"/>
       <c r="F9" s="20"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>1918</v>
+        <v>1916</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1820</v>
+        <v>1818</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1857</v>
+        <v>1855</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>1898</v>
+        <v>1896</v>
       </c>
       <c r="E10" s="20"/>
       <c r="F10" s="20"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>1919</v>
+        <v>1917</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1905</v>
+        <v>1903</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>1910</v>
+        <v>1908</v>
       </c>
       <c r="D11" s="20"/>
       <c r="E11" s="20"/>
@@ -19575,13 +19587,13 @@
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>1920</v>
+        <v>1918</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1908</v>
+        <v>1906</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>1909</v>
+        <v>1907</v>
       </c>
       <c r="D12" s="20"/>
       <c r="E12" s="20"/>
@@ -19589,10 +19601,10 @@
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>1921</v>
+        <v>1919</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1906</v>
+        <v>1904</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -19638,7 +19650,7 @@
         <v>318</v>
       </c>
       <c r="D1" t="s">
-        <v>1664</v>
+        <v>1662</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -19649,7 +19661,7 @@
         <v>319</v>
       </c>
       <c r="D2" s="19" t="s">
-        <v>1669</v>
+        <v>1667</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
@@ -19660,7 +19672,7 @@
         <v>3</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>1663</v>
+        <v>1661</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
@@ -19695,7 +19707,7 @@
         <v>203</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>1668</v>
+        <v>1666</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
@@ -19706,7 +19718,7 @@
         <v>117</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>1665</v>
+        <v>1663</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -19717,7 +19729,7 @@
         <v>30</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>1672</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -19728,7 +19740,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>1667</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
@@ -19739,7 +19751,7 @@
         <v>47</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>1666</v>
+        <v>1664</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -19774,7 +19786,7 @@
         <v>148</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>1671</v>
+        <v>1669</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
@@ -19817,7 +19829,7 @@
         <v>239</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>1670</v>
+        <v>1668</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
@@ -21836,7 +21848,7 @@
         <v>912</v>
       </c>
       <c r="C230" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.2">
@@ -21847,7 +21859,7 @@
         <v>915</v>
       </c>
       <c r="C231" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.2">
@@ -21858,7 +21870,7 @@
         <v>959</v>
       </c>
       <c r="C232" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.2">
@@ -21869,7 +21881,7 @@
         <v>954</v>
       </c>
       <c r="C233" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.2">
@@ -21880,7 +21892,7 @@
         <v>913</v>
       </c>
       <c r="C234" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.2">
@@ -21999,8 +22011,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -22029,7 +22041,7 @@
         <v>810</v>
       </c>
       <c r="G1" t="s">
-        <v>1899</v>
+        <v>1897</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
@@ -22052,7 +22064,7 @@
         <v>978</v>
       </c>
       <c r="G2" t="s">
-        <v>1900</v>
+        <v>1898</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -22072,7 +22084,7 @@
         <v>972</v>
       </c>
       <c r="G3" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -22161,7 +22173,7 @@
         <v>976</v>
       </c>
       <c r="G10" t="s">
-        <v>1902</v>
+        <v>1900</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -22184,7 +22196,7 @@
         <v>972</v>
       </c>
       <c r="G11" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -22247,7 +22259,7 @@
         <v>974</v>
       </c>
       <c r="G14" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -22262,7 +22274,7 @@
       </c>
       <c r="D15" s="7"/>
       <c r="G15" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -22277,7 +22289,7 @@
       </c>
       <c r="D16" s="7"/>
       <c r="G16" t="s">
-        <v>1904</v>
+        <v>1902</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -22292,7 +22304,7 @@
       </c>
       <c r="D17" s="7"/>
       <c r="G17" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -22307,7 +22319,7 @@
       </c>
       <c r="D18" s="7"/>
       <c r="G18" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -22350,7 +22362,7 @@
         <v>979</v>
       </c>
       <c r="G20" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -22365,7 +22377,7 @@
       </c>
       <c r="D21" s="7"/>
       <c r="G21" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
@@ -22380,7 +22392,7 @@
       </c>
       <c r="D22" s="7"/>
       <c r="G22" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.2">
@@ -22403,7 +22415,7 @@
         <v>724</v>
       </c>
       <c r="G23" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.2">
@@ -22418,7 +22430,7 @@
       </c>
       <c r="D24" s="7"/>
       <c r="G24" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.2">
@@ -22433,7 +22445,7 @@
       </c>
       <c r="D25" s="7"/>
       <c r="G25" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.2">
@@ -22448,7 +22460,7 @@
       </c>
       <c r="D26" s="7"/>
       <c r="G26" t="s">
-        <v>1901</v>
+        <v>1899</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.2">
@@ -22471,7 +22483,7 @@
         <v>973</v>
       </c>
       <c r="G27" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.2">
@@ -22486,7 +22498,7 @@
       </c>
       <c r="D28" s="7"/>
       <c r="G28" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.2">
@@ -22501,7 +22513,7 @@
       </c>
       <c r="D29" s="7"/>
       <c r="G29" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.2">
@@ -22516,7 +22528,7 @@
       </c>
       <c r="D30" s="7"/>
       <c r="G30" t="s">
-        <v>1903</v>
+        <v>1901</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.2">
@@ -22698,7 +22710,7 @@
         <v>752</v>
       </c>
       <c r="G43" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
@@ -22712,7 +22724,7 @@
         <v>752</v>
       </c>
       <c r="G44" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
@@ -22737,14 +22749,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K194"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="15.140625" customWidth="1"/>
-    <col min="4" max="4" width="45.42578125" customWidth="1"/>
+    <col min="1" max="1" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="17.42578125" customWidth="1"/>
+    <col min="3" max="4" width="15.140625" customWidth="1"/>
+    <col min="5" max="5" width="45.42578125" customWidth="1"/>
     <col min="6" max="6" width="30.7109375" customWidth="1"/>
     <col min="7" max="7" width="29.42578125" customWidth="1"/>
     <col min="9" max="9" width="39.28515625" customWidth="1"/>
@@ -22754,46 +22768,54 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>1399</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
+        <v>1397</v>
+      </c>
+      <c r="B1" s="8" t="s">
+        <v>1932</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>1928</v>
+      </c>
       <c r="D1" s="8" t="s">
-        <v>1589</v>
+        <v>1931</v>
       </c>
       <c r="E1" s="8" t="s">
+        <v>1587</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>980</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="G1" s="8" t="s">
         <v>981</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="H1" s="8" t="s">
+        <v>1395</v>
+      </c>
+      <c r="I1" s="8" t="s">
         <v>982</v>
       </c>
-      <c r="H1" s="8" t="s">
-        <v>1397</v>
-      </c>
-      <c r="I1" s="8" t="s">
+      <c r="J1" s="8" t="s">
         <v>983</v>
       </c>
-      <c r="J1" s="8" t="s">
-        <v>984</v>
-      </c>
       <c r="K1" s="8" t="s">
-        <v>1590</v>
+        <v>1588</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="8" t="s">
-        <v>1398</v>
-      </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
+        <v>1396</v>
+      </c>
+      <c r="B2" s="8" t="s">
+        <v>1659</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>1929</v>
+      </c>
       <c r="D2" s="8" t="s">
+        <v>1930</v>
+      </c>
+      <c r="E2" s="8" t="s">
         <v>319</v>
-      </c>
-      <c r="E2" s="8" t="s">
-        <v>1661</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>319</v>
@@ -22802,10 +22824,10 @@
         <v>319</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>1662</v>
+        <v>1660</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="J2" s="8" t="s">
         <v>319</v>
@@ -22816,31 +22838,31 @@
     </row>
     <row r="3" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A3" s="9" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B3" s="9" t="s">
-        <v>1922</v>
+        <v>1398</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>1094</v>
+        <v>1925</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>1591</v>
+        <v>1589</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="H3" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J3" s="11"/>
       <c r="K3" s="11" t="s">
@@ -22849,31 +22871,31 @@
     </row>
     <row r="4" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A4" s="9" t="s">
-        <v>1401</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>1922</v>
+        <v>1399</v>
+      </c>
+      <c r="B4" s="10" t="s">
+        <v>1852</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>1854</v>
+        <v>1925</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>1592</v>
+        <v>1590</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J4" s="11"/>
       <c r="K4" s="11" t="s">
@@ -22882,31 +22904,31 @@
     </row>
     <row r="5" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="9" t="s">
-        <v>1402</v>
-      </c>
-      <c r="B5" s="9" t="s">
-        <v>1922</v>
+        <v>1400</v>
+      </c>
+      <c r="B5" s="10" t="s">
+        <v>1852</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>1927</v>
+        <v>1920</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>1854</v>
+        <v>1925</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="H5" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J5" s="11"/>
       <c r="K5" s="11" t="s">
@@ -22915,32 +22937,32 @@
     </row>
     <row r="6" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="9" t="s">
-        <v>1403</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>1924</v>
+        <v>1401</v>
+      </c>
+      <c r="B6" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>1923</v>
+        <v>1922</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E6" s="10" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>1094</v>
       </c>
-      <c r="F6" s="10" t="s">
-        <v>1096</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I6" s="10"/>
       <c r="J6" s="11" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="K6" s="11" t="s">
         <v>719</v>
@@ -22948,31 +22970,31 @@
     </row>
     <row r="7" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A7" s="9" t="s">
-        <v>1404</v>
-      </c>
-      <c r="B7" s="9" t="s">
-        <v>1922</v>
+        <v>1402</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E7" s="10" t="s">
+        <v>1921</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>988</v>
       </c>
-      <c r="F7" s="10" t="s">
+      <c r="G7" s="10" t="s">
         <v>989</v>
       </c>
-      <c r="G7" s="10" t="s">
+      <c r="H7" s="9" t="s">
         <v>990</v>
       </c>
-      <c r="H7" s="9" t="s">
+      <c r="I7" s="10" t="s">
         <v>991</v>
-      </c>
-      <c r="I7" s="10" t="s">
-        <v>992</v>
       </c>
       <c r="J7" s="11"/>
       <c r="K7" s="11" t="s">
@@ -22981,29 +23003,29 @@
     </row>
     <row r="8" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="9" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B8" s="9" t="s">
-        <v>1922</v>
+        <v>1403</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>1933</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>1923</v>
+        <v>1920</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>1089</v>
+        <v>1921</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="G8" s="9"/>
       <c r="H8" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I8" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J8" s="11"/>
       <c r="K8" s="11" t="s">
@@ -23012,31 +23034,31 @@
     </row>
     <row r="9" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="9" t="s">
-        <v>1406</v>
-      </c>
-      <c r="B9" s="9" t="s">
-        <v>1925</v>
+        <v>1404</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>1926</v>
+        <v>1923</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E9" s="10" t="s">
-        <v>988</v>
+        <v>1924</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F9" s="9" t="s">
+        <v>992</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>993</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>994</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>995</v>
-      </c>
       <c r="I9" s="9" t="s">
-        <v>1593</v>
+        <v>1591</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="11" t="s">
@@ -23045,31 +23067,31 @@
     </row>
     <row r="10" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A10" s="9" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B10" s="9" t="s">
-        <v>1924</v>
+        <v>1405</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E10" s="10" t="s">
-        <v>1094</v>
+        <v>1925</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F10" s="9" t="s">
+        <v>1097</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>1098</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I10" s="9" t="s">
         <v>1099</v>
-      </c>
-      <c r="G10" s="9" t="s">
-        <v>1100</v>
-      </c>
-      <c r="H10" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I10" s="9" t="s">
-        <v>1101</v>
       </c>
       <c r="J10" s="11"/>
       <c r="K10" s="11" t="s">
@@ -23078,31 +23100,31 @@
     </row>
     <row r="11" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A11" s="9" t="s">
-        <v>1408</v>
-      </c>
-      <c r="B11" s="9" t="s">
-        <v>1924</v>
+        <v>1406</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E11" s="10" t="s">
-        <v>988</v>
+        <v>1925</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F11" s="9" t="s">
+        <v>995</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>996</v>
       </c>
-      <c r="G11" s="9" t="s">
+      <c r="H11" s="9" t="s">
         <v>997</v>
       </c>
-      <c r="H11" s="9" t="s">
+      <c r="I11" s="9" t="s">
         <v>998</v>
-      </c>
-      <c r="I11" s="9" t="s">
-        <v>999</v>
       </c>
       <c r="J11" s="11"/>
       <c r="K11" s="11" t="s">
@@ -23111,31 +23133,31 @@
     </row>
     <row r="12" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>1409</v>
-      </c>
-      <c r="B12" s="9" t="s">
-        <v>1924</v>
+        <v>1407</v>
+      </c>
+      <c r="B12" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>988</v>
+        <v>1925</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F12" s="9" t="s">
+        <v>999</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>1000</v>
       </c>
-      <c r="G12" s="9" t="s">
+      <c r="H12" s="9" t="s">
         <v>1001</v>
       </c>
-      <c r="H12" s="9" t="s">
+      <c r="I12" s="9" t="s">
         <v>1002</v>
-      </c>
-      <c r="I12" s="9" t="s">
-        <v>1003</v>
       </c>
       <c r="J12" s="11"/>
       <c r="K12" s="11" t="s">
@@ -23144,31 +23166,31 @@
     </row>
     <row r="13" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A13" s="9" t="s">
-        <v>1410</v>
-      </c>
-      <c r="B13" s="9" t="s">
-        <v>1924</v>
+        <v>1408</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>1094</v>
+        <v>1925</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F13" s="9" t="s">
+        <v>1100</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>1101</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="I13" s="9" t="s">
         <v>1102</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H13" s="9" t="s">
-        <v>1076</v>
-      </c>
-      <c r="I13" s="9" t="s">
-        <v>1104</v>
       </c>
       <c r="J13" s="11"/>
       <c r="K13" s="11" t="s">
@@ -23177,34 +23199,34 @@
     </row>
     <row r="14" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A14" s="9" t="s">
-        <v>1411</v>
-      </c>
-      <c r="B14" s="9" t="s">
-        <v>1924</v>
+        <v>1409</v>
+      </c>
+      <c r="B14" s="10" t="s">
+        <v>1054</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E14" s="10" t="s">
+        <v>1925</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>986</v>
+      </c>
+      <c r="F14" s="9" t="s">
+        <v>1592</v>
+      </c>
+      <c r="G14" s="9" t="s">
         <v>1055</v>
       </c>
-      <c r="F14" s="9" t="s">
-        <v>1594</v>
-      </c>
-      <c r="G14" s="9" t="s">
+      <c r="H14" s="9" t="s">
+        <v>1027</v>
+      </c>
+      <c r="I14" s="9" t="s">
+        <v>998</v>
+      </c>
+      <c r="J14" s="11" t="s">
         <v>1056</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>1028</v>
-      </c>
-      <c r="I14" s="9" t="s">
-        <v>999</v>
-      </c>
-      <c r="J14" s="11" t="s">
-        <v>1057</v>
       </c>
       <c r="K14" s="11" t="s">
         <v>719</v>
@@ -23212,34 +23234,34 @@
     </row>
     <row r="15" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A15" s="9" t="s">
-        <v>1412</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>1924</v>
+        <v>1410</v>
+      </c>
+      <c r="B15" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C15" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D15" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>988</v>
+        <v>1925</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F15" s="9" t="s">
+        <v>1003</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>1004</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="I15" s="9" t="s">
         <v>1005</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="I15" s="9" t="s">
+      <c r="J15" s="11" t="s">
         <v>1006</v>
-      </c>
-      <c r="J15" s="11" t="s">
-        <v>1007</v>
       </c>
       <c r="K15" s="11" t="s">
         <v>719</v>
@@ -23247,31 +23269,31 @@
     </row>
     <row r="16" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A16" s="9" t="s">
-        <v>1413</v>
-      </c>
-      <c r="B16" s="9" t="s">
-        <v>1924</v>
+        <v>1411</v>
+      </c>
+      <c r="B16" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E16" s="10" t="s">
-        <v>988</v>
+        <v>1925</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F16" s="9" t="s">
+        <v>1007</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>1008</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>1009</v>
-      </c>
       <c r="H16" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I16" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J16" s="11"/>
       <c r="K16" s="11" t="s">
@@ -23280,31 +23302,31 @@
     </row>
     <row r="17" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A17" s="9" t="s">
-        <v>1414</v>
-      </c>
-      <c r="B17" s="9" t="s">
-        <v>1924</v>
+        <v>1412</v>
+      </c>
+      <c r="B17" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E17" s="10" t="s">
-        <v>988</v>
+        <v>1925</v>
+      </c>
+      <c r="E17" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F17" s="9" t="s">
+        <v>1009</v>
+      </c>
+      <c r="G17" s="9" t="s">
         <v>1010</v>
       </c>
-      <c r="G17" s="9" t="s">
-        <v>1011</v>
-      </c>
       <c r="H17" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I17" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J17" s="11"/>
       <c r="K17" s="11" t="s">
@@ -23313,31 +23335,31 @@
     </row>
     <row r="18" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
-        <v>1415</v>
-      </c>
-      <c r="B18" s="9" t="s">
-        <v>1924</v>
+        <v>1413</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E18" s="10" t="s">
-        <v>1094</v>
+        <v>1925</v>
+      </c>
+      <c r="E18" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F18" s="9" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I18" s="9" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="J18" s="11"/>
       <c r="K18" s="11" t="s">
@@ -23346,34 +23368,34 @@
     </row>
     <row r="19" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A19" s="9" t="s">
-        <v>1416</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>1924</v>
+        <v>1414</v>
+      </c>
+      <c r="B19" s="10" t="s">
+        <v>987</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E19" s="10" t="s">
-        <v>988</v>
+        <v>1925</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F19" s="9" t="s">
+        <v>1011</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>1012</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I19" s="9" t="s">
         <v>1013</v>
       </c>
-      <c r="H19" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I19" s="9" t="s">
+      <c r="J19" s="11" t="s">
         <v>1014</v>
-      </c>
-      <c r="J19" s="11" t="s">
-        <v>1015</v>
       </c>
       <c r="K19" s="11" t="s">
         <v>719</v>
@@ -23381,31 +23403,31 @@
     </row>
     <row r="20" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A20" s="9" t="s">
-        <v>1417</v>
-      </c>
-      <c r="B20" s="9" t="s">
-        <v>1924</v>
+        <v>1415</v>
+      </c>
+      <c r="B20" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>1927</v>
+        <v>1922</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E20" s="10" t="s">
-        <v>1094</v>
+        <v>1925</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>1595</v>
+        <v>1593</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="H20" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I20" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J20" s="11"/>
       <c r="K20" s="11" t="s">
@@ -23414,32 +23436,32 @@
     </row>
     <row r="21" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A21" s="9" t="s">
-        <v>1418</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>1928</v>
+        <v>1416</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1092</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>1929</v>
+        <v>1926</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E21" s="10" t="s">
-        <v>1094</v>
+        <v>1927</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="H21" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I21" s="9"/>
       <c r="J21" s="11" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="K21" s="11" t="s">
         <v>719</v>
@@ -23447,27 +23469,27 @@
     </row>
     <row r="22" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A22" s="9" t="s">
-        <v>1419</v>
-      </c>
-      <c r="B22" s="9"/>
+        <v>1417</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E22" s="10" t="s">
-        <v>1854</v>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F22" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>1240</v>
+      </c>
+      <c r="H22" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>1242</v>
-      </c>
-      <c r="H22" s="9" t="s">
-        <v>1243</v>
-      </c>
       <c r="I22" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J22" s="11"/>
       <c r="K22" s="11" t="s">
@@ -23476,27 +23498,27 @@
     </row>
     <row r="23" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
-        <v>1420</v>
-      </c>
-      <c r="B23" s="9"/>
+        <v>1418</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C23" s="9"/>
-      <c r="D23" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>1854</v>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F23" s="9" t="s">
+        <v>1239</v>
+      </c>
+      <c r="G23" s="9" t="s">
+        <v>1242</v>
+      </c>
+      <c r="H23" s="9" t="s">
         <v>1241</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>1244</v>
-      </c>
-      <c r="H23" s="9" t="s">
-        <v>1243</v>
-      </c>
       <c r="I23" s="9" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="J23" s="11"/>
       <c r="K23" s="11" t="s">
@@ -23505,27 +23527,27 @@
     </row>
     <row r="24" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A24" s="9" t="s">
-        <v>1421</v>
-      </c>
-      <c r="B24" s="9"/>
+        <v>1419</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C24" s="9"/>
-      <c r="D24" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E24" s="10" t="s">
-        <v>988</v>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F24" s="9" t="s">
+        <v>1015</v>
+      </c>
+      <c r="G24" s="9" t="s">
         <v>1016</v>
       </c>
-      <c r="G24" s="9" t="s">
-        <v>1017</v>
-      </c>
       <c r="H24" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I24" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J24" s="11"/>
       <c r="K24" s="11" t="s">
@@ -23534,27 +23556,27 @@
     </row>
     <row r="25" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A25" s="9" t="s">
-        <v>1422</v>
-      </c>
-      <c r="B25" s="9"/>
+        <v>1420</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C25" s="9"/>
-      <c r="D25" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E25" s="10" t="s">
-        <v>1094</v>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F25" s="9" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="G25" s="9" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="H25" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I25" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J25" s="11"/>
       <c r="K25" s="11" t="s">
@@ -23563,27 +23585,27 @@
     </row>
     <row r="26" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A26" s="9" t="s">
-        <v>1423</v>
-      </c>
-      <c r="B26" s="9"/>
+        <v>1421</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C26" s="9"/>
-      <c r="D26" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E26" s="10" t="s">
-        <v>1094</v>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F26" s="9" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I26" s="9" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="J26" s="11"/>
       <c r="K26" s="11" t="s">
@@ -23592,27 +23614,27 @@
     </row>
     <row r="27" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A27" s="9" t="s">
-        <v>1424</v>
-      </c>
-      <c r="B27" s="9"/>
+        <v>1422</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C27" s="9"/>
-      <c r="D27" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E27" s="10" t="s">
-        <v>988</v>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F27" s="9" t="s">
-        <v>1643</v>
+        <v>1641</v>
       </c>
       <c r="G27" s="9" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="H27" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I27" s="9" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="J27" s="11"/>
       <c r="K27" s="11" t="s">
@@ -23621,27 +23643,27 @@
     </row>
     <row r="28" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A28" s="9" t="s">
-        <v>1425</v>
-      </c>
-      <c r="B28" s="9"/>
+        <v>1423</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C28" s="9"/>
-      <c r="D28" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E28" s="10" t="s">
-        <v>1094</v>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="G28" s="9" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="H28" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I28" s="9" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="J28" s="11"/>
       <c r="K28" s="11" t="s">
@@ -23650,28 +23672,28 @@
     </row>
     <row r="29" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A29" s="9" t="s">
-        <v>1426</v>
-      </c>
-      <c r="B29" s="9"/>
+        <v>1424</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C29" s="9"/>
-      <c r="D29" s="9" t="s">
-        <v>987</v>
-      </c>
-      <c r="E29" s="10" t="s">
-        <v>988</v>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9" t="s">
+        <v>986</v>
       </c>
       <c r="F29" s="9" t="s">
+        <v>1018</v>
+      </c>
+      <c r="G29" s="9" t="s">
         <v>1019</v>
       </c>
-      <c r="G29" s="9" t="s">
-        <v>1020</v>
-      </c>
       <c r="H29" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I29" s="9"/>
       <c r="J29" s="11" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="K29" s="11" t="s">
         <v>719</v>
@@ -23679,30 +23701,30 @@
     </row>
     <row r="30" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A30" s="9" t="s">
-        <v>1427</v>
-      </c>
-      <c r="B30" s="9"/>
+        <v>1425</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C30" s="9"/>
-      <c r="D30" s="9" t="s">
+      <c r="D30" s="9"/>
+      <c r="E30" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F30" s="10" t="s">
         <v>1022</v>
       </c>
-      <c r="E30" s="10" t="s">
-        <v>988</v>
-      </c>
-      <c r="F30" s="10" t="s">
+      <c r="G30" s="10" t="s">
         <v>1023</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J30" s="11" t="s">
         <v>1024</v>
-      </c>
-      <c r="H30" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I30" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J30" s="11" t="s">
-        <v>1025</v>
       </c>
       <c r="K30" s="11" t="s">
         <v>719</v>
@@ -23710,28 +23732,28 @@
     </row>
     <row r="31" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A31" s="9" t="s">
-        <v>1428</v>
-      </c>
-      <c r="B31" s="9"/>
+        <v>1426</v>
+      </c>
+      <c r="B31" s="10"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E31" s="10"/>
+      <c r="D31" s="9"/>
+      <c r="E31" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F31" s="10" t="s">
+        <v>1295</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>1296</v>
+      </c>
+      <c r="H31" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I31" s="10" t="s">
         <v>1297</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="J31" s="11" t="s">
         <v>1298</v>
-      </c>
-      <c r="H31" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I31" s="10" t="s">
-        <v>1299</v>
-      </c>
-      <c r="J31" s="11" t="s">
-        <v>1300</v>
       </c>
       <c r="K31" s="11" t="s">
         <v>719</v>
@@ -23739,28 +23761,28 @@
     </row>
     <row r="32" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A32" s="9" t="s">
-        <v>1429</v>
-      </c>
-      <c r="B32" s="9"/>
+        <v>1427</v>
+      </c>
+      <c r="B32" s="10"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E32" s="10"/>
+      <c r="D32" s="9"/>
+      <c r="E32" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F32" s="10" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="H32" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J32" s="11" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="K32" s="11" t="s">
         <v>719</v>
@@ -23768,28 +23790,28 @@
     </row>
     <row r="33" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A33" s="9" t="s">
-        <v>1430</v>
-      </c>
-      <c r="B33" s="9"/>
+        <v>1428</v>
+      </c>
+      <c r="B33" s="10"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E33" s="10"/>
+      <c r="D33" s="9"/>
+      <c r="E33" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F33" s="10" t="s">
+        <v>1301</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>1302</v>
+      </c>
+      <c r="H33" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>1021</v>
+      </c>
+      <c r="J33" s="11" t="s">
         <v>1303</v>
-      </c>
-      <c r="G33" s="10" t="s">
-        <v>1304</v>
-      </c>
-      <c r="H33" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="I33" s="10" t="s">
-        <v>1022</v>
-      </c>
-      <c r="J33" s="11" t="s">
-        <v>1305</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>719</v>
@@ -23797,25 +23819,25 @@
     </row>
     <row r="34" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A34" s="9" t="s">
-        <v>1431</v>
-      </c>
-      <c r="B34" s="9"/>
+        <v>1429</v>
+      </c>
+      <c r="B34" s="10"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E34" s="10"/>
+      <c r="D34" s="9"/>
+      <c r="E34" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F34" s="10" t="s">
-        <v>1596</v>
+        <v>1594</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J34" s="11"/>
       <c r="K34" s="11" t="s">
@@ -23824,25 +23846,25 @@
     </row>
     <row r="35" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A35" s="9" t="s">
-        <v>1432</v>
-      </c>
-      <c r="B35" s="9"/>
+        <v>1430</v>
+      </c>
+      <c r="B35" s="10"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E35" s="10"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F35" s="10" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="H35" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="J35" s="11"/>
       <c r="K35" s="11" t="s">
@@ -23851,25 +23873,25 @@
     </row>
     <row r="36" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A36" s="9" t="s">
-        <v>1433</v>
-      </c>
-      <c r="B36" s="9"/>
+        <v>1431</v>
+      </c>
+      <c r="B36" s="10"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E36" s="10"/>
+      <c r="D36" s="9"/>
+      <c r="E36" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F36" s="10" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="H36" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J36" s="11"/>
       <c r="K36" s="11" t="s">
@@ -23878,25 +23900,25 @@
     </row>
     <row r="37" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A37" s="9" t="s">
-        <v>1434</v>
-      </c>
-      <c r="B37" s="9"/>
+        <v>1432</v>
+      </c>
+      <c r="B37" s="10"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E37" s="10"/>
+      <c r="D37" s="9"/>
+      <c r="E37" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F37" s="9" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="G37" s="9" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="H37" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I37" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J37" s="11"/>
       <c r="K37" s="11" t="s">
@@ -23905,25 +23927,25 @@
     </row>
     <row r="38" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A38" s="9" t="s">
-        <v>1435</v>
-      </c>
-      <c r="B38" s="9"/>
+        <v>1433</v>
+      </c>
+      <c r="B38" s="10"/>
       <c r="C38" s="9"/>
-      <c r="D38" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E38" s="10"/>
+      <c r="D38" s="9"/>
+      <c r="E38" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F38" s="9" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="G38" s="9" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="H38" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I38" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J38" s="11"/>
       <c r="K38" s="11" t="s">
@@ -23932,25 +23954,25 @@
     </row>
     <row r="39" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A39" s="9" t="s">
-        <v>1436</v>
-      </c>
-      <c r="B39" s="9"/>
+        <v>1434</v>
+      </c>
+      <c r="B39" s="10"/>
       <c r="C39" s="9"/>
-      <c r="D39" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E39" s="10"/>
+      <c r="D39" s="9"/>
+      <c r="E39" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F39" s="9" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="G39" s="9" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="H39" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I39" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J39" s="11"/>
       <c r="K39" s="11" t="s">
@@ -23959,27 +23981,27 @@
     </row>
     <row r="40" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A40" s="9" t="s">
-        <v>1437</v>
-      </c>
-      <c r="B40" s="9"/>
+        <v>1435</v>
+      </c>
+      <c r="B40" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C40" s="9"/>
-      <c r="D40" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E40" s="10" t="s">
-        <v>1055</v>
+      <c r="D40" s="9"/>
+      <c r="E40" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F40" s="9" t="s">
+        <v>1057</v>
+      </c>
+      <c r="G40" s="9" t="s">
         <v>1058</v>
       </c>
-      <c r="G40" s="9" t="s">
-        <v>1059</v>
-      </c>
       <c r="H40" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I40" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J40" s="11"/>
       <c r="K40" s="11" t="s">
@@ -23988,27 +24010,27 @@
     </row>
     <row r="41" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A41" s="9" t="s">
-        <v>1438</v>
-      </c>
-      <c r="B41" s="9"/>
+        <v>1436</v>
+      </c>
+      <c r="B41" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C41" s="9"/>
-      <c r="D41" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>988</v>
+      <c r="D41" s="9"/>
+      <c r="E41" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F41" s="9" t="s">
+        <v>1025</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>1026</v>
       </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="9" t="s">
         <v>1027</v>
       </c>
-      <c r="H41" s="9" t="s">
-        <v>1028</v>
-      </c>
       <c r="I41" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J41" s="11"/>
       <c r="K41" s="11" t="s">
@@ -24017,25 +24039,25 @@
     </row>
     <row r="42" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A42" s="9" t="s">
-        <v>1439</v>
-      </c>
-      <c r="B42" s="9"/>
+        <v>1437</v>
+      </c>
+      <c r="B42" s="10"/>
       <c r="C42" s="9"/>
-      <c r="D42" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E42" s="10"/>
+      <c r="D42" s="9"/>
+      <c r="E42" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F42" s="9" t="s">
-        <v>1597</v>
+        <v>1595</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="H42" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I42" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="11" t="s">
@@ -24044,25 +24066,25 @@
     </row>
     <row r="43" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A43" s="9" t="s">
-        <v>1440</v>
-      </c>
-      <c r="B43" s="9"/>
+        <v>1438</v>
+      </c>
+      <c r="B43" s="10"/>
       <c r="C43" s="9"/>
-      <c r="D43" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E43" s="10"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F43" s="9" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="H43" s="9" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="I43" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J43" s="11"/>
       <c r="K43" s="11" t="s">
@@ -24071,25 +24093,25 @@
     </row>
     <row r="44" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A44" s="9" t="s">
-        <v>1441</v>
-      </c>
-      <c r="B44" s="9"/>
+        <v>1439</v>
+      </c>
+      <c r="B44" s="10"/>
       <c r="C44" s="9"/>
-      <c r="D44" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E44" s="10"/>
+      <c r="D44" s="9"/>
+      <c r="E44" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F44" s="9" t="s">
+        <v>1318</v>
+      </c>
+      <c r="G44" s="9" t="s">
+        <v>1319</v>
+      </c>
+      <c r="H44" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>1320</v>
-      </c>
-      <c r="G44" s="9" t="s">
-        <v>1321</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>1322</v>
       </c>
       <c r="J44" s="11"/>
       <c r="K44" s="11" t="s">
@@ -24098,25 +24120,25 @@
     </row>
     <row r="45" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A45" s="9" t="s">
-        <v>1442</v>
-      </c>
-      <c r="B45" s="9"/>
+        <v>1440</v>
+      </c>
+      <c r="B45" s="10"/>
       <c r="C45" s="9"/>
-      <c r="D45" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E45" s="10"/>
+      <c r="D45" s="9"/>
+      <c r="E45" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F45" s="9" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="H45" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I45" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="11" t="s">
@@ -24125,27 +24147,27 @@
     </row>
     <row r="46" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A46" s="9" t="s">
-        <v>1443</v>
-      </c>
-      <c r="B46" s="9"/>
+        <v>1441</v>
+      </c>
+      <c r="B46" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C46" s="9"/>
-      <c r="D46" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E46" s="10" t="s">
-        <v>1055</v>
+      <c r="D46" s="9"/>
+      <c r="E46" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F46" s="9" t="s">
+        <v>1059</v>
+      </c>
+      <c r="G46" s="9" t="s">
         <v>1060</v>
       </c>
-      <c r="G46" s="9" t="s">
-        <v>1061</v>
-      </c>
       <c r="H46" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I46" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="11" t="s">
@@ -24154,27 +24176,27 @@
     </row>
     <row r="47" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A47" s="9" t="s">
-        <v>1444</v>
-      </c>
-      <c r="B47" s="9"/>
+        <v>1442</v>
+      </c>
+      <c r="B47" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C47" s="9"/>
-      <c r="D47" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E47" s="10" t="s">
-        <v>988</v>
+      <c r="D47" s="9"/>
+      <c r="E47" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F47" s="9" t="s">
+        <v>1028</v>
+      </c>
+      <c r="G47" s="9" t="s">
         <v>1029</v>
       </c>
-      <c r="G47" s="9" t="s">
+      <c r="H47" s="9" t="s">
         <v>1030</v>
       </c>
-      <c r="H47" s="9" t="s">
+      <c r="I47" s="9" t="s">
         <v>1031</v>
-      </c>
-      <c r="I47" s="9" t="s">
-        <v>1032</v>
       </c>
       <c r="J47" s="11"/>
       <c r="K47" s="11" t="s">
@@ -24183,25 +24205,25 @@
     </row>
     <row r="48" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A48" s="9" t="s">
-        <v>1445</v>
-      </c>
-      <c r="B48" s="9"/>
+        <v>1443</v>
+      </c>
+      <c r="B48" s="10"/>
       <c r="C48" s="9"/>
-      <c r="D48" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E48" s="10"/>
+      <c r="D48" s="9"/>
+      <c r="E48" s="9" t="s">
+        <v>1021</v>
+      </c>
       <c r="F48" s="9" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="G48" s="9" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="H48" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I48" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J48" s="11"/>
       <c r="K48" s="11" t="s">
@@ -24210,27 +24232,27 @@
     </row>
     <row r="49" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A49" s="9" t="s">
-        <v>1446</v>
-      </c>
-      <c r="B49" s="9"/>
+        <v>1444</v>
+      </c>
+      <c r="B49" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C49" s="9"/>
-      <c r="D49" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E49" s="10" t="s">
-        <v>1854</v>
+      <c r="D49" s="9"/>
+      <c r="E49" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F49" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="G49" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="H49" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="I49" s="9" t="s">
         <v>1245</v>
-      </c>
-      <c r="G49" s="9" t="s">
-        <v>1246</v>
-      </c>
-      <c r="H49" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I49" s="9" t="s">
-        <v>1247</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="11" t="s">
@@ -24239,26 +24261,26 @@
     </row>
     <row r="50" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A50" s="9" t="s">
-        <v>1447</v>
-      </c>
-      <c r="B50" s="9"/>
+        <v>1445</v>
+      </c>
+      <c r="B50" s="10" t="s">
+        <v>1089</v>
+      </c>
       <c r="C50" s="9"/>
-      <c r="D50" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E50" s="10" t="s">
-        <v>1091</v>
+      <c r="D50" s="9"/>
+      <c r="E50" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="G50" s="9"/>
       <c r="H50" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I50" s="9"/>
       <c r="J50" s="11" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="K50" s="11" t="s">
         <v>719</v>
@@ -24266,27 +24288,27 @@
     </row>
     <row r="51" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A51" s="9" t="s">
-        <v>1448</v>
-      </c>
-      <c r="B51" s="9"/>
+        <v>1446</v>
+      </c>
+      <c r="B51" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C51" s="9"/>
-      <c r="D51" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E51" s="10" t="s">
-        <v>988</v>
+      <c r="D51" s="9"/>
+      <c r="E51" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F51" s="9" t="s">
+        <v>1032</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>1033</v>
       </c>
-      <c r="G51" s="9" t="s">
-        <v>1034</v>
-      </c>
       <c r="H51" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I51" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J51" s="11"/>
       <c r="K51" s="11" t="s">
@@ -24295,27 +24317,27 @@
     </row>
     <row r="52" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A52" s="9" t="s">
-        <v>1449</v>
-      </c>
-      <c r="B52" s="9"/>
+        <v>1447</v>
+      </c>
+      <c r="B52" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C52" s="9"/>
-      <c r="D52" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>988</v>
+      <c r="D52" s="9"/>
+      <c r="E52" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F52" s="9" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G52" s="9" t="s">
         <v>1035</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>1036</v>
-      </c>
       <c r="H52" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I52" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J52" s="11"/>
       <c r="K52" s="11" t="s">
@@ -24324,27 +24346,27 @@
     </row>
     <row r="53" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A53" s="9" t="s">
-        <v>1450</v>
-      </c>
-      <c r="B53" s="9"/>
+        <v>1448</v>
+      </c>
+      <c r="B53" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C53" s="9"/>
-      <c r="D53" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>1854</v>
+      <c r="D53" s="9"/>
+      <c r="E53" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="H53" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I53" s="9" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="11" t="s">
@@ -24353,30 +24375,30 @@
     </row>
     <row r="54" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A54" s="9" t="s">
-        <v>1451</v>
-      </c>
-      <c r="B54" s="9"/>
+        <v>1449</v>
+      </c>
+      <c r="B54" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C54" s="9"/>
-      <c r="D54" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E54" s="10" t="s">
-        <v>1055</v>
+      <c r="D54" s="9"/>
+      <c r="E54" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F54" s="9" t="s">
+        <v>1061</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>1062</v>
       </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I54" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J54" s="11" t="s">
         <v>1063</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I54" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J54" s="11" t="s">
-        <v>1064</v>
       </c>
       <c r="K54" s="11" t="s">
         <v>719</v>
@@ -24384,27 +24406,27 @@
     </row>
     <row r="55" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A55" s="9" t="s">
-        <v>1452</v>
-      </c>
-      <c r="B55" s="9"/>
+        <v>1450</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C55" s="9"/>
-      <c r="D55" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E55" s="10" t="s">
-        <v>988</v>
+      <c r="D55" s="9"/>
+      <c r="E55" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F55" s="9" t="s">
+        <v>1036</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>1037</v>
       </c>
-      <c r="G55" s="9" t="s">
-        <v>1038</v>
-      </c>
       <c r="H55" s="9" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="I55" s="9" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="J55" s="11"/>
       <c r="K55" s="11" t="s">
@@ -24413,27 +24435,27 @@
     </row>
     <row r="56" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A56" s="9" t="s">
-        <v>1453</v>
-      </c>
-      <c r="B56" s="9"/>
+        <v>1451</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C56" s="9"/>
-      <c r="D56" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>988</v>
+      <c r="D56" s="9"/>
+      <c r="E56" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F56" s="9" t="s">
+        <v>1038</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>1039</v>
       </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
+        <v>990</v>
+      </c>
+      <c r="I56" s="9" t="s">
         <v>1040</v>
-      </c>
-      <c r="H56" s="9" t="s">
-        <v>991</v>
-      </c>
-      <c r="I56" s="9" t="s">
-        <v>1041</v>
       </c>
       <c r="J56" s="11"/>
       <c r="K56" s="11" t="s">
@@ -24442,30 +24464,30 @@
     </row>
     <row r="57" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A57" s="9" t="s">
-        <v>1454</v>
-      </c>
-      <c r="B57" s="9"/>
+        <v>1452</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>1287</v>
+      </c>
       <c r="C57" s="9"/>
-      <c r="D57" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E57" s="10" t="s">
+      <c r="D57" s="9"/>
+      <c r="E57" s="9" t="s">
+        <v>1021</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>1288</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>1289</v>
       </c>
-      <c r="F57" s="9" t="s">
+      <c r="H57" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="I57" s="9" t="s">
+        <v>1040</v>
+      </c>
+      <c r="J57" s="11" t="s">
         <v>1290</v>
-      </c>
-      <c r="G57" s="9" t="s">
-        <v>1291</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I57" s="9" t="s">
-        <v>1041</v>
-      </c>
-      <c r="J57" s="11" t="s">
-        <v>1292</v>
       </c>
       <c r="K57" s="11" t="s">
         <v>719</v>
@@ -24473,27 +24495,27 @@
     </row>
     <row r="58" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A58" s="9" t="s">
-        <v>1455</v>
-      </c>
-      <c r="B58" s="9"/>
+        <v>1453</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C58" s="9"/>
-      <c r="D58" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>988</v>
+      <c r="D58" s="9"/>
+      <c r="E58" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>1598</v>
+        <v>1596</v>
       </c>
       <c r="G58" s="9" t="s">
+        <v>1041</v>
+      </c>
+      <c r="H58" s="9" t="s">
+        <v>1030</v>
+      </c>
+      <c r="I58" s="9" t="s">
         <v>1042</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>1031</v>
-      </c>
-      <c r="I58" s="9" t="s">
-        <v>1043</v>
       </c>
       <c r="J58" s="11"/>
       <c r="K58" s="11" t="s">
@@ -24502,24 +24524,24 @@
     </row>
     <row r="59" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A59" s="9" t="s">
-        <v>1456</v>
-      </c>
-      <c r="B59" s="9"/>
+        <v>1454</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C59" s="9"/>
-      <c r="D59" s="9" t="s">
-        <v>1022</v>
-      </c>
-      <c r="E59" s="10" t="s">
-        <v>1854</v>
+      <c r="D59" s="9"/>
+      <c r="E59" s="9" t="s">
+        <v>1021</v>
       </c>
       <c r="F59" s="9" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="G59" s="9" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I59" s="9"/>
       <c r="J59" s="11"/>
@@ -24529,27 +24551,27 @@
     </row>
     <row r="60" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A60" s="9" t="s">
-        <v>1457</v>
-      </c>
-      <c r="B60" s="9"/>
+        <v>1455</v>
+      </c>
+      <c r="B60" s="10" t="s">
+        <v>1856</v>
+      </c>
       <c r="C60" s="9"/>
-      <c r="D60" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E60" s="10" t="s">
-        <v>1858</v>
+      <c r="D60" s="9"/>
+      <c r="E60" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F60" s="9" t="s">
+        <v>1221</v>
+      </c>
+      <c r="G60" s="9" t="s">
+        <v>1222</v>
+      </c>
+      <c r="H60" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I60" s="9" t="s">
         <v>1223</v>
-      </c>
-      <c r="G60" s="9" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H60" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I60" s="9" t="s">
-        <v>1225</v>
       </c>
       <c r="J60" s="11"/>
       <c r="K60" s="11" t="s">
@@ -24558,27 +24580,27 @@
     </row>
     <row r="61" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A61" s="9" t="s">
-        <v>1458</v>
-      </c>
-      <c r="B61" s="9"/>
+        <v>1456</v>
+      </c>
+      <c r="B61" s="10" t="s">
+        <v>1856</v>
+      </c>
       <c r="C61" s="9"/>
-      <c r="D61" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E61" s="10" t="s">
-        <v>1858</v>
+      <c r="D61" s="9"/>
+      <c r="E61" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F61" s="10" t="s">
+        <v>1224</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>1225</v>
+      </c>
+      <c r="H61" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="I61" s="10" t="s">
         <v>1226</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>1227</v>
-      </c>
-      <c r="H61" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I61" s="10" t="s">
-        <v>1228</v>
       </c>
       <c r="J61" s="11"/>
       <c r="K61" s="11" t="s">
@@ -24587,30 +24609,30 @@
     </row>
     <row r="62" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A62" s="9" t="s">
-        <v>1459</v>
-      </c>
-      <c r="B62" s="9"/>
+        <v>1457</v>
+      </c>
+      <c r="B62" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C62" s="9"/>
-      <c r="D62" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E62" s="10" t="s">
-        <v>1854</v>
+      <c r="D62" s="9"/>
+      <c r="E62" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F62" s="10" t="s">
+        <v>1250</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>1251</v>
+      </c>
+      <c r="H62" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I62" s="10" t="s">
         <v>1252</v>
       </c>
-      <c r="G62" s="10" t="s">
+      <c r="J62" s="11" t="s">
         <v>1253</v>
-      </c>
-      <c r="H62" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I62" s="10" t="s">
-        <v>1254</v>
-      </c>
-      <c r="J62" s="11" t="s">
-        <v>1255</v>
       </c>
       <c r="K62" s="11" t="s">
         <v>719</v>
@@ -24618,25 +24640,25 @@
     </row>
     <row r="63" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A63" s="9" t="s">
-        <v>1460</v>
-      </c>
-      <c r="B63" s="9"/>
+        <v>1458</v>
+      </c>
+      <c r="B63" s="10"/>
       <c r="C63" s="9"/>
-      <c r="D63" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E63" s="10"/>
+      <c r="D63" s="9"/>
+      <c r="E63" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="F63" s="10" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="H63" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="J63" s="11"/>
       <c r="K63" s="11" t="s">
@@ -24645,28 +24667,28 @@
     </row>
     <row r="64" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A64" s="9" t="s">
-        <v>1461</v>
-      </c>
-      <c r="B64" s="9"/>
+        <v>1459</v>
+      </c>
+      <c r="B64" s="10"/>
       <c r="C64" s="9"/>
-      <c r="D64" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E64" s="10"/>
+      <c r="D64" s="9"/>
+      <c r="E64" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="F64" s="10" t="s">
+        <v>1327</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>1328</v>
+      </c>
+      <c r="H64" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>1273</v>
+      </c>
+      <c r="J64" s="11" t="s">
         <v>1329</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>1330</v>
-      </c>
-      <c r="H64" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>1275</v>
-      </c>
-      <c r="J64" s="11" t="s">
-        <v>1331</v>
       </c>
       <c r="K64" s="11" t="s">
         <v>719</v>
@@ -24674,24 +24696,24 @@
     </row>
     <row r="65" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A65" s="9" t="s">
-        <v>1462</v>
-      </c>
-      <c r="B65" s="9"/>
+        <v>1460</v>
+      </c>
+      <c r="B65" s="10" t="s">
+        <v>1856</v>
+      </c>
       <c r="C65" s="9"/>
-      <c r="D65" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>1858</v>
+      <c r="D65" s="9"/>
+      <c r="E65" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="H65" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I65" s="10"/>
       <c r="J65" s="11"/>
@@ -24701,25 +24723,25 @@
     </row>
     <row r="66" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A66" s="9" t="s">
-        <v>1463</v>
-      </c>
-      <c r="B66" s="9"/>
+        <v>1461</v>
+      </c>
+      <c r="B66" s="10"/>
       <c r="C66" s="9"/>
-      <c r="D66" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E66" s="10"/>
+      <c r="D66" s="9"/>
+      <c r="E66" s="9" t="s">
+        <v>1043</v>
+      </c>
       <c r="F66" s="10" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="H66" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="J66" s="11"/>
       <c r="K66" s="11" t="s">
@@ -24728,27 +24750,27 @@
     </row>
     <row r="67" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A67" s="9" t="s">
-        <v>1464</v>
-      </c>
-      <c r="B67" s="9"/>
+        <v>1462</v>
+      </c>
+      <c r="B67" s="10" t="s">
+        <v>1856</v>
+      </c>
       <c r="C67" s="9"/>
-      <c r="D67" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E67" s="10" t="s">
-        <v>1858</v>
+      <c r="D67" s="9"/>
+      <c r="E67" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F67" s="9" t="s">
+        <v>1229</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>1230</v>
+      </c>
+      <c r="H67" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I67" s="9" t="s">
         <v>1231</v>
-      </c>
-      <c r="G67" s="9" t="s">
-        <v>1232</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I67" s="9" t="s">
-        <v>1233</v>
       </c>
       <c r="J67" s="11"/>
       <c r="K67" s="11" t="s">
@@ -24757,27 +24779,27 @@
     </row>
     <row r="68" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A68" s="9" t="s">
-        <v>1465</v>
-      </c>
-      <c r="B68" s="9"/>
+        <v>1463</v>
+      </c>
+      <c r="B68" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C68" s="9"/>
-      <c r="D68" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E68" s="10" t="s">
-        <v>1854</v>
+      <c r="D68" s="9"/>
+      <c r="E68" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J68" s="11"/>
       <c r="K68" s="11" t="s">
@@ -24786,27 +24808,27 @@
     </row>
     <row r="69" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A69" s="9" t="s">
-        <v>1466</v>
-      </c>
-      <c r="B69" s="9"/>
+        <v>1464</v>
+      </c>
+      <c r="B69" s="10" t="s">
+        <v>1047</v>
+      </c>
       <c r="C69" s="9"/>
-      <c r="D69" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E69" s="10" t="s">
+      <c r="D69" s="9"/>
+      <c r="E69" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F69" s="9" t="s">
         <v>1048</v>
       </c>
-      <c r="F69" s="9" t="s">
+      <c r="G69" s="9" t="s">
         <v>1049</v>
       </c>
-      <c r="G69" s="9" t="s">
+      <c r="H69" s="9" t="s">
         <v>1050</v>
       </c>
-      <c r="H69" s="9" t="s">
+      <c r="I69" s="9" t="s">
         <v>1051</v>
-      </c>
-      <c r="I69" s="9" t="s">
-        <v>1052</v>
       </c>
       <c r="J69" s="11"/>
       <c r="K69" s="11" t="s">
@@ -24815,27 +24837,27 @@
     </row>
     <row r="70" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A70" s="9" t="s">
-        <v>1467</v>
-      </c>
-      <c r="B70" s="9"/>
+        <v>1465</v>
+      </c>
+      <c r="B70" s="10" t="s">
+        <v>1047</v>
+      </c>
       <c r="C70" s="9"/>
-      <c r="D70" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E70" s="10" t="s">
-        <v>1048</v>
+      <c r="D70" s="9"/>
+      <c r="E70" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F70" s="9" t="s">
+        <v>1052</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>1053</v>
       </c>
-      <c r="G70" s="9" t="s">
-        <v>1054</v>
-      </c>
       <c r="H70" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I70" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J70" s="11"/>
       <c r="K70" s="11" t="s">
@@ -24844,27 +24866,27 @@
     </row>
     <row r="71" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A71" s="9" t="s">
-        <v>1468</v>
-      </c>
-      <c r="B71" s="9"/>
+        <v>1466</v>
+      </c>
+      <c r="B71" s="10" t="s">
+        <v>1280</v>
+      </c>
       <c r="C71" s="9"/>
-      <c r="D71" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E71" s="10" t="s">
+      <c r="D71" s="9"/>
+      <c r="E71" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F71" s="9" t="s">
+        <v>1281</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>1282</v>
       </c>
-      <c r="F71" s="9" t="s">
+      <c r="H71" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I71" s="9" t="s">
         <v>1283</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>1284</v>
-      </c>
-      <c r="H71" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I71" s="9" t="s">
-        <v>1285</v>
       </c>
       <c r="J71" s="11"/>
       <c r="K71" s="11" t="s">
@@ -24873,30 +24895,30 @@
     </row>
     <row r="72" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A72" s="9" t="s">
-        <v>1469</v>
-      </c>
-      <c r="B72" s="9"/>
+        <v>1467</v>
+      </c>
+      <c r="B72" s="10" t="s">
+        <v>1280</v>
+      </c>
       <c r="C72" s="9"/>
-      <c r="D72" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E72" s="10" t="s">
-        <v>1282</v>
+      <c r="D72" s="9"/>
+      <c r="E72" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F72" s="9" t="s">
+        <v>1284</v>
+      </c>
+      <c r="G72" s="9" t="s">
+        <v>1285</v>
+      </c>
+      <c r="H72" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I72" s="9" t="s">
+        <v>1283</v>
+      </c>
+      <c r="J72" s="11" t="s">
         <v>1286</v>
-      </c>
-      <c r="G72" s="9" t="s">
-        <v>1287</v>
-      </c>
-      <c r="H72" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I72" s="9" t="s">
-        <v>1285</v>
-      </c>
-      <c r="J72" s="11" t="s">
-        <v>1288</v>
       </c>
       <c r="K72" s="11" t="s">
         <v>719</v>
@@ -24904,27 +24926,27 @@
     </row>
     <row r="73" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A73" s="9" t="s">
-        <v>1470</v>
-      </c>
-      <c r="B73" s="9"/>
+        <v>1468</v>
+      </c>
+      <c r="B73" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C73" s="9"/>
-      <c r="D73" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>1854</v>
+      <c r="D73" s="9"/>
+      <c r="E73" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F73" s="9" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="H73" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I73" s="9" t="s">
         <v>1051</v>
-      </c>
-      <c r="I73" s="9" t="s">
-        <v>1052</v>
       </c>
       <c r="J73" s="11"/>
       <c r="K73" s="11" t="s">
@@ -24933,27 +24955,27 @@
     </row>
     <row r="74" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A74" s="9" t="s">
-        <v>1471</v>
-      </c>
-      <c r="B74" s="9"/>
+        <v>1469</v>
+      </c>
+      <c r="B74" s="10" t="s">
+        <v>1856</v>
+      </c>
       <c r="C74" s="9"/>
-      <c r="D74" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E74" s="10" t="s">
-        <v>1858</v>
+      <c r="D74" s="9"/>
+      <c r="E74" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F74" s="9" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="H74" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I74" s="9" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="J74" s="11"/>
       <c r="K74" s="11" t="s">
@@ -24962,30 +24984,30 @@
     </row>
     <row r="75" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A75" s="9" t="s">
-        <v>1472</v>
-      </c>
-      <c r="B75" s="9"/>
+        <v>1470</v>
+      </c>
+      <c r="B75" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C75" s="9"/>
-      <c r="D75" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E75" s="10" t="s">
-        <v>1854</v>
+      <c r="D75" s="9"/>
+      <c r="E75" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F75" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="G75" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="H75" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I75" s="9" t="s">
+        <v>1231</v>
+      </c>
+      <c r="J75" s="11" t="s">
         <v>1260</v>
-      </c>
-      <c r="G75" s="9" t="s">
-        <v>1261</v>
-      </c>
-      <c r="H75" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I75" s="9" t="s">
-        <v>1233</v>
-      </c>
-      <c r="J75" s="11" t="s">
-        <v>1262</v>
       </c>
       <c r="K75" s="11" t="s">
         <v>719</v>
@@ -24993,30 +25015,30 @@
     </row>
     <row r="76" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A76" s="9" t="s">
-        <v>1473</v>
-      </c>
-      <c r="B76" s="9"/>
+        <v>1471</v>
+      </c>
+      <c r="B76" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C76" s="9"/>
-      <c r="D76" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E76" s="10" t="s">
-        <v>1854</v>
+      <c r="D76" s="9"/>
+      <c r="E76" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F76" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="G76" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="H76" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I76" s="9" t="s">
         <v>1263</v>
       </c>
-      <c r="G76" s="9" t="s">
-        <v>1264</v>
-      </c>
-      <c r="H76" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I76" s="9" t="s">
-        <v>1265</v>
-      </c>
       <c r="J76" s="11" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="K76" s="11" t="s">
         <v>719</v>
@@ -25024,27 +25046,27 @@
     </row>
     <row r="77" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A77" s="9" t="s">
-        <v>1474</v>
-      </c>
-      <c r="B77" s="9"/>
+        <v>1472</v>
+      </c>
+      <c r="B77" s="10" t="s">
+        <v>1856</v>
+      </c>
       <c r="C77" s="9"/>
-      <c r="D77" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E77" s="10" t="s">
-        <v>1858</v>
+      <c r="D77" s="9"/>
+      <c r="E77" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F77" s="9" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="H77" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I77" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J77" s="11"/>
       <c r="K77" s="11" t="s">
@@ -25053,27 +25075,27 @@
     </row>
     <row r="78" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A78" s="9" t="s">
-        <v>1475</v>
-      </c>
-      <c r="B78" s="9"/>
+        <v>1473</v>
+      </c>
+      <c r="B78" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C78" s="9"/>
-      <c r="D78" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E78" s="10" t="s">
-        <v>1854</v>
+      <c r="D78" s="9"/>
+      <c r="E78" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F78" s="9" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="H78" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I78" s="9" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="J78" s="11"/>
       <c r="K78" s="11" t="s">
@@ -25082,27 +25104,27 @@
     </row>
     <row r="79" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A79" s="9" t="s">
-        <v>1476</v>
-      </c>
-      <c r="B79" s="9"/>
+        <v>1474</v>
+      </c>
+      <c r="B79" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C79" s="9"/>
-      <c r="D79" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>1854</v>
+      <c r="D79" s="9"/>
+      <c r="E79" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F79" s="9" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="G79" s="9" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="H79" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I79" s="9" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="J79" s="11"/>
       <c r="K79" s="11" t="s">
@@ -25111,30 +25133,30 @@
     </row>
     <row r="80" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A80" s="9" t="s">
-        <v>1477</v>
-      </c>
-      <c r="B80" s="9"/>
+        <v>1475</v>
+      </c>
+      <c r="B80" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C80" s="9"/>
-      <c r="D80" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E80" s="10" t="s">
-        <v>1854</v>
+      <c r="D80" s="9"/>
+      <c r="E80" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F80" s="9" t="s">
+        <v>1268</v>
+      </c>
+      <c r="G80" s="9" t="s">
+        <v>1269</v>
+      </c>
+      <c r="H80" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I80" s="9" t="s">
+        <v>1046</v>
+      </c>
+      <c r="J80" s="11" t="s">
         <v>1270</v>
-      </c>
-      <c r="G80" s="9" t="s">
-        <v>1271</v>
-      </c>
-      <c r="H80" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I80" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="J80" s="11" t="s">
-        <v>1272</v>
       </c>
       <c r="K80" s="11" t="s">
         <v>719</v>
@@ -25142,27 +25164,27 @@
     </row>
     <row r="81" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A81" s="9" t="s">
-        <v>1478</v>
-      </c>
-      <c r="B81" s="9"/>
+        <v>1476</v>
+      </c>
+      <c r="B81" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C81" s="9"/>
-      <c r="D81" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E81" s="10" t="s">
-        <v>1854</v>
+      <c r="D81" s="9"/>
+      <c r="E81" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F81" s="9" t="s">
+        <v>1271</v>
+      </c>
+      <c r="G81" s="9" t="s">
+        <v>1272</v>
+      </c>
+      <c r="H81" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I81" s="9" t="s">
         <v>1273</v>
-      </c>
-      <c r="G81" s="9" t="s">
-        <v>1274</v>
-      </c>
-      <c r="H81" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I81" s="9" t="s">
-        <v>1275</v>
       </c>
       <c r="J81" s="11"/>
       <c r="K81" s="11" t="s">
@@ -25171,27 +25193,27 @@
     </row>
     <row r="82" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A82" s="9" t="s">
-        <v>1479</v>
-      </c>
-      <c r="B82" s="9"/>
+        <v>1477</v>
+      </c>
+      <c r="B82" s="10" t="s">
+        <v>987</v>
+      </c>
       <c r="C82" s="9"/>
-      <c r="D82" s="9" t="s">
+      <c r="D82" s="9"/>
+      <c r="E82" s="9" t="s">
+        <v>1043</v>
+      </c>
+      <c r="F82" s="9" t="s">
         <v>1044</v>
       </c>
-      <c r="E82" s="10" t="s">
-        <v>988</v>
-      </c>
-      <c r="F82" s="9" t="s">
+      <c r="G82" s="9" t="s">
         <v>1045</v>
       </c>
-      <c r="G82" s="9" t="s">
+      <c r="H82" s="9" t="s">
+        <v>994</v>
+      </c>
+      <c r="I82" s="9" t="s">
         <v>1046</v>
-      </c>
-      <c r="H82" s="9" t="s">
-        <v>995</v>
-      </c>
-      <c r="I82" s="9" t="s">
-        <v>1047</v>
       </c>
       <c r="J82" s="11"/>
       <c r="K82" s="11" t="s">
@@ -25200,25 +25222,25 @@
     </row>
     <row r="83" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A83" s="9" t="s">
-        <v>1480</v>
-      </c>
-      <c r="B83" s="9"/>
+        <v>1478</v>
+      </c>
+      <c r="B83" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C83" s="9"/>
-      <c r="D83" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E83" s="10" t="s">
-        <v>1854</v>
+      <c r="D83" s="9"/>
+      <c r="E83" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="G83" s="9"/>
       <c r="H83" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I83" s="9" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="J83" s="11"/>
       <c r="K83" s="11" t="s">
@@ -25227,27 +25249,27 @@
     </row>
     <row r="84" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A84" s="9" t="s">
-        <v>1481</v>
-      </c>
-      <c r="B84" s="9"/>
+        <v>1479</v>
+      </c>
+      <c r="B84" s="10" t="s">
+        <v>1857</v>
+      </c>
       <c r="C84" s="9"/>
-      <c r="D84" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E84" s="10" t="s">
-        <v>1859</v>
+      <c r="D84" s="9"/>
+      <c r="E84" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="H84" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I84" s="9" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="J84" s="11"/>
       <c r="K84" s="11" t="s">
@@ -25256,27 +25278,27 @@
     </row>
     <row r="85" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A85" s="9" t="s">
-        <v>1482</v>
-      </c>
-      <c r="B85" s="9"/>
+        <v>1480</v>
+      </c>
+      <c r="B85" s="10" t="s">
+        <v>1852</v>
+      </c>
       <c r="C85" s="9"/>
-      <c r="D85" s="9" t="s">
-        <v>1044</v>
-      </c>
-      <c r="E85" s="10" t="s">
-        <v>1854</v>
+      <c r="D85" s="9"/>
+      <c r="E85" s="9" t="s">
+        <v>1043</v>
       </c>
       <c r="F85" s="9" t="s">
+        <v>1275</v>
+      </c>
+      <c r="G85" s="9" t="s">
+        <v>1276</v>
+      </c>
+      <c r="H85" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I85" s="9" t="s">
         <v>1277</v>
-      </c>
-      <c r="G85" s="9" t="s">
-        <v>1278</v>
-      </c>
-      <c r="H85" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I85" s="9" t="s">
-        <v>1279</v>
       </c>
       <c r="J85" s="11"/>
       <c r="K85" s="11" t="s">
@@ -25285,27 +25307,27 @@
     </row>
     <row r="86" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A86" s="9" t="s">
-        <v>1483</v>
-      </c>
-      <c r="B86" s="9"/>
+        <v>1481</v>
+      </c>
+      <c r="B86" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C86" s="9"/>
-      <c r="D86" s="9" t="s">
+      <c r="D86" s="9"/>
+      <c r="E86" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F86" s="9" t="s">
+        <v>1139</v>
+      </c>
+      <c r="G86" s="9" t="s">
         <v>1140</v>
       </c>
-      <c r="E86" s="10" t="s">
-        <v>1293</v>
-      </c>
-      <c r="F86" s="9" t="s">
+      <c r="H86" s="9" t="s">
         <v>1141</v>
       </c>
-      <c r="G86" s="9" t="s">
+      <c r="I86" s="9" t="s">
         <v>1142</v>
-      </c>
-      <c r="H86" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I86" s="9" t="s">
-        <v>1144</v>
       </c>
       <c r="J86" s="11"/>
       <c r="K86" s="11" t="s">
@@ -25314,25 +25336,25 @@
     </row>
     <row r="87" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A87" s="9" t="s">
-        <v>1484</v>
-      </c>
-      <c r="B87" s="9"/>
+        <v>1482</v>
+      </c>
+      <c r="B87" s="10"/>
       <c r="C87" s="9"/>
-      <c r="D87" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E87" s="10"/>
+      <c r="D87" s="9"/>
+      <c r="E87" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F87" s="10" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="G87" s="10" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="H87" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I87" s="10" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J87" s="11"/>
       <c r="K87" s="11" t="s">
@@ -25341,25 +25363,25 @@
     </row>
     <row r="88" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A88" s="9" t="s">
-        <v>1485</v>
-      </c>
-      <c r="B88" s="9"/>
+        <v>1483</v>
+      </c>
+      <c r="B88" s="10"/>
       <c r="C88" s="9"/>
-      <c r="D88" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E88" s="10"/>
+      <c r="D88" s="9"/>
+      <c r="E88" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F88" s="10" t="s">
+        <v>1334</v>
+      </c>
+      <c r="G88" s="10" t="s">
+        <v>1335</v>
+      </c>
+      <c r="H88" s="9" t="s">
         <v>1336</v>
       </c>
-      <c r="G88" s="10" t="s">
+      <c r="I88" s="10" t="s">
         <v>1337</v>
-      </c>
-      <c r="H88" s="9" t="s">
-        <v>1338</v>
-      </c>
-      <c r="I88" s="10" t="s">
-        <v>1339</v>
       </c>
       <c r="J88" s="11"/>
       <c r="K88" s="11" t="s">
@@ -25368,22 +25390,22 @@
     </row>
     <row r="89" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A89" s="9" t="s">
-        <v>1486</v>
-      </c>
-      <c r="B89" s="9"/>
+        <v>1484</v>
+      </c>
+      <c r="B89" s="10"/>
       <c r="C89" s="9"/>
-      <c r="D89" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E89" s="10"/>
+      <c r="D89" s="9"/>
+      <c r="E89" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F89" s="10" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="H89" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I89" s="10"/>
       <c r="J89" s="11"/>
@@ -25393,25 +25415,25 @@
     </row>
     <row r="90" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A90" s="9" t="s">
-        <v>1487</v>
-      </c>
-      <c r="B90" s="9"/>
+        <v>1485</v>
+      </c>
+      <c r="B90" s="10"/>
       <c r="C90" s="9"/>
-      <c r="D90" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E90" s="10"/>
+      <c r="D90" s="9"/>
+      <c r="E90" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F90" s="10" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I90" s="10" t="s">
-        <v>1644</v>
+        <v>1642</v>
       </c>
       <c r="J90" s="11"/>
       <c r="K90" s="11" t="s">
@@ -25420,22 +25442,22 @@
     </row>
     <row r="91" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A91" s="9" t="s">
-        <v>1488</v>
-      </c>
-      <c r="B91" s="9"/>
+        <v>1486</v>
+      </c>
+      <c r="B91" s="10"/>
       <c r="C91" s="9"/>
-      <c r="D91" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E91" s="10"/>
+      <c r="D91" s="9"/>
+      <c r="E91" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F91" s="10" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H91" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I91" s="10"/>
       <c r="J91" s="11"/>
@@ -25445,28 +25467,28 @@
     </row>
     <row r="92" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A92" s="9" t="s">
-        <v>1489</v>
-      </c>
-      <c r="B92" s="9"/>
+        <v>1487</v>
+      </c>
+      <c r="B92" s="10"/>
       <c r="C92" s="9"/>
-      <c r="D92" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E92" s="10"/>
+      <c r="D92" s="9"/>
+      <c r="E92" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F92" s="10" t="s">
+        <v>1343</v>
+      </c>
+      <c r="G92" s="10" t="s">
+        <v>1344</v>
+      </c>
+      <c r="H92" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I92" s="10" t="s">
         <v>1345</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="J92" s="11" t="s">
         <v>1346</v>
-      </c>
-      <c r="H92" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I92" s="10" t="s">
-        <v>1347</v>
-      </c>
-      <c r="J92" s="11" t="s">
-        <v>1348</v>
       </c>
       <c r="K92" s="11" t="s">
         <v>719</v>
@@ -25474,25 +25496,25 @@
     </row>
     <row r="93" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A93" s="9" t="s">
-        <v>1490</v>
-      </c>
-      <c r="B93" s="9"/>
+        <v>1488</v>
+      </c>
+      <c r="B93" s="10"/>
       <c r="C93" s="9"/>
-      <c r="D93" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E93" s="10"/>
+      <c r="D93" s="9"/>
+      <c r="E93" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F93" s="10" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="G93" s="10" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="H93" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I93" s="10" t="s">
-        <v>1599</v>
+        <v>1597</v>
       </c>
       <c r="J93" s="11"/>
       <c r="K93" s="11" t="s">
@@ -25501,25 +25523,25 @@
     </row>
     <row r="94" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A94" s="9" t="s">
-        <v>1491</v>
-      </c>
-      <c r="B94" s="9"/>
+        <v>1489</v>
+      </c>
+      <c r="B94" s="10"/>
       <c r="C94" s="9"/>
-      <c r="D94" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E94" s="10"/>
+      <c r="D94" s="9"/>
+      <c r="E94" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F94" s="9" t="s">
+        <v>1349</v>
+      </c>
+      <c r="G94" s="9" t="s">
+        <v>1350</v>
+      </c>
+      <c r="H94" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I94" s="9" t="s">
         <v>1351</v>
-      </c>
-      <c r="G94" s="9" t="s">
-        <v>1352</v>
-      </c>
-      <c r="H94" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I94" s="9" t="s">
-        <v>1353</v>
       </c>
       <c r="J94" s="11"/>
       <c r="K94" s="11" t="s">
@@ -25528,27 +25550,27 @@
     </row>
     <row r="95" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A95" s="9" t="s">
-        <v>1492</v>
-      </c>
-      <c r="B95" s="9"/>
+        <v>1490</v>
+      </c>
+      <c r="B95" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C95" s="9"/>
-      <c r="D95" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E95" s="10" t="s">
+      <c r="D95" s="9"/>
+      <c r="E95" s="9" t="s">
+        <v>1138</v>
+      </c>
+      <c r="F95" s="9" t="s">
+        <v>1292</v>
+      </c>
+      <c r="G95" s="9" t="s">
         <v>1293</v>
       </c>
-      <c r="F95" s="9" t="s">
+      <c r="H95" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="I95" s="9" t="s">
         <v>1294</v>
-      </c>
-      <c r="G95" s="9" t="s">
-        <v>1295</v>
-      </c>
-      <c r="H95" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I95" s="9" t="s">
-        <v>1296</v>
       </c>
       <c r="J95" s="11"/>
       <c r="K95" s="11" t="s">
@@ -25557,22 +25579,22 @@
     </row>
     <row r="96" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A96" s="9" t="s">
-        <v>1493</v>
-      </c>
-      <c r="B96" s="9"/>
+        <v>1491</v>
+      </c>
+      <c r="B96" s="10"/>
       <c r="C96" s="9"/>
-      <c r="D96" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E96" s="10"/>
+      <c r="D96" s="9"/>
+      <c r="E96" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F96" s="9" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="G96" s="9" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="H96" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I96" s="9"/>
       <c r="J96" s="11"/>
@@ -25582,25 +25604,25 @@
     </row>
     <row r="97" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A97" s="9" t="s">
-        <v>1494</v>
-      </c>
-      <c r="B97" s="9"/>
+        <v>1492</v>
+      </c>
+      <c r="B97" s="10"/>
       <c r="C97" s="9"/>
-      <c r="D97" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E97" s="10"/>
+      <c r="D97" s="9"/>
+      <c r="E97" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F97" s="9" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="G97" s="9" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="H97" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I97" s="9" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="J97" s="11"/>
       <c r="K97" s="11" t="s">
@@ -25609,28 +25631,28 @@
     </row>
     <row r="98" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A98" s="9" t="s">
-        <v>1495</v>
-      </c>
-      <c r="B98" s="9"/>
+        <v>1493</v>
+      </c>
+      <c r="B98" s="10"/>
       <c r="C98" s="9"/>
-      <c r="D98" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E98" s="10"/>
+      <c r="D98" s="9"/>
+      <c r="E98" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F98" s="9" t="s">
+        <v>1356</v>
+      </c>
+      <c r="G98" s="9" t="s">
+        <v>1357</v>
+      </c>
+      <c r="H98" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I98" s="9" t="s">
         <v>1358</v>
       </c>
-      <c r="G98" s="9" t="s">
+      <c r="J98" s="11" t="s">
         <v>1359</v>
-      </c>
-      <c r="H98" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I98" s="9" t="s">
-        <v>1360</v>
-      </c>
-      <c r="J98" s="11" t="s">
-        <v>1361</v>
       </c>
       <c r="K98" s="11" t="s">
         <v>719</v>
@@ -25638,25 +25660,25 @@
     </row>
     <row r="99" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A99" s="9" t="s">
-        <v>1496</v>
-      </c>
-      <c r="B99" s="9"/>
+        <v>1494</v>
+      </c>
+      <c r="B99" s="10"/>
       <c r="C99" s="9"/>
-      <c r="D99" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E99" s="10"/>
+      <c r="D99" s="9"/>
+      <c r="E99" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F99" s="9" t="s">
+        <v>1360</v>
+      </c>
+      <c r="G99" s="9" t="s">
+        <v>1361</v>
+      </c>
+      <c r="H99" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I99" s="9" t="s">
         <v>1362</v>
-      </c>
-      <c r="G99" s="9" t="s">
-        <v>1363</v>
-      </c>
-      <c r="H99" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I99" s="9" t="s">
-        <v>1364</v>
       </c>
       <c r="J99" s="11"/>
       <c r="K99" s="11" t="s">
@@ -25665,25 +25687,25 @@
     </row>
     <row r="100" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A100" s="9" t="s">
-        <v>1497</v>
-      </c>
-      <c r="B100" s="9"/>
+        <v>1495</v>
+      </c>
+      <c r="B100" s="10"/>
       <c r="C100" s="9"/>
-      <c r="D100" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E100" s="10"/>
+      <c r="D100" s="9"/>
+      <c r="E100" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F100" s="9" t="s">
-        <v>1365</v>
+        <v>1363</v>
       </c>
       <c r="G100" s="9" t="s">
-        <v>1366</v>
+        <v>1364</v>
       </c>
       <c r="H100" s="9" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="I100" s="9" t="s">
-        <v>1364</v>
+        <v>1362</v>
       </c>
       <c r="J100" s="11"/>
       <c r="K100" s="11" t="s">
@@ -25692,22 +25714,22 @@
     </row>
     <row r="101" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A101" s="9" t="s">
-        <v>1498</v>
-      </c>
-      <c r="B101" s="9"/>
+        <v>1496</v>
+      </c>
+      <c r="B101" s="10"/>
       <c r="C101" s="9"/>
-      <c r="D101" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E101" s="10"/>
+      <c r="D101" s="9"/>
+      <c r="E101" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F101" s="9" t="s">
-        <v>1367</v>
+        <v>1365</v>
       </c>
       <c r="G101" s="9" t="s">
-        <v>1368</v>
+        <v>1366</v>
       </c>
       <c r="H101" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I101" s="9"/>
       <c r="J101" s="11"/>
@@ -25717,25 +25739,25 @@
     </row>
     <row r="102" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A102" s="9" t="s">
-        <v>1499</v>
-      </c>
-      <c r="B102" s="9"/>
+        <v>1497</v>
+      </c>
+      <c r="B102" s="10"/>
       <c r="C102" s="9"/>
-      <c r="D102" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E102" s="10"/>
+      <c r="D102" s="9"/>
+      <c r="E102" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F102" s="9" t="s">
-        <v>1369</v>
+        <v>1367</v>
       </c>
       <c r="G102" s="9" t="s">
-        <v>1370</v>
+        <v>1368</v>
       </c>
       <c r="H102" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I102" s="9" t="s">
-        <v>1373</v>
+        <v>1371</v>
       </c>
       <c r="J102" s="11"/>
       <c r="K102" s="11" t="s">
@@ -25744,25 +25766,25 @@
     </row>
     <row r="103" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A103" s="9" t="s">
-        <v>1500</v>
-      </c>
-      <c r="B103" s="9"/>
+        <v>1498</v>
+      </c>
+      <c r="B103" s="10"/>
       <c r="C103" s="9"/>
-      <c r="D103" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E103" s="10"/>
+      <c r="D103" s="9"/>
+      <c r="E103" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F103" s="9" t="s">
+        <v>1369</v>
+      </c>
+      <c r="G103" s="9" t="s">
+        <v>1370</v>
+      </c>
+      <c r="H103" s="9" t="s">
+        <v>1141</v>
+      </c>
+      <c r="I103" s="9" t="s">
         <v>1371</v>
-      </c>
-      <c r="G103" s="9" t="s">
-        <v>1372</v>
-      </c>
-      <c r="H103" s="9" t="s">
-        <v>1143</v>
-      </c>
-      <c r="I103" s="9" t="s">
-        <v>1373</v>
       </c>
       <c r="J103" s="11"/>
       <c r="K103" s="11" t="s">
@@ -25771,28 +25793,28 @@
     </row>
     <row r="104" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A104" s="9" t="s">
-        <v>1501</v>
-      </c>
-      <c r="B104" s="9"/>
+        <v>1499</v>
+      </c>
+      <c r="B104" s="10"/>
       <c r="C104" s="9"/>
-      <c r="D104" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E104" s="10"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F104" s="9" t="s">
+        <v>1372</v>
+      </c>
+      <c r="G104" s="9" t="s">
+        <v>1373</v>
+      </c>
+      <c r="H104" s="9" t="s">
+        <v>1001</v>
+      </c>
+      <c r="I104" s="9" t="s">
         <v>1374</v>
       </c>
-      <c r="G104" s="9" t="s">
+      <c r="J104" s="11" t="s">
         <v>1375</v>
-      </c>
-      <c r="H104" s="9" t="s">
-        <v>1002</v>
-      </c>
-      <c r="I104" s="9" t="s">
-        <v>1376</v>
-      </c>
-      <c r="J104" s="11" t="s">
-        <v>1377</v>
       </c>
       <c r="K104" s="11" t="s">
         <v>719</v>
@@ -25800,25 +25822,25 @@
     </row>
     <row r="105" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A105" s="9" t="s">
-        <v>1502</v>
-      </c>
-      <c r="B105" s="9"/>
+        <v>1500</v>
+      </c>
+      <c r="B105" s="10"/>
       <c r="C105" s="9"/>
-      <c r="D105" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E105" s="10"/>
+      <c r="D105" s="9"/>
+      <c r="E105" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F105" s="9" t="s">
+        <v>1376</v>
+      </c>
+      <c r="G105" s="9" t="s">
+        <v>1377</v>
+      </c>
+      <c r="H105" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I105" s="9" t="s">
         <v>1378</v>
-      </c>
-      <c r="G105" s="9" t="s">
-        <v>1379</v>
-      </c>
-      <c r="H105" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I105" s="9" t="s">
-        <v>1380</v>
       </c>
       <c r="J105" s="11"/>
       <c r="K105" s="11" t="s">
@@ -25827,25 +25849,25 @@
     </row>
     <row r="106" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A106" s="9" t="s">
-        <v>1503</v>
-      </c>
-      <c r="B106" s="9"/>
+        <v>1501</v>
+      </c>
+      <c r="B106" s="10"/>
       <c r="C106" s="9"/>
-      <c r="D106" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E106" s="10"/>
+      <c r="D106" s="9"/>
+      <c r="E106" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F106" s="9" t="s">
+        <v>1379</v>
+      </c>
+      <c r="G106" s="9" t="s">
+        <v>1380</v>
+      </c>
+      <c r="H106" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="I106" s="9" t="s">
         <v>1381</v>
-      </c>
-      <c r="G106" s="9" t="s">
-        <v>1382</v>
-      </c>
-      <c r="H106" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I106" s="9" t="s">
-        <v>1383</v>
       </c>
       <c r="J106" s="11"/>
       <c r="K106" s="11" t="s">
@@ -25854,25 +25876,25 @@
     </row>
     <row r="107" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A107" s="9" t="s">
-        <v>1504</v>
-      </c>
-      <c r="B107" s="9"/>
+        <v>1502</v>
+      </c>
+      <c r="B107" s="10"/>
       <c r="C107" s="9"/>
-      <c r="D107" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E107" s="10"/>
+      <c r="D107" s="9"/>
+      <c r="E107" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F107" s="9" t="s">
-        <v>1600</v>
+        <v>1598</v>
       </c>
       <c r="G107" s="9" t="s">
-        <v>1384</v>
+        <v>1382</v>
       </c>
       <c r="H107" s="9" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="I107" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J107" s="11"/>
       <c r="K107" s="11" t="s">
@@ -25881,28 +25903,28 @@
     </row>
     <row r="108" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A108" s="9" t="s">
-        <v>1505</v>
-      </c>
-      <c r="B108" s="9"/>
+        <v>1503</v>
+      </c>
+      <c r="B108" s="10"/>
       <c r="C108" s="9"/>
-      <c r="D108" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E108" s="10"/>
+      <c r="D108" s="9"/>
+      <c r="E108" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F108" s="9" t="s">
+        <v>1383</v>
+      </c>
+      <c r="G108" s="9" t="s">
+        <v>1384</v>
+      </c>
+      <c r="H108" s="9" t="s">
+        <v>1050</v>
+      </c>
+      <c r="I108" s="9" t="s">
+        <v>1142</v>
+      </c>
+      <c r="J108" s="11" t="s">
         <v>1385</v>
-      </c>
-      <c r="G108" s="9" t="s">
-        <v>1386</v>
-      </c>
-      <c r="H108" s="9" t="s">
-        <v>1051</v>
-      </c>
-      <c r="I108" s="9" t="s">
-        <v>1144</v>
-      </c>
-      <c r="J108" s="11" t="s">
-        <v>1387</v>
       </c>
       <c r="K108" s="11" t="s">
         <v>719</v>
@@ -25910,25 +25932,25 @@
     </row>
     <row r="109" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A109" s="9" t="s">
-        <v>1506</v>
-      </c>
-      <c r="B109" s="9"/>
+        <v>1504</v>
+      </c>
+      <c r="B109" s="10"/>
       <c r="C109" s="9"/>
-      <c r="D109" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E109" s="10"/>
+      <c r="D109" s="9"/>
+      <c r="E109" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F109" s="9" t="s">
+        <v>1386</v>
+      </c>
+      <c r="G109" s="9" t="s">
+        <v>1387</v>
+      </c>
+      <c r="H109" s="9" t="s">
+        <v>997</v>
+      </c>
+      <c r="I109" s="9" t="s">
         <v>1388</v>
-      </c>
-      <c r="G109" s="9" t="s">
-        <v>1389</v>
-      </c>
-      <c r="H109" s="9" t="s">
-        <v>998</v>
-      </c>
-      <c r="I109" s="9" t="s">
-        <v>1390</v>
       </c>
       <c r="J109" s="11"/>
       <c r="K109" s="11" t="s">
@@ -25937,25 +25959,25 @@
     </row>
     <row r="110" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A110" s="9" t="s">
-        <v>1507</v>
-      </c>
-      <c r="B110" s="9"/>
+        <v>1505</v>
+      </c>
+      <c r="B110" s="10"/>
       <c r="C110" s="9"/>
-      <c r="D110" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E110" s="10"/>
+      <c r="D110" s="9"/>
+      <c r="E110" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F110" s="9" t="s">
-        <v>1391</v>
+        <v>1389</v>
       </c>
       <c r="G110" s="9" t="s">
-        <v>1392</v>
+        <v>1390</v>
       </c>
       <c r="H110" s="9" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="I110" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J110" s="11"/>
       <c r="K110" s="11" t="s">
@@ -25964,25 +25986,25 @@
     </row>
     <row r="111" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A111" s="9" t="s">
-        <v>1508</v>
-      </c>
-      <c r="B111" s="9"/>
+        <v>1506</v>
+      </c>
+      <c r="B111" s="10"/>
       <c r="C111" s="9"/>
-      <c r="D111" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E111" s="10"/>
+      <c r="D111" s="9"/>
+      <c r="E111" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F111" s="9" t="s">
-        <v>1393</v>
+        <v>1391</v>
       </c>
       <c r="G111" s="9" t="s">
-        <v>1394</v>
+        <v>1392</v>
       </c>
       <c r="H111" s="9" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="I111" s="9" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="J111" s="11"/>
       <c r="K111" s="11" t="s">
@@ -25991,25 +26013,25 @@
     </row>
     <row r="112" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A112" s="9" t="s">
-        <v>1509</v>
-      </c>
-      <c r="B112" s="9"/>
+        <v>1507</v>
+      </c>
+      <c r="B112" s="10"/>
       <c r="C112" s="9"/>
-      <c r="D112" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E112" s="10"/>
+      <c r="D112" s="9"/>
+      <c r="E112" s="9" t="s">
+        <v>1138</v>
+      </c>
       <c r="F112" s="9" t="s">
-        <v>1395</v>
+        <v>1393</v>
       </c>
       <c r="G112" s="9" t="s">
-        <v>1396</v>
+        <v>1394</v>
       </c>
       <c r="H112" s="9" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="I112" s="9" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="J112" s="11"/>
       <c r="K112" s="11" t="s">
@@ -26018,24 +26040,24 @@
     </row>
     <row r="113" spans="1:11" ht="140.25" x14ac:dyDescent="0.2">
       <c r="A113" s="9" t="s">
-        <v>1510</v>
-      </c>
-      <c r="B113" s="9"/>
+        <v>1508</v>
+      </c>
+      <c r="B113" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C113" s="9"/>
-      <c r="D113" s="9" t="s">
+      <c r="D113" s="9"/>
+      <c r="E113" s="9" t="s">
+        <v>1064</v>
+      </c>
+      <c r="F113" s="9" t="s">
+        <v>1643</v>
+      </c>
+      <c r="G113" s="9" t="s">
+        <v>1644</v>
+      </c>
+      <c r="H113" s="9" t="s">
         <v>1065</v>
-      </c>
-      <c r="E113" s="10" t="s">
-        <v>1055</v>
-      </c>
-      <c r="F113" s="9" t="s">
-        <v>1645</v>
-      </c>
-      <c r="G113" s="9" t="s">
-        <v>1646</v>
-      </c>
-      <c r="H113" s="9" t="s">
-        <v>1066</v>
       </c>
       <c r="I113" s="9"/>
       <c r="J113" s="11"/>
@@ -26045,18 +26067,18 @@
     </row>
     <row r="114" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A114" s="9" t="s">
-        <v>1511</v>
-      </c>
-      <c r="B114" s="9"/>
+        <v>1509</v>
+      </c>
+      <c r="B114" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C114" s="9"/>
-      <c r="D114" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E114" s="10" t="s">
-        <v>1055</v>
+      <c r="D114" s="9"/>
+      <c r="E114" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F114" s="12" t="s">
-        <v>1601</v>
+        <v>1599</v>
       </c>
       <c r="G114" s="10"/>
       <c r="H114" s="9"/>
@@ -26068,24 +26090,24 @@
     </row>
     <row r="115" spans="1:11" ht="102" x14ac:dyDescent="0.2">
       <c r="A115" s="9" t="s">
-        <v>1512</v>
-      </c>
-      <c r="B115" s="9"/>
+        <v>1510</v>
+      </c>
+      <c r="B115" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C115" s="9"/>
-      <c r="D115" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E115" s="10" t="s">
-        <v>1055</v>
+      <c r="D115" s="9"/>
+      <c r="E115" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F115" s="12" t="s">
-        <v>1602</v>
+        <v>1600</v>
       </c>
       <c r="G115" s="10" t="s">
-        <v>1647</v>
+        <v>1645</v>
       </c>
       <c r="H115" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I115" s="10"/>
       <c r="J115" s="11"/>
@@ -26095,24 +26117,24 @@
     </row>
     <row r="116" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A116" s="9" t="s">
-        <v>1513</v>
-      </c>
-      <c r="B116" s="9"/>
+        <v>1511</v>
+      </c>
+      <c r="B116" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C116" s="9"/>
-      <c r="D116" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E116" s="10" t="s">
-        <v>1055</v>
+      <c r="D116" s="9"/>
+      <c r="E116" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F116" s="12" t="s">
-        <v>1603</v>
+        <v>1601</v>
       </c>
       <c r="G116" s="10" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H116" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I116" s="10"/>
       <c r="J116" s="11"/>
@@ -26122,28 +26144,28 @@
     </row>
     <row r="117" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A117" s="9" t="s">
-        <v>1514</v>
-      </c>
-      <c r="B117" s="9"/>
+        <v>1512</v>
+      </c>
+      <c r="B117" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C117" s="9"/>
-      <c r="D117" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E117" s="10" t="s">
-        <v>1055</v>
+      <c r="D117" s="9"/>
+      <c r="E117" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F117" s="12" t="s">
-        <v>1604</v>
+        <v>1602</v>
       </c>
       <c r="G117" s="10" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H117" s="9" t="s">
         <v>1069</v>
-      </c>
-      <c r="H117" s="9" t="s">
-        <v>1070</v>
       </c>
       <c r="I117" s="10"/>
       <c r="J117" s="11" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="K117" s="11" t="s">
         <v>719</v>
@@ -26151,28 +26173,28 @@
     </row>
     <row r="118" spans="1:11" ht="114.75" x14ac:dyDescent="0.2">
       <c r="A118" s="9" t="s">
-        <v>1515</v>
-      </c>
-      <c r="B118" s="9"/>
+        <v>1513</v>
+      </c>
+      <c r="B118" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C118" s="9"/>
-      <c r="D118" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E118" s="10" t="s">
-        <v>1055</v>
+      <c r="D118" s="9"/>
+      <c r="E118" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F118" s="12" t="s">
-        <v>1605</v>
+        <v>1603</v>
       </c>
       <c r="G118" s="10" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="H118" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I118" s="10"/>
       <c r="J118" s="11" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="K118" s="11" t="s">
         <v>719</v>
@@ -26180,24 +26202,24 @@
     </row>
     <row r="119" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A119" s="9" t="s">
-        <v>1516</v>
-      </c>
-      <c r="B119" s="9"/>
+        <v>1514</v>
+      </c>
+      <c r="B119" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C119" s="9"/>
-      <c r="D119" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E119" s="10" t="s">
-        <v>1055</v>
+      <c r="D119" s="9"/>
+      <c r="E119" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F119" s="12" t="s">
-        <v>1606</v>
+        <v>1604</v>
       </c>
       <c r="G119" s="10" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="H119" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I119" s="10"/>
       <c r="J119" s="11"/>
@@ -26207,24 +26229,24 @@
     </row>
     <row r="120" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A120" s="9" t="s">
-        <v>1517</v>
-      </c>
-      <c r="B120" s="9"/>
+        <v>1515</v>
+      </c>
+      <c r="B120" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C120" s="9"/>
-      <c r="D120" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E120" s="10" t="s">
-        <v>1055</v>
+      <c r="D120" s="9"/>
+      <c r="E120" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F120" s="13" t="s">
-        <v>1607</v>
+        <v>1605</v>
       </c>
       <c r="G120" s="9" t="s">
+        <v>1074</v>
+      </c>
+      <c r="H120" s="9" t="s">
         <v>1075</v>
-      </c>
-      <c r="H120" s="9" t="s">
-        <v>1076</v>
       </c>
       <c r="I120" s="9"/>
       <c r="J120" s="11"/>
@@ -26234,24 +26256,24 @@
     </row>
     <row r="121" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A121" s="9" t="s">
-        <v>1518</v>
-      </c>
-      <c r="B121" s="9"/>
+        <v>1516</v>
+      </c>
+      <c r="B121" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C121" s="9"/>
-      <c r="D121" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E121" s="10" t="s">
-        <v>1055</v>
+      <c r="D121" s="9"/>
+      <c r="E121" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F121" s="13" t="s">
+        <v>1076</v>
+      </c>
+      <c r="G121" s="9" t="s">
         <v>1077</v>
       </c>
-      <c r="G121" s="9" t="s">
-        <v>1078</v>
-      </c>
       <c r="H121" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I121" s="9"/>
       <c r="J121" s="11"/>
@@ -26261,24 +26283,24 @@
     </row>
     <row r="122" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A122" s="9" t="s">
-        <v>1519</v>
-      </c>
-      <c r="B122" s="9"/>
+        <v>1517</v>
+      </c>
+      <c r="B122" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C122" s="9"/>
-      <c r="D122" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E122" s="10" t="s">
-        <v>1055</v>
+      <c r="D122" s="9"/>
+      <c r="E122" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F122" s="9" t="s">
-        <v>1608</v>
+        <v>1606</v>
       </c>
       <c r="G122" s="9" t="s">
+        <v>1078</v>
+      </c>
+      <c r="H122" s="9" t="s">
         <v>1079</v>
-      </c>
-      <c r="H122" s="9" t="s">
-        <v>1080</v>
       </c>
       <c r="I122" s="9"/>
       <c r="J122" s="11"/>
@@ -26288,28 +26310,28 @@
     </row>
     <row r="123" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A123" s="9" t="s">
-        <v>1520</v>
-      </c>
-      <c r="B123" s="9"/>
+        <v>1518</v>
+      </c>
+      <c r="B123" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C123" s="9"/>
-      <c r="D123" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E123" s="10" t="s">
-        <v>1055</v>
+      <c r="D123" s="9"/>
+      <c r="E123" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F123" s="13" t="s">
-        <v>1609</v>
+        <v>1607</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="H123" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I123" s="9"/>
       <c r="J123" s="11" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="K123" s="11" t="s">
         <v>719</v>
@@ -26317,24 +26339,24 @@
     </row>
     <row r="124" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A124" s="9" t="s">
-        <v>1521</v>
-      </c>
-      <c r="B124" s="9"/>
+        <v>1519</v>
+      </c>
+      <c r="B124" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C124" s="9"/>
-      <c r="D124" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E124" s="10" t="s">
-        <v>1055</v>
+      <c r="D124" s="9"/>
+      <c r="E124" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F124" s="13" t="s">
-        <v>1610</v>
+        <v>1608</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="H124" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I124" s="9"/>
       <c r="J124" s="11"/>
@@ -26344,24 +26366,24 @@
     </row>
     <row r="125" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A125" s="9" t="s">
-        <v>1522</v>
-      </c>
-      <c r="B125" s="9"/>
+        <v>1520</v>
+      </c>
+      <c r="B125" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C125" s="9"/>
-      <c r="D125" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E125" s="10" t="s">
-        <v>1055</v>
+      <c r="D125" s="9"/>
+      <c r="E125" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>1611</v>
+        <v>1609</v>
       </c>
       <c r="G125" s="9" t="s">
-        <v>1648</v>
+        <v>1646</v>
       </c>
       <c r="H125" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I125" s="9"/>
       <c r="J125" s="11"/>
@@ -26371,24 +26393,24 @@
     </row>
     <row r="126" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A126" s="9" t="s">
-        <v>1523</v>
-      </c>
-      <c r="B126" s="9"/>
+        <v>1521</v>
+      </c>
+      <c r="B126" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C126" s="9"/>
-      <c r="D126" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E126" s="10" t="s">
-        <v>1055</v>
+      <c r="D126" s="9"/>
+      <c r="E126" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>1649</v>
+        <v>1647</v>
       </c>
       <c r="G126" s="9" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="H126" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I126" s="9"/>
       <c r="J126" s="11"/>
@@ -26398,24 +26420,24 @@
     </row>
     <row r="127" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A127" s="9" t="s">
-        <v>1524</v>
-      </c>
-      <c r="B127" s="9"/>
+        <v>1522</v>
+      </c>
+      <c r="B127" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C127" s="9"/>
-      <c r="D127" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E127" s="10" t="s">
-        <v>1055</v>
+      <c r="D127" s="9"/>
+      <c r="E127" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>1612</v>
+        <v>1610</v>
       </c>
       <c r="G127" s="9" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="H127" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I127" s="9"/>
       <c r="J127" s="11"/>
@@ -26425,28 +26447,28 @@
     </row>
     <row r="128" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A128" s="9" t="s">
-        <v>1525</v>
-      </c>
-      <c r="B128" s="9"/>
+        <v>1523</v>
+      </c>
+      <c r="B128" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C128" s="9"/>
-      <c r="D128" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E128" s="10" t="s">
-        <v>1055</v>
+      <c r="D128" s="9"/>
+      <c r="E128" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>1613</v>
+        <v>1611</v>
       </c>
       <c r="G128" s="9" t="s">
-        <v>1650</v>
+        <v>1648</v>
       </c>
       <c r="H128" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I128" s="9"/>
       <c r="J128" s="11" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="K128" s="11" t="s">
         <v>719</v>
@@ -26454,28 +26476,28 @@
     </row>
     <row r="129" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A129" s="9" t="s">
-        <v>1526</v>
-      </c>
-      <c r="B129" s="9"/>
+        <v>1524</v>
+      </c>
+      <c r="B129" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C129" s="9"/>
-      <c r="D129" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E129" s="10" t="s">
-        <v>1055</v>
+      <c r="D129" s="9"/>
+      <c r="E129" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>1614</v>
+        <v>1612</v>
       </c>
       <c r="G129" s="9" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="H129" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I129" s="9"/>
       <c r="J129" s="11" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="K129" s="11" t="s">
         <v>719</v>
@@ -26483,24 +26505,24 @@
     </row>
     <row r="130" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A130" s="9" t="s">
-        <v>1527</v>
-      </c>
-      <c r="B130" s="9"/>
+        <v>1525</v>
+      </c>
+      <c r="B130" s="10" t="s">
+        <v>1649</v>
+      </c>
       <c r="C130" s="9"/>
-      <c r="D130" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E130" s="10" t="s">
-        <v>1651</v>
+      <c r="D130" s="9"/>
+      <c r="E130" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>1615</v>
+        <v>1613</v>
       </c>
       <c r="G130" s="9" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="H130" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I130" s="9"/>
       <c r="J130" s="11"/>
@@ -26510,24 +26532,24 @@
     </row>
     <row r="131" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A131" s="9" t="s">
-        <v>1528</v>
-      </c>
-      <c r="B131" s="9"/>
+        <v>1526</v>
+      </c>
+      <c r="B131" s="10" t="s">
+        <v>1054</v>
+      </c>
       <c r="C131" s="9"/>
-      <c r="D131" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E131" s="10" t="s">
-        <v>1055</v>
+      <c r="D131" s="9"/>
+      <c r="E131" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>1616</v>
+        <v>1614</v>
       </c>
       <c r="G131" s="9" t="s">
-        <v>1652</v>
+        <v>1650</v>
       </c>
       <c r="H131" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
@@ -26537,24 +26559,24 @@
     </row>
     <row r="132" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A132" s="9" t="s">
-        <v>1529</v>
-      </c>
-      <c r="B132" s="9"/>
+        <v>1527</v>
+      </c>
+      <c r="B132" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C132" s="9"/>
-      <c r="D132" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E132" s="10" t="s">
-        <v>1094</v>
+      <c r="D132" s="9"/>
+      <c r="E132" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>1617</v>
+        <v>1615</v>
       </c>
       <c r="G132" s="9" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="H132" s="9" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
@@ -26564,24 +26586,24 @@
     </row>
     <row r="133" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A133" s="9" t="s">
-        <v>1530</v>
-      </c>
-      <c r="B133" s="9"/>
+        <v>1528</v>
+      </c>
+      <c r="B133" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C133" s="9"/>
-      <c r="D133" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E133" s="10" t="s">
-        <v>1094</v>
+      <c r="D133" s="9"/>
+      <c r="E133" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F133" s="13" t="s">
-        <v>1618</v>
+        <v>1616</v>
       </c>
       <c r="G133" s="9" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="H133" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I133" s="9"/>
       <c r="J133" s="11"/>
@@ -26591,24 +26613,24 @@
     </row>
     <row r="134" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A134" s="9" t="s">
-        <v>1531</v>
-      </c>
-      <c r="B134" s="9"/>
+        <v>1529</v>
+      </c>
+      <c r="B134" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C134" s="9"/>
-      <c r="D134" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E134" s="10" t="s">
-        <v>1094</v>
+      <c r="D134" s="9"/>
+      <c r="E134" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F134" s="13" t="s">
-        <v>1619</v>
+        <v>1617</v>
       </c>
       <c r="G134" s="9" t="s">
-        <v>1125</v>
+        <v>1123</v>
       </c>
       <c r="H134" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I134" s="9"/>
       <c r="J134" s="11"/>
@@ -26618,28 +26640,28 @@
     </row>
     <row r="135" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A135" s="9" t="s">
-        <v>1532</v>
-      </c>
-      <c r="B135" s="9"/>
+        <v>1530</v>
+      </c>
+      <c r="B135" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C135" s="9"/>
-      <c r="D135" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E135" s="10" t="s">
-        <v>1094</v>
+      <c r="D135" s="9"/>
+      <c r="E135" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>1620</v>
+        <v>1618</v>
       </c>
       <c r="G135" s="9" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="H135" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I135" s="9"/>
       <c r="J135" s="11" t="s">
-        <v>1127</v>
+        <v>1125</v>
       </c>
       <c r="K135" s="11" t="s">
         <v>719</v>
@@ -26647,24 +26669,24 @@
     </row>
     <row r="136" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A136" s="9" t="s">
-        <v>1533</v>
-      </c>
-      <c r="B136" s="9"/>
+        <v>1531</v>
+      </c>
+      <c r="B136" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C136" s="9"/>
-      <c r="D136" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E136" s="10" t="s">
-        <v>1094</v>
+      <c r="D136" s="9"/>
+      <c r="E136" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>1621</v>
+        <v>1619</v>
       </c>
       <c r="G136" s="9" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="H136" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I136" s="9"/>
       <c r="J136" s="11"/>
@@ -26674,24 +26696,24 @@
     </row>
     <row r="137" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A137" s="9" t="s">
-        <v>1534</v>
-      </c>
-      <c r="B137" s="9"/>
+        <v>1532</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C137" s="9"/>
-      <c r="D137" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E137" s="10" t="s">
-        <v>1094</v>
+      <c r="D137" s="9"/>
+      <c r="E137" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>1622</v>
+        <v>1620</v>
       </c>
       <c r="G137" s="9" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="H137" s="9" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="I137" s="9"/>
       <c r="J137" s="11"/>
@@ -26701,24 +26723,24 @@
     </row>
     <row r="138" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A138" s="9" t="s">
-        <v>1535</v>
-      </c>
-      <c r="B138" s="9"/>
+        <v>1533</v>
+      </c>
+      <c r="B138" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C138" s="9"/>
-      <c r="D138" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E138" s="10" t="s">
-        <v>1094</v>
+      <c r="D138" s="9"/>
+      <c r="E138" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>1623</v>
+        <v>1621</v>
       </c>
       <c r="G138" s="9" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="H138" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I138" s="9"/>
       <c r="J138" s="11"/>
@@ -26728,24 +26750,24 @@
     </row>
     <row r="139" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A139" s="9" t="s">
-        <v>1536</v>
-      </c>
-      <c r="B139" s="9"/>
+        <v>1534</v>
+      </c>
+      <c r="B139" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C139" s="9"/>
-      <c r="D139" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E139" s="10" t="s">
-        <v>1094</v>
+      <c r="D139" s="9"/>
+      <c r="E139" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>1624</v>
+        <v>1622</v>
       </c>
       <c r="G139" s="9" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="H139" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I139" s="9"/>
       <c r="J139" s="11"/>
@@ -26755,24 +26777,24 @@
     </row>
     <row r="140" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A140" s="9" t="s">
-        <v>1537</v>
-      </c>
-      <c r="B140" s="9"/>
+        <v>1535</v>
+      </c>
+      <c r="B140" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C140" s="9"/>
-      <c r="D140" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E140" s="10" t="s">
-        <v>1094</v>
+      <c r="D140" s="9"/>
+      <c r="E140" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F140" s="13" t="s">
-        <v>1625</v>
+        <v>1623</v>
       </c>
       <c r="G140" s="9" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="H140" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I140" s="9"/>
       <c r="J140" s="11"/>
@@ -26782,24 +26804,24 @@
     </row>
     <row r="141" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A141" s="9" t="s">
-        <v>1538</v>
-      </c>
-      <c r="B141" s="9"/>
+        <v>1536</v>
+      </c>
+      <c r="B141" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C141" s="9"/>
-      <c r="D141" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E141" s="10" t="s">
-        <v>1094</v>
+      <c r="D141" s="9"/>
+      <c r="E141" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F141" s="13" t="s">
-        <v>1626</v>
+        <v>1624</v>
       </c>
       <c r="G141" s="9" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="H141" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I141" s="9"/>
       <c r="J141" s="11"/>
@@ -26809,24 +26831,24 @@
     </row>
     <row r="142" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A142" s="9" t="s">
-        <v>1539</v>
-      </c>
-      <c r="B142" s="9"/>
+        <v>1537</v>
+      </c>
+      <c r="B142" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C142" s="9"/>
-      <c r="D142" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E142" s="10" t="s">
-        <v>1094</v>
+      <c r="D142" s="9"/>
+      <c r="E142" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F142" s="13" t="s">
-        <v>1627</v>
+        <v>1625</v>
       </c>
       <c r="G142" s="9" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="H142" s="9" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="I142" s="9"/>
       <c r="J142" s="11"/>
@@ -26836,24 +26858,24 @@
     </row>
     <row r="143" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A143" s="9" t="s">
-        <v>1540</v>
-      </c>
-      <c r="B143" s="9"/>
+        <v>1538</v>
+      </c>
+      <c r="B143" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C143" s="9"/>
-      <c r="D143" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E143" s="10" t="s">
-        <v>1094</v>
+      <c r="D143" s="9"/>
+      <c r="E143" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F143" s="13" t="s">
-        <v>1628</v>
+        <v>1626</v>
       </c>
       <c r="G143" s="9" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="H143" s="9" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="I143" s="9"/>
       <c r="J143" s="11"/>
@@ -26863,26 +26885,26 @@
     </row>
     <row r="144" spans="1:11" ht="89.25" x14ac:dyDescent="0.2">
       <c r="A144" s="9" t="s">
-        <v>1541</v>
-      </c>
-      <c r="B144" s="9"/>
+        <v>1539</v>
+      </c>
+      <c r="B144" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C144" s="9"/>
-      <c r="D144" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E144" s="10" t="s">
-        <v>1094</v>
+      <c r="D144" s="9"/>
+      <c r="E144" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F144" s="13" t="s">
-        <v>1629</v>
+        <v>1627</v>
       </c>
       <c r="G144" s="9"/>
       <c r="H144" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I144" s="9"/>
       <c r="J144" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K144" s="11" t="s">
         <v>719</v>
@@ -26890,28 +26912,28 @@
     </row>
     <row r="145" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A145" s="9" t="s">
-        <v>1542</v>
-      </c>
-      <c r="B145" s="9"/>
+        <v>1540</v>
+      </c>
+      <c r="B145" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C145" s="9"/>
-      <c r="D145" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E145" s="10" t="s">
-        <v>1094</v>
+      <c r="D145" s="9"/>
+      <c r="E145" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F145" s="13" t="s">
-        <v>1630</v>
+        <v>1628</v>
       </c>
       <c r="G145" s="9" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="H145" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I145" s="9"/>
       <c r="J145" s="11" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="K145" s="11" t="s">
         <v>719</v>
@@ -26919,24 +26941,24 @@
     </row>
     <row r="146" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A146" s="9" t="s">
-        <v>1543</v>
-      </c>
-      <c r="B146" s="9"/>
+        <v>1541</v>
+      </c>
+      <c r="B146" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C146" s="9"/>
-      <c r="D146" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E146" s="10" t="s">
-        <v>1094</v>
+      <c r="D146" s="9"/>
+      <c r="E146" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F146" s="13" t="s">
-        <v>1631</v>
+        <v>1629</v>
       </c>
       <c r="G146" s="9" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="H146" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I146" s="9"/>
       <c r="J146" s="11"/>
@@ -26946,24 +26968,24 @@
     </row>
     <row r="147" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A147" s="9" t="s">
-        <v>1544</v>
-      </c>
-      <c r="B147" s="9"/>
+        <v>1542</v>
+      </c>
+      <c r="B147" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C147" s="9"/>
-      <c r="D147" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E147" s="10" t="s">
-        <v>1094</v>
+      <c r="D147" s="9"/>
+      <c r="E147" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F147" s="13" t="s">
-        <v>1632</v>
+        <v>1630</v>
       </c>
       <c r="G147" s="9" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="H147" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I147" s="9"/>
       <c r="J147" s="11"/>
@@ -26973,24 +26995,24 @@
     </row>
     <row r="148" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A148" s="9" t="s">
-        <v>1545</v>
-      </c>
-      <c r="B148" s="9"/>
+        <v>1543</v>
+      </c>
+      <c r="B148" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C148" s="9"/>
-      <c r="D148" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E148" s="10" t="s">
-        <v>1094</v>
+      <c r="D148" s="9"/>
+      <c r="E148" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>1633</v>
+        <v>1631</v>
       </c>
       <c r="G148" s="9" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="H148" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I148" s="9"/>
       <c r="J148" s="11"/>
@@ -27000,24 +27022,24 @@
     </row>
     <row r="149" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A149" s="9" t="s">
-        <v>1546</v>
-      </c>
-      <c r="B149" s="9"/>
+        <v>1544</v>
+      </c>
+      <c r="B149" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C149" s="9"/>
-      <c r="D149" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E149" s="10" t="s">
-        <v>1094</v>
+      <c r="D149" s="9"/>
+      <c r="E149" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F149" s="13" t="s">
-        <v>1634</v>
+        <v>1632</v>
       </c>
       <c r="G149" s="9" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="H149" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I149" s="9"/>
       <c r="J149" s="11"/>
@@ -27027,22 +27049,22 @@
     </row>
     <row r="150" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A150" s="9" t="s">
-        <v>1547</v>
-      </c>
-      <c r="B150" s="9"/>
+        <v>1545</v>
+      </c>
+      <c r="B150" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C150" s="9"/>
-      <c r="D150" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E150" s="10" t="s">
-        <v>1094</v>
+      <c r="D150" s="9"/>
+      <c r="E150" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F150" s="13" t="s">
-        <v>1635</v>
+        <v>1633</v>
       </c>
       <c r="G150" s="9"/>
       <c r="H150" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I150" s="9"/>
       <c r="J150" s="11"/>
@@ -27052,24 +27074,24 @@
     </row>
     <row r="151" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A151" s="9" t="s">
-        <v>1548</v>
-      </c>
-      <c r="B151" s="9"/>
+        <v>1546</v>
+      </c>
+      <c r="B151" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C151" s="9"/>
-      <c r="D151" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E151" s="10" t="s">
-        <v>1094</v>
+      <c r="D151" s="9"/>
+      <c r="E151" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F151" s="13" t="s">
-        <v>1636</v>
+        <v>1634</v>
       </c>
       <c r="G151" s="9" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="H151" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I151" s="9"/>
       <c r="J151" s="11"/>
@@ -27079,22 +27101,22 @@
     </row>
     <row r="152" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A152" s="9" t="s">
-        <v>1549</v>
-      </c>
-      <c r="B152" s="9"/>
+        <v>1547</v>
+      </c>
+      <c r="B152" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C152" s="9"/>
-      <c r="D152" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E152" s="10" t="s">
-        <v>1094</v>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F152" s="13" t="s">
-        <v>1637</v>
+        <v>1635</v>
       </c>
       <c r="G152" s="9"/>
       <c r="H152" s="9" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="I152" s="9"/>
       <c r="J152" s="11"/>
@@ -27104,24 +27126,24 @@
     </row>
     <row r="153" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A153" s="9" t="s">
-        <v>1550</v>
-      </c>
-      <c r="B153" s="9"/>
+        <v>1548</v>
+      </c>
+      <c r="B153" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C153" s="9"/>
-      <c r="D153" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E153" s="10" t="s">
-        <v>1094</v>
+      <c r="D153" s="9"/>
+      <c r="E153" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>1653</v>
+        <v>1651</v>
       </c>
       <c r="G153" s="9" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="H153" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I153" s="9"/>
       <c r="J153" s="11"/>
@@ -27131,22 +27153,22 @@
     </row>
     <row r="154" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A154" s="9" t="s">
-        <v>1551</v>
-      </c>
-      <c r="B154" s="9"/>
+        <v>1549</v>
+      </c>
+      <c r="B154" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C154" s="9"/>
-      <c r="D154" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E154" s="10" t="s">
-        <v>1094</v>
+      <c r="D154" s="9"/>
+      <c r="E154" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F154" s="13" t="s">
-        <v>1638</v>
+        <v>1636</v>
       </c>
       <c r="G154" s="9"/>
       <c r="H154" s="9" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="I154" s="9"/>
       <c r="J154" s="11"/>
@@ -27156,24 +27178,24 @@
     </row>
     <row r="155" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A155" s="9" t="s">
-        <v>1552</v>
-      </c>
-      <c r="B155" s="9"/>
+        <v>1550</v>
+      </c>
+      <c r="B155" s="10" t="s">
+        <v>1092</v>
+      </c>
       <c r="C155" s="9"/>
-      <c r="D155" s="9" t="s">
-        <v>1065</v>
-      </c>
-      <c r="E155" s="10" t="s">
-        <v>1094</v>
+      <c r="D155" s="9"/>
+      <c r="E155" s="9" t="s">
+        <v>1064</v>
       </c>
       <c r="F155" s="13" t="s">
-        <v>1639</v>
+        <v>1637</v>
       </c>
       <c r="G155" s="9" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="H155" s="9" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="I155" s="9"/>
       <c r="J155" s="11"/>
@@ -27183,27 +27205,27 @@
     </row>
     <row r="156" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A156" s="9" t="s">
-        <v>1553</v>
-      </c>
-      <c r="B156" s="9"/>
+        <v>1551</v>
+      </c>
+      <c r="B156" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C156" s="9"/>
-      <c r="D156" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E156" s="10" t="s">
-        <v>1293</v>
+      <c r="D156" s="9"/>
+      <c r="E156" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F156" s="13" t="s">
+        <v>1143</v>
+      </c>
+      <c r="G156" s="9" t="s">
+        <v>1144</v>
+      </c>
+      <c r="H156" s="9" t="s">
         <v>1145</v>
       </c>
-      <c r="G156" s="9" t="s">
+      <c r="I156" s="9" t="s">
         <v>1146</v>
-      </c>
-      <c r="H156" s="9" t="s">
-        <v>1147</v>
-      </c>
-      <c r="I156" s="9" t="s">
-        <v>1148</v>
       </c>
       <c r="J156" s="11"/>
       <c r="K156" s="11" t="s">
@@ -27212,27 +27234,27 @@
     </row>
     <row r="157" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A157" s="9" t="s">
-        <v>1554</v>
-      </c>
-      <c r="B157" s="9"/>
+        <v>1552</v>
+      </c>
+      <c r="B157" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C157" s="9"/>
-      <c r="D157" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E157" s="10" t="s">
-        <v>1293</v>
+      <c r="D157" s="9"/>
+      <c r="E157" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F157" s="9" t="s">
+        <v>1147</v>
+      </c>
+      <c r="G157" s="9" t="s">
+        <v>1148</v>
+      </c>
+      <c r="H157" s="14" t="s">
         <v>1149</v>
       </c>
-      <c r="G157" s="9" t="s">
-        <v>1150</v>
-      </c>
-      <c r="H157" s="14" t="s">
-        <v>1151</v>
-      </c>
       <c r="I157" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J157" s="11"/>
       <c r="K157" s="11" t="s">
@@ -27241,27 +27263,27 @@
     </row>
     <row r="158" spans="1:11" ht="127.5" x14ac:dyDescent="0.2">
       <c r="A158" s="9" t="s">
-        <v>1555</v>
-      </c>
-      <c r="B158" s="9"/>
+        <v>1553</v>
+      </c>
+      <c r="B158" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C158" s="9"/>
-      <c r="D158" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E158" s="10" t="s">
-        <v>1293</v>
+      <c r="D158" s="9"/>
+      <c r="E158" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F158" s="9" t="s">
+        <v>1150</v>
+      </c>
+      <c r="G158" s="9" t="s">
+        <v>1151</v>
+      </c>
+      <c r="H158" s="9" t="s">
         <v>1152</v>
       </c>
-      <c r="G158" s="9" t="s">
-        <v>1153</v>
-      </c>
-      <c r="H158" s="9" t="s">
-        <v>1154</v>
-      </c>
       <c r="I158" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J158" s="11"/>
       <c r="K158" s="11" t="s">
@@ -27270,27 +27292,27 @@
     </row>
     <row r="159" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A159" s="9" t="s">
-        <v>1556</v>
-      </c>
-      <c r="B159" s="9"/>
+        <v>1554</v>
+      </c>
+      <c r="B159" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C159" s="9"/>
-      <c r="D159" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E159" s="10" t="s">
-        <v>1293</v>
+      <c r="D159" s="9"/>
+      <c r="E159" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F159" s="15" t="s">
-        <v>1654</v>
+        <v>1652</v>
       </c>
       <c r="G159" s="15" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="H159" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I159" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J159" s="11"/>
       <c r="K159" s="11" t="s">
@@ -27299,27 +27321,27 @@
     </row>
     <row r="160" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A160" s="9" t="s">
-        <v>1557</v>
-      </c>
-      <c r="B160" s="9"/>
+        <v>1555</v>
+      </c>
+      <c r="B160" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C160" s="9"/>
-      <c r="D160" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E160" s="10" t="s">
-        <v>1293</v>
+      <c r="D160" s="9"/>
+      <c r="E160" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F160" s="16" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G160" s="15" t="s">
-        <v>1655</v>
+        <v>1653</v>
       </c>
       <c r="H160" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I160" s="9" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="J160" s="11"/>
       <c r="K160" s="11" t="s">
@@ -27328,27 +27350,27 @@
     </row>
     <row r="161" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A161" s="9" t="s">
-        <v>1558</v>
-      </c>
-      <c r="B161" s="9"/>
+        <v>1556</v>
+      </c>
+      <c r="B161" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C161" s="9"/>
-      <c r="D161" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E161" s="10" t="s">
-        <v>1293</v>
+      <c r="D161" s="9"/>
+      <c r="E161" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F161" s="16" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="G161" s="16" t="s">
-        <v>1656</v>
+        <v>1654</v>
       </c>
       <c r="H161" s="9" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I161" s="9" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="J161" s="11"/>
       <c r="K161" s="11" t="s">
@@ -27357,27 +27379,27 @@
     </row>
     <row r="162" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A162" s="9" t="s">
-        <v>1559</v>
-      </c>
-      <c r="B162" s="9"/>
+        <v>1557</v>
+      </c>
+      <c r="B162" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C162" s="9"/>
-      <c r="D162" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E162" s="10" t="s">
-        <v>1293</v>
+      <c r="D162" s="9"/>
+      <c r="E162" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F162" s="14" t="s">
+        <v>1157</v>
+      </c>
+      <c r="G162" s="16" t="s">
+        <v>1158</v>
+      </c>
+      <c r="H162" s="9" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I162" s="14" t="s">
         <v>1159</v>
-      </c>
-      <c r="G162" s="16" t="s">
-        <v>1160</v>
-      </c>
-      <c r="H162" s="9" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I162" s="14" t="s">
-        <v>1161</v>
       </c>
       <c r="J162" s="11"/>
       <c r="K162" s="11" t="s">
@@ -27386,27 +27408,27 @@
     </row>
     <row r="163" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A163" s="9" t="s">
-        <v>1560</v>
-      </c>
-      <c r="B163" s="9"/>
+        <v>1558</v>
+      </c>
+      <c r="B163" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C163" s="9"/>
-      <c r="D163" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E163" s="10" t="s">
-        <v>1293</v>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F163" s="16" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G163" s="14" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="H163" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I163" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J163" s="11"/>
       <c r="K163" s="11" t="s">
@@ -27415,27 +27437,27 @@
     </row>
     <row r="164" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A164" s="9" t="s">
-        <v>1561</v>
-      </c>
-      <c r="B164" s="9"/>
+        <v>1559</v>
+      </c>
+      <c r="B164" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C164" s="9"/>
-      <c r="D164" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E164" s="10" t="s">
-        <v>1293</v>
+      <c r="D164" s="9"/>
+      <c r="E164" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F164" s="14" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
       <c r="G164" s="16" t="s">
-        <v>1165</v>
+        <v>1163</v>
       </c>
       <c r="H164" s="14" t="s">
-        <v>1657</v>
+        <v>1655</v>
       </c>
       <c r="I164" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J164" s="11"/>
       <c r="K164" s="11" t="s">
@@ -27444,27 +27466,27 @@
     </row>
     <row r="165" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A165" s="9" t="s">
-        <v>1562</v>
-      </c>
-      <c r="B165" s="9"/>
+        <v>1560</v>
+      </c>
+      <c r="B165" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C165" s="9"/>
-      <c r="D165" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E165" s="10" t="s">
-        <v>1293</v>
+      <c r="D165" s="9"/>
+      <c r="E165" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F165" s="14" t="s">
-        <v>1166</v>
+        <v>1164</v>
       </c>
       <c r="G165" s="16" t="s">
-        <v>1167</v>
+        <v>1165</v>
       </c>
       <c r="H165" s="16" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I165" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J165" s="11"/>
       <c r="K165" s="11" t="s">
@@ -27473,27 +27495,27 @@
     </row>
     <row r="166" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A166" s="9" t="s">
-        <v>1563</v>
-      </c>
-      <c r="B166" s="9"/>
+        <v>1561</v>
+      </c>
+      <c r="B166" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C166" s="9"/>
-      <c r="D166" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E166" s="10" t="s">
-        <v>1293</v>
+      <c r="D166" s="9"/>
+      <c r="E166" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F166" s="14" t="s">
-        <v>1168</v>
+        <v>1166</v>
       </c>
       <c r="G166" s="14" t="s">
-        <v>1169</v>
+        <v>1167</v>
       </c>
       <c r="H166" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I166" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J166" s="11"/>
       <c r="K166" s="11" t="s">
@@ -27502,27 +27524,27 @@
     </row>
     <row r="167" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A167" s="9" t="s">
-        <v>1564</v>
-      </c>
-      <c r="B167" s="9"/>
+        <v>1562</v>
+      </c>
+      <c r="B167" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C167" s="9"/>
-      <c r="D167" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E167" s="10" t="s">
-        <v>1293</v>
+      <c r="D167" s="9"/>
+      <c r="E167" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F167" s="16" t="s">
-        <v>1170</v>
+        <v>1168</v>
       </c>
       <c r="G167" s="16" t="s">
-        <v>1171</v>
+        <v>1169</v>
       </c>
       <c r="H167" s="9" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I167" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J167" s="11"/>
       <c r="K167" s="11" t="s">
@@ -27531,27 +27553,27 @@
     </row>
     <row r="168" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A168" s="9" t="s">
-        <v>1565</v>
-      </c>
-      <c r="B168" s="9"/>
+        <v>1563</v>
+      </c>
+      <c r="B168" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C168" s="9"/>
-      <c r="D168" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E168" s="10" t="s">
-        <v>1293</v>
+      <c r="D168" s="9"/>
+      <c r="E168" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F168" s="16" t="s">
+        <v>1170</v>
+      </c>
+      <c r="G168" s="14" t="s">
+        <v>1171</v>
+      </c>
+      <c r="H168" s="16" t="s">
         <v>1172</v>
       </c>
-      <c r="G168" s="14" t="s">
-        <v>1173</v>
-      </c>
-      <c r="H168" s="16" t="s">
-        <v>1174</v>
-      </c>
       <c r="I168" s="14" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="J168" s="11"/>
       <c r="K168" s="11" t="s">
@@ -27560,27 +27582,27 @@
     </row>
     <row r="169" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A169" s="9" t="s">
-        <v>1566</v>
-      </c>
-      <c r="B169" s="9"/>
+        <v>1564</v>
+      </c>
+      <c r="B169" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C169" s="9"/>
-      <c r="D169" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E169" s="10" t="s">
-        <v>1293</v>
+      <c r="D169" s="9"/>
+      <c r="E169" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F169" s="14" t="s">
-        <v>1640</v>
+        <v>1638</v>
       </c>
       <c r="G169" s="14" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H169" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I169" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J169" s="11"/>
       <c r="K169" s="11" t="s">
@@ -27589,27 +27611,27 @@
     </row>
     <row r="170" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A170" s="9" t="s">
-        <v>1567</v>
-      </c>
-      <c r="B170" s="9"/>
+        <v>1565</v>
+      </c>
+      <c r="B170" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C170" s="9"/>
-      <c r="D170" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E170" s="10" t="s">
-        <v>1293</v>
+      <c r="D170" s="9"/>
+      <c r="E170" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F170" s="14" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="G170" s="14" t="s">
-        <v>1175</v>
+        <v>1173</v>
       </c>
       <c r="H170" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I170" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J170" s="11"/>
       <c r="K170" s="11" t="s">
@@ -27618,27 +27640,27 @@
     </row>
     <row r="171" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A171" s="9" t="s">
-        <v>1568</v>
-      </c>
-      <c r="B171" s="9"/>
+        <v>1566</v>
+      </c>
+      <c r="B171" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C171" s="9"/>
-      <c r="D171" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E171" s="10" t="s">
-        <v>1293</v>
+      <c r="D171" s="9"/>
+      <c r="E171" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F171" s="16" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="G171" s="14" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="H171" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I171" s="14" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="11" t="s">
@@ -27647,27 +27669,27 @@
     </row>
     <row r="172" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A172" s="9" t="s">
-        <v>1569</v>
-      </c>
-      <c r="B172" s="9"/>
+        <v>1567</v>
+      </c>
+      <c r="B172" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C172" s="9"/>
-      <c r="D172" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E172" s="10" t="s">
-        <v>1293</v>
+      <c r="D172" s="9"/>
+      <c r="E172" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F172" s="14" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="G172" s="16" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="H172" s="9" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I172" s="14" t="s">
         <v>1174</v>
-      </c>
-      <c r="I172" s="14" t="s">
-        <v>1176</v>
       </c>
       <c r="J172" s="11"/>
       <c r="K172" s="11" t="s">
@@ -27676,27 +27698,27 @@
     </row>
     <row r="173" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A173" s="9" t="s">
-        <v>1570</v>
-      </c>
-      <c r="B173" s="9"/>
+        <v>1568</v>
+      </c>
+      <c r="B173" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C173" s="9"/>
-      <c r="D173" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E173" s="10" t="s">
-        <v>1293</v>
+      <c r="D173" s="9"/>
+      <c r="E173" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F173" s="14" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="G173" s="14" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="H173" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I173" s="14" t="s">
         <v>1174</v>
-      </c>
-      <c r="I173" s="14" t="s">
-        <v>1176</v>
       </c>
       <c r="J173" s="11"/>
       <c r="K173" s="11" t="s">
@@ -27705,27 +27727,27 @@
     </row>
     <row r="174" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A174" s="9" t="s">
-        <v>1571</v>
-      </c>
-      <c r="B174" s="9"/>
+        <v>1569</v>
+      </c>
+      <c r="B174" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C174" s="9"/>
-      <c r="D174" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E174" s="10" t="s">
-        <v>1293</v>
+      <c r="D174" s="9"/>
+      <c r="E174" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F174" s="14" t="s">
+        <v>1182</v>
+      </c>
+      <c r="G174" s="14" t="s">
+        <v>1183</v>
+      </c>
+      <c r="H174" s="14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I174" s="14" t="s">
         <v>1184</v>
-      </c>
-      <c r="G174" s="14" t="s">
-        <v>1185</v>
-      </c>
-      <c r="H174" s="14" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I174" s="14" t="s">
-        <v>1186</v>
       </c>
       <c r="J174" s="11"/>
       <c r="K174" s="11" t="s">
@@ -27734,27 +27756,27 @@
     </row>
     <row r="175" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A175" s="9" t="s">
-        <v>1572</v>
-      </c>
-      <c r="B175" s="9"/>
+        <v>1570</v>
+      </c>
+      <c r="B175" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C175" s="9"/>
-      <c r="D175" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E175" s="10" t="s">
-        <v>1293</v>
+      <c r="D175" s="9"/>
+      <c r="E175" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F175" s="14" t="s">
-        <v>1658</v>
+        <v>1656</v>
       </c>
       <c r="G175" s="16" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="H175" s="14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I175" s="14" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="J175" s="11"/>
       <c r="K175" s="11" t="s">
@@ -27763,27 +27785,27 @@
     </row>
     <row r="176" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A176" s="9" t="s">
-        <v>1573</v>
-      </c>
-      <c r="B176" s="9"/>
+        <v>1571</v>
+      </c>
+      <c r="B176" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C176" s="9"/>
-      <c r="D176" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E176" s="10" t="s">
-        <v>1293</v>
+      <c r="D176" s="9"/>
+      <c r="E176" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F176" s="16" t="s">
+        <v>1186</v>
+      </c>
+      <c r="G176" s="14" t="s">
+        <v>1187</v>
+      </c>
+      <c r="H176" s="14" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I176" s="14" t="s">
         <v>1188</v>
-      </c>
-      <c r="G176" s="14" t="s">
-        <v>1189</v>
-      </c>
-      <c r="H176" s="14" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I176" s="14" t="s">
-        <v>1190</v>
       </c>
       <c r="J176" s="11"/>
       <c r="K176" s="11" t="s">
@@ -27792,27 +27814,27 @@
     </row>
     <row r="177" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A177" s="9" t="s">
-        <v>1574</v>
-      </c>
-      <c r="B177" s="9"/>
+        <v>1572</v>
+      </c>
+      <c r="B177" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C177" s="9"/>
-      <c r="D177" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E177" s="10" t="s">
-        <v>1293</v>
+      <c r="D177" s="9"/>
+      <c r="E177" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F177" s="16" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="G177" s="16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H177" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I177" s="16" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J177" s="11"/>
       <c r="K177" s="11" t="s">
@@ -27821,27 +27843,27 @@
     </row>
     <row r="178" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A178" s="9" t="s">
-        <v>1575</v>
-      </c>
-      <c r="B178" s="9"/>
+        <v>1573</v>
+      </c>
+      <c r="B178" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C178" s="9"/>
-      <c r="D178" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E178" s="10" t="s">
-        <v>1293</v>
+      <c r="D178" s="9"/>
+      <c r="E178" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F178" s="16" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="G178" s="16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H178" s="14" t="s">
-        <v>1174</v>
+        <v>1172</v>
       </c>
       <c r="I178" s="16" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J178" s="11"/>
       <c r="K178" s="11" t="s">
@@ -27850,27 +27872,27 @@
     </row>
     <row r="179" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A179" s="9" t="s">
-        <v>1576</v>
-      </c>
-      <c r="B179" s="9"/>
+        <v>1574</v>
+      </c>
+      <c r="B179" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C179" s="9"/>
-      <c r="D179" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E179" s="10" t="s">
-        <v>1293</v>
+      <c r="D179" s="9"/>
+      <c r="E179" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F179" s="16" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="G179" s="16" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="H179" s="16" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I179" s="16" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="J179" s="11"/>
       <c r="K179" s="11" t="s">
@@ -27879,27 +27901,27 @@
     </row>
     <row r="180" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A180" s="9" t="s">
-        <v>1577</v>
-      </c>
-      <c r="B180" s="9"/>
+        <v>1575</v>
+      </c>
+      <c r="B180" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C180" s="9"/>
-      <c r="D180" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E180" s="10" t="s">
-        <v>1293</v>
+      <c r="D180" s="9"/>
+      <c r="E180" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F180" s="16" t="s">
+        <v>1192</v>
+      </c>
+      <c r="G180" s="16" t="s">
+        <v>1193</v>
+      </c>
+      <c r="H180" s="16" t="s">
+        <v>1149</v>
+      </c>
+      <c r="I180" s="16" t="s">
         <v>1194</v>
-      </c>
-      <c r="G180" s="16" t="s">
-        <v>1195</v>
-      </c>
-      <c r="H180" s="16" t="s">
-        <v>1151</v>
-      </c>
-      <c r="I180" s="16" t="s">
-        <v>1196</v>
       </c>
       <c r="J180" s="11"/>
       <c r="K180" s="11" t="s">
@@ -27908,27 +27930,27 @@
     </row>
     <row r="181" spans="1:11" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A181" s="9" t="s">
-        <v>1578</v>
-      </c>
-      <c r="B181" s="9"/>
+        <v>1576</v>
+      </c>
+      <c r="B181" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C181" s="9"/>
-      <c r="D181" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E181" s="10" t="s">
-        <v>1293</v>
+      <c r="D181" s="9"/>
+      <c r="E181" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F181" s="16" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="G181" s="14" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="H181" s="14" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="I181" s="14" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="J181" s="11"/>
       <c r="K181" s="11" t="s">
@@ -27937,27 +27959,27 @@
     </row>
     <row r="182" spans="1:11" ht="63.75" x14ac:dyDescent="0.2">
       <c r="A182" s="9" t="s">
-        <v>1579</v>
-      </c>
-      <c r="B182" s="9"/>
+        <v>1577</v>
+      </c>
+      <c r="B182" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C182" s="9"/>
-      <c r="D182" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E182" s="10" t="s">
-        <v>1293</v>
+      <c r="D182" s="9"/>
+      <c r="E182" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F182" s="16" t="s">
+        <v>1197</v>
+      </c>
+      <c r="G182" s="16" t="s">
+        <v>1198</v>
+      </c>
+      <c r="H182" s="14" t="s">
+        <v>1172</v>
+      </c>
+      <c r="I182" s="14" t="s">
         <v>1199</v>
-      </c>
-      <c r="G182" s="16" t="s">
-        <v>1200</v>
-      </c>
-      <c r="H182" s="14" t="s">
-        <v>1174</v>
-      </c>
-      <c r="I182" s="14" t="s">
-        <v>1201</v>
       </c>
       <c r="J182" s="11"/>
       <c r="K182" s="11" t="s">
@@ -27966,27 +27988,27 @@
     </row>
     <row r="183" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A183" s="9" t="s">
-        <v>1580</v>
-      </c>
-      <c r="B183" s="9"/>
+        <v>1578</v>
+      </c>
+      <c r="B183" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C183" s="9"/>
-      <c r="D183" s="9" t="s">
-        <v>1140</v>
-      </c>
-      <c r="E183" s="10" t="s">
-        <v>1293</v>
+      <c r="D183" s="9"/>
+      <c r="E183" s="9" t="s">
+        <v>1138</v>
       </c>
       <c r="F183" s="16" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="G183" s="16" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="H183" s="14" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I183" s="14" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="J183" s="11"/>
       <c r="K183" s="11" t="s">
@@ -27995,27 +28017,27 @@
     </row>
     <row r="184" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A184" s="9" t="s">
-        <v>1581</v>
-      </c>
-      <c r="B184" s="9"/>
+        <v>1579</v>
+      </c>
+      <c r="B184" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C184" s="9"/>
-      <c r="D184" s="9" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E184" s="10" t="s">
-        <v>1293</v>
+      <c r="D184" s="9"/>
+      <c r="E184" s="9" t="s">
+        <v>1046</v>
       </c>
       <c r="F184" s="9" t="s">
-        <v>1659</v>
+        <v>1657</v>
       </c>
       <c r="G184" s="16" t="s">
+        <v>1202</v>
+      </c>
+      <c r="H184" s="16" t="s">
+        <v>1203</v>
+      </c>
+      <c r="I184" s="16" t="s">
         <v>1204</v>
-      </c>
-      <c r="H184" s="16" t="s">
-        <v>1205</v>
-      </c>
-      <c r="I184" s="16" t="s">
-        <v>1206</v>
       </c>
       <c r="J184" s="11"/>
       <c r="K184" s="11" t="s">
@@ -28024,27 +28046,27 @@
     </row>
     <row r="185" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A185" s="9" t="s">
-        <v>1582</v>
-      </c>
-      <c r="B185" s="15"/>
+        <v>1580</v>
+      </c>
+      <c r="B185" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C185" s="15"/>
-      <c r="D185" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E185" s="10" t="s">
-        <v>1293</v>
+      <c r="D185" s="15"/>
+      <c r="E185" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F185" s="16" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="G185" s="16" t="s">
-        <v>1208</v>
+        <v>1206</v>
       </c>
       <c r="H185" s="16" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I185" s="16" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="J185" s="11"/>
       <c r="K185" s="11" t="s">
@@ -28053,27 +28075,27 @@
     </row>
     <row r="186" spans="1:11" ht="51" x14ac:dyDescent="0.2">
       <c r="A186" s="9" t="s">
-        <v>1583</v>
-      </c>
-      <c r="B186" s="15"/>
+        <v>1581</v>
+      </c>
+      <c r="B186" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C186" s="15"/>
-      <c r="D186" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E186" s="10" t="s">
-        <v>1293</v>
+      <c r="D186" s="15"/>
+      <c r="E186" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F186" s="16" t="s">
+        <v>1207</v>
+      </c>
+      <c r="G186" s="16" t="s">
+        <v>1208</v>
+      </c>
+      <c r="H186" s="16" t="s">
         <v>1209</v>
       </c>
-      <c r="G186" s="16" t="s">
+      <c r="I186" s="16" t="s">
         <v>1210</v>
-      </c>
-      <c r="H186" s="16" t="s">
-        <v>1211</v>
-      </c>
-      <c r="I186" s="16" t="s">
-        <v>1212</v>
       </c>
       <c r="J186" s="11"/>
       <c r="K186" s="11" t="s">
@@ -28082,27 +28104,27 @@
     </row>
     <row r="187" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A187" s="9" t="s">
-        <v>1584</v>
-      </c>
-      <c r="B187" s="15"/>
+        <v>1582</v>
+      </c>
+      <c r="B187" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C187" s="15"/>
-      <c r="D187" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E187" s="10" t="s">
-        <v>1293</v>
+      <c r="D187" s="15"/>
+      <c r="E187" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F187" s="16" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="G187" s="16" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="H187" s="16" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="I187" s="16" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="J187" s="11"/>
       <c r="K187" s="11" t="s">
@@ -28111,27 +28133,27 @@
     </row>
     <row r="188" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A188" s="9" t="s">
-        <v>1585</v>
-      </c>
-      <c r="B188" s="15"/>
+        <v>1583</v>
+      </c>
+      <c r="B188" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C188" s="15"/>
-      <c r="D188" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E188" s="10" t="s">
-        <v>1293</v>
+      <c r="D188" s="15"/>
+      <c r="E188" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F188" s="16" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="G188" s="16" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="H188" s="16" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I188" s="16" t="s">
-        <v>1641</v>
+        <v>1639</v>
       </c>
       <c r="J188" s="11"/>
       <c r="K188" s="11" t="s">
@@ -28140,27 +28162,27 @@
     </row>
     <row r="189" spans="1:11" ht="76.5" x14ac:dyDescent="0.2">
       <c r="A189" s="9" t="s">
-        <v>1586</v>
-      </c>
-      <c r="B189" s="15"/>
+        <v>1584</v>
+      </c>
+      <c r="B189" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C189" s="15"/>
-      <c r="D189" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E189" s="10" t="s">
-        <v>1293</v>
+      <c r="D189" s="15"/>
+      <c r="E189" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F189" s="16" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="G189" s="16" t="s">
-        <v>1642</v>
+        <v>1640</v>
       </c>
       <c r="H189" s="14" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="I189" s="14" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="J189" s="11"/>
       <c r="K189" s="11" t="s">
@@ -28169,27 +28191,27 @@
     </row>
     <row r="190" spans="1:11" ht="153" x14ac:dyDescent="0.2">
       <c r="A190" s="9" t="s">
-        <v>1587</v>
-      </c>
-      <c r="B190" s="15"/>
+        <v>1585</v>
+      </c>
+      <c r="B190" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C190" s="15"/>
-      <c r="D190" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E190" s="10" t="s">
-        <v>1293</v>
+      <c r="D190" s="15"/>
+      <c r="E190" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F190" s="14" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="G190" s="16" t="s">
-        <v>1660</v>
+        <v>1658</v>
       </c>
       <c r="H190" s="14" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="I190" s="14" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="J190" s="11"/>
       <c r="K190" s="11" t="s">
@@ -28198,27 +28220,27 @@
     </row>
     <row r="191" spans="1:11" ht="38.25" x14ac:dyDescent="0.2">
       <c r="A191" s="9" t="s">
-        <v>1588</v>
-      </c>
-      <c r="B191" s="15"/>
+        <v>1586</v>
+      </c>
+      <c r="B191" s="10" t="s">
+        <v>1291</v>
+      </c>
       <c r="C191" s="15"/>
-      <c r="D191" s="16" t="s">
-        <v>1047</v>
-      </c>
-      <c r="E191" s="10" t="s">
-        <v>1293</v>
+      <c r="D191" s="15"/>
+      <c r="E191" s="16" t="s">
+        <v>1046</v>
       </c>
       <c r="F191" s="16" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="G191" s="16" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="H191" s="16" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="I191" s="16" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="J191" s="11"/>
       <c r="K191" s="11" t="s">
@@ -28227,10 +28249,10 @@
     </row>
     <row r="192" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A192" s="9"/>
-      <c r="B192" s="15"/>
+      <c r="B192" s="10"/>
       <c r="C192" s="15"/>
-      <c r="D192" s="16"/>
-      <c r="E192" s="10"/>
+      <c r="D192" s="15"/>
+      <c r="E192" s="16"/>
       <c r="F192" s="16"/>
       <c r="G192" s="16"/>
       <c r="H192" s="16"/>
@@ -28267,7 +28289,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="20" t="s">
-        <v>1673</v>
+        <v>1671</v>
       </c>
       <c r="B1" s="20" t="s">
         <v>807</v>
@@ -28276,15 +28298,15 @@
         <v>807</v>
       </c>
       <c r="D1" s="20" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="E1" s="20" t="s">
-        <v>1710</v>
+        <v>1708</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="20" t="s">
-        <v>1674</v>
+        <v>1672</v>
       </c>
       <c r="B2" s="20" t="s">
         <v>319</v>
@@ -28293,7 +28315,7 @@
         <v>319</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="E2" s="20" t="s">
         <v>319</v>
@@ -28301,10 +28323,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="20" t="s">
-        <v>1692</v>
+        <v>1690</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1675</v>
+        <v>1673</v>
       </c>
       <c r="C3" s="20"/>
       <c r="D3" s="20"/>
@@ -28312,10 +28334,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="20" t="s">
-        <v>1693</v>
+        <v>1691</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1676</v>
+        <v>1674</v>
       </c>
       <c r="C4" s="20"/>
       <c r="D4" s="20"/>
@@ -28323,48 +28345,48 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="20" t="s">
-        <v>1694</v>
+        <v>1692</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1677</v>
+        <v>1675</v>
       </c>
       <c r="C5" s="20"/>
       <c r="D5" s="20" t="s">
-        <v>1873</v>
+        <v>1871</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>1711</v>
+        <v>1709</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="20" t="s">
-        <v>1695</v>
+        <v>1693</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1678</v>
+        <v>1676</v>
       </c>
       <c r="C6" s="20"/>
       <c r="D6" s="20" t="s">
-        <v>1874</v>
+        <v>1872</v>
       </c>
       <c r="E6" s="20"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="20" t="s">
-        <v>1696</v>
+        <v>1694</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1679</v>
+        <v>1677</v>
       </c>
       <c r="C7" s="20"/>
       <c r="E7" s="20"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
-        <v>1697</v>
+        <v>1695</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1680</v>
+        <v>1678</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -28372,10 +28394,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
-        <v>1698</v>
+        <v>1696</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1681</v>
+        <v>1679</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -28383,23 +28405,23 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="20" t="s">
-        <v>1699</v>
+        <v>1697</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>1682</v>
+        <v>1680</v>
       </c>
       <c r="D10" s="20"/>
       <c r="E10" s="20"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="20" t="s">
-        <v>1700</v>
+        <v>1698</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1683</v>
+        <v>1681</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -28407,10 +28429,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
-        <v>1701</v>
+        <v>1699</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1684</v>
+        <v>1682</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
@@ -28418,10 +28440,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>1702</v>
+        <v>1700</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1685</v>
+        <v>1683</v>
       </c>
       <c r="C13" s="20"/>
       <c r="D13" s="20"/>
@@ -28429,10 +28451,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
-        <v>1703</v>
+        <v>1701</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1686</v>
+        <v>1684</v>
       </c>
       <c r="C14" s="20"/>
       <c r="D14" s="20"/>
@@ -28440,10 +28462,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
-        <v>1704</v>
+        <v>1702</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1687</v>
+        <v>1685</v>
       </c>
       <c r="C15" s="20"/>
       <c r="D15" s="20"/>
@@ -28451,10 +28473,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="20" t="s">
-        <v>1705</v>
+        <v>1703</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1688</v>
+        <v>1686</v>
       </c>
       <c r="C16" s="20"/>
       <c r="D16" s="20"/>
@@ -28462,50 +28484,50 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="20" t="s">
-        <v>1706</v>
+        <v>1704</v>
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="20" t="s">
-        <v>1689</v>
+        <v>1687</v>
       </c>
       <c r="D17" s="20"/>
       <c r="E17" s="20"/>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="20" t="s">
-        <v>1707</v>
+        <v>1705</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="20" t="s">
-        <v>1690</v>
+        <v>1688</v>
       </c>
       <c r="D18" s="20"/>
       <c r="E18" s="20"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="20" t="s">
-        <v>1708</v>
+        <v>1706</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="20" t="s">
-        <v>1691</v>
+        <v>1689</v>
       </c>
       <c r="D19" s="20"/>
       <c r="E19" s="20"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="20" t="s">
-        <v>1709</v>
+        <v>1707</v>
       </c>
       <c r="B20" s="20" t="s">
-        <v>1807</v>
+        <v>1805</v>
       </c>
       <c r="C20" s="20"/>
       <c r="D20" s="20" t="s">
-        <v>1875</v>
+        <v>1873</v>
       </c>
       <c r="E20" s="20" t="s">
-        <v>1808</v>
+        <v>1806</v>
       </c>
     </row>
   </sheetData>
@@ -28528,10 +28550,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1837</v>
+        <v>1835</v>
       </c>
       <c r="B1" t="s">
-        <v>1784</v>
+        <v>1782</v>
       </c>
       <c r="C1" t="s">
         <v>807</v>
@@ -28539,10 +28561,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1836</v>
+        <v>1834</v>
       </c>
       <c r="B2" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="C2" t="s">
         <v>319</v>
@@ -28550,167 +28572,167 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>1838</v>
+        <v>1836</v>
       </c>
       <c r="B3" s="20" t="s">
-        <v>1876</v>
+        <v>1874</v>
       </c>
       <c r="C3" t="s">
-        <v>1821</v>
+        <v>1819</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>1839</v>
+        <v>1837</v>
       </c>
       <c r="B4" s="20" t="s">
-        <v>1877</v>
+        <v>1875</v>
       </c>
       <c r="C4" t="s">
-        <v>1822</v>
+        <v>1820</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>1840</v>
+        <v>1838</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>1878</v>
+        <v>1876</v>
       </c>
       <c r="C5" t="s">
-        <v>1823</v>
+        <v>1821</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>1841</v>
+        <v>1839</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>1879</v>
+        <v>1877</v>
       </c>
       <c r="C6" t="s">
-        <v>1824</v>
+        <v>1822</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>1842</v>
+        <v>1840</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>1880</v>
+        <v>1878</v>
       </c>
       <c r="C7" t="s">
-        <v>1825</v>
+        <v>1823</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>1843</v>
+        <v>1841</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>1881</v>
+        <v>1879</v>
       </c>
       <c r="C8" t="s">
-        <v>1826</v>
+        <v>1824</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>1844</v>
+        <v>1842</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>1882</v>
+        <v>1880</v>
       </c>
       <c r="C9" t="s">
-        <v>1827</v>
+        <v>1825</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>1845</v>
+        <v>1843</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>1883</v>
+        <v>1881</v>
       </c>
       <c r="C10" t="s">
-        <v>1828</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>1846</v>
+        <v>1844</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>1884</v>
+        <v>1882</v>
       </c>
       <c r="C11" t="s">
-        <v>1829</v>
+        <v>1827</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>1847</v>
+        <v>1845</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>1885</v>
+        <v>1883</v>
       </c>
       <c r="C12" t="s">
-        <v>1830</v>
+        <v>1828</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>1848</v>
+        <v>1846</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>1886</v>
+        <v>1884</v>
       </c>
       <c r="C13" t="s">
-        <v>1831</v>
+        <v>1829</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>1849</v>
+        <v>1847</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>1887</v>
+        <v>1885</v>
       </c>
       <c r="C14" t="s">
-        <v>1832</v>
+        <v>1830</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>1850</v>
+        <v>1848</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>1888</v>
+        <v>1886</v>
       </c>
       <c r="C15" t="s">
-        <v>1833</v>
+        <v>1831</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>1851</v>
+        <v>1849</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>1889</v>
+        <v>1887</v>
       </c>
       <c r="C16" t="s">
-        <v>1834</v>
+        <v>1832</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>1852</v>
+        <v>1850</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>1890</v>
+        <v>1888</v>
       </c>
       <c r="C17" t="s">
-        <v>1835</v>
+        <v>1833</v>
       </c>
     </row>
   </sheetData>
@@ -28730,51 +28752,51 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>1712</v>
+        <v>1710</v>
       </c>
       <c r="B1" t="s">
-        <v>1589</v>
+        <v>1587</v>
       </c>
       <c r="C1" t="s">
+        <v>1726</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1727</v>
+      </c>
+      <c r="E1" t="s">
         <v>1728</v>
       </c>
-      <c r="D1" t="s">
-        <v>1729</v>
-      </c>
-      <c r="E1" t="s">
-        <v>1730</v>
-      </c>
       <c r="F1" t="s">
-        <v>1737</v>
+        <v>1735</v>
       </c>
       <c r="G1" t="s">
-        <v>1738</v>
+        <v>1736</v>
       </c>
       <c r="H1" t="s">
-        <v>1748</v>
+        <v>1746</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1713</v>
+        <v>1711</v>
       </c>
       <c r="B2" t="s">
         <v>319</v>
       </c>
       <c r="C2" t="s">
-        <v>1853</v>
+        <v>1851</v>
       </c>
       <c r="D2" t="s">
-        <v>1731</v>
+        <v>1729</v>
       </c>
       <c r="E2" t="s">
-        <v>1732</v>
+        <v>1730</v>
       </c>
       <c r="F2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="G2" t="s">
-        <v>1736</v>
+        <v>1734</v>
       </c>
       <c r="H2" t="s">
         <v>706</v>

--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="90" windowWidth="12195" windowHeight="6630" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="150" windowWidth="12195" windowHeight="6570" firstSheet="1" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="ProductDienstCodes" sheetId="1" r:id="rId1"/>
@@ -12,13 +12,16 @@
     <sheet name="Productcodes" sheetId="3" r:id="rId3"/>
     <sheet name="Werkpakketcodes" sheetId="4" r:id="rId4"/>
     <sheet name="Doelstellingen" sheetId="6" r:id="rId5"/>
+    <sheet name="Erkenningen" sheetId="7" r:id="rId6"/>
+    <sheet name="Kwaliteitssystemen" sheetId="8" r:id="rId7"/>
+    <sheet name="Certificaten" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3943" uniqueCount="1654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4012" uniqueCount="1697">
   <si>
     <t>Divisie</t>
   </si>
@@ -4980,13 +4983,142 @@
   </si>
   <si>
     <t>LGNT</t>
+  </si>
+  <si>
+    <t>[Erkenning]</t>
+  </si>
+  <si>
+    <t>Erkenning</t>
+  </si>
+  <si>
+    <t>voor</t>
+  </si>
+  <si>
+    <t>Kwaliteitssysteem</t>
+  </si>
+  <si>
+    <t>lv</t>
+  </si>
+  <si>
+    <t>Rechtspersoon</t>
+  </si>
+  <si>
+    <t>subject</t>
+  </si>
+  <si>
+    <t>[Kwaliteitssysteem]</t>
+  </si>
+  <si>
+    <t>schemabeheerder</t>
+  </si>
+  <si>
+    <t>convenant</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Stichting Trust Feed</t>
+  </si>
+  <si>
+    <t>Trust Feed</t>
+  </si>
+  <si>
+    <t>contactNVWA</t>
+  </si>
+  <si>
+    <t>Persoon</t>
+  </si>
+  <si>
+    <t>contactSB</t>
+  </si>
+  <si>
+    <t>ingang</t>
+  </si>
+  <si>
+    <t>Datum</t>
+  </si>
+  <si>
+    <t>opgezegd</t>
+  </si>
+  <si>
+    <t>Kstype</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Safe Feed</t>
+  </si>
+  <si>
+    <t>GMP+ certificaat</t>
+  </si>
+  <si>
+    <t>GMP+</t>
+  </si>
+  <si>
+    <t>Levensmiddelen</t>
+  </si>
+  <si>
+    <t>Riskplaza</t>
+  </si>
+  <si>
+    <t>FSSC 22000</t>
+  </si>
+  <si>
+    <t>GlobalG.A.P</t>
+  </si>
+  <si>
+    <t>Qlip (procescertificering kaas)</t>
+  </si>
+  <si>
+    <t>IKB Ei</t>
+  </si>
+  <si>
+    <t>IFS</t>
+  </si>
+  <si>
+    <t>BRC</t>
+  </si>
+  <si>
+    <t>Stichting Certificatie Voedselveiligheid</t>
+  </si>
+  <si>
+    <t>Vion Food Group</t>
+  </si>
+  <si>
+    <t>Dutch Quality Control System (DQCS)</t>
+  </si>
+  <si>
+    <t>Nederlandse vereniging voor de Kwaliteitscontrole van Industrieel Vervaardigde Vruchtensappen</t>
+  </si>
+  <si>
+    <t>[Certificaat]</t>
+  </si>
+  <si>
+    <t>Certificaat</t>
+  </si>
+  <si>
+    <t>datum</t>
+  </si>
+  <si>
+    <t>geldigVan</t>
+  </si>
+  <si>
+    <t>geldigTot</t>
+  </si>
+  <si>
+    <t>conform</t>
+  </si>
+  <si>
+    <t>toetsRapportage</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -5002,8 +5134,26 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -5013,6 +5163,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F5F6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF5F5F5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -5041,17 +5203,28 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="2" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -9168,7 +9341,7 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" t="str">
-        <f>B267&amp;C267</f>
+        <f t="shared" ref="A267:A281" si="0">B267&amp;C267</f>
         <v>QLNT</v>
       </c>
       <c r="B267" t="s">
@@ -9183,7 +9356,7 @@
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" t="str">
-        <f>B268&amp;C268</f>
+        <f t="shared" si="0"/>
         <v>QMNT</v>
       </c>
       <c r="B268" t="s">
@@ -9198,7 +9371,7 @@
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A269" t="str">
-        <f>B269&amp;C269</f>
+        <f t="shared" si="0"/>
         <v>QNNA</v>
       </c>
       <c r="B269" t="s">
@@ -9213,7 +9386,7 @@
     </row>
     <row r="270" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A270" t="str">
-        <f>B270&amp;C270</f>
+        <f t="shared" si="0"/>
         <v>QNNK</v>
       </c>
       <c r="B270" t="s">
@@ -9228,7 +9401,7 @@
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A271" t="str">
-        <f>B271&amp;C271</f>
+        <f t="shared" si="0"/>
         <v>QNNL</v>
       </c>
       <c r="B271" t="s">
@@ -9243,7 +9416,7 @@
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A272" t="str">
-        <f>B272&amp;C272</f>
+        <f t="shared" si="0"/>
         <v>QNNT</v>
       </c>
       <c r="B272" t="s">
@@ -9258,7 +9431,7 @@
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A273" t="str">
-        <f>B273&amp;C273</f>
+        <f t="shared" si="0"/>
         <v>QONK</v>
       </c>
       <c r="B273" t="s">
@@ -9273,7 +9446,7 @@
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A274" t="str">
-        <f>B274&amp;C274</f>
+        <f t="shared" si="0"/>
         <v>QONL</v>
       </c>
       <c r="B274" t="s">
@@ -9288,7 +9461,7 @@
     </row>
     <row r="275" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A275" t="str">
-        <f>B275&amp;C275</f>
+        <f t="shared" si="0"/>
         <v>QONT</v>
       </c>
       <c r="B275" t="s">
@@ -9303,7 +9476,7 @@
     </row>
     <row r="276" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A276" t="str">
-        <f>B276&amp;C276</f>
+        <f t="shared" si="0"/>
         <v>QPNA</v>
       </c>
       <c r="B276" t="s">
@@ -9318,7 +9491,7 @@
     </row>
     <row r="277" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A277" t="str">
-        <f>B277&amp;C277</f>
+        <f t="shared" si="0"/>
         <v>QPNT</v>
       </c>
       <c r="B277" t="s">
@@ -9333,7 +9506,7 @@
     </row>
     <row r="278" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A278" t="str">
-        <f>B278&amp;C278</f>
+        <f t="shared" si="0"/>
         <v>QRNA</v>
       </c>
       <c r="B278" t="s">
@@ -9348,7 +9521,7 @@
     </row>
     <row r="279" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A279" t="str">
-        <f>B279&amp;C279</f>
+        <f t="shared" si="0"/>
         <v>QRNT</v>
       </c>
       <c r="B279" t="s">
@@ -9363,7 +9536,7 @@
     </row>
     <row r="280" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A280" t="str">
-        <f>B280&amp;C280</f>
+        <f t="shared" si="0"/>
         <v>QWNT</v>
       </c>
       <c r="B280" t="s">
@@ -9378,7 +9551,7 @@
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A281" t="str">
-        <f>B281&amp;C281</f>
+        <f t="shared" si="0"/>
         <v>QXNT</v>
       </c>
       <c r="B281" t="s">
@@ -11177,7 +11350,7 @@
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A409" t="str">
-        <f>B409&amp;C409</f>
+        <f t="shared" ref="A409:A414" si="1">B409&amp;C409</f>
         <v>ZUND</v>
       </c>
       <c r="B409" t="s">
@@ -11192,7 +11365,7 @@
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A410" t="str">
-        <f>B410&amp;C410</f>
+        <f t="shared" si="1"/>
         <v>ZVND</v>
       </c>
       <c r="B410" t="s">
@@ -11207,7 +11380,7 @@
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A411" t="str">
-        <f>B411&amp;C411</f>
+        <f t="shared" si="1"/>
         <v>ZXNA</v>
       </c>
       <c r="B411" t="s">
@@ -11222,7 +11395,7 @@
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A412" t="str">
-        <f>B412&amp;C412</f>
+        <f t="shared" si="1"/>
         <v>ZXND</v>
       </c>
       <c r="B412" t="s">
@@ -11237,7 +11410,7 @@
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A413" t="str">
-        <f>B413&amp;C413</f>
+        <f t="shared" si="1"/>
         <v>ZXNT</v>
       </c>
       <c r="B413" t="s">
@@ -11252,7 +11425,7 @@
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A414" t="str">
-        <f>B414&amp;C414</f>
+        <f t="shared" si="1"/>
         <v>ZYND</v>
       </c>
       <c r="B414" t="s">
@@ -11699,7 +11872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C264"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A218" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A239" sqref="A239:XFD239"/>
     </sheetView>
   </sheetViews>
@@ -24576,4 +24749,331 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1654</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1656</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1658</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1655</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1659</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="20.5703125" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="7" max="7" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1661</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1674</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1662</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1663</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1667</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1669</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1670</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1672</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1673</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1664</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1668</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>1666</v>
+      </c>
+      <c r="B3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1665</v>
+      </c>
+      <c r="G3" s="5">
+        <v>41075</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>1675</v>
+      </c>
+      <c r="B4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>1676</v>
+      </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C5" t="s">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>1679</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1678</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A7" s="7" t="s">
+        <v>1680</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="6"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="7" t="s">
+        <v>1681</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" x14ac:dyDescent="0.2">
+      <c r="A9" s="7" t="s">
+        <v>1682</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="7" t="s">
+        <v>1683</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="7" t="s">
+        <v>1684</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A12" s="7" t="s">
+        <v>1685</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+    </row>
+    <row r="13" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A13" s="7" t="s">
+        <v>1686</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="7" t="s">
+        <v>1687</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C14" s="8"/>
+    </row>
+    <row r="15" spans="1:8" ht="25.5" x14ac:dyDescent="0.2">
+      <c r="A15" s="7" t="s">
+        <v>1688</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1678</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>1689</v>
+      </c>
+      <c r="G15" s="5">
+        <v>41256</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A7" r:id="rId1" display="http://www.fssc22000.com/documents/home.xml?lang=en"/>
+    <hyperlink ref="A8" r:id="rId2" display="http://www.globalgap.org/uk_en/"/>
+    <hyperlink ref="A9" r:id="rId3" display="http://www.qlip.nl/"/>
+    <hyperlink ref="A10" r:id="rId4" display="http://www.ikbei.nl/"/>
+    <hyperlink ref="A11" r:id="rId5" display="http://www.ifs-certification.com/"/>
+    <hyperlink ref="A12" r:id="rId6" display="http://www.brcglobalstandards.com/"/>
+    <hyperlink ref="A13" r:id="rId7" display="https://www.nvwa.nl/onderwerpen/eten-drinken-roken/dossier/kwaliteitssystemen-zelfcontrolesystemen-levensmiddelen/stichting-certificatie-voedselveiligheid"/>
+    <hyperlink ref="A14" r:id="rId8" display="https://www.nvwa.nl/onderwerpen/eten-drinken-roken/dossier/kwaliteitssystemen-zelfcontrolesystemen-levensmiddelen/vion-food-group"/>
+    <hyperlink ref="A15" r:id="rId9" display="https://www.nvwa.nl/onderwerpen/eten-drinken-roken/dossier/kwaliteitssystemen-zelfcontrolesystemen-levensmiddelen/dutch-quality-control-system-dqcs"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>1690</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1692</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1693</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1694</v>
+      </c>
+      <c r="E1" t="s">
+        <v>1660</v>
+      </c>
+      <c r="F1" t="s">
+        <v>1658</v>
+      </c>
+      <c r="G1" t="s">
+        <v>1695</v>
+      </c>
+      <c r="H1" t="s">
+        <v>1696</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>1691</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1671</v>
+      </c>
+      <c r="E2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1659</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1657</v>
+      </c>
+      <c r="H2" t="s">
+        <v>1664</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Blik/ProductCodes.xlsx
+++ b/Blik/ProductCodes.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="270" windowWidth="12195" windowHeight="6450"/>
+    <workbookView xWindow="0" yWindow="270" windowWidth="12195" windowHeight="6450" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="ProductDienstCodes" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3928" uniqueCount="1667">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3929" uniqueCount="1668">
   <si>
     <t>Domein</t>
   </si>
@@ -5021,6 +5021,9 @@
   </si>
   <si>
     <t>werkpakketcode</t>
+  </si>
+  <si>
+    <t>terzijde geschoven omdat deze codes in domeinspecifieke spreadsheets zijn ingevuld</t>
   </si>
 </sst>
 </file>
@@ -5503,7 +5506,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D414"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="B390" sqref="B390"/>
     </sheetView>
@@ -11456,10 +11459,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C264"/>
+  <dimension ref="A1:G264"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -11468,7 +11471,7 @@
     <col min="2" max="2" width="48.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>1203</v>
       </c>
@@ -11478,8 +11481,11 @@
       <c r="C1" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="E1" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1202</v>
       </c>
@@ -11490,29 +11496,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="F3" t="s">
         <v>1043</v>
       </c>
-      <c r="C3" t="s">
+      <c r="G3" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E4" t="s">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="F4" t="s">
         <v>1044</v>
       </c>
-      <c r="C4" t="s">
+      <c r="G4" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>14</v>
       </c>
@@ -11523,7 +11529,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -11534,18 +11540,18 @@
         <v>304</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="E7" t="s">
         <v>12</v>
       </c>
-      <c r="B7" t="s">
+      <c r="F7" t="s">
         <v>1046</v>
       </c>
-      <c r="C7" t="s">
+      <c r="G7" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -11556,7 +11562,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -11567,7 +11573,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>22</v>
       </c>
@@ -11578,7 +11584,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>23</v>
       </c>
@@ -11589,7 +11595,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>24</v>
       </c>
@@ -11600,7 +11606,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -11611,7 +11617,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>103</v>
       </c>
@@ -11622,7 +11628,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>101</v>
       </c>
@@ -11633,7 +11639,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>100</v>
       </c>
